--- a/Projects/PNGRO/Data/Template.xlsx
+++ b/Projects/PNGRO/Data/Template.xlsx
@@ -13,19 +13,20 @@
     <sheet name="Eye-level" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">SBD_kpis!$A$2:$W$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">SBD_kpis!$A$2:$W$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">SBD_kpis!$A$2:$W$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$43</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">SBD_kpis!$A$2:$W$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">SBD_kpis!$A$2:$W$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">SBD_kpis!$A$2:$W$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$42</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="124">
   <si>
     <t>General Data</t>
   </si>
@@ -160,144 +161,135 @@
     <t>Hair Care</t>
   </si>
   <si>
+    <t>Survey</t>
+  </si>
+  <si>
+    <t>Binary</t>
+  </si>
+  <si>
+    <t>survey question</t>
+  </si>
+  <si>
+    <t>question_text</t>
+  </si>
+  <si>
+    <t>Sunt SKU-urile de Pantene Gold plasate in mijlocul raftului de Pantene?</t>
+  </si>
+  <si>
+    <t>question_answer</t>
+  </si>
+  <si>
+    <t>Da</t>
+  </si>
+  <si>
+    <t>Are H&amp;S male skus placed in hair care main shelf?</t>
+  </si>
+  <si>
+    <t>Is Always Platinum min 15% of Always Pads shelf?</t>
+  </si>
+  <si>
+    <t>Fem</t>
+  </si>
+  <si>
+    <t>Brand=always and category=pads and form=Platinum out of Brand=always and alient sucategory=pads</t>
+  </si>
+  <si>
+    <t>ALWAYS</t>
+  </si>
+  <si>
+    <t>sub_category</t>
+  </si>
+  <si>
+    <t>PADS</t>
+  </si>
+  <si>
+    <t>Is Ariel Liquid Tabs min 15% from total Laundry category?</t>
+  </si>
+  <si>
+    <t>Laundry</t>
+  </si>
+  <si>
+    <t>Brand=Ariel and form=Liquid tabs out of Category=Laundry</t>
+  </si>
+  <si>
+    <t>Ariel</t>
+  </si>
+  <si>
+    <t>Liquid Tabs</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>LAUNDRY</t>
+  </si>
+  <si>
+    <t>Is Blue collection  min 30% from Lenor shelf?</t>
+  </si>
+  <si>
+    <t>Fabric Enhancers</t>
+  </si>
+  <si>
+    <t>Brand =Lenor and form=liquid and benefit = Spring out of Brand =lenor and form=liquid</t>
+  </si>
+  <si>
+    <t>Lenor</t>
+  </si>
+  <si>
+    <t>Liquid</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Is Pants min 25% of Pampers shelf?</t>
+  </si>
+  <si>
+    <t>Baby</t>
+  </si>
+  <si>
+    <t>Category = diapers  and brand=pampers and form=taped out of category = diapers and brand=pampers</t>
+  </si>
+  <si>
+    <t>DIAPERS</t>
+  </si>
+  <si>
+    <t>PAMPERS</t>
+  </si>
+  <si>
+    <t>taped</t>
+  </si>
+  <si>
+    <t>POC listed and placed within brushing</t>
+  </si>
+  <si>
+    <t>Oral Care</t>
+  </si>
+  <si>
     <t>Relative Position</t>
   </si>
   <si>
-    <t>Brand = Pantene, Color = golden river. Placed in the middle of brand = Pantene.</t>
-  </si>
-  <si>
-    <t>Pantene</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>golden river</t>
-  </si>
-  <si>
-    <t>Are H&amp;S male skus placed in hair care main shelf?</t>
-  </si>
-  <si>
-    <t>Survey</t>
-  </si>
-  <si>
-    <t>Binary</t>
-  </si>
-  <si>
-    <t>survey question</t>
-  </si>
-  <si>
-    <t>question_text</t>
+    <t>segment = poc(power oral care) and PG adjecent to toothbrush sub cat</t>
+  </si>
+  <si>
+    <t>Segment</t>
+  </si>
+  <si>
+    <t>poc</t>
+  </si>
+  <si>
+    <t>TOOTHBRUSH</t>
+  </si>
+  <si>
+    <t>Are Female Blades &amp; Razors placed in a distinct block than male Blades &amp; Razors?</t>
+  </si>
+  <si>
+    <t>Shave Care (Female)</t>
   </si>
   <si>
     <t>Sunt aparatele de ras si razoarele pentru femei plasate in bloc separat fata de cele pentru barbati?</t>
   </si>
   <si>
-    <t>question_answer</t>
-  </si>
-  <si>
-    <t>Da</t>
-  </si>
-  <si>
-    <t>Is Always Platinum min 15% of Always Pads shelf?</t>
-  </si>
-  <si>
-    <t>Fem</t>
-  </si>
-  <si>
-    <t>Brand=always and category=pads and form=Platinum out of Brand=always and alient sucategory=pads</t>
-  </si>
-  <si>
-    <t>ALWAYS</t>
-  </si>
-  <si>
-    <t>sub_category</t>
-  </si>
-  <si>
-    <t>PADS</t>
-  </si>
-  <si>
-    <t>Is Ariel Liquid Tabs min 15% from total Laundry category?</t>
-  </si>
-  <si>
-    <t>Laundry</t>
-  </si>
-  <si>
-    <t>Brand=Ariel and form=Liquid tabs out of Category=Laundry</t>
-  </si>
-  <si>
-    <t>Ariel</t>
-  </si>
-  <si>
-    <t>Liquid Tabs</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>LAUNDRY</t>
-  </si>
-  <si>
-    <t>Is Blue collection  min 30% from Lenor shelf?</t>
-  </si>
-  <si>
-    <t>Fabric Enhancers</t>
-  </si>
-  <si>
-    <t>Brand =Lenor and form=liquid and benefit = Spring out of Brand =lenor and form=liquid</t>
-  </si>
-  <si>
-    <t>Lenor</t>
-  </si>
-  <si>
-    <t>Liquid</t>
-  </si>
-  <si>
-    <t>Spring</t>
-  </si>
-  <si>
-    <t>Is Pants min 25% of Pampers shelf?</t>
-  </si>
-  <si>
-    <t>Baby</t>
-  </si>
-  <si>
-    <t>Category = diapers  and brand=pampers and form=taped out of category = diapers and brand=pampers</t>
-  </si>
-  <si>
-    <t>DIAPERS</t>
-  </si>
-  <si>
-    <t>PAMPERS</t>
-  </si>
-  <si>
-    <t>taped</t>
-  </si>
-  <si>
-    <t>POC listed and placed within brushing</t>
-  </si>
-  <si>
-    <t>Oral Care</t>
-  </si>
-  <si>
-    <t>segment = poc(power oral care) and PG adjecent to toothbrush sub cat</t>
-  </si>
-  <si>
-    <t>Segment</t>
-  </si>
-  <si>
-    <t>poc</t>
-  </si>
-  <si>
-    <t>TOOTHBRUSH</t>
-  </si>
-  <si>
-    <t>Are Female Blades &amp; Razors placed in a distinct block than male Blades &amp; Razors?</t>
-  </si>
-  <si>
-    <t>Shave Care (Female)</t>
-  </si>
-  <si>
     <t>POC listed and placed within eye-level</t>
   </si>
   <si>
@@ -310,7 +302,7 @@
     <t>ORAL CARE</t>
   </si>
   <si>
-    <t>See sheet 2</t>
+    <t>3,4,5</t>
   </si>
   <si>
     <t>display name</t>
@@ -401,9 +393,6 @@
   </si>
   <si>
     <t>CARREFOUR</t>
-  </si>
-  <si>
-    <t>3,4,5</t>
   </si>
   <si>
     <t>CARREFOUR M</t>
@@ -592,7 +581,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -637,10 +626,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -649,7 +634,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -657,12 +642,28 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -775,32 +776,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:14"/>
+  <dimension ref="1:13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="61.336032388664"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.7894736842105"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.1457489878543"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.3846153846154"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.3157894736842"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.2631578947368"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="14.4736842105263"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="75.5627530364373"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="23.9595141700405"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="16.3481781376518"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="25.7246963562753"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3481781376518"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="10.834008097166"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="16.3481781376518"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="13.3765182186235"/>
-    <col collapsed="false" hidden="false" max="1020" min="17" style="1" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="61.8056680161943"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.1417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="76.1619433198381"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="24.2105263157895"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="10.8178137651822"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1020" min="17" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -893,7 +894,7 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" s="12" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>21</v>
       </c>
@@ -918,13 +919,13 @@
       <c r="J3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>28</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="10" t="s">
         <v>30</v>
       </c>
       <c r="N3" s="10"/>
@@ -941,7 +942,7 @@
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" s="12" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>31</v>
       </c>
@@ -972,7 +973,7 @@
       <c r="L4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="12" t="s">
         <v>37</v>
       </c>
       <c r="N4" s="10"/>
@@ -980,20 +981,1016 @@
       <c r="P4" s="10" t="n">
         <v>40</v>
       </c>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="0"/>
+      <c r="S4" s="0"/>
+      <c r="T4" s="0"/>
+      <c r="U4" s="0"/>
+      <c r="V4" s="0"/>
+      <c r="W4" s="0"/>
+      <c r="X4" s="0"/>
+      <c r="Y4" s="0"/>
+      <c r="Z4" s="0"/>
+      <c r="AA4" s="0"/>
+      <c r="AB4" s="0"/>
+      <c r="AC4" s="0"/>
+      <c r="AD4" s="0"/>
+      <c r="AE4" s="0"/>
+      <c r="AF4" s="0"/>
+      <c r="AG4" s="0"/>
+      <c r="AH4" s="0"/>
+      <c r="AI4" s="0"/>
+      <c r="AJ4" s="0"/>
+      <c r="AK4" s="0"/>
+      <c r="AL4" s="0"/>
+      <c r="AM4" s="0"/>
+      <c r="AN4" s="0"/>
+      <c r="AO4" s="0"/>
+      <c r="AP4" s="0"/>
+      <c r="AQ4" s="0"/>
+      <c r="AR4" s="0"/>
+      <c r="AS4" s="0"/>
+      <c r="AT4" s="0"/>
+      <c r="AU4" s="0"/>
+      <c r="AV4" s="0"/>
+      <c r="AW4" s="0"/>
+      <c r="AX4" s="0"/>
+      <c r="AY4" s="0"/>
+      <c r="AZ4" s="0"/>
+      <c r="BA4" s="0"/>
+      <c r="BB4" s="0"/>
+      <c r="BC4" s="0"/>
+      <c r="BD4" s="0"/>
+      <c r="BE4" s="0"/>
+      <c r="BF4" s="0"/>
+      <c r="BG4" s="0"/>
+      <c r="BH4" s="0"/>
+      <c r="BI4" s="0"/>
+      <c r="BJ4" s="0"/>
+      <c r="BK4" s="0"/>
+      <c r="BL4" s="0"/>
+      <c r="BM4" s="0"/>
+      <c r="BN4" s="0"/>
+      <c r="BO4" s="0"/>
+      <c r="BP4" s="0"/>
+      <c r="BQ4" s="0"/>
+      <c r="BR4" s="0"/>
+      <c r="BS4" s="0"/>
+      <c r="BT4" s="0"/>
+      <c r="BU4" s="0"/>
+      <c r="BV4" s="0"/>
+      <c r="BW4" s="0"/>
+      <c r="BX4" s="0"/>
+      <c r="BY4" s="0"/>
+      <c r="BZ4" s="0"/>
+      <c r="CA4" s="0"/>
+      <c r="CB4" s="0"/>
+      <c r="CC4" s="0"/>
+      <c r="CD4" s="0"/>
+      <c r="CE4" s="0"/>
+      <c r="CF4" s="0"/>
+      <c r="CG4" s="0"/>
+      <c r="CH4" s="0"/>
+      <c r="CI4" s="0"/>
+      <c r="CJ4" s="0"/>
+      <c r="CK4" s="0"/>
+      <c r="CL4" s="0"/>
+      <c r="CM4" s="0"/>
+      <c r="CN4" s="0"/>
+      <c r="CO4" s="0"/>
+      <c r="CP4" s="0"/>
+      <c r="CQ4" s="0"/>
+      <c r="CR4" s="0"/>
+      <c r="CS4" s="0"/>
+      <c r="CT4" s="0"/>
+      <c r="CU4" s="0"/>
+      <c r="CV4" s="0"/>
+      <c r="CW4" s="0"/>
+      <c r="CX4" s="0"/>
+      <c r="CY4" s="0"/>
+      <c r="CZ4" s="0"/>
+      <c r="DA4" s="0"/>
+      <c r="DB4" s="0"/>
+      <c r="DC4" s="0"/>
+      <c r="DD4" s="0"/>
+      <c r="DE4" s="0"/>
+      <c r="DF4" s="0"/>
+      <c r="DG4" s="0"/>
+      <c r="DH4" s="0"/>
+      <c r="DI4" s="0"/>
+      <c r="DJ4" s="0"/>
+      <c r="DK4" s="0"/>
+      <c r="DL4" s="0"/>
+      <c r="DM4" s="0"/>
+      <c r="DN4" s="0"/>
+      <c r="DO4" s="0"/>
+      <c r="DP4" s="0"/>
+      <c r="DQ4" s="0"/>
+      <c r="DR4" s="0"/>
+      <c r="DS4" s="0"/>
+      <c r="DT4" s="0"/>
+      <c r="DU4" s="0"/>
+      <c r="DV4" s="0"/>
+      <c r="DW4" s="0"/>
+      <c r="DX4" s="0"/>
+      <c r="DY4" s="0"/>
+      <c r="DZ4" s="0"/>
+      <c r="EA4" s="0"/>
+      <c r="EB4" s="0"/>
+      <c r="EC4" s="0"/>
+      <c r="ED4" s="0"/>
+      <c r="EE4" s="0"/>
+      <c r="EF4" s="0"/>
+      <c r="EG4" s="0"/>
+      <c r="EH4" s="0"/>
+      <c r="EI4" s="0"/>
+      <c r="EJ4" s="0"/>
+      <c r="EK4" s="0"/>
+      <c r="EL4" s="0"/>
+      <c r="EM4" s="0"/>
+      <c r="EN4" s="0"/>
+      <c r="EO4" s="0"/>
+      <c r="EP4" s="0"/>
+      <c r="EQ4" s="0"/>
+      <c r="ER4" s="0"/>
+      <c r="ES4" s="0"/>
+      <c r="ET4" s="0"/>
+      <c r="EU4" s="0"/>
+      <c r="EV4" s="0"/>
+      <c r="EW4" s="0"/>
+      <c r="EX4" s="0"/>
+      <c r="EY4" s="0"/>
+      <c r="EZ4" s="0"/>
+      <c r="FA4" s="0"/>
+      <c r="FB4" s="0"/>
+      <c r="FC4" s="0"/>
+      <c r="FD4" s="0"/>
+      <c r="FE4" s="0"/>
+      <c r="FF4" s="0"/>
+      <c r="FG4" s="0"/>
+      <c r="FH4" s="0"/>
+      <c r="FI4" s="0"/>
+      <c r="FJ4" s="0"/>
+      <c r="FK4" s="0"/>
+      <c r="FL4" s="0"/>
+      <c r="FM4" s="0"/>
+      <c r="FN4" s="0"/>
+      <c r="FO4" s="0"/>
+      <c r="FP4" s="0"/>
+      <c r="FQ4" s="0"/>
+      <c r="FR4" s="0"/>
+      <c r="FS4" s="0"/>
+      <c r="FT4" s="0"/>
+      <c r="FU4" s="0"/>
+      <c r="FV4" s="0"/>
+      <c r="FW4" s="0"/>
+      <c r="FX4" s="0"/>
+      <c r="FY4" s="0"/>
+      <c r="FZ4" s="0"/>
+      <c r="GA4" s="0"/>
+      <c r="GB4" s="0"/>
+      <c r="GC4" s="0"/>
+      <c r="GD4" s="0"/>
+      <c r="GE4" s="0"/>
+      <c r="GF4" s="0"/>
+      <c r="GG4" s="0"/>
+      <c r="GH4" s="0"/>
+      <c r="GI4" s="0"/>
+      <c r="GJ4" s="0"/>
+      <c r="GK4" s="0"/>
+      <c r="GL4" s="0"/>
+      <c r="GM4" s="0"/>
+      <c r="GN4" s="0"/>
+      <c r="GO4" s="0"/>
+      <c r="GP4" s="0"/>
+      <c r="GQ4" s="0"/>
+      <c r="GR4" s="0"/>
+      <c r="GS4" s="0"/>
+      <c r="GT4" s="0"/>
+      <c r="GU4" s="0"/>
+      <c r="GV4" s="0"/>
+      <c r="GW4" s="0"/>
+      <c r="GX4" s="0"/>
+      <c r="GY4" s="0"/>
+      <c r="GZ4" s="0"/>
+      <c r="HA4" s="0"/>
+      <c r="HB4" s="0"/>
+      <c r="HC4" s="0"/>
+      <c r="HD4" s="0"/>
+      <c r="HE4" s="0"/>
+      <c r="HF4" s="0"/>
+      <c r="HG4" s="0"/>
+      <c r="HH4" s="0"/>
+      <c r="HI4" s="0"/>
+      <c r="HJ4" s="0"/>
+      <c r="HK4" s="0"/>
+      <c r="HL4" s="0"/>
+      <c r="HM4" s="0"/>
+      <c r="HN4" s="0"/>
+      <c r="HO4" s="0"/>
+      <c r="HP4" s="0"/>
+      <c r="HQ4" s="0"/>
+      <c r="HR4" s="0"/>
+      <c r="HS4" s="0"/>
+      <c r="HT4" s="0"/>
+      <c r="HU4" s="0"/>
+      <c r="HV4" s="0"/>
+      <c r="HW4" s="0"/>
+      <c r="HX4" s="0"/>
+      <c r="HY4" s="0"/>
+      <c r="HZ4" s="0"/>
+      <c r="IA4" s="0"/>
+      <c r="IB4" s="0"/>
+      <c r="IC4" s="0"/>
+      <c r="ID4" s="0"/>
+      <c r="IE4" s="0"/>
+      <c r="IF4" s="0"/>
+      <c r="IG4" s="0"/>
+      <c r="IH4" s="0"/>
+      <c r="II4" s="0"/>
+      <c r="IJ4" s="0"/>
+      <c r="IK4" s="0"/>
+      <c r="IL4" s="0"/>
+      <c r="IM4" s="0"/>
+      <c r="IN4" s="0"/>
+      <c r="IO4" s="0"/>
+      <c r="IP4" s="0"/>
+      <c r="IQ4" s="0"/>
+      <c r="IR4" s="0"/>
+      <c r="IS4" s="0"/>
+      <c r="IT4" s="0"/>
+      <c r="IU4" s="0"/>
+      <c r="IV4" s="0"/>
+      <c r="IW4" s="0"/>
+      <c r="IX4" s="0"/>
+      <c r="IY4" s="0"/>
+      <c r="IZ4" s="0"/>
+      <c r="JA4" s="0"/>
+      <c r="JB4" s="0"/>
+      <c r="JC4" s="0"/>
+      <c r="JD4" s="0"/>
+      <c r="JE4" s="0"/>
+      <c r="JF4" s="0"/>
+      <c r="JG4" s="0"/>
+      <c r="JH4" s="0"/>
+      <c r="JI4" s="0"/>
+      <c r="JJ4" s="0"/>
+      <c r="JK4" s="0"/>
+      <c r="JL4" s="0"/>
+      <c r="JM4" s="0"/>
+      <c r="JN4" s="0"/>
+      <c r="JO4" s="0"/>
+      <c r="JP4" s="0"/>
+      <c r="JQ4" s="0"/>
+      <c r="JR4" s="0"/>
+      <c r="JS4" s="0"/>
+      <c r="JT4" s="0"/>
+      <c r="JU4" s="0"/>
+      <c r="JV4" s="0"/>
+      <c r="JW4" s="0"/>
+      <c r="JX4" s="0"/>
+      <c r="JY4" s="0"/>
+      <c r="JZ4" s="0"/>
+      <c r="KA4" s="0"/>
+      <c r="KB4" s="0"/>
+      <c r="KC4" s="0"/>
+      <c r="KD4" s="0"/>
+      <c r="KE4" s="0"/>
+      <c r="KF4" s="0"/>
+      <c r="KG4" s="0"/>
+      <c r="KH4" s="0"/>
+      <c r="KI4" s="0"/>
+      <c r="KJ4" s="0"/>
+      <c r="KK4" s="0"/>
+      <c r="KL4" s="0"/>
+      <c r="KM4" s="0"/>
+      <c r="KN4" s="0"/>
+      <c r="KO4" s="0"/>
+      <c r="KP4" s="0"/>
+      <c r="KQ4" s="0"/>
+      <c r="KR4" s="0"/>
+      <c r="KS4" s="0"/>
+      <c r="KT4" s="0"/>
+      <c r="KU4" s="0"/>
+      <c r="KV4" s="0"/>
+      <c r="KW4" s="0"/>
+      <c r="KX4" s="0"/>
+      <c r="KY4" s="0"/>
+      <c r="KZ4" s="0"/>
+      <c r="LA4" s="0"/>
+      <c r="LB4" s="0"/>
+      <c r="LC4" s="0"/>
+      <c r="LD4" s="0"/>
+      <c r="LE4" s="0"/>
+      <c r="LF4" s="0"/>
+      <c r="LG4" s="0"/>
+      <c r="LH4" s="0"/>
+      <c r="LI4" s="0"/>
+      <c r="LJ4" s="0"/>
+      <c r="LK4" s="0"/>
+      <c r="LL4" s="0"/>
+      <c r="LM4" s="0"/>
+      <c r="LN4" s="0"/>
+      <c r="LO4" s="0"/>
+      <c r="LP4" s="0"/>
+      <c r="LQ4" s="0"/>
+      <c r="LR4" s="0"/>
+      <c r="LS4" s="0"/>
+      <c r="LT4" s="0"/>
+      <c r="LU4" s="0"/>
+      <c r="LV4" s="0"/>
+      <c r="LW4" s="0"/>
+      <c r="LX4" s="0"/>
+      <c r="LY4" s="0"/>
+      <c r="LZ4" s="0"/>
+      <c r="MA4" s="0"/>
+      <c r="MB4" s="0"/>
+      <c r="MC4" s="0"/>
+      <c r="MD4" s="0"/>
+      <c r="ME4" s="0"/>
+      <c r="MF4" s="0"/>
+      <c r="MG4" s="0"/>
+      <c r="MH4" s="0"/>
+      <c r="MI4" s="0"/>
+      <c r="MJ4" s="0"/>
+      <c r="MK4" s="0"/>
+      <c r="ML4" s="0"/>
+      <c r="MM4" s="0"/>
+      <c r="MN4" s="0"/>
+      <c r="MO4" s="0"/>
+      <c r="MP4" s="0"/>
+      <c r="MQ4" s="0"/>
+      <c r="MR4" s="0"/>
+      <c r="MS4" s="0"/>
+      <c r="MT4" s="0"/>
+      <c r="MU4" s="0"/>
+      <c r="MV4" s="0"/>
+      <c r="MW4" s="0"/>
+      <c r="MX4" s="0"/>
+      <c r="MY4" s="0"/>
+      <c r="MZ4" s="0"/>
+      <c r="NA4" s="0"/>
+      <c r="NB4" s="0"/>
+      <c r="NC4" s="0"/>
+      <c r="ND4" s="0"/>
+      <c r="NE4" s="0"/>
+      <c r="NF4" s="0"/>
+      <c r="NG4" s="0"/>
+      <c r="NH4" s="0"/>
+      <c r="NI4" s="0"/>
+      <c r="NJ4" s="0"/>
+      <c r="NK4" s="0"/>
+      <c r="NL4" s="0"/>
+      <c r="NM4" s="0"/>
+      <c r="NN4" s="0"/>
+      <c r="NO4" s="0"/>
+      <c r="NP4" s="0"/>
+      <c r="NQ4" s="0"/>
+      <c r="NR4" s="0"/>
+      <c r="NS4" s="0"/>
+      <c r="NT4" s="0"/>
+      <c r="NU4" s="0"/>
+      <c r="NV4" s="0"/>
+      <c r="NW4" s="0"/>
+      <c r="NX4" s="0"/>
+      <c r="NY4" s="0"/>
+      <c r="NZ4" s="0"/>
+      <c r="OA4" s="0"/>
+      <c r="OB4" s="0"/>
+      <c r="OC4" s="0"/>
+      <c r="OD4" s="0"/>
+      <c r="OE4" s="0"/>
+      <c r="OF4" s="0"/>
+      <c r="OG4" s="0"/>
+      <c r="OH4" s="0"/>
+      <c r="OI4" s="0"/>
+      <c r="OJ4" s="0"/>
+      <c r="OK4" s="0"/>
+      <c r="OL4" s="0"/>
+      <c r="OM4" s="0"/>
+      <c r="ON4" s="0"/>
+      <c r="OO4" s="0"/>
+      <c r="OP4" s="0"/>
+      <c r="OQ4" s="0"/>
+      <c r="OR4" s="0"/>
+      <c r="OS4" s="0"/>
+      <c r="OT4" s="0"/>
+      <c r="OU4" s="0"/>
+      <c r="OV4" s="0"/>
+      <c r="OW4" s="0"/>
+      <c r="OX4" s="0"/>
+      <c r="OY4" s="0"/>
+      <c r="OZ4" s="0"/>
+      <c r="PA4" s="0"/>
+      <c r="PB4" s="0"/>
+      <c r="PC4" s="0"/>
+      <c r="PD4" s="0"/>
+      <c r="PE4" s="0"/>
+      <c r="PF4" s="0"/>
+      <c r="PG4" s="0"/>
+      <c r="PH4" s="0"/>
+      <c r="PI4" s="0"/>
+      <c r="PJ4" s="0"/>
+      <c r="PK4" s="0"/>
+      <c r="PL4" s="0"/>
+      <c r="PM4" s="0"/>
+      <c r="PN4" s="0"/>
+      <c r="PO4" s="0"/>
+      <c r="PP4" s="0"/>
+      <c r="PQ4" s="0"/>
+      <c r="PR4" s="0"/>
+      <c r="PS4" s="0"/>
+      <c r="PT4" s="0"/>
+      <c r="PU4" s="0"/>
+      <c r="PV4" s="0"/>
+      <c r="PW4" s="0"/>
+      <c r="PX4" s="0"/>
+      <c r="PY4" s="0"/>
+      <c r="PZ4" s="0"/>
+      <c r="QA4" s="0"/>
+      <c r="QB4" s="0"/>
+      <c r="QC4" s="0"/>
+      <c r="QD4" s="0"/>
+      <c r="QE4" s="0"/>
+      <c r="QF4" s="0"/>
+      <c r="QG4" s="0"/>
+      <c r="QH4" s="0"/>
+      <c r="QI4" s="0"/>
+      <c r="QJ4" s="0"/>
+      <c r="QK4" s="0"/>
+      <c r="QL4" s="0"/>
+      <c r="QM4" s="0"/>
+      <c r="QN4" s="0"/>
+      <c r="QO4" s="0"/>
+      <c r="QP4" s="0"/>
+      <c r="QQ4" s="0"/>
+      <c r="QR4" s="0"/>
+      <c r="QS4" s="0"/>
+      <c r="QT4" s="0"/>
+      <c r="QU4" s="0"/>
+      <c r="QV4" s="0"/>
+      <c r="QW4" s="0"/>
+      <c r="QX4" s="0"/>
+      <c r="QY4" s="0"/>
+      <c r="QZ4" s="0"/>
+      <c r="RA4" s="0"/>
+      <c r="RB4" s="0"/>
+      <c r="RC4" s="0"/>
+      <c r="RD4" s="0"/>
+      <c r="RE4" s="0"/>
+      <c r="RF4" s="0"/>
+      <c r="RG4" s="0"/>
+      <c r="RH4" s="0"/>
+      <c r="RI4" s="0"/>
+      <c r="RJ4" s="0"/>
+      <c r="RK4" s="0"/>
+      <c r="RL4" s="0"/>
+      <c r="RM4" s="0"/>
+      <c r="RN4" s="0"/>
+      <c r="RO4" s="0"/>
+      <c r="RP4" s="0"/>
+      <c r="RQ4" s="0"/>
+      <c r="RR4" s="0"/>
+      <c r="RS4" s="0"/>
+      <c r="RT4" s="0"/>
+      <c r="RU4" s="0"/>
+      <c r="RV4" s="0"/>
+      <c r="RW4" s="0"/>
+      <c r="RX4" s="0"/>
+      <c r="RY4" s="0"/>
+      <c r="RZ4" s="0"/>
+      <c r="SA4" s="0"/>
+      <c r="SB4" s="0"/>
+      <c r="SC4" s="0"/>
+      <c r="SD4" s="0"/>
+      <c r="SE4" s="0"/>
+      <c r="SF4" s="0"/>
+      <c r="SG4" s="0"/>
+      <c r="SH4" s="0"/>
+      <c r="SI4" s="0"/>
+      <c r="SJ4" s="0"/>
+      <c r="SK4" s="0"/>
+      <c r="SL4" s="0"/>
+      <c r="SM4" s="0"/>
+      <c r="SN4" s="0"/>
+      <c r="SO4" s="0"/>
+      <c r="SP4" s="0"/>
+      <c r="SQ4" s="0"/>
+      <c r="SR4" s="0"/>
+      <c r="SS4" s="0"/>
+      <c r="ST4" s="0"/>
+      <c r="SU4" s="0"/>
+      <c r="SV4" s="0"/>
+      <c r="SW4" s="0"/>
+      <c r="SX4" s="0"/>
+      <c r="SY4" s="0"/>
+      <c r="SZ4" s="0"/>
+      <c r="TA4" s="0"/>
+      <c r="TB4" s="0"/>
+      <c r="TC4" s="0"/>
+      <c r="TD4" s="0"/>
+      <c r="TE4" s="0"/>
+      <c r="TF4" s="0"/>
+      <c r="TG4" s="0"/>
+      <c r="TH4" s="0"/>
+      <c r="TI4" s="0"/>
+      <c r="TJ4" s="0"/>
+      <c r="TK4" s="0"/>
+      <c r="TL4" s="0"/>
+      <c r="TM4" s="0"/>
+      <c r="TN4" s="0"/>
+      <c r="TO4" s="0"/>
+      <c r="TP4" s="0"/>
+      <c r="TQ4" s="0"/>
+      <c r="TR4" s="0"/>
+      <c r="TS4" s="0"/>
+      <c r="TT4" s="0"/>
+      <c r="TU4" s="0"/>
+      <c r="TV4" s="0"/>
+      <c r="TW4" s="0"/>
+      <c r="TX4" s="0"/>
+      <c r="TY4" s="0"/>
+      <c r="TZ4" s="0"/>
+      <c r="UA4" s="0"/>
+      <c r="UB4" s="0"/>
+      <c r="UC4" s="0"/>
+      <c r="UD4" s="0"/>
+      <c r="UE4" s="0"/>
+      <c r="UF4" s="0"/>
+      <c r="UG4" s="0"/>
+      <c r="UH4" s="0"/>
+      <c r="UI4" s="0"/>
+      <c r="UJ4" s="0"/>
+      <c r="UK4" s="0"/>
+      <c r="UL4" s="0"/>
+      <c r="UM4" s="0"/>
+      <c r="UN4" s="0"/>
+      <c r="UO4" s="0"/>
+      <c r="UP4" s="0"/>
+      <c r="UQ4" s="0"/>
+      <c r="UR4" s="0"/>
+      <c r="US4" s="0"/>
+      <c r="UT4" s="0"/>
+      <c r="UU4" s="0"/>
+      <c r="UV4" s="0"/>
+      <c r="UW4" s="0"/>
+      <c r="UX4" s="0"/>
+      <c r="UY4" s="0"/>
+      <c r="UZ4" s="0"/>
+      <c r="VA4" s="0"/>
+      <c r="VB4" s="0"/>
+      <c r="VC4" s="0"/>
+      <c r="VD4" s="0"/>
+      <c r="VE4" s="0"/>
+      <c r="VF4" s="0"/>
+      <c r="VG4" s="0"/>
+      <c r="VH4" s="0"/>
+      <c r="VI4" s="0"/>
+      <c r="VJ4" s="0"/>
+      <c r="VK4" s="0"/>
+      <c r="VL4" s="0"/>
+      <c r="VM4" s="0"/>
+      <c r="VN4" s="0"/>
+      <c r="VO4" s="0"/>
+      <c r="VP4" s="0"/>
+      <c r="VQ4" s="0"/>
+      <c r="VR4" s="0"/>
+      <c r="VS4" s="0"/>
+      <c r="VT4" s="0"/>
+      <c r="VU4" s="0"/>
+      <c r="VV4" s="0"/>
+      <c r="VW4" s="0"/>
+      <c r="VX4" s="0"/>
+      <c r="VY4" s="0"/>
+      <c r="VZ4" s="0"/>
+      <c r="WA4" s="0"/>
+      <c r="WB4" s="0"/>
+      <c r="WC4" s="0"/>
+      <c r="WD4" s="0"/>
+      <c r="WE4" s="0"/>
+      <c r="WF4" s="0"/>
+      <c r="WG4" s="0"/>
+      <c r="WH4" s="0"/>
+      <c r="WI4" s="0"/>
+      <c r="WJ4" s="0"/>
+      <c r="WK4" s="0"/>
+      <c r="WL4" s="0"/>
+      <c r="WM4" s="0"/>
+      <c r="WN4" s="0"/>
+      <c r="WO4" s="0"/>
+      <c r="WP4" s="0"/>
+      <c r="WQ4" s="0"/>
+      <c r="WR4" s="0"/>
+      <c r="WS4" s="0"/>
+      <c r="WT4" s="0"/>
+      <c r="WU4" s="0"/>
+      <c r="WV4" s="0"/>
+      <c r="WW4" s="0"/>
+      <c r="WX4" s="0"/>
+      <c r="WY4" s="0"/>
+      <c r="WZ4" s="0"/>
+      <c r="XA4" s="0"/>
+      <c r="XB4" s="0"/>
+      <c r="XC4" s="0"/>
+      <c r="XD4" s="0"/>
+      <c r="XE4" s="0"/>
+      <c r="XF4" s="0"/>
+      <c r="XG4" s="0"/>
+      <c r="XH4" s="0"/>
+      <c r="XI4" s="0"/>
+      <c r="XJ4" s="0"/>
+      <c r="XK4" s="0"/>
+      <c r="XL4" s="0"/>
+      <c r="XM4" s="0"/>
+      <c r="XN4" s="0"/>
+      <c r="XO4" s="0"/>
+      <c r="XP4" s="0"/>
+      <c r="XQ4" s="0"/>
+      <c r="XR4" s="0"/>
+      <c r="XS4" s="0"/>
+      <c r="XT4" s="0"/>
+      <c r="XU4" s="0"/>
+      <c r="XV4" s="0"/>
+      <c r="XW4" s="0"/>
+      <c r="XX4" s="0"/>
+      <c r="XY4" s="0"/>
+      <c r="XZ4" s="0"/>
+      <c r="YA4" s="0"/>
+      <c r="YB4" s="0"/>
+      <c r="YC4" s="0"/>
+      <c r="YD4" s="0"/>
+      <c r="YE4" s="0"/>
+      <c r="YF4" s="0"/>
+      <c r="YG4" s="0"/>
+      <c r="YH4" s="0"/>
+      <c r="YI4" s="0"/>
+      <c r="YJ4" s="0"/>
+      <c r="YK4" s="0"/>
+      <c r="YL4" s="0"/>
+      <c r="YM4" s="0"/>
+      <c r="YN4" s="0"/>
+      <c r="YO4" s="0"/>
+      <c r="YP4" s="0"/>
+      <c r="YQ4" s="0"/>
+      <c r="YR4" s="0"/>
+      <c r="YS4" s="0"/>
+      <c r="YT4" s="0"/>
+      <c r="YU4" s="0"/>
+      <c r="YV4" s="0"/>
+      <c r="YW4" s="0"/>
+      <c r="YX4" s="0"/>
+      <c r="YY4" s="0"/>
+      <c r="YZ4" s="0"/>
+      <c r="ZA4" s="0"/>
+      <c r="ZB4" s="0"/>
+      <c r="ZC4" s="0"/>
+      <c r="ZD4" s="0"/>
+      <c r="ZE4" s="0"/>
+      <c r="ZF4" s="0"/>
+      <c r="ZG4" s="0"/>
+      <c r="ZH4" s="0"/>
+      <c r="ZI4" s="0"/>
+      <c r="ZJ4" s="0"/>
+      <c r="ZK4" s="0"/>
+      <c r="ZL4" s="0"/>
+      <c r="ZM4" s="0"/>
+      <c r="ZN4" s="0"/>
+      <c r="ZO4" s="0"/>
+      <c r="ZP4" s="0"/>
+      <c r="ZQ4" s="0"/>
+      <c r="ZR4" s="0"/>
+      <c r="ZS4" s="0"/>
+      <c r="ZT4" s="0"/>
+      <c r="ZU4" s="0"/>
+      <c r="ZV4" s="0"/>
+      <c r="ZW4" s="0"/>
+      <c r="ZX4" s="0"/>
+      <c r="ZY4" s="0"/>
+      <c r="ZZ4" s="0"/>
+      <c r="AAA4" s="0"/>
+      <c r="AAB4" s="0"/>
+      <c r="AAC4" s="0"/>
+      <c r="AAD4" s="0"/>
+      <c r="AAE4" s="0"/>
+      <c r="AAF4" s="0"/>
+      <c r="AAG4" s="0"/>
+      <c r="AAH4" s="0"/>
+      <c r="AAI4" s="0"/>
+      <c r="AAJ4" s="0"/>
+      <c r="AAK4" s="0"/>
+      <c r="AAL4" s="0"/>
+      <c r="AAM4" s="0"/>
+      <c r="AAN4" s="0"/>
+      <c r="AAO4" s="0"/>
+      <c r="AAP4" s="0"/>
+      <c r="AAQ4" s="0"/>
+      <c r="AAR4" s="0"/>
+      <c r="AAS4" s="0"/>
+      <c r="AAT4" s="0"/>
+      <c r="AAU4" s="0"/>
+      <c r="AAV4" s="0"/>
+      <c r="AAW4" s="0"/>
+      <c r="AAX4" s="0"/>
+      <c r="AAY4" s="0"/>
+      <c r="AAZ4" s="0"/>
+      <c r="ABA4" s="0"/>
+      <c r="ABB4" s="0"/>
+      <c r="ABC4" s="0"/>
+      <c r="ABD4" s="0"/>
+      <c r="ABE4" s="0"/>
+      <c r="ABF4" s="0"/>
+      <c r="ABG4" s="0"/>
+      <c r="ABH4" s="0"/>
+      <c r="ABI4" s="0"/>
+      <c r="ABJ4" s="0"/>
+      <c r="ABK4" s="0"/>
+      <c r="ABL4" s="0"/>
+      <c r="ABM4" s="0"/>
+      <c r="ABN4" s="0"/>
+      <c r="ABO4" s="0"/>
+      <c r="ABP4" s="0"/>
+      <c r="ABQ4" s="0"/>
+      <c r="ABR4" s="0"/>
+      <c r="ABS4" s="0"/>
+      <c r="ABT4" s="0"/>
+      <c r="ABU4" s="0"/>
+      <c r="ABV4" s="0"/>
+      <c r="ABW4" s="0"/>
+      <c r="ABX4" s="0"/>
+      <c r="ABY4" s="0"/>
+      <c r="ABZ4" s="0"/>
+      <c r="ACA4" s="0"/>
+      <c r="ACB4" s="0"/>
+      <c r="ACC4" s="0"/>
+      <c r="ACD4" s="0"/>
+      <c r="ACE4" s="0"/>
+      <c r="ACF4" s="0"/>
+      <c r="ACG4" s="0"/>
+      <c r="ACH4" s="0"/>
+      <c r="ACI4" s="0"/>
+      <c r="ACJ4" s="0"/>
+      <c r="ACK4" s="0"/>
+      <c r="ACL4" s="0"/>
+      <c r="ACM4" s="0"/>
+      <c r="ACN4" s="0"/>
+      <c r="ACO4" s="0"/>
+      <c r="ACP4" s="0"/>
+      <c r="ACQ4" s="0"/>
+      <c r="ACR4" s="0"/>
+      <c r="ACS4" s="0"/>
+      <c r="ACT4" s="0"/>
+      <c r="ACU4" s="0"/>
+      <c r="ACV4" s="0"/>
+      <c r="ACW4" s="0"/>
+      <c r="ACX4" s="0"/>
+      <c r="ACY4" s="0"/>
+      <c r="ACZ4" s="0"/>
+      <c r="ADA4" s="0"/>
+      <c r="ADB4" s="0"/>
+      <c r="ADC4" s="0"/>
+      <c r="ADD4" s="0"/>
+      <c r="ADE4" s="0"/>
+      <c r="ADF4" s="0"/>
+      <c r="ADG4" s="0"/>
+      <c r="ADH4" s="0"/>
+      <c r="ADI4" s="0"/>
+      <c r="ADJ4" s="0"/>
+      <c r="ADK4" s="0"/>
+      <c r="ADL4" s="0"/>
+      <c r="ADM4" s="0"/>
+      <c r="ADN4" s="0"/>
+      <c r="ADO4" s="0"/>
+      <c r="ADP4" s="0"/>
+      <c r="ADQ4" s="0"/>
+      <c r="ADR4" s="0"/>
+      <c r="ADS4" s="0"/>
+      <c r="ADT4" s="0"/>
+      <c r="ADU4" s="0"/>
+      <c r="ADV4" s="0"/>
+      <c r="ADW4" s="0"/>
+      <c r="ADX4" s="0"/>
+      <c r="ADY4" s="0"/>
+      <c r="ADZ4" s="0"/>
+      <c r="AEA4" s="0"/>
+      <c r="AEB4" s="0"/>
+      <c r="AEC4" s="0"/>
+      <c r="AED4" s="0"/>
+      <c r="AEE4" s="0"/>
+      <c r="AEF4" s="0"/>
+      <c r="AEG4" s="0"/>
+      <c r="AEH4" s="0"/>
+      <c r="AEI4" s="0"/>
+      <c r="AEJ4" s="0"/>
+      <c r="AEK4" s="0"/>
+      <c r="AEL4" s="0"/>
+      <c r="AEM4" s="0"/>
+      <c r="AEN4" s="0"/>
+      <c r="AEO4" s="0"/>
+      <c r="AEP4" s="0"/>
+      <c r="AEQ4" s="0"/>
+      <c r="AER4" s="0"/>
+      <c r="AES4" s="0"/>
+      <c r="AET4" s="0"/>
+      <c r="AEU4" s="0"/>
+      <c r="AEV4" s="0"/>
+      <c r="AEW4" s="0"/>
+      <c r="AEX4" s="0"/>
+      <c r="AEY4" s="0"/>
+      <c r="AEZ4" s="0"/>
+      <c r="AFA4" s="0"/>
+      <c r="AFB4" s="0"/>
+      <c r="AFC4" s="0"/>
+      <c r="AFD4" s="0"/>
+      <c r="AFE4" s="0"/>
+      <c r="AFF4" s="0"/>
+      <c r="AFG4" s="0"/>
+      <c r="AFH4" s="0"/>
+      <c r="AFI4" s="0"/>
+      <c r="AFJ4" s="0"/>
+      <c r="AFK4" s="0"/>
+      <c r="AFL4" s="0"/>
+      <c r="AFM4" s="0"/>
+      <c r="AFN4" s="0"/>
+      <c r="AFO4" s="0"/>
+      <c r="AFP4" s="0"/>
+      <c r="AFQ4" s="0"/>
+      <c r="AFR4" s="0"/>
+      <c r="AFS4" s="0"/>
+      <c r="AFT4" s="0"/>
+      <c r="AFU4" s="0"/>
+      <c r="AFV4" s="0"/>
+      <c r="AFW4" s="0"/>
+      <c r="AFX4" s="0"/>
+      <c r="AFY4" s="0"/>
+      <c r="AFZ4" s="0"/>
+      <c r="AGA4" s="0"/>
+      <c r="AGB4" s="0"/>
+      <c r="AGC4" s="0"/>
+      <c r="AGD4" s="0"/>
+      <c r="AGE4" s="0"/>
+      <c r="AGF4" s="0"/>
+      <c r="AGG4" s="0"/>
+      <c r="AGH4" s="0"/>
+      <c r="AGI4" s="0"/>
+      <c r="AGJ4" s="0"/>
+      <c r="AGK4" s="0"/>
+      <c r="AGL4" s="0"/>
+      <c r="AGM4" s="0"/>
+      <c r="AGN4" s="0"/>
+      <c r="AGO4" s="0"/>
+      <c r="AGP4" s="0"/>
+      <c r="AGQ4" s="0"/>
+      <c r="AGR4" s="0"/>
+      <c r="AGS4" s="0"/>
+      <c r="AGT4" s="0"/>
+      <c r="AGU4" s="0"/>
+      <c r="AGV4" s="0"/>
+      <c r="AGW4" s="0"/>
+      <c r="AGX4" s="0"/>
+      <c r="AGY4" s="0"/>
+      <c r="AGZ4" s="0"/>
+      <c r="AHA4" s="0"/>
+      <c r="AHB4" s="0"/>
+      <c r="AHC4" s="0"/>
+      <c r="AHD4" s="0"/>
+      <c r="AHE4" s="0"/>
+      <c r="AHF4" s="0"/>
+      <c r="AHG4" s="0"/>
+      <c r="AHH4" s="0"/>
+      <c r="AHI4" s="0"/>
+      <c r="AHJ4" s="0"/>
+      <c r="AHK4" s="0"/>
+      <c r="AHL4" s="0"/>
+      <c r="AHM4" s="0"/>
+      <c r="AHN4" s="0"/>
+      <c r="AHO4" s="0"/>
+      <c r="AHP4" s="0"/>
+      <c r="AHQ4" s="0"/>
+      <c r="AHR4" s="0"/>
+      <c r="AHS4" s="0"/>
+      <c r="AHT4" s="0"/>
+      <c r="AHU4" s="0"/>
+      <c r="AHV4" s="0"/>
+      <c r="AHW4" s="0"/>
+      <c r="AHX4" s="0"/>
+      <c r="AHY4" s="0"/>
+      <c r="AHZ4" s="0"/>
+      <c r="AIA4" s="0"/>
+      <c r="AIB4" s="0"/>
+      <c r="AIC4" s="0"/>
+      <c r="AID4" s="0"/>
+      <c r="AIE4" s="0"/>
+      <c r="AIF4" s="0"/>
+      <c r="AIG4" s="0"/>
+      <c r="AIH4" s="0"/>
+      <c r="AII4" s="0"/>
+      <c r="AIJ4" s="0"/>
+      <c r="AIK4" s="0"/>
+      <c r="AIL4" s="0"/>
+      <c r="AIM4" s="0"/>
+      <c r="AIN4" s="0"/>
+      <c r="AIO4" s="0"/>
+      <c r="AIP4" s="0"/>
+      <c r="AIQ4" s="0"/>
+      <c r="AIR4" s="0"/>
+      <c r="AIS4" s="0"/>
+      <c r="AIT4" s="0"/>
+      <c r="AIU4" s="0"/>
+      <c r="AIV4" s="0"/>
+      <c r="AIW4" s="0"/>
+      <c r="AIX4" s="0"/>
+      <c r="AIY4" s="0"/>
+      <c r="AIZ4" s="0"/>
+      <c r="AJA4" s="0"/>
+      <c r="AJB4" s="0"/>
+      <c r="AJC4" s="0"/>
+      <c r="AJD4" s="0"/>
+      <c r="AJE4" s="0"/>
+      <c r="AJF4" s="0"/>
+      <c r="AJG4" s="0"/>
+      <c r="AJH4" s="0"/>
+      <c r="AJI4" s="0"/>
+      <c r="AJJ4" s="0"/>
+      <c r="AJK4" s="0"/>
+      <c r="AJL4" s="0"/>
+      <c r="AJM4" s="0"/>
+      <c r="AJN4" s="0"/>
+      <c r="AJO4" s="0"/>
+      <c r="AJP4" s="0"/>
+      <c r="AJQ4" s="0"/>
+      <c r="AJR4" s="0"/>
+      <c r="AJS4" s="0"/>
+      <c r="AJT4" s="0"/>
+      <c r="AJU4" s="0"/>
+      <c r="AJV4" s="0"/>
+      <c r="AJW4" s="0"/>
+      <c r="AJX4" s="0"/>
+      <c r="AJY4" s="0"/>
+      <c r="AJZ4" s="0"/>
+      <c r="AKA4" s="0"/>
+      <c r="AKB4" s="0"/>
+      <c r="AKC4" s="0"/>
+      <c r="AKD4" s="0"/>
+      <c r="AKE4" s="0"/>
+      <c r="AKF4" s="0"/>
+      <c r="AKG4" s="0"/>
+      <c r="AKH4" s="0"/>
+      <c r="AKI4" s="0"/>
+      <c r="AKJ4" s="0"/>
+      <c r="AKK4" s="0"/>
+      <c r="AKL4" s="0"/>
+      <c r="AKM4" s="0"/>
+      <c r="AKN4" s="0"/>
+      <c r="AKO4" s="0"/>
+      <c r="AKP4" s="0"/>
+      <c r="AKQ4" s="0"/>
+      <c r="AKR4" s="0"/>
+      <c r="AKS4" s="0"/>
+      <c r="AKT4" s="0"/>
+      <c r="AKU4" s="0"/>
+      <c r="AKV4" s="0"/>
+      <c r="AKW4" s="0"/>
+      <c r="AKX4" s="0"/>
+      <c r="AKY4" s="0"/>
+      <c r="AKZ4" s="0"/>
+      <c r="ALA4" s="0"/>
+      <c r="ALB4" s="0"/>
+      <c r="ALC4" s="0"/>
+      <c r="ALD4" s="0"/>
+      <c r="ALE4" s="0"/>
+      <c r="ALF4" s="0"/>
+      <c r="ALG4" s="0"/>
+      <c r="ALH4" s="0"/>
+      <c r="ALI4" s="0"/>
+      <c r="ALJ4" s="0"/>
+      <c r="ALK4" s="0"/>
+      <c r="ALL4" s="0"/>
+      <c r="ALM4" s="0"/>
+      <c r="ALN4" s="0"/>
+      <c r="ALO4" s="0"/>
+      <c r="ALP4" s="0"/>
+      <c r="ALQ4" s="0"/>
+      <c r="ALR4" s="0"/>
+      <c r="ALS4" s="0"/>
+      <c r="ALT4" s="0"/>
+      <c r="ALU4" s="0"/>
+      <c r="ALV4" s="0"/>
+      <c r="ALW4" s="0"/>
+      <c r="ALX4" s="0"/>
+      <c r="ALY4" s="0"/>
+      <c r="ALZ4" s="0"/>
+      <c r="AMA4" s="0"/>
+      <c r="AMB4" s="0"/>
       <c r="AMC4" s="7"/>
       <c r="AMD4" s="7"/>
       <c r="AME4" s="7"/>
       <c r="AMF4" s="7"/>
-      <c r="AMG4" s="0"/>
-      <c r="AMH4" s="0"/>
-      <c r="AMI4" s="0"/>
-      <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
+    <row r="5" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -1005,21 +2002,23 @@
       <c r="G5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="10"/>
+      <c r="H5" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="I5" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="K5" s="15" t="s">
         <v>44</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
@@ -2029,1054 +3028,52 @@
       <c r="AME5" s="7"/>
       <c r="AMF5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10" t="s">
+      <c r="M6" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="0"/>
-      <c r="R6" s="0"/>
-      <c r="S6" s="0"/>
-      <c r="T6" s="0"/>
-      <c r="U6" s="0"/>
-      <c r="V6" s="0"/>
-      <c r="W6" s="0"/>
-      <c r="X6" s="0"/>
-      <c r="Y6" s="0"/>
-      <c r="Z6" s="0"/>
-      <c r="AA6" s="0"/>
-      <c r="AB6" s="0"/>
-      <c r="AC6" s="0"/>
-      <c r="AD6" s="0"/>
-      <c r="AE6" s="0"/>
-      <c r="AF6" s="0"/>
-      <c r="AG6" s="0"/>
-      <c r="AH6" s="0"/>
-      <c r="AI6" s="0"/>
-      <c r="AJ6" s="0"/>
-      <c r="AK6" s="0"/>
-      <c r="AL6" s="0"/>
-      <c r="AM6" s="0"/>
-      <c r="AN6" s="0"/>
-      <c r="AO6" s="0"/>
-      <c r="AP6" s="0"/>
-      <c r="AQ6" s="0"/>
-      <c r="AR6" s="0"/>
-      <c r="AS6" s="0"/>
-      <c r="AT6" s="0"/>
-      <c r="AU6" s="0"/>
-      <c r="AV6" s="0"/>
-      <c r="AW6" s="0"/>
-      <c r="AX6" s="0"/>
-      <c r="AY6" s="0"/>
-      <c r="AZ6" s="0"/>
-      <c r="BA6" s="0"/>
-      <c r="BB6" s="0"/>
-      <c r="BC6" s="0"/>
-      <c r="BD6" s="0"/>
-      <c r="BE6" s="0"/>
-      <c r="BF6" s="0"/>
-      <c r="BG6" s="0"/>
-      <c r="BH6" s="0"/>
-      <c r="BI6" s="0"/>
-      <c r="BJ6" s="0"/>
-      <c r="BK6" s="0"/>
-      <c r="BL6" s="0"/>
-      <c r="BM6" s="0"/>
-      <c r="BN6" s="0"/>
-      <c r="BO6" s="0"/>
-      <c r="BP6" s="0"/>
-      <c r="BQ6" s="0"/>
-      <c r="BR6" s="0"/>
-      <c r="BS6" s="0"/>
-      <c r="BT6" s="0"/>
-      <c r="BU6" s="0"/>
-      <c r="BV6" s="0"/>
-      <c r="BW6" s="0"/>
-      <c r="BX6" s="0"/>
-      <c r="BY6" s="0"/>
-      <c r="BZ6" s="0"/>
-      <c r="CA6" s="0"/>
-      <c r="CB6" s="0"/>
-      <c r="CC6" s="0"/>
-      <c r="CD6" s="0"/>
-      <c r="CE6" s="0"/>
-      <c r="CF6" s="0"/>
-      <c r="CG6" s="0"/>
-      <c r="CH6" s="0"/>
-      <c r="CI6" s="0"/>
-      <c r="CJ6" s="0"/>
-      <c r="CK6" s="0"/>
-      <c r="CL6" s="0"/>
-      <c r="CM6" s="0"/>
-      <c r="CN6" s="0"/>
-      <c r="CO6" s="0"/>
-      <c r="CP6" s="0"/>
-      <c r="CQ6" s="0"/>
-      <c r="CR6" s="0"/>
-      <c r="CS6" s="0"/>
-      <c r="CT6" s="0"/>
-      <c r="CU6" s="0"/>
-      <c r="CV6" s="0"/>
-      <c r="CW6" s="0"/>
-      <c r="CX6" s="0"/>
-      <c r="CY6" s="0"/>
-      <c r="CZ6" s="0"/>
-      <c r="DA6" s="0"/>
-      <c r="DB6" s="0"/>
-      <c r="DC6" s="0"/>
-      <c r="DD6" s="0"/>
-      <c r="DE6" s="0"/>
-      <c r="DF6" s="0"/>
-      <c r="DG6" s="0"/>
-      <c r="DH6" s="0"/>
-      <c r="DI6" s="0"/>
-      <c r="DJ6" s="0"/>
-      <c r="DK6" s="0"/>
-      <c r="DL6" s="0"/>
-      <c r="DM6" s="0"/>
-      <c r="DN6" s="0"/>
-      <c r="DO6" s="0"/>
-      <c r="DP6" s="0"/>
-      <c r="DQ6" s="0"/>
-      <c r="DR6" s="0"/>
-      <c r="DS6" s="0"/>
-      <c r="DT6" s="0"/>
-      <c r="DU6" s="0"/>
-      <c r="DV6" s="0"/>
-      <c r="DW6" s="0"/>
-      <c r="DX6" s="0"/>
-      <c r="DY6" s="0"/>
-      <c r="DZ6" s="0"/>
-      <c r="EA6" s="0"/>
-      <c r="EB6" s="0"/>
-      <c r="EC6" s="0"/>
-      <c r="ED6" s="0"/>
-      <c r="EE6" s="0"/>
-      <c r="EF6" s="0"/>
-      <c r="EG6" s="0"/>
-      <c r="EH6" s="0"/>
-      <c r="EI6" s="0"/>
-      <c r="EJ6" s="0"/>
-      <c r="EK6" s="0"/>
-      <c r="EL6" s="0"/>
-      <c r="EM6" s="0"/>
-      <c r="EN6" s="0"/>
-      <c r="EO6" s="0"/>
-      <c r="EP6" s="0"/>
-      <c r="EQ6" s="0"/>
-      <c r="ER6" s="0"/>
-      <c r="ES6" s="0"/>
-      <c r="ET6" s="0"/>
-      <c r="EU6" s="0"/>
-      <c r="EV6" s="0"/>
-      <c r="EW6" s="0"/>
-      <c r="EX6" s="0"/>
-      <c r="EY6" s="0"/>
-      <c r="EZ6" s="0"/>
-      <c r="FA6" s="0"/>
-      <c r="FB6" s="0"/>
-      <c r="FC6" s="0"/>
-      <c r="FD6" s="0"/>
-      <c r="FE6" s="0"/>
-      <c r="FF6" s="0"/>
-      <c r="FG6" s="0"/>
-      <c r="FH6" s="0"/>
-      <c r="FI6" s="0"/>
-      <c r="FJ6" s="0"/>
-      <c r="FK6" s="0"/>
-      <c r="FL6" s="0"/>
-      <c r="FM6" s="0"/>
-      <c r="FN6" s="0"/>
-      <c r="FO6" s="0"/>
-      <c r="FP6" s="0"/>
-      <c r="FQ6" s="0"/>
-      <c r="FR6" s="0"/>
-      <c r="FS6" s="0"/>
-      <c r="FT6" s="0"/>
-      <c r="FU6" s="0"/>
-      <c r="FV6" s="0"/>
-      <c r="FW6" s="0"/>
-      <c r="FX6" s="0"/>
-      <c r="FY6" s="0"/>
-      <c r="FZ6" s="0"/>
-      <c r="GA6" s="0"/>
-      <c r="GB6" s="0"/>
-      <c r="GC6" s="0"/>
-      <c r="GD6" s="0"/>
-      <c r="GE6" s="0"/>
-      <c r="GF6" s="0"/>
-      <c r="GG6" s="0"/>
-      <c r="GH6" s="0"/>
-      <c r="GI6" s="0"/>
-      <c r="GJ6" s="0"/>
-      <c r="GK6" s="0"/>
-      <c r="GL6" s="0"/>
-      <c r="GM6" s="0"/>
-      <c r="GN6" s="0"/>
-      <c r="GO6" s="0"/>
-      <c r="GP6" s="0"/>
-      <c r="GQ6" s="0"/>
-      <c r="GR6" s="0"/>
-      <c r="GS6" s="0"/>
-      <c r="GT6" s="0"/>
-      <c r="GU6" s="0"/>
-      <c r="GV6" s="0"/>
-      <c r="GW6" s="0"/>
-      <c r="GX6" s="0"/>
-      <c r="GY6" s="0"/>
-      <c r="GZ6" s="0"/>
-      <c r="HA6" s="0"/>
-      <c r="HB6" s="0"/>
-      <c r="HC6" s="0"/>
-      <c r="HD6" s="0"/>
-      <c r="HE6" s="0"/>
-      <c r="HF6" s="0"/>
-      <c r="HG6" s="0"/>
-      <c r="HH6" s="0"/>
-      <c r="HI6" s="0"/>
-      <c r="HJ6" s="0"/>
-      <c r="HK6" s="0"/>
-      <c r="HL6" s="0"/>
-      <c r="HM6" s="0"/>
-      <c r="HN6" s="0"/>
-      <c r="HO6" s="0"/>
-      <c r="HP6" s="0"/>
-      <c r="HQ6" s="0"/>
-      <c r="HR6" s="0"/>
-      <c r="HS6" s="0"/>
-      <c r="HT6" s="0"/>
-      <c r="HU6" s="0"/>
-      <c r="HV6" s="0"/>
-      <c r="HW6" s="0"/>
-      <c r="HX6" s="0"/>
-      <c r="HY6" s="0"/>
-      <c r="HZ6" s="0"/>
-      <c r="IA6" s="0"/>
-      <c r="IB6" s="0"/>
-      <c r="IC6" s="0"/>
-      <c r="ID6" s="0"/>
-      <c r="IE6" s="0"/>
-      <c r="IF6" s="0"/>
-      <c r="IG6" s="0"/>
-      <c r="IH6" s="0"/>
-      <c r="II6" s="0"/>
-      <c r="IJ6" s="0"/>
-      <c r="IK6" s="0"/>
-      <c r="IL6" s="0"/>
-      <c r="IM6" s="0"/>
-      <c r="IN6" s="0"/>
-      <c r="IO6" s="0"/>
-      <c r="IP6" s="0"/>
-      <c r="IQ6" s="0"/>
-      <c r="IR6" s="0"/>
-      <c r="IS6" s="0"/>
-      <c r="IT6" s="0"/>
-      <c r="IU6" s="0"/>
-      <c r="IV6" s="0"/>
-      <c r="IW6" s="0"/>
-      <c r="IX6" s="0"/>
-      <c r="IY6" s="0"/>
-      <c r="IZ6" s="0"/>
-      <c r="JA6" s="0"/>
-      <c r="JB6" s="0"/>
-      <c r="JC6" s="0"/>
-      <c r="JD6" s="0"/>
-      <c r="JE6" s="0"/>
-      <c r="JF6" s="0"/>
-      <c r="JG6" s="0"/>
-      <c r="JH6" s="0"/>
-      <c r="JI6" s="0"/>
-      <c r="JJ6" s="0"/>
-      <c r="JK6" s="0"/>
-      <c r="JL6" s="0"/>
-      <c r="JM6" s="0"/>
-      <c r="JN6" s="0"/>
-      <c r="JO6" s="0"/>
-      <c r="JP6" s="0"/>
-      <c r="JQ6" s="0"/>
-      <c r="JR6" s="0"/>
-      <c r="JS6" s="0"/>
-      <c r="JT6" s="0"/>
-      <c r="JU6" s="0"/>
-      <c r="JV6" s="0"/>
-      <c r="JW6" s="0"/>
-      <c r="JX6" s="0"/>
-      <c r="JY6" s="0"/>
-      <c r="JZ6" s="0"/>
-      <c r="KA6" s="0"/>
-      <c r="KB6" s="0"/>
-      <c r="KC6" s="0"/>
-      <c r="KD6" s="0"/>
-      <c r="KE6" s="0"/>
-      <c r="KF6" s="0"/>
-      <c r="KG6" s="0"/>
-      <c r="KH6" s="0"/>
-      <c r="KI6" s="0"/>
-      <c r="KJ6" s="0"/>
-      <c r="KK6" s="0"/>
-      <c r="KL6" s="0"/>
-      <c r="KM6" s="0"/>
-      <c r="KN6" s="0"/>
-      <c r="KO6" s="0"/>
-      <c r="KP6" s="0"/>
-      <c r="KQ6" s="0"/>
-      <c r="KR6" s="0"/>
-      <c r="KS6" s="0"/>
-      <c r="KT6" s="0"/>
-      <c r="KU6" s="0"/>
-      <c r="KV6" s="0"/>
-      <c r="KW6" s="0"/>
-      <c r="KX6" s="0"/>
-      <c r="KY6" s="0"/>
-      <c r="KZ6" s="0"/>
-      <c r="LA6" s="0"/>
-      <c r="LB6" s="0"/>
-      <c r="LC6" s="0"/>
-      <c r="LD6" s="0"/>
-      <c r="LE6" s="0"/>
-      <c r="LF6" s="0"/>
-      <c r="LG6" s="0"/>
-      <c r="LH6" s="0"/>
-      <c r="LI6" s="0"/>
-      <c r="LJ6" s="0"/>
-      <c r="LK6" s="0"/>
-      <c r="LL6" s="0"/>
-      <c r="LM6" s="0"/>
-      <c r="LN6" s="0"/>
-      <c r="LO6" s="0"/>
-      <c r="LP6" s="0"/>
-      <c r="LQ6" s="0"/>
-      <c r="LR6" s="0"/>
-      <c r="LS6" s="0"/>
-      <c r="LT6" s="0"/>
-      <c r="LU6" s="0"/>
-      <c r="LV6" s="0"/>
-      <c r="LW6" s="0"/>
-      <c r="LX6" s="0"/>
-      <c r="LY6" s="0"/>
-      <c r="LZ6" s="0"/>
-      <c r="MA6" s="0"/>
-      <c r="MB6" s="0"/>
-      <c r="MC6" s="0"/>
-      <c r="MD6" s="0"/>
-      <c r="ME6" s="0"/>
-      <c r="MF6" s="0"/>
-      <c r="MG6" s="0"/>
-      <c r="MH6" s="0"/>
-      <c r="MI6" s="0"/>
-      <c r="MJ6" s="0"/>
-      <c r="MK6" s="0"/>
-      <c r="ML6" s="0"/>
-      <c r="MM6" s="0"/>
-      <c r="MN6" s="0"/>
-      <c r="MO6" s="0"/>
-      <c r="MP6" s="0"/>
-      <c r="MQ6" s="0"/>
-      <c r="MR6" s="0"/>
-      <c r="MS6" s="0"/>
-      <c r="MT6" s="0"/>
-      <c r="MU6" s="0"/>
-      <c r="MV6" s="0"/>
-      <c r="MW6" s="0"/>
-      <c r="MX6" s="0"/>
-      <c r="MY6" s="0"/>
-      <c r="MZ6" s="0"/>
-      <c r="NA6" s="0"/>
-      <c r="NB6" s="0"/>
-      <c r="NC6" s="0"/>
-      <c r="ND6" s="0"/>
-      <c r="NE6" s="0"/>
-      <c r="NF6" s="0"/>
-      <c r="NG6" s="0"/>
-      <c r="NH6" s="0"/>
-      <c r="NI6" s="0"/>
-      <c r="NJ6" s="0"/>
-      <c r="NK6" s="0"/>
-      <c r="NL6" s="0"/>
-      <c r="NM6" s="0"/>
-      <c r="NN6" s="0"/>
-      <c r="NO6" s="0"/>
-      <c r="NP6" s="0"/>
-      <c r="NQ6" s="0"/>
-      <c r="NR6" s="0"/>
-      <c r="NS6" s="0"/>
-      <c r="NT6" s="0"/>
-      <c r="NU6" s="0"/>
-      <c r="NV6" s="0"/>
-      <c r="NW6" s="0"/>
-      <c r="NX6" s="0"/>
-      <c r="NY6" s="0"/>
-      <c r="NZ6" s="0"/>
-      <c r="OA6" s="0"/>
-      <c r="OB6" s="0"/>
-      <c r="OC6" s="0"/>
-      <c r="OD6" s="0"/>
-      <c r="OE6" s="0"/>
-      <c r="OF6" s="0"/>
-      <c r="OG6" s="0"/>
-      <c r="OH6" s="0"/>
-      <c r="OI6" s="0"/>
-      <c r="OJ6" s="0"/>
-      <c r="OK6" s="0"/>
-      <c r="OL6" s="0"/>
-      <c r="OM6" s="0"/>
-      <c r="ON6" s="0"/>
-      <c r="OO6" s="0"/>
-      <c r="OP6" s="0"/>
-      <c r="OQ6" s="0"/>
-      <c r="OR6" s="0"/>
-      <c r="OS6" s="0"/>
-      <c r="OT6" s="0"/>
-      <c r="OU6" s="0"/>
-      <c r="OV6" s="0"/>
-      <c r="OW6" s="0"/>
-      <c r="OX6" s="0"/>
-      <c r="OY6" s="0"/>
-      <c r="OZ6" s="0"/>
-      <c r="PA6" s="0"/>
-      <c r="PB6" s="0"/>
-      <c r="PC6" s="0"/>
-      <c r="PD6" s="0"/>
-      <c r="PE6" s="0"/>
-      <c r="PF6" s="0"/>
-      <c r="PG6" s="0"/>
-      <c r="PH6" s="0"/>
-      <c r="PI6" s="0"/>
-      <c r="PJ6" s="0"/>
-      <c r="PK6" s="0"/>
-      <c r="PL6" s="0"/>
-      <c r="PM6" s="0"/>
-      <c r="PN6" s="0"/>
-      <c r="PO6" s="0"/>
-      <c r="PP6" s="0"/>
-      <c r="PQ6" s="0"/>
-      <c r="PR6" s="0"/>
-      <c r="PS6" s="0"/>
-      <c r="PT6" s="0"/>
-      <c r="PU6" s="0"/>
-      <c r="PV6" s="0"/>
-      <c r="PW6" s="0"/>
-      <c r="PX6" s="0"/>
-      <c r="PY6" s="0"/>
-      <c r="PZ6" s="0"/>
-      <c r="QA6" s="0"/>
-      <c r="QB6" s="0"/>
-      <c r="QC6" s="0"/>
-      <c r="QD6" s="0"/>
-      <c r="QE6" s="0"/>
-      <c r="QF6" s="0"/>
-      <c r="QG6" s="0"/>
-      <c r="QH6" s="0"/>
-      <c r="QI6" s="0"/>
-      <c r="QJ6" s="0"/>
-      <c r="QK6" s="0"/>
-      <c r="QL6" s="0"/>
-      <c r="QM6" s="0"/>
-      <c r="QN6" s="0"/>
-      <c r="QO6" s="0"/>
-      <c r="QP6" s="0"/>
-      <c r="QQ6" s="0"/>
-      <c r="QR6" s="0"/>
-      <c r="QS6" s="0"/>
-      <c r="QT6" s="0"/>
-      <c r="QU6" s="0"/>
-      <c r="QV6" s="0"/>
-      <c r="QW6" s="0"/>
-      <c r="QX6" s="0"/>
-      <c r="QY6" s="0"/>
-      <c r="QZ6" s="0"/>
-      <c r="RA6" s="0"/>
-      <c r="RB6" s="0"/>
-      <c r="RC6" s="0"/>
-      <c r="RD6" s="0"/>
-      <c r="RE6" s="0"/>
-      <c r="RF6" s="0"/>
-      <c r="RG6" s="0"/>
-      <c r="RH6" s="0"/>
-      <c r="RI6" s="0"/>
-      <c r="RJ6" s="0"/>
-      <c r="RK6" s="0"/>
-      <c r="RL6" s="0"/>
-      <c r="RM6" s="0"/>
-      <c r="RN6" s="0"/>
-      <c r="RO6" s="0"/>
-      <c r="RP6" s="0"/>
-      <c r="RQ6" s="0"/>
-      <c r="RR6" s="0"/>
-      <c r="RS6" s="0"/>
-      <c r="RT6" s="0"/>
-      <c r="RU6" s="0"/>
-      <c r="RV6" s="0"/>
-      <c r="RW6" s="0"/>
-      <c r="RX6" s="0"/>
-      <c r="RY6" s="0"/>
-      <c r="RZ6" s="0"/>
-      <c r="SA6" s="0"/>
-      <c r="SB6" s="0"/>
-      <c r="SC6" s="0"/>
-      <c r="SD6" s="0"/>
-      <c r="SE6" s="0"/>
-      <c r="SF6" s="0"/>
-      <c r="SG6" s="0"/>
-      <c r="SH6" s="0"/>
-      <c r="SI6" s="0"/>
-      <c r="SJ6" s="0"/>
-      <c r="SK6" s="0"/>
-      <c r="SL6" s="0"/>
-      <c r="SM6" s="0"/>
-      <c r="SN6" s="0"/>
-      <c r="SO6" s="0"/>
-      <c r="SP6" s="0"/>
-      <c r="SQ6" s="0"/>
-      <c r="SR6" s="0"/>
-      <c r="SS6" s="0"/>
-      <c r="ST6" s="0"/>
-      <c r="SU6" s="0"/>
-      <c r="SV6" s="0"/>
-      <c r="SW6" s="0"/>
-      <c r="SX6" s="0"/>
-      <c r="SY6" s="0"/>
-      <c r="SZ6" s="0"/>
-      <c r="TA6" s="0"/>
-      <c r="TB6" s="0"/>
-      <c r="TC6" s="0"/>
-      <c r="TD6" s="0"/>
-      <c r="TE6" s="0"/>
-      <c r="TF6" s="0"/>
-      <c r="TG6" s="0"/>
-      <c r="TH6" s="0"/>
-      <c r="TI6" s="0"/>
-      <c r="TJ6" s="0"/>
-      <c r="TK6" s="0"/>
-      <c r="TL6" s="0"/>
-      <c r="TM6" s="0"/>
-      <c r="TN6" s="0"/>
-      <c r="TO6" s="0"/>
-      <c r="TP6" s="0"/>
-      <c r="TQ6" s="0"/>
-      <c r="TR6" s="0"/>
-      <c r="TS6" s="0"/>
-      <c r="TT6" s="0"/>
-      <c r="TU6" s="0"/>
-      <c r="TV6" s="0"/>
-      <c r="TW6" s="0"/>
-      <c r="TX6" s="0"/>
-      <c r="TY6" s="0"/>
-      <c r="TZ6" s="0"/>
-      <c r="UA6" s="0"/>
-      <c r="UB6" s="0"/>
-      <c r="UC6" s="0"/>
-      <c r="UD6" s="0"/>
-      <c r="UE6" s="0"/>
-      <c r="UF6" s="0"/>
-      <c r="UG6" s="0"/>
-      <c r="UH6" s="0"/>
-      <c r="UI6" s="0"/>
-      <c r="UJ6" s="0"/>
-      <c r="UK6" s="0"/>
-      <c r="UL6" s="0"/>
-      <c r="UM6" s="0"/>
-      <c r="UN6" s="0"/>
-      <c r="UO6" s="0"/>
-      <c r="UP6" s="0"/>
-      <c r="UQ6" s="0"/>
-      <c r="UR6" s="0"/>
-      <c r="US6" s="0"/>
-      <c r="UT6" s="0"/>
-      <c r="UU6" s="0"/>
-      <c r="UV6" s="0"/>
-      <c r="UW6" s="0"/>
-      <c r="UX6" s="0"/>
-      <c r="UY6" s="0"/>
-      <c r="UZ6" s="0"/>
-      <c r="VA6" s="0"/>
-      <c r="VB6" s="0"/>
-      <c r="VC6" s="0"/>
-      <c r="VD6" s="0"/>
-      <c r="VE6" s="0"/>
-      <c r="VF6" s="0"/>
-      <c r="VG6" s="0"/>
-      <c r="VH6" s="0"/>
-      <c r="VI6" s="0"/>
-      <c r="VJ6" s="0"/>
-      <c r="VK6" s="0"/>
-      <c r="VL6" s="0"/>
-      <c r="VM6" s="0"/>
-      <c r="VN6" s="0"/>
-      <c r="VO6" s="0"/>
-      <c r="VP6" s="0"/>
-      <c r="VQ6" s="0"/>
-      <c r="VR6" s="0"/>
-      <c r="VS6" s="0"/>
-      <c r="VT6" s="0"/>
-      <c r="VU6" s="0"/>
-      <c r="VV6" s="0"/>
-      <c r="VW6" s="0"/>
-      <c r="VX6" s="0"/>
-      <c r="VY6" s="0"/>
-      <c r="VZ6" s="0"/>
-      <c r="WA6" s="0"/>
-      <c r="WB6" s="0"/>
-      <c r="WC6" s="0"/>
-      <c r="WD6" s="0"/>
-      <c r="WE6" s="0"/>
-      <c r="WF6" s="0"/>
-      <c r="WG6" s="0"/>
-      <c r="WH6" s="0"/>
-      <c r="WI6" s="0"/>
-      <c r="WJ6" s="0"/>
-      <c r="WK6" s="0"/>
-      <c r="WL6" s="0"/>
-      <c r="WM6" s="0"/>
-      <c r="WN6" s="0"/>
-      <c r="WO6" s="0"/>
-      <c r="WP6" s="0"/>
-      <c r="WQ6" s="0"/>
-      <c r="WR6" s="0"/>
-      <c r="WS6" s="0"/>
-      <c r="WT6" s="0"/>
-      <c r="WU6" s="0"/>
-      <c r="WV6" s="0"/>
-      <c r="WW6" s="0"/>
-      <c r="WX6" s="0"/>
-      <c r="WY6" s="0"/>
-      <c r="WZ6" s="0"/>
-      <c r="XA6" s="0"/>
-      <c r="XB6" s="0"/>
-      <c r="XC6" s="0"/>
-      <c r="XD6" s="0"/>
-      <c r="XE6" s="0"/>
-      <c r="XF6" s="0"/>
-      <c r="XG6" s="0"/>
-      <c r="XH6" s="0"/>
-      <c r="XI6" s="0"/>
-      <c r="XJ6" s="0"/>
-      <c r="XK6" s="0"/>
-      <c r="XL6" s="0"/>
-      <c r="XM6" s="0"/>
-      <c r="XN6" s="0"/>
-      <c r="XO6" s="0"/>
-      <c r="XP6" s="0"/>
-      <c r="XQ6" s="0"/>
-      <c r="XR6" s="0"/>
-      <c r="XS6" s="0"/>
-      <c r="XT6" s="0"/>
-      <c r="XU6" s="0"/>
-      <c r="XV6" s="0"/>
-      <c r="XW6" s="0"/>
-      <c r="XX6" s="0"/>
-      <c r="XY6" s="0"/>
-      <c r="XZ6" s="0"/>
-      <c r="YA6" s="0"/>
-      <c r="YB6" s="0"/>
-      <c r="YC6" s="0"/>
-      <c r="YD6" s="0"/>
-      <c r="YE6" s="0"/>
-      <c r="YF6" s="0"/>
-      <c r="YG6" s="0"/>
-      <c r="YH6" s="0"/>
-      <c r="YI6" s="0"/>
-      <c r="YJ6" s="0"/>
-      <c r="YK6" s="0"/>
-      <c r="YL6" s="0"/>
-      <c r="YM6" s="0"/>
-      <c r="YN6" s="0"/>
-      <c r="YO6" s="0"/>
-      <c r="YP6" s="0"/>
-      <c r="YQ6" s="0"/>
-      <c r="YR6" s="0"/>
-      <c r="YS6" s="0"/>
-      <c r="YT6" s="0"/>
-      <c r="YU6" s="0"/>
-      <c r="YV6" s="0"/>
-      <c r="YW6" s="0"/>
-      <c r="YX6" s="0"/>
-      <c r="YY6" s="0"/>
-      <c r="YZ6" s="0"/>
-      <c r="ZA6" s="0"/>
-      <c r="ZB6" s="0"/>
-      <c r="ZC6" s="0"/>
-      <c r="ZD6" s="0"/>
-      <c r="ZE6" s="0"/>
-      <c r="ZF6" s="0"/>
-      <c r="ZG6" s="0"/>
-      <c r="ZH6" s="0"/>
-      <c r="ZI6" s="0"/>
-      <c r="ZJ6" s="0"/>
-      <c r="ZK6" s="0"/>
-      <c r="ZL6" s="0"/>
-      <c r="ZM6" s="0"/>
-      <c r="ZN6" s="0"/>
-      <c r="ZO6" s="0"/>
-      <c r="ZP6" s="0"/>
-      <c r="ZQ6" s="0"/>
-      <c r="ZR6" s="0"/>
-      <c r="ZS6" s="0"/>
-      <c r="ZT6" s="0"/>
-      <c r="ZU6" s="0"/>
-      <c r="ZV6" s="0"/>
-      <c r="ZW6" s="0"/>
-      <c r="ZX6" s="0"/>
-      <c r="ZY6" s="0"/>
-      <c r="ZZ6" s="0"/>
-      <c r="AAA6" s="0"/>
-      <c r="AAB6" s="0"/>
-      <c r="AAC6" s="0"/>
-      <c r="AAD6" s="0"/>
-      <c r="AAE6" s="0"/>
-      <c r="AAF6" s="0"/>
-      <c r="AAG6" s="0"/>
-      <c r="AAH6" s="0"/>
-      <c r="AAI6" s="0"/>
-      <c r="AAJ6" s="0"/>
-      <c r="AAK6" s="0"/>
-      <c r="AAL6" s="0"/>
-      <c r="AAM6" s="0"/>
-      <c r="AAN6" s="0"/>
-      <c r="AAO6" s="0"/>
-      <c r="AAP6" s="0"/>
-      <c r="AAQ6" s="0"/>
-      <c r="AAR6" s="0"/>
-      <c r="AAS6" s="0"/>
-      <c r="AAT6" s="0"/>
-      <c r="AAU6" s="0"/>
-      <c r="AAV6" s="0"/>
-      <c r="AAW6" s="0"/>
-      <c r="AAX6" s="0"/>
-      <c r="AAY6" s="0"/>
-      <c r="AAZ6" s="0"/>
-      <c r="ABA6" s="0"/>
-      <c r="ABB6" s="0"/>
-      <c r="ABC6" s="0"/>
-      <c r="ABD6" s="0"/>
-      <c r="ABE6" s="0"/>
-      <c r="ABF6" s="0"/>
-      <c r="ABG6" s="0"/>
-      <c r="ABH6" s="0"/>
-      <c r="ABI6" s="0"/>
-      <c r="ABJ6" s="0"/>
-      <c r="ABK6" s="0"/>
-      <c r="ABL6" s="0"/>
-      <c r="ABM6" s="0"/>
-      <c r="ABN6" s="0"/>
-      <c r="ABO6" s="0"/>
-      <c r="ABP6" s="0"/>
-      <c r="ABQ6" s="0"/>
-      <c r="ABR6" s="0"/>
-      <c r="ABS6" s="0"/>
-      <c r="ABT6" s="0"/>
-      <c r="ABU6" s="0"/>
-      <c r="ABV6" s="0"/>
-      <c r="ABW6" s="0"/>
-      <c r="ABX6" s="0"/>
-      <c r="ABY6" s="0"/>
-      <c r="ABZ6" s="0"/>
-      <c r="ACA6" s="0"/>
-      <c r="ACB6" s="0"/>
-      <c r="ACC6" s="0"/>
-      <c r="ACD6" s="0"/>
-      <c r="ACE6" s="0"/>
-      <c r="ACF6" s="0"/>
-      <c r="ACG6" s="0"/>
-      <c r="ACH6" s="0"/>
-      <c r="ACI6" s="0"/>
-      <c r="ACJ6" s="0"/>
-      <c r="ACK6" s="0"/>
-      <c r="ACL6" s="0"/>
-      <c r="ACM6" s="0"/>
-      <c r="ACN6" s="0"/>
-      <c r="ACO6" s="0"/>
-      <c r="ACP6" s="0"/>
-      <c r="ACQ6" s="0"/>
-      <c r="ACR6" s="0"/>
-      <c r="ACS6" s="0"/>
-      <c r="ACT6" s="0"/>
-      <c r="ACU6" s="0"/>
-      <c r="ACV6" s="0"/>
-      <c r="ACW6" s="0"/>
-      <c r="ACX6" s="0"/>
-      <c r="ACY6" s="0"/>
-      <c r="ACZ6" s="0"/>
-      <c r="ADA6" s="0"/>
-      <c r="ADB6" s="0"/>
-      <c r="ADC6" s="0"/>
-      <c r="ADD6" s="0"/>
-      <c r="ADE6" s="0"/>
-      <c r="ADF6" s="0"/>
-      <c r="ADG6" s="0"/>
-      <c r="ADH6" s="0"/>
-      <c r="ADI6" s="0"/>
-      <c r="ADJ6" s="0"/>
-      <c r="ADK6" s="0"/>
-      <c r="ADL6" s="0"/>
-      <c r="ADM6" s="0"/>
-      <c r="ADN6" s="0"/>
-      <c r="ADO6" s="0"/>
-      <c r="ADP6" s="0"/>
-      <c r="ADQ6" s="0"/>
-      <c r="ADR6" s="0"/>
-      <c r="ADS6" s="0"/>
-      <c r="ADT6" s="0"/>
-      <c r="ADU6" s="0"/>
-      <c r="ADV6" s="0"/>
-      <c r="ADW6" s="0"/>
-      <c r="ADX6" s="0"/>
-      <c r="ADY6" s="0"/>
-      <c r="ADZ6" s="0"/>
-      <c r="AEA6" s="0"/>
-      <c r="AEB6" s="0"/>
-      <c r="AEC6" s="0"/>
-      <c r="AED6" s="0"/>
-      <c r="AEE6" s="0"/>
-      <c r="AEF6" s="0"/>
-      <c r="AEG6" s="0"/>
-      <c r="AEH6" s="0"/>
-      <c r="AEI6" s="0"/>
-      <c r="AEJ6" s="0"/>
-      <c r="AEK6" s="0"/>
-      <c r="AEL6" s="0"/>
-      <c r="AEM6" s="0"/>
-      <c r="AEN6" s="0"/>
-      <c r="AEO6" s="0"/>
-      <c r="AEP6" s="0"/>
-      <c r="AEQ6" s="0"/>
-      <c r="AER6" s="0"/>
-      <c r="AES6" s="0"/>
-      <c r="AET6" s="0"/>
-      <c r="AEU6" s="0"/>
-      <c r="AEV6" s="0"/>
-      <c r="AEW6" s="0"/>
-      <c r="AEX6" s="0"/>
-      <c r="AEY6" s="0"/>
-      <c r="AEZ6" s="0"/>
-      <c r="AFA6" s="0"/>
-      <c r="AFB6" s="0"/>
-      <c r="AFC6" s="0"/>
-      <c r="AFD6" s="0"/>
-      <c r="AFE6" s="0"/>
-      <c r="AFF6" s="0"/>
-      <c r="AFG6" s="0"/>
-      <c r="AFH6" s="0"/>
-      <c r="AFI6" s="0"/>
-      <c r="AFJ6" s="0"/>
-      <c r="AFK6" s="0"/>
-      <c r="AFL6" s="0"/>
-      <c r="AFM6" s="0"/>
-      <c r="AFN6" s="0"/>
-      <c r="AFO6" s="0"/>
-      <c r="AFP6" s="0"/>
-      <c r="AFQ6" s="0"/>
-      <c r="AFR6" s="0"/>
-      <c r="AFS6" s="0"/>
-      <c r="AFT6" s="0"/>
-      <c r="AFU6" s="0"/>
-      <c r="AFV6" s="0"/>
-      <c r="AFW6" s="0"/>
-      <c r="AFX6" s="0"/>
-      <c r="AFY6" s="0"/>
-      <c r="AFZ6" s="0"/>
-      <c r="AGA6" s="0"/>
-      <c r="AGB6" s="0"/>
-      <c r="AGC6" s="0"/>
-      <c r="AGD6" s="0"/>
-      <c r="AGE6" s="0"/>
-      <c r="AGF6" s="0"/>
-      <c r="AGG6" s="0"/>
-      <c r="AGH6" s="0"/>
-      <c r="AGI6" s="0"/>
-      <c r="AGJ6" s="0"/>
-      <c r="AGK6" s="0"/>
-      <c r="AGL6" s="0"/>
-      <c r="AGM6" s="0"/>
-      <c r="AGN6" s="0"/>
-      <c r="AGO6" s="0"/>
-      <c r="AGP6" s="0"/>
-      <c r="AGQ6" s="0"/>
-      <c r="AGR6" s="0"/>
-      <c r="AGS6" s="0"/>
-      <c r="AGT6" s="0"/>
-      <c r="AGU6" s="0"/>
-      <c r="AGV6" s="0"/>
-      <c r="AGW6" s="0"/>
-      <c r="AGX6" s="0"/>
-      <c r="AGY6" s="0"/>
-      <c r="AGZ6" s="0"/>
-      <c r="AHA6" s="0"/>
-      <c r="AHB6" s="0"/>
-      <c r="AHC6" s="0"/>
-      <c r="AHD6" s="0"/>
-      <c r="AHE6" s="0"/>
-      <c r="AHF6" s="0"/>
-      <c r="AHG6" s="0"/>
-      <c r="AHH6" s="0"/>
-      <c r="AHI6" s="0"/>
-      <c r="AHJ6" s="0"/>
-      <c r="AHK6" s="0"/>
-      <c r="AHL6" s="0"/>
-      <c r="AHM6" s="0"/>
-      <c r="AHN6" s="0"/>
-      <c r="AHO6" s="0"/>
-      <c r="AHP6" s="0"/>
-      <c r="AHQ6" s="0"/>
-      <c r="AHR6" s="0"/>
-      <c r="AHS6" s="0"/>
-      <c r="AHT6" s="0"/>
-      <c r="AHU6" s="0"/>
-      <c r="AHV6" s="0"/>
-      <c r="AHW6" s="0"/>
-      <c r="AHX6" s="0"/>
-      <c r="AHY6" s="0"/>
-      <c r="AHZ6" s="0"/>
-      <c r="AIA6" s="0"/>
-      <c r="AIB6" s="0"/>
-      <c r="AIC6" s="0"/>
-      <c r="AID6" s="0"/>
-      <c r="AIE6" s="0"/>
-      <c r="AIF6" s="0"/>
-      <c r="AIG6" s="0"/>
-      <c r="AIH6" s="0"/>
-      <c r="AII6" s="0"/>
-      <c r="AIJ6" s="0"/>
-      <c r="AIK6" s="0"/>
-      <c r="AIL6" s="0"/>
-      <c r="AIM6" s="0"/>
-      <c r="AIN6" s="0"/>
-      <c r="AIO6" s="0"/>
-      <c r="AIP6" s="0"/>
-      <c r="AIQ6" s="0"/>
-      <c r="AIR6" s="0"/>
-      <c r="AIS6" s="0"/>
-      <c r="AIT6" s="0"/>
-      <c r="AIU6" s="0"/>
-      <c r="AIV6" s="0"/>
-      <c r="AIW6" s="0"/>
-      <c r="AIX6" s="0"/>
-      <c r="AIY6" s="0"/>
-      <c r="AIZ6" s="0"/>
-      <c r="AJA6" s="0"/>
-      <c r="AJB6" s="0"/>
-      <c r="AJC6" s="0"/>
-      <c r="AJD6" s="0"/>
-      <c r="AJE6" s="0"/>
-      <c r="AJF6" s="0"/>
-      <c r="AJG6" s="0"/>
-      <c r="AJH6" s="0"/>
-      <c r="AJI6" s="0"/>
-      <c r="AJJ6" s="0"/>
-      <c r="AJK6" s="0"/>
-      <c r="AJL6" s="0"/>
-      <c r="AJM6" s="0"/>
-      <c r="AJN6" s="0"/>
-      <c r="AJO6" s="0"/>
-      <c r="AJP6" s="0"/>
-      <c r="AJQ6" s="0"/>
-      <c r="AJR6" s="0"/>
-      <c r="AJS6" s="0"/>
-      <c r="AJT6" s="0"/>
-      <c r="AJU6" s="0"/>
-      <c r="AJV6" s="0"/>
-      <c r="AJW6" s="0"/>
-      <c r="AJX6" s="0"/>
-      <c r="AJY6" s="0"/>
-      <c r="AJZ6" s="0"/>
-      <c r="AKA6" s="0"/>
-      <c r="AKB6" s="0"/>
-      <c r="AKC6" s="0"/>
-      <c r="AKD6" s="0"/>
-      <c r="AKE6" s="0"/>
-      <c r="AKF6" s="0"/>
-      <c r="AKG6" s="0"/>
-      <c r="AKH6" s="0"/>
-      <c r="AKI6" s="0"/>
-      <c r="AKJ6" s="0"/>
-      <c r="AKK6" s="0"/>
-      <c r="AKL6" s="0"/>
-      <c r="AKM6" s="0"/>
-      <c r="AKN6" s="0"/>
-      <c r="AKO6" s="0"/>
-      <c r="AKP6" s="0"/>
-      <c r="AKQ6" s="0"/>
-      <c r="AKR6" s="0"/>
-      <c r="AKS6" s="0"/>
-      <c r="AKT6" s="0"/>
-      <c r="AKU6" s="0"/>
-      <c r="AKV6" s="0"/>
-      <c r="AKW6" s="0"/>
-      <c r="AKX6" s="0"/>
-      <c r="AKY6" s="0"/>
-      <c r="AKZ6" s="0"/>
-      <c r="ALA6" s="0"/>
-      <c r="ALB6" s="0"/>
-      <c r="ALC6" s="0"/>
-      <c r="ALD6" s="0"/>
-      <c r="ALE6" s="0"/>
-      <c r="ALF6" s="0"/>
-      <c r="ALG6" s="0"/>
-      <c r="ALH6" s="0"/>
-      <c r="ALI6" s="0"/>
-      <c r="ALJ6" s="0"/>
-      <c r="ALK6" s="0"/>
-      <c r="ALL6" s="0"/>
-      <c r="ALM6" s="0"/>
-      <c r="ALN6" s="0"/>
-      <c r="ALO6" s="0"/>
-      <c r="ALP6" s="0"/>
-      <c r="ALQ6" s="0"/>
-      <c r="ALR6" s="0"/>
-      <c r="ALS6" s="0"/>
-      <c r="ALT6" s="0"/>
-      <c r="ALU6" s="0"/>
-      <c r="ALV6" s="0"/>
-      <c r="ALW6" s="0"/>
-      <c r="ALX6" s="0"/>
-      <c r="ALY6" s="0"/>
-      <c r="ALZ6" s="0"/>
-      <c r="AMA6" s="0"/>
-      <c r="AMB6" s="0"/>
-      <c r="AMC6" s="7"/>
-      <c r="AMD6" s="7"/>
-      <c r="AME6" s="7"/>
-      <c r="AMF6" s="7"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="AMC6" s="20"/>
+      <c r="AMD6" s="20"/>
+      <c r="AME6" s="20"/>
+      <c r="AMF6" s="20"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>23</v>
@@ -3091,19 +3088,19 @@
         <v>33</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
@@ -4117,10 +4114,10 @@
     </row>
     <row r="8" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>23</v>
@@ -4135,25 +4132,25 @@
         <v>33</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>27</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="P8" s="10" t="n">
         <v>15</v>
@@ -4163,12 +4160,12 @@
       <c r="AMI8" s="0"/>
       <c r="AMJ8" s="0"/>
     </row>
-    <row r="9" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>23</v>
@@ -4183,40 +4180,36 @@
         <v>33</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>27</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="13" t="s">
-        <v>71</v>
+      <c r="O9" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="P9" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="AMG9" s="0"/>
-      <c r="AMH9" s="0"/>
-      <c r="AMI9" s="0"/>
-      <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>73</v>
+        <v>67</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>23</v>
@@ -4231,40 +4224,36 @@
         <v>33</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>75</v>
+        <v>52</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>27</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O10" s="13" t="s">
-        <v>77</v>
+      <c r="O10" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="P10" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="AMG10" s="0"/>
-      <c r="AMH10" s="0"/>
-      <c r="AMI10" s="0"/>
-      <c r="AMJ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>79</v>
+        <v>73</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>23</v>
@@ -4273,36 +4262,74 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>82</v>
+        <v>77</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
     </row>
-    <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>23</v>
@@ -4311,72 +4338,34 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="17" t="s">
-        <v>50</v>
+        <v>77</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10" t="s">
+      <c r="P13" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:W43"/>
+  <autoFilter ref="A2:W42"/>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
@@ -4413,15 +4402,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>2</v>
@@ -4429,7 +4418,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1.5</v>
@@ -4437,7 +4426,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>2</v>
@@ -4445,7 +4434,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>2</v>
@@ -4453,7 +4442,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>3</v>
@@ -4461,7 +4450,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>4</v>
@@ -4469,7 +4458,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>5</v>
@@ -4477,7 +4466,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>2</v>
@@ -4485,7 +4474,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>4</v>
@@ -4493,7 +4482,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>6</v>
@@ -4501,7 +4490,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>1</v>
@@ -4509,7 +4498,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>1</v>
@@ -4517,7 +4506,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>0.5</v>
@@ -4525,7 +4514,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>0.25</v>
@@ -4533,7 +4522,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>0.5</v>
@@ -4541,7 +4530,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>1</v>
@@ -4549,7 +4538,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>0.3</v>
@@ -4557,7 +4546,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>0.1</v>
@@ -4582,30 +4571,30 @@
   <dimension ref="1:15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="18" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="18" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="1018" min="5" style="18" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="21" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="1018" min="5" style="21" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
+    <row r="1" s="23" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>111</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>114</v>
       </c>
       <c r="AME1" s="0"/>
       <c r="AMF1" s="0"/>
@@ -4615,176 +4604,176 @@
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="23" t="n">
+      <c r="A2" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>116</v>
+      <c r="D2" s="26" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="23" t="n">
+      <c r="A3" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="26" t="n">
         <v>8</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>118</v>
+      <c r="D3" s="26" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="23" t="n">
+      <c r="A4" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>116</v>
+      <c r="D4" s="26" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="23" t="n">
+      <c r="A5" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="26" t="n">
         <v>8</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>121</v>
+      <c r="D5" s="26" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="23" t="n">
+      <c r="A6" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="D6" s="23" t="n">
+      <c r="D6" s="26" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="23" t="n">
+      <c r="A7" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="D7" s="23" t="n">
+      <c r="D7" s="26" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="23" t="n">
+      <c r="A8" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="23" t="n">
+      <c r="D8" s="26" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="23" t="n">
+      <c r="A9" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>118</v>
+      <c r="D9" s="26" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="23" t="n">
+      <c r="A10" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>121</v>
+      <c r="D10" s="26" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="23" t="n">
+      <c r="A11" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>118</v>
+      <c r="D11" s="26" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24" t="n">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="D12" s="24"/>
+      <c r="D12" s="27"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24" t="n">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="D13" s="24"/>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24" t="n">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="D14" s="24"/>
+      <c r="D14" s="27"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24" t="n">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="D15" s="24"/>
+      <c r="D15" s="27"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/PNGRO/Data/Template.xlsx
+++ b/Projects/PNGRO/Data/Template.xlsx
@@ -13,20 +13,21 @@
     <sheet name="Eye-level" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">SBD_kpis!$A$2:$W$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">SBD_kpis!$A$2:$W$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">SBD_kpis!$A$2:$W$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$42</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">SBD_kpis!$A$2:$W$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">SBD_kpis!$A$2:$W$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">SBD_kpis!$A$2:$W$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$41</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="123">
   <si>
     <t>General Data</t>
   </si>
@@ -182,9 +183,6 @@
     <t>Da</t>
   </si>
   <si>
-    <t>Are H&amp;S male skus placed in hair care main shelf?</t>
-  </si>
-  <si>
     <t>Is Always Platinum min 15% of Always Pads shelf?</t>
   </si>
   <si>
@@ -224,7 +222,7 @@
     <t>LAUNDRY</t>
   </si>
   <si>
-    <t>Is Blue collection  min 30% from Lenor shelf?</t>
+    <t>Is Blue collection min 30% from Lenor shelf?</t>
   </si>
   <si>
     <t>Fabric Enhancers</t>
@@ -581,7 +579,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -635,35 +633,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -776,26 +750,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:13"/>
+  <dimension ref="1:12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="61.8056680161943"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="62.3441295546559"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="76.1619433198381"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="24.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="76.8056680161943"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="24.4251012145749"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="26.0283400809717"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="16.3886639676113"/>
@@ -1987,10 +1961,10 @@
       <c r="AMF4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -2011,7 +1985,7 @@
       <c r="J5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="14" t="s">
         <v>44</v>
       </c>
       <c r="L5" s="10" t="s">
@@ -3028,52 +3002,1056 @@
       <c r="AME5" s="7"/>
       <c r="AMF5" s="7"/>
     </row>
-    <row r="6" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="AMC6" s="20"/>
-      <c r="AMD6" s="20"/>
-      <c r="AME6" s="20"/>
-      <c r="AMF6" s="20"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="0"/>
+      <c r="R6" s="0"/>
+      <c r="S6" s="0"/>
+      <c r="T6" s="0"/>
+      <c r="U6" s="0"/>
+      <c r="V6" s="0"/>
+      <c r="W6" s="0"/>
+      <c r="X6" s="0"/>
+      <c r="Y6" s="0"/>
+      <c r="Z6" s="0"/>
+      <c r="AA6" s="0"/>
+      <c r="AB6" s="0"/>
+      <c r="AC6" s="0"/>
+      <c r="AD6" s="0"/>
+      <c r="AE6" s="0"/>
+      <c r="AF6" s="0"/>
+      <c r="AG6" s="0"/>
+      <c r="AH6" s="0"/>
+      <c r="AI6" s="0"/>
+      <c r="AJ6" s="0"/>
+      <c r="AK6" s="0"/>
+      <c r="AL6" s="0"/>
+      <c r="AM6" s="0"/>
+      <c r="AN6" s="0"/>
+      <c r="AO6" s="0"/>
+      <c r="AP6" s="0"/>
+      <c r="AQ6" s="0"/>
+      <c r="AR6" s="0"/>
+      <c r="AS6" s="0"/>
+      <c r="AT6" s="0"/>
+      <c r="AU6" s="0"/>
+      <c r="AV6" s="0"/>
+      <c r="AW6" s="0"/>
+      <c r="AX6" s="0"/>
+      <c r="AY6" s="0"/>
+      <c r="AZ6" s="0"/>
+      <c r="BA6" s="0"/>
+      <c r="BB6" s="0"/>
+      <c r="BC6" s="0"/>
+      <c r="BD6" s="0"/>
+      <c r="BE6" s="0"/>
+      <c r="BF6" s="0"/>
+      <c r="BG6" s="0"/>
+      <c r="BH6" s="0"/>
+      <c r="BI6" s="0"/>
+      <c r="BJ6" s="0"/>
+      <c r="BK6" s="0"/>
+      <c r="BL6" s="0"/>
+      <c r="BM6" s="0"/>
+      <c r="BN6" s="0"/>
+      <c r="BO6" s="0"/>
+      <c r="BP6" s="0"/>
+      <c r="BQ6" s="0"/>
+      <c r="BR6" s="0"/>
+      <c r="BS6" s="0"/>
+      <c r="BT6" s="0"/>
+      <c r="BU6" s="0"/>
+      <c r="BV6" s="0"/>
+      <c r="BW6" s="0"/>
+      <c r="BX6" s="0"/>
+      <c r="BY6" s="0"/>
+      <c r="BZ6" s="0"/>
+      <c r="CA6" s="0"/>
+      <c r="CB6" s="0"/>
+      <c r="CC6" s="0"/>
+      <c r="CD6" s="0"/>
+      <c r="CE6" s="0"/>
+      <c r="CF6" s="0"/>
+      <c r="CG6" s="0"/>
+      <c r="CH6" s="0"/>
+      <c r="CI6" s="0"/>
+      <c r="CJ6" s="0"/>
+      <c r="CK6" s="0"/>
+      <c r="CL6" s="0"/>
+      <c r="CM6" s="0"/>
+      <c r="CN6" s="0"/>
+      <c r="CO6" s="0"/>
+      <c r="CP6" s="0"/>
+      <c r="CQ6" s="0"/>
+      <c r="CR6" s="0"/>
+      <c r="CS6" s="0"/>
+      <c r="CT6" s="0"/>
+      <c r="CU6" s="0"/>
+      <c r="CV6" s="0"/>
+      <c r="CW6" s="0"/>
+      <c r="CX6" s="0"/>
+      <c r="CY6" s="0"/>
+      <c r="CZ6" s="0"/>
+      <c r="DA6" s="0"/>
+      <c r="DB6" s="0"/>
+      <c r="DC6" s="0"/>
+      <c r="DD6" s="0"/>
+      <c r="DE6" s="0"/>
+      <c r="DF6" s="0"/>
+      <c r="DG6" s="0"/>
+      <c r="DH6" s="0"/>
+      <c r="DI6" s="0"/>
+      <c r="DJ6" s="0"/>
+      <c r="DK6" s="0"/>
+      <c r="DL6" s="0"/>
+      <c r="DM6" s="0"/>
+      <c r="DN6" s="0"/>
+      <c r="DO6" s="0"/>
+      <c r="DP6" s="0"/>
+      <c r="DQ6" s="0"/>
+      <c r="DR6" s="0"/>
+      <c r="DS6" s="0"/>
+      <c r="DT6" s="0"/>
+      <c r="DU6" s="0"/>
+      <c r="DV6" s="0"/>
+      <c r="DW6" s="0"/>
+      <c r="DX6" s="0"/>
+      <c r="DY6" s="0"/>
+      <c r="DZ6" s="0"/>
+      <c r="EA6" s="0"/>
+      <c r="EB6" s="0"/>
+      <c r="EC6" s="0"/>
+      <c r="ED6" s="0"/>
+      <c r="EE6" s="0"/>
+      <c r="EF6" s="0"/>
+      <c r="EG6" s="0"/>
+      <c r="EH6" s="0"/>
+      <c r="EI6" s="0"/>
+      <c r="EJ6" s="0"/>
+      <c r="EK6" s="0"/>
+      <c r="EL6" s="0"/>
+      <c r="EM6" s="0"/>
+      <c r="EN6" s="0"/>
+      <c r="EO6" s="0"/>
+      <c r="EP6" s="0"/>
+      <c r="EQ6" s="0"/>
+      <c r="ER6" s="0"/>
+      <c r="ES6" s="0"/>
+      <c r="ET6" s="0"/>
+      <c r="EU6" s="0"/>
+      <c r="EV6" s="0"/>
+      <c r="EW6" s="0"/>
+      <c r="EX6" s="0"/>
+      <c r="EY6" s="0"/>
+      <c r="EZ6" s="0"/>
+      <c r="FA6" s="0"/>
+      <c r="FB6" s="0"/>
+      <c r="FC6" s="0"/>
+      <c r="FD6" s="0"/>
+      <c r="FE6" s="0"/>
+      <c r="FF6" s="0"/>
+      <c r="FG6" s="0"/>
+      <c r="FH6" s="0"/>
+      <c r="FI6" s="0"/>
+      <c r="FJ6" s="0"/>
+      <c r="FK6" s="0"/>
+      <c r="FL6" s="0"/>
+      <c r="FM6" s="0"/>
+      <c r="FN6" s="0"/>
+      <c r="FO6" s="0"/>
+      <c r="FP6" s="0"/>
+      <c r="FQ6" s="0"/>
+      <c r="FR6" s="0"/>
+      <c r="FS6" s="0"/>
+      <c r="FT6" s="0"/>
+      <c r="FU6" s="0"/>
+      <c r="FV6" s="0"/>
+      <c r="FW6" s="0"/>
+      <c r="FX6" s="0"/>
+      <c r="FY6" s="0"/>
+      <c r="FZ6" s="0"/>
+      <c r="GA6" s="0"/>
+      <c r="GB6" s="0"/>
+      <c r="GC6" s="0"/>
+      <c r="GD6" s="0"/>
+      <c r="GE6" s="0"/>
+      <c r="GF6" s="0"/>
+      <c r="GG6" s="0"/>
+      <c r="GH6" s="0"/>
+      <c r="GI6" s="0"/>
+      <c r="GJ6" s="0"/>
+      <c r="GK6" s="0"/>
+      <c r="GL6" s="0"/>
+      <c r="GM6" s="0"/>
+      <c r="GN6" s="0"/>
+      <c r="GO6" s="0"/>
+      <c r="GP6" s="0"/>
+      <c r="GQ6" s="0"/>
+      <c r="GR6" s="0"/>
+      <c r="GS6" s="0"/>
+      <c r="GT6" s="0"/>
+      <c r="GU6" s="0"/>
+      <c r="GV6" s="0"/>
+      <c r="GW6" s="0"/>
+      <c r="GX6" s="0"/>
+      <c r="GY6" s="0"/>
+      <c r="GZ6" s="0"/>
+      <c r="HA6" s="0"/>
+      <c r="HB6" s="0"/>
+      <c r="HC6" s="0"/>
+      <c r="HD6" s="0"/>
+      <c r="HE6" s="0"/>
+      <c r="HF6" s="0"/>
+      <c r="HG6" s="0"/>
+      <c r="HH6" s="0"/>
+      <c r="HI6" s="0"/>
+      <c r="HJ6" s="0"/>
+      <c r="HK6" s="0"/>
+      <c r="HL6" s="0"/>
+      <c r="HM6" s="0"/>
+      <c r="HN6" s="0"/>
+      <c r="HO6" s="0"/>
+      <c r="HP6" s="0"/>
+      <c r="HQ6" s="0"/>
+      <c r="HR6" s="0"/>
+      <c r="HS6" s="0"/>
+      <c r="HT6" s="0"/>
+      <c r="HU6" s="0"/>
+      <c r="HV6" s="0"/>
+      <c r="HW6" s="0"/>
+      <c r="HX6" s="0"/>
+      <c r="HY6" s="0"/>
+      <c r="HZ6" s="0"/>
+      <c r="IA6" s="0"/>
+      <c r="IB6" s="0"/>
+      <c r="IC6" s="0"/>
+      <c r="ID6" s="0"/>
+      <c r="IE6" s="0"/>
+      <c r="IF6" s="0"/>
+      <c r="IG6" s="0"/>
+      <c r="IH6" s="0"/>
+      <c r="II6" s="0"/>
+      <c r="IJ6" s="0"/>
+      <c r="IK6" s="0"/>
+      <c r="IL6" s="0"/>
+      <c r="IM6" s="0"/>
+      <c r="IN6" s="0"/>
+      <c r="IO6" s="0"/>
+      <c r="IP6" s="0"/>
+      <c r="IQ6" s="0"/>
+      <c r="IR6" s="0"/>
+      <c r="IS6" s="0"/>
+      <c r="IT6" s="0"/>
+      <c r="IU6" s="0"/>
+      <c r="IV6" s="0"/>
+      <c r="IW6" s="0"/>
+      <c r="IX6" s="0"/>
+      <c r="IY6" s="0"/>
+      <c r="IZ6" s="0"/>
+      <c r="JA6" s="0"/>
+      <c r="JB6" s="0"/>
+      <c r="JC6" s="0"/>
+      <c r="JD6" s="0"/>
+      <c r="JE6" s="0"/>
+      <c r="JF6" s="0"/>
+      <c r="JG6" s="0"/>
+      <c r="JH6" s="0"/>
+      <c r="JI6" s="0"/>
+      <c r="JJ6" s="0"/>
+      <c r="JK6" s="0"/>
+      <c r="JL6" s="0"/>
+      <c r="JM6" s="0"/>
+      <c r="JN6" s="0"/>
+      <c r="JO6" s="0"/>
+      <c r="JP6" s="0"/>
+      <c r="JQ6" s="0"/>
+      <c r="JR6" s="0"/>
+      <c r="JS6" s="0"/>
+      <c r="JT6" s="0"/>
+      <c r="JU6" s="0"/>
+      <c r="JV6" s="0"/>
+      <c r="JW6" s="0"/>
+      <c r="JX6" s="0"/>
+      <c r="JY6" s="0"/>
+      <c r="JZ6" s="0"/>
+      <c r="KA6" s="0"/>
+      <c r="KB6" s="0"/>
+      <c r="KC6" s="0"/>
+      <c r="KD6" s="0"/>
+      <c r="KE6" s="0"/>
+      <c r="KF6" s="0"/>
+      <c r="KG6" s="0"/>
+      <c r="KH6" s="0"/>
+      <c r="KI6" s="0"/>
+      <c r="KJ6" s="0"/>
+      <c r="KK6" s="0"/>
+      <c r="KL6" s="0"/>
+      <c r="KM6" s="0"/>
+      <c r="KN6" s="0"/>
+      <c r="KO6" s="0"/>
+      <c r="KP6" s="0"/>
+      <c r="KQ6" s="0"/>
+      <c r="KR6" s="0"/>
+      <c r="KS6" s="0"/>
+      <c r="KT6" s="0"/>
+      <c r="KU6" s="0"/>
+      <c r="KV6" s="0"/>
+      <c r="KW6" s="0"/>
+      <c r="KX6" s="0"/>
+      <c r="KY6" s="0"/>
+      <c r="KZ6" s="0"/>
+      <c r="LA6" s="0"/>
+      <c r="LB6" s="0"/>
+      <c r="LC6" s="0"/>
+      <c r="LD6" s="0"/>
+      <c r="LE6" s="0"/>
+      <c r="LF6" s="0"/>
+      <c r="LG6" s="0"/>
+      <c r="LH6" s="0"/>
+      <c r="LI6" s="0"/>
+      <c r="LJ6" s="0"/>
+      <c r="LK6" s="0"/>
+      <c r="LL6" s="0"/>
+      <c r="LM6" s="0"/>
+      <c r="LN6" s="0"/>
+      <c r="LO6" s="0"/>
+      <c r="LP6" s="0"/>
+      <c r="LQ6" s="0"/>
+      <c r="LR6" s="0"/>
+      <c r="LS6" s="0"/>
+      <c r="LT6" s="0"/>
+      <c r="LU6" s="0"/>
+      <c r="LV6" s="0"/>
+      <c r="LW6" s="0"/>
+      <c r="LX6" s="0"/>
+      <c r="LY6" s="0"/>
+      <c r="LZ6" s="0"/>
+      <c r="MA6" s="0"/>
+      <c r="MB6" s="0"/>
+      <c r="MC6" s="0"/>
+      <c r="MD6" s="0"/>
+      <c r="ME6" s="0"/>
+      <c r="MF6" s="0"/>
+      <c r="MG6" s="0"/>
+      <c r="MH6" s="0"/>
+      <c r="MI6" s="0"/>
+      <c r="MJ6" s="0"/>
+      <c r="MK6" s="0"/>
+      <c r="ML6" s="0"/>
+      <c r="MM6" s="0"/>
+      <c r="MN6" s="0"/>
+      <c r="MO6" s="0"/>
+      <c r="MP6" s="0"/>
+      <c r="MQ6" s="0"/>
+      <c r="MR6" s="0"/>
+      <c r="MS6" s="0"/>
+      <c r="MT6" s="0"/>
+      <c r="MU6" s="0"/>
+      <c r="MV6" s="0"/>
+      <c r="MW6" s="0"/>
+      <c r="MX6" s="0"/>
+      <c r="MY6" s="0"/>
+      <c r="MZ6" s="0"/>
+      <c r="NA6" s="0"/>
+      <c r="NB6" s="0"/>
+      <c r="NC6" s="0"/>
+      <c r="ND6" s="0"/>
+      <c r="NE6" s="0"/>
+      <c r="NF6" s="0"/>
+      <c r="NG6" s="0"/>
+      <c r="NH6" s="0"/>
+      <c r="NI6" s="0"/>
+      <c r="NJ6" s="0"/>
+      <c r="NK6" s="0"/>
+      <c r="NL6" s="0"/>
+      <c r="NM6" s="0"/>
+      <c r="NN6" s="0"/>
+      <c r="NO6" s="0"/>
+      <c r="NP6" s="0"/>
+      <c r="NQ6" s="0"/>
+      <c r="NR6" s="0"/>
+      <c r="NS6" s="0"/>
+      <c r="NT6" s="0"/>
+      <c r="NU6" s="0"/>
+      <c r="NV6" s="0"/>
+      <c r="NW6" s="0"/>
+      <c r="NX6" s="0"/>
+      <c r="NY6" s="0"/>
+      <c r="NZ6" s="0"/>
+      <c r="OA6" s="0"/>
+      <c r="OB6" s="0"/>
+      <c r="OC6" s="0"/>
+      <c r="OD6" s="0"/>
+      <c r="OE6" s="0"/>
+      <c r="OF6" s="0"/>
+      <c r="OG6" s="0"/>
+      <c r="OH6" s="0"/>
+      <c r="OI6" s="0"/>
+      <c r="OJ6" s="0"/>
+      <c r="OK6" s="0"/>
+      <c r="OL6" s="0"/>
+      <c r="OM6" s="0"/>
+      <c r="ON6" s="0"/>
+      <c r="OO6" s="0"/>
+      <c r="OP6" s="0"/>
+      <c r="OQ6" s="0"/>
+      <c r="OR6" s="0"/>
+      <c r="OS6" s="0"/>
+      <c r="OT6" s="0"/>
+      <c r="OU6" s="0"/>
+      <c r="OV6" s="0"/>
+      <c r="OW6" s="0"/>
+      <c r="OX6" s="0"/>
+      <c r="OY6" s="0"/>
+      <c r="OZ6" s="0"/>
+      <c r="PA6" s="0"/>
+      <c r="PB6" s="0"/>
+      <c r="PC6" s="0"/>
+      <c r="PD6" s="0"/>
+      <c r="PE6" s="0"/>
+      <c r="PF6" s="0"/>
+      <c r="PG6" s="0"/>
+      <c r="PH6" s="0"/>
+      <c r="PI6" s="0"/>
+      <c r="PJ6" s="0"/>
+      <c r="PK6" s="0"/>
+      <c r="PL6" s="0"/>
+      <c r="PM6" s="0"/>
+      <c r="PN6" s="0"/>
+      <c r="PO6" s="0"/>
+      <c r="PP6" s="0"/>
+      <c r="PQ6" s="0"/>
+      <c r="PR6" s="0"/>
+      <c r="PS6" s="0"/>
+      <c r="PT6" s="0"/>
+      <c r="PU6" s="0"/>
+      <c r="PV6" s="0"/>
+      <c r="PW6" s="0"/>
+      <c r="PX6" s="0"/>
+      <c r="PY6" s="0"/>
+      <c r="PZ6" s="0"/>
+      <c r="QA6" s="0"/>
+      <c r="QB6" s="0"/>
+      <c r="QC6" s="0"/>
+      <c r="QD6" s="0"/>
+      <c r="QE6" s="0"/>
+      <c r="QF6" s="0"/>
+      <c r="QG6" s="0"/>
+      <c r="QH6" s="0"/>
+      <c r="QI6" s="0"/>
+      <c r="QJ6" s="0"/>
+      <c r="QK6" s="0"/>
+      <c r="QL6" s="0"/>
+      <c r="QM6" s="0"/>
+      <c r="QN6" s="0"/>
+      <c r="QO6" s="0"/>
+      <c r="QP6" s="0"/>
+      <c r="QQ6" s="0"/>
+      <c r="QR6" s="0"/>
+      <c r="QS6" s="0"/>
+      <c r="QT6" s="0"/>
+      <c r="QU6" s="0"/>
+      <c r="QV6" s="0"/>
+      <c r="QW6" s="0"/>
+      <c r="QX6" s="0"/>
+      <c r="QY6" s="0"/>
+      <c r="QZ6" s="0"/>
+      <c r="RA6" s="0"/>
+      <c r="RB6" s="0"/>
+      <c r="RC6" s="0"/>
+      <c r="RD6" s="0"/>
+      <c r="RE6" s="0"/>
+      <c r="RF6" s="0"/>
+      <c r="RG6" s="0"/>
+      <c r="RH6" s="0"/>
+      <c r="RI6" s="0"/>
+      <c r="RJ6" s="0"/>
+      <c r="RK6" s="0"/>
+      <c r="RL6" s="0"/>
+      <c r="RM6" s="0"/>
+      <c r="RN6" s="0"/>
+      <c r="RO6" s="0"/>
+      <c r="RP6" s="0"/>
+      <c r="RQ6" s="0"/>
+      <c r="RR6" s="0"/>
+      <c r="RS6" s="0"/>
+      <c r="RT6" s="0"/>
+      <c r="RU6" s="0"/>
+      <c r="RV6" s="0"/>
+      <c r="RW6" s="0"/>
+      <c r="RX6" s="0"/>
+      <c r="RY6" s="0"/>
+      <c r="RZ6" s="0"/>
+      <c r="SA6" s="0"/>
+      <c r="SB6" s="0"/>
+      <c r="SC6" s="0"/>
+      <c r="SD6" s="0"/>
+      <c r="SE6" s="0"/>
+      <c r="SF6" s="0"/>
+      <c r="SG6" s="0"/>
+      <c r="SH6" s="0"/>
+      <c r="SI6" s="0"/>
+      <c r="SJ6" s="0"/>
+      <c r="SK6" s="0"/>
+      <c r="SL6" s="0"/>
+      <c r="SM6" s="0"/>
+      <c r="SN6" s="0"/>
+      <c r="SO6" s="0"/>
+      <c r="SP6" s="0"/>
+      <c r="SQ6" s="0"/>
+      <c r="SR6" s="0"/>
+      <c r="SS6" s="0"/>
+      <c r="ST6" s="0"/>
+      <c r="SU6" s="0"/>
+      <c r="SV6" s="0"/>
+      <c r="SW6" s="0"/>
+      <c r="SX6" s="0"/>
+      <c r="SY6" s="0"/>
+      <c r="SZ6" s="0"/>
+      <c r="TA6" s="0"/>
+      <c r="TB6" s="0"/>
+      <c r="TC6" s="0"/>
+      <c r="TD6" s="0"/>
+      <c r="TE6" s="0"/>
+      <c r="TF6" s="0"/>
+      <c r="TG6" s="0"/>
+      <c r="TH6" s="0"/>
+      <c r="TI6" s="0"/>
+      <c r="TJ6" s="0"/>
+      <c r="TK6" s="0"/>
+      <c r="TL6" s="0"/>
+      <c r="TM6" s="0"/>
+      <c r="TN6" s="0"/>
+      <c r="TO6" s="0"/>
+      <c r="TP6" s="0"/>
+      <c r="TQ6" s="0"/>
+      <c r="TR6" s="0"/>
+      <c r="TS6" s="0"/>
+      <c r="TT6" s="0"/>
+      <c r="TU6" s="0"/>
+      <c r="TV6" s="0"/>
+      <c r="TW6" s="0"/>
+      <c r="TX6" s="0"/>
+      <c r="TY6" s="0"/>
+      <c r="TZ6" s="0"/>
+      <c r="UA6" s="0"/>
+      <c r="UB6" s="0"/>
+      <c r="UC6" s="0"/>
+      <c r="UD6" s="0"/>
+      <c r="UE6" s="0"/>
+      <c r="UF6" s="0"/>
+      <c r="UG6" s="0"/>
+      <c r="UH6" s="0"/>
+      <c r="UI6" s="0"/>
+      <c r="UJ6" s="0"/>
+      <c r="UK6" s="0"/>
+      <c r="UL6" s="0"/>
+      <c r="UM6" s="0"/>
+      <c r="UN6" s="0"/>
+      <c r="UO6" s="0"/>
+      <c r="UP6" s="0"/>
+      <c r="UQ6" s="0"/>
+      <c r="UR6" s="0"/>
+      <c r="US6" s="0"/>
+      <c r="UT6" s="0"/>
+      <c r="UU6" s="0"/>
+      <c r="UV6" s="0"/>
+      <c r="UW6" s="0"/>
+      <c r="UX6" s="0"/>
+      <c r="UY6" s="0"/>
+      <c r="UZ6" s="0"/>
+      <c r="VA6" s="0"/>
+      <c r="VB6" s="0"/>
+      <c r="VC6" s="0"/>
+      <c r="VD6" s="0"/>
+      <c r="VE6" s="0"/>
+      <c r="VF6" s="0"/>
+      <c r="VG6" s="0"/>
+      <c r="VH6" s="0"/>
+      <c r="VI6" s="0"/>
+      <c r="VJ6" s="0"/>
+      <c r="VK6" s="0"/>
+      <c r="VL6" s="0"/>
+      <c r="VM6" s="0"/>
+      <c r="VN6" s="0"/>
+      <c r="VO6" s="0"/>
+      <c r="VP6" s="0"/>
+      <c r="VQ6" s="0"/>
+      <c r="VR6" s="0"/>
+      <c r="VS6" s="0"/>
+      <c r="VT6" s="0"/>
+      <c r="VU6" s="0"/>
+      <c r="VV6" s="0"/>
+      <c r="VW6" s="0"/>
+      <c r="VX6" s="0"/>
+      <c r="VY6" s="0"/>
+      <c r="VZ6" s="0"/>
+      <c r="WA6" s="0"/>
+      <c r="WB6" s="0"/>
+      <c r="WC6" s="0"/>
+      <c r="WD6" s="0"/>
+      <c r="WE6" s="0"/>
+      <c r="WF6" s="0"/>
+      <c r="WG6" s="0"/>
+      <c r="WH6" s="0"/>
+      <c r="WI6" s="0"/>
+      <c r="WJ6" s="0"/>
+      <c r="WK6" s="0"/>
+      <c r="WL6" s="0"/>
+      <c r="WM6" s="0"/>
+      <c r="WN6" s="0"/>
+      <c r="WO6" s="0"/>
+      <c r="WP6" s="0"/>
+      <c r="WQ6" s="0"/>
+      <c r="WR6" s="0"/>
+      <c r="WS6" s="0"/>
+      <c r="WT6" s="0"/>
+      <c r="WU6" s="0"/>
+      <c r="WV6" s="0"/>
+      <c r="WW6" s="0"/>
+      <c r="WX6" s="0"/>
+      <c r="WY6" s="0"/>
+      <c r="WZ6" s="0"/>
+      <c r="XA6" s="0"/>
+      <c r="XB6" s="0"/>
+      <c r="XC6" s="0"/>
+      <c r="XD6" s="0"/>
+      <c r="XE6" s="0"/>
+      <c r="XF6" s="0"/>
+      <c r="XG6" s="0"/>
+      <c r="XH6" s="0"/>
+      <c r="XI6" s="0"/>
+      <c r="XJ6" s="0"/>
+      <c r="XK6" s="0"/>
+      <c r="XL6" s="0"/>
+      <c r="XM6" s="0"/>
+      <c r="XN6" s="0"/>
+      <c r="XO6" s="0"/>
+      <c r="XP6" s="0"/>
+      <c r="XQ6" s="0"/>
+      <c r="XR6" s="0"/>
+      <c r="XS6" s="0"/>
+      <c r="XT6" s="0"/>
+      <c r="XU6" s="0"/>
+      <c r="XV6" s="0"/>
+      <c r="XW6" s="0"/>
+      <c r="XX6" s="0"/>
+      <c r="XY6" s="0"/>
+      <c r="XZ6" s="0"/>
+      <c r="YA6" s="0"/>
+      <c r="YB6" s="0"/>
+      <c r="YC6" s="0"/>
+      <c r="YD6" s="0"/>
+      <c r="YE6" s="0"/>
+      <c r="YF6" s="0"/>
+      <c r="YG6" s="0"/>
+      <c r="YH6" s="0"/>
+      <c r="YI6" s="0"/>
+      <c r="YJ6" s="0"/>
+      <c r="YK6" s="0"/>
+      <c r="YL6" s="0"/>
+      <c r="YM6" s="0"/>
+      <c r="YN6" s="0"/>
+      <c r="YO6" s="0"/>
+      <c r="YP6" s="0"/>
+      <c r="YQ6" s="0"/>
+      <c r="YR6" s="0"/>
+      <c r="YS6" s="0"/>
+      <c r="YT6" s="0"/>
+      <c r="YU6" s="0"/>
+      <c r="YV6" s="0"/>
+      <c r="YW6" s="0"/>
+      <c r="YX6" s="0"/>
+      <c r="YY6" s="0"/>
+      <c r="YZ6" s="0"/>
+      <c r="ZA6" s="0"/>
+      <c r="ZB6" s="0"/>
+      <c r="ZC6" s="0"/>
+      <c r="ZD6" s="0"/>
+      <c r="ZE6" s="0"/>
+      <c r="ZF6" s="0"/>
+      <c r="ZG6" s="0"/>
+      <c r="ZH6" s="0"/>
+      <c r="ZI6" s="0"/>
+      <c r="ZJ6" s="0"/>
+      <c r="ZK6" s="0"/>
+      <c r="ZL6" s="0"/>
+      <c r="ZM6" s="0"/>
+      <c r="ZN6" s="0"/>
+      <c r="ZO6" s="0"/>
+      <c r="ZP6" s="0"/>
+      <c r="ZQ6" s="0"/>
+      <c r="ZR6" s="0"/>
+      <c r="ZS6" s="0"/>
+      <c r="ZT6" s="0"/>
+      <c r="ZU6" s="0"/>
+      <c r="ZV6" s="0"/>
+      <c r="ZW6" s="0"/>
+      <c r="ZX6" s="0"/>
+      <c r="ZY6" s="0"/>
+      <c r="ZZ6" s="0"/>
+      <c r="AAA6" s="0"/>
+      <c r="AAB6" s="0"/>
+      <c r="AAC6" s="0"/>
+      <c r="AAD6" s="0"/>
+      <c r="AAE6" s="0"/>
+      <c r="AAF6" s="0"/>
+      <c r="AAG6" s="0"/>
+      <c r="AAH6" s="0"/>
+      <c r="AAI6" s="0"/>
+      <c r="AAJ6" s="0"/>
+      <c r="AAK6" s="0"/>
+      <c r="AAL6" s="0"/>
+      <c r="AAM6" s="0"/>
+      <c r="AAN6" s="0"/>
+      <c r="AAO6" s="0"/>
+      <c r="AAP6" s="0"/>
+      <c r="AAQ6" s="0"/>
+      <c r="AAR6" s="0"/>
+      <c r="AAS6" s="0"/>
+      <c r="AAT6" s="0"/>
+      <c r="AAU6" s="0"/>
+      <c r="AAV6" s="0"/>
+      <c r="AAW6" s="0"/>
+      <c r="AAX6" s="0"/>
+      <c r="AAY6" s="0"/>
+      <c r="AAZ6" s="0"/>
+      <c r="ABA6" s="0"/>
+      <c r="ABB6" s="0"/>
+      <c r="ABC6" s="0"/>
+      <c r="ABD6" s="0"/>
+      <c r="ABE6" s="0"/>
+      <c r="ABF6" s="0"/>
+      <c r="ABG6" s="0"/>
+      <c r="ABH6" s="0"/>
+      <c r="ABI6" s="0"/>
+      <c r="ABJ6" s="0"/>
+      <c r="ABK6" s="0"/>
+      <c r="ABL6" s="0"/>
+      <c r="ABM6" s="0"/>
+      <c r="ABN6" s="0"/>
+      <c r="ABO6" s="0"/>
+      <c r="ABP6" s="0"/>
+      <c r="ABQ6" s="0"/>
+      <c r="ABR6" s="0"/>
+      <c r="ABS6" s="0"/>
+      <c r="ABT6" s="0"/>
+      <c r="ABU6" s="0"/>
+      <c r="ABV6" s="0"/>
+      <c r="ABW6" s="0"/>
+      <c r="ABX6" s="0"/>
+      <c r="ABY6" s="0"/>
+      <c r="ABZ6" s="0"/>
+      <c r="ACA6" s="0"/>
+      <c r="ACB6" s="0"/>
+      <c r="ACC6" s="0"/>
+      <c r="ACD6" s="0"/>
+      <c r="ACE6" s="0"/>
+      <c r="ACF6" s="0"/>
+      <c r="ACG6" s="0"/>
+      <c r="ACH6" s="0"/>
+      <c r="ACI6" s="0"/>
+      <c r="ACJ6" s="0"/>
+      <c r="ACK6" s="0"/>
+      <c r="ACL6" s="0"/>
+      <c r="ACM6" s="0"/>
+      <c r="ACN6" s="0"/>
+      <c r="ACO6" s="0"/>
+      <c r="ACP6" s="0"/>
+      <c r="ACQ6" s="0"/>
+      <c r="ACR6" s="0"/>
+      <c r="ACS6" s="0"/>
+      <c r="ACT6" s="0"/>
+      <c r="ACU6" s="0"/>
+      <c r="ACV6" s="0"/>
+      <c r="ACW6" s="0"/>
+      <c r="ACX6" s="0"/>
+      <c r="ACY6" s="0"/>
+      <c r="ACZ6" s="0"/>
+      <c r="ADA6" s="0"/>
+      <c r="ADB6" s="0"/>
+      <c r="ADC6" s="0"/>
+      <c r="ADD6" s="0"/>
+      <c r="ADE6" s="0"/>
+      <c r="ADF6" s="0"/>
+      <c r="ADG6" s="0"/>
+      <c r="ADH6" s="0"/>
+      <c r="ADI6" s="0"/>
+      <c r="ADJ6" s="0"/>
+      <c r="ADK6" s="0"/>
+      <c r="ADL6" s="0"/>
+      <c r="ADM6" s="0"/>
+      <c r="ADN6" s="0"/>
+      <c r="ADO6" s="0"/>
+      <c r="ADP6" s="0"/>
+      <c r="ADQ6" s="0"/>
+      <c r="ADR6" s="0"/>
+      <c r="ADS6" s="0"/>
+      <c r="ADT6" s="0"/>
+      <c r="ADU6" s="0"/>
+      <c r="ADV6" s="0"/>
+      <c r="ADW6" s="0"/>
+      <c r="ADX6" s="0"/>
+      <c r="ADY6" s="0"/>
+      <c r="ADZ6" s="0"/>
+      <c r="AEA6" s="0"/>
+      <c r="AEB6" s="0"/>
+      <c r="AEC6" s="0"/>
+      <c r="AED6" s="0"/>
+      <c r="AEE6" s="0"/>
+      <c r="AEF6" s="0"/>
+      <c r="AEG6" s="0"/>
+      <c r="AEH6" s="0"/>
+      <c r="AEI6" s="0"/>
+      <c r="AEJ6" s="0"/>
+      <c r="AEK6" s="0"/>
+      <c r="AEL6" s="0"/>
+      <c r="AEM6" s="0"/>
+      <c r="AEN6" s="0"/>
+      <c r="AEO6" s="0"/>
+      <c r="AEP6" s="0"/>
+      <c r="AEQ6" s="0"/>
+      <c r="AER6" s="0"/>
+      <c r="AES6" s="0"/>
+      <c r="AET6" s="0"/>
+      <c r="AEU6" s="0"/>
+      <c r="AEV6" s="0"/>
+      <c r="AEW6" s="0"/>
+      <c r="AEX6" s="0"/>
+      <c r="AEY6" s="0"/>
+      <c r="AEZ6" s="0"/>
+      <c r="AFA6" s="0"/>
+      <c r="AFB6" s="0"/>
+      <c r="AFC6" s="0"/>
+      <c r="AFD6" s="0"/>
+      <c r="AFE6" s="0"/>
+      <c r="AFF6" s="0"/>
+      <c r="AFG6" s="0"/>
+      <c r="AFH6" s="0"/>
+      <c r="AFI6" s="0"/>
+      <c r="AFJ6" s="0"/>
+      <c r="AFK6" s="0"/>
+      <c r="AFL6" s="0"/>
+      <c r="AFM6" s="0"/>
+      <c r="AFN6" s="0"/>
+      <c r="AFO6" s="0"/>
+      <c r="AFP6" s="0"/>
+      <c r="AFQ6" s="0"/>
+      <c r="AFR6" s="0"/>
+      <c r="AFS6" s="0"/>
+      <c r="AFT6" s="0"/>
+      <c r="AFU6" s="0"/>
+      <c r="AFV6" s="0"/>
+      <c r="AFW6" s="0"/>
+      <c r="AFX6" s="0"/>
+      <c r="AFY6" s="0"/>
+      <c r="AFZ6" s="0"/>
+      <c r="AGA6" s="0"/>
+      <c r="AGB6" s="0"/>
+      <c r="AGC6" s="0"/>
+      <c r="AGD6" s="0"/>
+      <c r="AGE6" s="0"/>
+      <c r="AGF6" s="0"/>
+      <c r="AGG6" s="0"/>
+      <c r="AGH6" s="0"/>
+      <c r="AGI6" s="0"/>
+      <c r="AGJ6" s="0"/>
+      <c r="AGK6" s="0"/>
+      <c r="AGL6" s="0"/>
+      <c r="AGM6" s="0"/>
+      <c r="AGN6" s="0"/>
+      <c r="AGO6" s="0"/>
+      <c r="AGP6" s="0"/>
+      <c r="AGQ6" s="0"/>
+      <c r="AGR6" s="0"/>
+      <c r="AGS6" s="0"/>
+      <c r="AGT6" s="0"/>
+      <c r="AGU6" s="0"/>
+      <c r="AGV6" s="0"/>
+      <c r="AGW6" s="0"/>
+      <c r="AGX6" s="0"/>
+      <c r="AGY6" s="0"/>
+      <c r="AGZ6" s="0"/>
+      <c r="AHA6" s="0"/>
+      <c r="AHB6" s="0"/>
+      <c r="AHC6" s="0"/>
+      <c r="AHD6" s="0"/>
+      <c r="AHE6" s="0"/>
+      <c r="AHF6" s="0"/>
+      <c r="AHG6" s="0"/>
+      <c r="AHH6" s="0"/>
+      <c r="AHI6" s="0"/>
+      <c r="AHJ6" s="0"/>
+      <c r="AHK6" s="0"/>
+      <c r="AHL6" s="0"/>
+      <c r="AHM6" s="0"/>
+      <c r="AHN6" s="0"/>
+      <c r="AHO6" s="0"/>
+      <c r="AHP6" s="0"/>
+      <c r="AHQ6" s="0"/>
+      <c r="AHR6" s="0"/>
+      <c r="AHS6" s="0"/>
+      <c r="AHT6" s="0"/>
+      <c r="AHU6" s="0"/>
+      <c r="AHV6" s="0"/>
+      <c r="AHW6" s="0"/>
+      <c r="AHX6" s="0"/>
+      <c r="AHY6" s="0"/>
+      <c r="AHZ6" s="0"/>
+      <c r="AIA6" s="0"/>
+      <c r="AIB6" s="0"/>
+      <c r="AIC6" s="0"/>
+      <c r="AID6" s="0"/>
+      <c r="AIE6" s="0"/>
+      <c r="AIF6" s="0"/>
+      <c r="AIG6" s="0"/>
+      <c r="AIH6" s="0"/>
+      <c r="AII6" s="0"/>
+      <c r="AIJ6" s="0"/>
+      <c r="AIK6" s="0"/>
+      <c r="AIL6" s="0"/>
+      <c r="AIM6" s="0"/>
+      <c r="AIN6" s="0"/>
+      <c r="AIO6" s="0"/>
+      <c r="AIP6" s="0"/>
+      <c r="AIQ6" s="0"/>
+      <c r="AIR6" s="0"/>
+      <c r="AIS6" s="0"/>
+      <c r="AIT6" s="0"/>
+      <c r="AIU6" s="0"/>
+      <c r="AIV6" s="0"/>
+      <c r="AIW6" s="0"/>
+      <c r="AIX6" s="0"/>
+      <c r="AIY6" s="0"/>
+      <c r="AIZ6" s="0"/>
+      <c r="AJA6" s="0"/>
+      <c r="AJB6" s="0"/>
+      <c r="AJC6" s="0"/>
+      <c r="AJD6" s="0"/>
+      <c r="AJE6" s="0"/>
+      <c r="AJF6" s="0"/>
+      <c r="AJG6" s="0"/>
+      <c r="AJH6" s="0"/>
+      <c r="AJI6" s="0"/>
+      <c r="AJJ6" s="0"/>
+      <c r="AJK6" s="0"/>
+      <c r="AJL6" s="0"/>
+      <c r="AJM6" s="0"/>
+      <c r="AJN6" s="0"/>
+      <c r="AJO6" s="0"/>
+      <c r="AJP6" s="0"/>
+      <c r="AJQ6" s="0"/>
+      <c r="AJR6" s="0"/>
+      <c r="AJS6" s="0"/>
+      <c r="AJT6" s="0"/>
+      <c r="AJU6" s="0"/>
+      <c r="AJV6" s="0"/>
+      <c r="AJW6" s="0"/>
+      <c r="AJX6" s="0"/>
+      <c r="AJY6" s="0"/>
+      <c r="AJZ6" s="0"/>
+      <c r="AKA6" s="0"/>
+      <c r="AKB6" s="0"/>
+      <c r="AKC6" s="0"/>
+      <c r="AKD6" s="0"/>
+      <c r="AKE6" s="0"/>
+      <c r="AKF6" s="0"/>
+      <c r="AKG6" s="0"/>
+      <c r="AKH6" s="0"/>
+      <c r="AKI6" s="0"/>
+      <c r="AKJ6" s="0"/>
+      <c r="AKK6" s="0"/>
+      <c r="AKL6" s="0"/>
+      <c r="AKM6" s="0"/>
+      <c r="AKN6" s="0"/>
+      <c r="AKO6" s="0"/>
+      <c r="AKP6" s="0"/>
+      <c r="AKQ6" s="0"/>
+      <c r="AKR6" s="0"/>
+      <c r="AKS6" s="0"/>
+      <c r="AKT6" s="0"/>
+      <c r="AKU6" s="0"/>
+      <c r="AKV6" s="0"/>
+      <c r="AKW6" s="0"/>
+      <c r="AKX6" s="0"/>
+      <c r="AKY6" s="0"/>
+      <c r="AKZ6" s="0"/>
+      <c r="ALA6" s="0"/>
+      <c r="ALB6" s="0"/>
+      <c r="ALC6" s="0"/>
+      <c r="ALD6" s="0"/>
+      <c r="ALE6" s="0"/>
+      <c r="ALF6" s="0"/>
+      <c r="ALG6" s="0"/>
+      <c r="ALH6" s="0"/>
+      <c r="ALI6" s="0"/>
+      <c r="ALJ6" s="0"/>
+      <c r="ALK6" s="0"/>
+      <c r="ALL6" s="0"/>
+      <c r="ALM6" s="0"/>
+      <c r="ALN6" s="0"/>
+      <c r="ALO6" s="0"/>
+      <c r="ALP6" s="0"/>
+      <c r="ALQ6" s="0"/>
+      <c r="ALR6" s="0"/>
+      <c r="ALS6" s="0"/>
+      <c r="ALT6" s="0"/>
+      <c r="ALU6" s="0"/>
+      <c r="ALV6" s="0"/>
+      <c r="ALW6" s="0"/>
+      <c r="ALX6" s="0"/>
+      <c r="ALY6" s="0"/>
+      <c r="ALZ6" s="0"/>
+      <c r="AMA6" s="0"/>
+      <c r="AMB6" s="0"/>
+      <c r="AMC6" s="7"/>
+      <c r="AMD6" s="7"/>
+      <c r="AME6" s="7"/>
+      <c r="AMF6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>23</v>
@@ -3088,1036 +4066,40 @@
         <v>33</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
+        <v>57</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="P7" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="Q7" s="0"/>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0"/>
-      <c r="T7" s="0"/>
-      <c r="U7" s="0"/>
-      <c r="V7" s="0"/>
-      <c r="W7" s="0"/>
-      <c r="X7" s="0"/>
-      <c r="Y7" s="0"/>
-      <c r="Z7" s="0"/>
-      <c r="AA7" s="0"/>
-      <c r="AB7" s="0"/>
-      <c r="AC7" s="0"/>
-      <c r="AD7" s="0"/>
-      <c r="AE7" s="0"/>
-      <c r="AF7" s="0"/>
-      <c r="AG7" s="0"/>
-      <c r="AH7" s="0"/>
-      <c r="AI7" s="0"/>
-      <c r="AJ7" s="0"/>
-      <c r="AK7" s="0"/>
-      <c r="AL7" s="0"/>
-      <c r="AM7" s="0"/>
-      <c r="AN7" s="0"/>
-      <c r="AO7" s="0"/>
-      <c r="AP7" s="0"/>
-      <c r="AQ7" s="0"/>
-      <c r="AR7" s="0"/>
-      <c r="AS7" s="0"/>
-      <c r="AT7" s="0"/>
-      <c r="AU7" s="0"/>
-      <c r="AV7" s="0"/>
-      <c r="AW7" s="0"/>
-      <c r="AX7" s="0"/>
-      <c r="AY7" s="0"/>
-      <c r="AZ7" s="0"/>
-      <c r="BA7" s="0"/>
-      <c r="BB7" s="0"/>
-      <c r="BC7" s="0"/>
-      <c r="BD7" s="0"/>
-      <c r="BE7" s="0"/>
-      <c r="BF7" s="0"/>
-      <c r="BG7" s="0"/>
-      <c r="BH7" s="0"/>
-      <c r="BI7" s="0"/>
-      <c r="BJ7" s="0"/>
-      <c r="BK7" s="0"/>
-      <c r="BL7" s="0"/>
-      <c r="BM7" s="0"/>
-      <c r="BN7" s="0"/>
-      <c r="BO7" s="0"/>
-      <c r="BP7" s="0"/>
-      <c r="BQ7" s="0"/>
-      <c r="BR7" s="0"/>
-      <c r="BS7" s="0"/>
-      <c r="BT7" s="0"/>
-      <c r="BU7" s="0"/>
-      <c r="BV7" s="0"/>
-      <c r="BW7" s="0"/>
-      <c r="BX7" s="0"/>
-      <c r="BY7" s="0"/>
-      <c r="BZ7" s="0"/>
-      <c r="CA7" s="0"/>
-      <c r="CB7" s="0"/>
-      <c r="CC7" s="0"/>
-      <c r="CD7" s="0"/>
-      <c r="CE7" s="0"/>
-      <c r="CF7" s="0"/>
-      <c r="CG7" s="0"/>
-      <c r="CH7" s="0"/>
-      <c r="CI7" s="0"/>
-      <c r="CJ7" s="0"/>
-      <c r="CK7" s="0"/>
-      <c r="CL7" s="0"/>
-      <c r="CM7" s="0"/>
-      <c r="CN7" s="0"/>
-      <c r="CO7" s="0"/>
-      <c r="CP7" s="0"/>
-      <c r="CQ7" s="0"/>
-      <c r="CR7" s="0"/>
-      <c r="CS7" s="0"/>
-      <c r="CT7" s="0"/>
-      <c r="CU7" s="0"/>
-      <c r="CV7" s="0"/>
-      <c r="CW7" s="0"/>
-      <c r="CX7" s="0"/>
-      <c r="CY7" s="0"/>
-      <c r="CZ7" s="0"/>
-      <c r="DA7" s="0"/>
-      <c r="DB7" s="0"/>
-      <c r="DC7" s="0"/>
-      <c r="DD7" s="0"/>
-      <c r="DE7" s="0"/>
-      <c r="DF7" s="0"/>
-      <c r="DG7" s="0"/>
-      <c r="DH7" s="0"/>
-      <c r="DI7" s="0"/>
-      <c r="DJ7" s="0"/>
-      <c r="DK7" s="0"/>
-      <c r="DL7" s="0"/>
-      <c r="DM7" s="0"/>
-      <c r="DN7" s="0"/>
-      <c r="DO7" s="0"/>
-      <c r="DP7" s="0"/>
-      <c r="DQ7" s="0"/>
-      <c r="DR7" s="0"/>
-      <c r="DS7" s="0"/>
-      <c r="DT7" s="0"/>
-      <c r="DU7" s="0"/>
-      <c r="DV7" s="0"/>
-      <c r="DW7" s="0"/>
-      <c r="DX7" s="0"/>
-      <c r="DY7" s="0"/>
-      <c r="DZ7" s="0"/>
-      <c r="EA7" s="0"/>
-      <c r="EB7" s="0"/>
-      <c r="EC7" s="0"/>
-      <c r="ED7" s="0"/>
-      <c r="EE7" s="0"/>
-      <c r="EF7" s="0"/>
-      <c r="EG7" s="0"/>
-      <c r="EH7" s="0"/>
-      <c r="EI7" s="0"/>
-      <c r="EJ7" s="0"/>
-      <c r="EK7" s="0"/>
-      <c r="EL7" s="0"/>
-      <c r="EM7" s="0"/>
-      <c r="EN7" s="0"/>
-      <c r="EO7" s="0"/>
-      <c r="EP7" s="0"/>
-      <c r="EQ7" s="0"/>
-      <c r="ER7" s="0"/>
-      <c r="ES7" s="0"/>
-      <c r="ET7" s="0"/>
-      <c r="EU7" s="0"/>
-      <c r="EV7" s="0"/>
-      <c r="EW7" s="0"/>
-      <c r="EX7" s="0"/>
-      <c r="EY7" s="0"/>
-      <c r="EZ7" s="0"/>
-      <c r="FA7" s="0"/>
-      <c r="FB7" s="0"/>
-      <c r="FC7" s="0"/>
-      <c r="FD7" s="0"/>
-      <c r="FE7" s="0"/>
-      <c r="FF7" s="0"/>
-      <c r="FG7" s="0"/>
-      <c r="FH7" s="0"/>
-      <c r="FI7" s="0"/>
-      <c r="FJ7" s="0"/>
-      <c r="FK7" s="0"/>
-      <c r="FL7" s="0"/>
-      <c r="FM7" s="0"/>
-      <c r="FN7" s="0"/>
-      <c r="FO7" s="0"/>
-      <c r="FP7" s="0"/>
-      <c r="FQ7" s="0"/>
-      <c r="FR7" s="0"/>
-      <c r="FS7" s="0"/>
-      <c r="FT7" s="0"/>
-      <c r="FU7" s="0"/>
-      <c r="FV7" s="0"/>
-      <c r="FW7" s="0"/>
-      <c r="FX7" s="0"/>
-      <c r="FY7" s="0"/>
-      <c r="FZ7" s="0"/>
-      <c r="GA7" s="0"/>
-      <c r="GB7" s="0"/>
-      <c r="GC7" s="0"/>
-      <c r="GD7" s="0"/>
-      <c r="GE7" s="0"/>
-      <c r="GF7" s="0"/>
-      <c r="GG7" s="0"/>
-      <c r="GH7" s="0"/>
-      <c r="GI7" s="0"/>
-      <c r="GJ7" s="0"/>
-      <c r="GK7" s="0"/>
-      <c r="GL7" s="0"/>
-      <c r="GM7" s="0"/>
-      <c r="GN7" s="0"/>
-      <c r="GO7" s="0"/>
-      <c r="GP7" s="0"/>
-      <c r="GQ7" s="0"/>
-      <c r="GR7" s="0"/>
-      <c r="GS7" s="0"/>
-      <c r="GT7" s="0"/>
-      <c r="GU7" s="0"/>
-      <c r="GV7" s="0"/>
-      <c r="GW7" s="0"/>
-      <c r="GX7" s="0"/>
-      <c r="GY7" s="0"/>
-      <c r="GZ7" s="0"/>
-      <c r="HA7" s="0"/>
-      <c r="HB7" s="0"/>
-      <c r="HC7" s="0"/>
-      <c r="HD7" s="0"/>
-      <c r="HE7" s="0"/>
-      <c r="HF7" s="0"/>
-      <c r="HG7" s="0"/>
-      <c r="HH7" s="0"/>
-      <c r="HI7" s="0"/>
-      <c r="HJ7" s="0"/>
-      <c r="HK7" s="0"/>
-      <c r="HL7" s="0"/>
-      <c r="HM7" s="0"/>
-      <c r="HN7" s="0"/>
-      <c r="HO7" s="0"/>
-      <c r="HP7" s="0"/>
-      <c r="HQ7" s="0"/>
-      <c r="HR7" s="0"/>
-      <c r="HS7" s="0"/>
-      <c r="HT7" s="0"/>
-      <c r="HU7" s="0"/>
-      <c r="HV7" s="0"/>
-      <c r="HW7" s="0"/>
-      <c r="HX7" s="0"/>
-      <c r="HY7" s="0"/>
-      <c r="HZ7" s="0"/>
-      <c r="IA7" s="0"/>
-      <c r="IB7" s="0"/>
-      <c r="IC7" s="0"/>
-      <c r="ID7" s="0"/>
-      <c r="IE7" s="0"/>
-      <c r="IF7" s="0"/>
-      <c r="IG7" s="0"/>
-      <c r="IH7" s="0"/>
-      <c r="II7" s="0"/>
-      <c r="IJ7" s="0"/>
-      <c r="IK7" s="0"/>
-      <c r="IL7" s="0"/>
-      <c r="IM7" s="0"/>
-      <c r="IN7" s="0"/>
-      <c r="IO7" s="0"/>
-      <c r="IP7" s="0"/>
-      <c r="IQ7" s="0"/>
-      <c r="IR7" s="0"/>
-      <c r="IS7" s="0"/>
-      <c r="IT7" s="0"/>
-      <c r="IU7" s="0"/>
-      <c r="IV7" s="0"/>
-      <c r="IW7" s="0"/>
-      <c r="IX7" s="0"/>
-      <c r="IY7" s="0"/>
-      <c r="IZ7" s="0"/>
-      <c r="JA7" s="0"/>
-      <c r="JB7" s="0"/>
-      <c r="JC7" s="0"/>
-      <c r="JD7" s="0"/>
-      <c r="JE7" s="0"/>
-      <c r="JF7" s="0"/>
-      <c r="JG7" s="0"/>
-      <c r="JH7" s="0"/>
-      <c r="JI7" s="0"/>
-      <c r="JJ7" s="0"/>
-      <c r="JK7" s="0"/>
-      <c r="JL7" s="0"/>
-      <c r="JM7" s="0"/>
-      <c r="JN7" s="0"/>
-      <c r="JO7" s="0"/>
-      <c r="JP7" s="0"/>
-      <c r="JQ7" s="0"/>
-      <c r="JR7" s="0"/>
-      <c r="JS7" s="0"/>
-      <c r="JT7" s="0"/>
-      <c r="JU7" s="0"/>
-      <c r="JV7" s="0"/>
-      <c r="JW7" s="0"/>
-      <c r="JX7" s="0"/>
-      <c r="JY7" s="0"/>
-      <c r="JZ7" s="0"/>
-      <c r="KA7" s="0"/>
-      <c r="KB7" s="0"/>
-      <c r="KC7" s="0"/>
-      <c r="KD7" s="0"/>
-      <c r="KE7" s="0"/>
-      <c r="KF7" s="0"/>
-      <c r="KG7" s="0"/>
-      <c r="KH7" s="0"/>
-      <c r="KI7" s="0"/>
-      <c r="KJ7" s="0"/>
-      <c r="KK7" s="0"/>
-      <c r="KL7" s="0"/>
-      <c r="KM7" s="0"/>
-      <c r="KN7" s="0"/>
-      <c r="KO7" s="0"/>
-      <c r="KP7" s="0"/>
-      <c r="KQ7" s="0"/>
-      <c r="KR7" s="0"/>
-      <c r="KS7" s="0"/>
-      <c r="KT7" s="0"/>
-      <c r="KU7" s="0"/>
-      <c r="KV7" s="0"/>
-      <c r="KW7" s="0"/>
-      <c r="KX7" s="0"/>
-      <c r="KY7" s="0"/>
-      <c r="KZ7" s="0"/>
-      <c r="LA7" s="0"/>
-      <c r="LB7" s="0"/>
-      <c r="LC7" s="0"/>
-      <c r="LD7" s="0"/>
-      <c r="LE7" s="0"/>
-      <c r="LF7" s="0"/>
-      <c r="LG7" s="0"/>
-      <c r="LH7" s="0"/>
-      <c r="LI7" s="0"/>
-      <c r="LJ7" s="0"/>
-      <c r="LK7" s="0"/>
-      <c r="LL7" s="0"/>
-      <c r="LM7" s="0"/>
-      <c r="LN7" s="0"/>
-      <c r="LO7" s="0"/>
-      <c r="LP7" s="0"/>
-      <c r="LQ7" s="0"/>
-      <c r="LR7" s="0"/>
-      <c r="LS7" s="0"/>
-      <c r="LT7" s="0"/>
-      <c r="LU7" s="0"/>
-      <c r="LV7" s="0"/>
-      <c r="LW7" s="0"/>
-      <c r="LX7" s="0"/>
-      <c r="LY7" s="0"/>
-      <c r="LZ7" s="0"/>
-      <c r="MA7" s="0"/>
-      <c r="MB7" s="0"/>
-      <c r="MC7" s="0"/>
-      <c r="MD7" s="0"/>
-      <c r="ME7" s="0"/>
-      <c r="MF7" s="0"/>
-      <c r="MG7" s="0"/>
-      <c r="MH7" s="0"/>
-      <c r="MI7" s="0"/>
-      <c r="MJ7" s="0"/>
-      <c r="MK7" s="0"/>
-      <c r="ML7" s="0"/>
-      <c r="MM7" s="0"/>
-      <c r="MN7" s="0"/>
-      <c r="MO7" s="0"/>
-      <c r="MP7" s="0"/>
-      <c r="MQ7" s="0"/>
-      <c r="MR7" s="0"/>
-      <c r="MS7" s="0"/>
-      <c r="MT7" s="0"/>
-      <c r="MU7" s="0"/>
-      <c r="MV7" s="0"/>
-      <c r="MW7" s="0"/>
-      <c r="MX7" s="0"/>
-      <c r="MY7" s="0"/>
-      <c r="MZ7" s="0"/>
-      <c r="NA7" s="0"/>
-      <c r="NB7" s="0"/>
-      <c r="NC7" s="0"/>
-      <c r="ND7" s="0"/>
-      <c r="NE7" s="0"/>
-      <c r="NF7" s="0"/>
-      <c r="NG7" s="0"/>
-      <c r="NH7" s="0"/>
-      <c r="NI7" s="0"/>
-      <c r="NJ7" s="0"/>
-      <c r="NK7" s="0"/>
-      <c r="NL7" s="0"/>
-      <c r="NM7" s="0"/>
-      <c r="NN7" s="0"/>
-      <c r="NO7" s="0"/>
-      <c r="NP7" s="0"/>
-      <c r="NQ7" s="0"/>
-      <c r="NR7" s="0"/>
-      <c r="NS7" s="0"/>
-      <c r="NT7" s="0"/>
-      <c r="NU7" s="0"/>
-      <c r="NV7" s="0"/>
-      <c r="NW7" s="0"/>
-      <c r="NX7" s="0"/>
-      <c r="NY7" s="0"/>
-      <c r="NZ7" s="0"/>
-      <c r="OA7" s="0"/>
-      <c r="OB7" s="0"/>
-      <c r="OC7" s="0"/>
-      <c r="OD7" s="0"/>
-      <c r="OE7" s="0"/>
-      <c r="OF7" s="0"/>
-      <c r="OG7" s="0"/>
-      <c r="OH7" s="0"/>
-      <c r="OI7" s="0"/>
-      <c r="OJ7" s="0"/>
-      <c r="OK7" s="0"/>
-      <c r="OL7" s="0"/>
-      <c r="OM7" s="0"/>
-      <c r="ON7" s="0"/>
-      <c r="OO7" s="0"/>
-      <c r="OP7" s="0"/>
-      <c r="OQ7" s="0"/>
-      <c r="OR7" s="0"/>
-      <c r="OS7" s="0"/>
-      <c r="OT7" s="0"/>
-      <c r="OU7" s="0"/>
-      <c r="OV7" s="0"/>
-      <c r="OW7" s="0"/>
-      <c r="OX7" s="0"/>
-      <c r="OY7" s="0"/>
-      <c r="OZ7" s="0"/>
-      <c r="PA7" s="0"/>
-      <c r="PB7" s="0"/>
-      <c r="PC7" s="0"/>
-      <c r="PD7" s="0"/>
-      <c r="PE7" s="0"/>
-      <c r="PF7" s="0"/>
-      <c r="PG7" s="0"/>
-      <c r="PH7" s="0"/>
-      <c r="PI7" s="0"/>
-      <c r="PJ7" s="0"/>
-      <c r="PK7" s="0"/>
-      <c r="PL7" s="0"/>
-      <c r="PM7" s="0"/>
-      <c r="PN7" s="0"/>
-      <c r="PO7" s="0"/>
-      <c r="PP7" s="0"/>
-      <c r="PQ7" s="0"/>
-      <c r="PR7" s="0"/>
-      <c r="PS7" s="0"/>
-      <c r="PT7" s="0"/>
-      <c r="PU7" s="0"/>
-      <c r="PV7" s="0"/>
-      <c r="PW7" s="0"/>
-      <c r="PX7" s="0"/>
-      <c r="PY7" s="0"/>
-      <c r="PZ7" s="0"/>
-      <c r="QA7" s="0"/>
-      <c r="QB7" s="0"/>
-      <c r="QC7" s="0"/>
-      <c r="QD7" s="0"/>
-      <c r="QE7" s="0"/>
-      <c r="QF7" s="0"/>
-      <c r="QG7" s="0"/>
-      <c r="QH7" s="0"/>
-      <c r="QI7" s="0"/>
-      <c r="QJ7" s="0"/>
-      <c r="QK7" s="0"/>
-      <c r="QL7" s="0"/>
-      <c r="QM7" s="0"/>
-      <c r="QN7" s="0"/>
-      <c r="QO7" s="0"/>
-      <c r="QP7" s="0"/>
-      <c r="QQ7" s="0"/>
-      <c r="QR7" s="0"/>
-      <c r="QS7" s="0"/>
-      <c r="QT7" s="0"/>
-      <c r="QU7" s="0"/>
-      <c r="QV7" s="0"/>
-      <c r="QW7" s="0"/>
-      <c r="QX7" s="0"/>
-      <c r="QY7" s="0"/>
-      <c r="QZ7" s="0"/>
-      <c r="RA7" s="0"/>
-      <c r="RB7" s="0"/>
-      <c r="RC7" s="0"/>
-      <c r="RD7" s="0"/>
-      <c r="RE7" s="0"/>
-      <c r="RF7" s="0"/>
-      <c r="RG7" s="0"/>
-      <c r="RH7" s="0"/>
-      <c r="RI7" s="0"/>
-      <c r="RJ7" s="0"/>
-      <c r="RK7" s="0"/>
-      <c r="RL7" s="0"/>
-      <c r="RM7" s="0"/>
-      <c r="RN7" s="0"/>
-      <c r="RO7" s="0"/>
-      <c r="RP7" s="0"/>
-      <c r="RQ7" s="0"/>
-      <c r="RR7" s="0"/>
-      <c r="RS7" s="0"/>
-      <c r="RT7" s="0"/>
-      <c r="RU7" s="0"/>
-      <c r="RV7" s="0"/>
-      <c r="RW7" s="0"/>
-      <c r="RX7" s="0"/>
-      <c r="RY7" s="0"/>
-      <c r="RZ7" s="0"/>
-      <c r="SA7" s="0"/>
-      <c r="SB7" s="0"/>
-      <c r="SC7" s="0"/>
-      <c r="SD7" s="0"/>
-      <c r="SE7" s="0"/>
-      <c r="SF7" s="0"/>
-      <c r="SG7" s="0"/>
-      <c r="SH7" s="0"/>
-      <c r="SI7" s="0"/>
-      <c r="SJ7" s="0"/>
-      <c r="SK7" s="0"/>
-      <c r="SL7" s="0"/>
-      <c r="SM7" s="0"/>
-      <c r="SN7" s="0"/>
-      <c r="SO7" s="0"/>
-      <c r="SP7" s="0"/>
-      <c r="SQ7" s="0"/>
-      <c r="SR7" s="0"/>
-      <c r="SS7" s="0"/>
-      <c r="ST7" s="0"/>
-      <c r="SU7" s="0"/>
-      <c r="SV7" s="0"/>
-      <c r="SW7" s="0"/>
-      <c r="SX7" s="0"/>
-      <c r="SY7" s="0"/>
-      <c r="SZ7" s="0"/>
-      <c r="TA7" s="0"/>
-      <c r="TB7" s="0"/>
-      <c r="TC7" s="0"/>
-      <c r="TD7" s="0"/>
-      <c r="TE7" s="0"/>
-      <c r="TF7" s="0"/>
-      <c r="TG7" s="0"/>
-      <c r="TH7" s="0"/>
-      <c r="TI7" s="0"/>
-      <c r="TJ7" s="0"/>
-      <c r="TK7" s="0"/>
-      <c r="TL7" s="0"/>
-      <c r="TM7" s="0"/>
-      <c r="TN7" s="0"/>
-      <c r="TO7" s="0"/>
-      <c r="TP7" s="0"/>
-      <c r="TQ7" s="0"/>
-      <c r="TR7" s="0"/>
-      <c r="TS7" s="0"/>
-      <c r="TT7" s="0"/>
-      <c r="TU7" s="0"/>
-      <c r="TV7" s="0"/>
-      <c r="TW7" s="0"/>
-      <c r="TX7" s="0"/>
-      <c r="TY7" s="0"/>
-      <c r="TZ7" s="0"/>
-      <c r="UA7" s="0"/>
-      <c r="UB7" s="0"/>
-      <c r="UC7" s="0"/>
-      <c r="UD7" s="0"/>
-      <c r="UE7" s="0"/>
-      <c r="UF7" s="0"/>
-      <c r="UG7" s="0"/>
-      <c r="UH7" s="0"/>
-      <c r="UI7" s="0"/>
-      <c r="UJ7" s="0"/>
-      <c r="UK7" s="0"/>
-      <c r="UL7" s="0"/>
-      <c r="UM7" s="0"/>
-      <c r="UN7" s="0"/>
-      <c r="UO7" s="0"/>
-      <c r="UP7" s="0"/>
-      <c r="UQ7" s="0"/>
-      <c r="UR7" s="0"/>
-      <c r="US7" s="0"/>
-      <c r="UT7" s="0"/>
-      <c r="UU7" s="0"/>
-      <c r="UV7" s="0"/>
-      <c r="UW7" s="0"/>
-      <c r="UX7" s="0"/>
-      <c r="UY7" s="0"/>
-      <c r="UZ7" s="0"/>
-      <c r="VA7" s="0"/>
-      <c r="VB7" s="0"/>
-      <c r="VC7" s="0"/>
-      <c r="VD7" s="0"/>
-      <c r="VE7" s="0"/>
-      <c r="VF7" s="0"/>
-      <c r="VG7" s="0"/>
-      <c r="VH7" s="0"/>
-      <c r="VI7" s="0"/>
-      <c r="VJ7" s="0"/>
-      <c r="VK7" s="0"/>
-      <c r="VL7" s="0"/>
-      <c r="VM7" s="0"/>
-      <c r="VN7" s="0"/>
-      <c r="VO7" s="0"/>
-      <c r="VP7" s="0"/>
-      <c r="VQ7" s="0"/>
-      <c r="VR7" s="0"/>
-      <c r="VS7" s="0"/>
-      <c r="VT7" s="0"/>
-      <c r="VU7" s="0"/>
-      <c r="VV7" s="0"/>
-      <c r="VW7" s="0"/>
-      <c r="VX7" s="0"/>
-      <c r="VY7" s="0"/>
-      <c r="VZ7" s="0"/>
-      <c r="WA7" s="0"/>
-      <c r="WB7" s="0"/>
-      <c r="WC7" s="0"/>
-      <c r="WD7" s="0"/>
-      <c r="WE7" s="0"/>
-      <c r="WF7" s="0"/>
-      <c r="WG7" s="0"/>
-      <c r="WH7" s="0"/>
-      <c r="WI7" s="0"/>
-      <c r="WJ7" s="0"/>
-      <c r="WK7" s="0"/>
-      <c r="WL7" s="0"/>
-      <c r="WM7" s="0"/>
-      <c r="WN7" s="0"/>
-      <c r="WO7" s="0"/>
-      <c r="WP7" s="0"/>
-      <c r="WQ7" s="0"/>
-      <c r="WR7" s="0"/>
-      <c r="WS7" s="0"/>
-      <c r="WT7" s="0"/>
-      <c r="WU7" s="0"/>
-      <c r="WV7" s="0"/>
-      <c r="WW7" s="0"/>
-      <c r="WX7" s="0"/>
-      <c r="WY7" s="0"/>
-      <c r="WZ7" s="0"/>
-      <c r="XA7" s="0"/>
-      <c r="XB7" s="0"/>
-      <c r="XC7" s="0"/>
-      <c r="XD7" s="0"/>
-      <c r="XE7" s="0"/>
-      <c r="XF7" s="0"/>
-      <c r="XG7" s="0"/>
-      <c r="XH7" s="0"/>
-      <c r="XI7" s="0"/>
-      <c r="XJ7" s="0"/>
-      <c r="XK7" s="0"/>
-      <c r="XL7" s="0"/>
-      <c r="XM7" s="0"/>
-      <c r="XN7" s="0"/>
-      <c r="XO7" s="0"/>
-      <c r="XP7" s="0"/>
-      <c r="XQ7" s="0"/>
-      <c r="XR7" s="0"/>
-      <c r="XS7" s="0"/>
-      <c r="XT7" s="0"/>
-      <c r="XU7" s="0"/>
-      <c r="XV7" s="0"/>
-      <c r="XW7" s="0"/>
-      <c r="XX7" s="0"/>
-      <c r="XY7" s="0"/>
-      <c r="XZ7" s="0"/>
-      <c r="YA7" s="0"/>
-      <c r="YB7" s="0"/>
-      <c r="YC7" s="0"/>
-      <c r="YD7" s="0"/>
-      <c r="YE7" s="0"/>
-      <c r="YF7" s="0"/>
-      <c r="YG7" s="0"/>
-      <c r="YH7" s="0"/>
-      <c r="YI7" s="0"/>
-      <c r="YJ7" s="0"/>
-      <c r="YK7" s="0"/>
-      <c r="YL7" s="0"/>
-      <c r="YM7" s="0"/>
-      <c r="YN7" s="0"/>
-      <c r="YO7" s="0"/>
-      <c r="YP7" s="0"/>
-      <c r="YQ7" s="0"/>
-      <c r="YR7" s="0"/>
-      <c r="YS7" s="0"/>
-      <c r="YT7" s="0"/>
-      <c r="YU7" s="0"/>
-      <c r="YV7" s="0"/>
-      <c r="YW7" s="0"/>
-      <c r="YX7" s="0"/>
-      <c r="YY7" s="0"/>
-      <c r="YZ7" s="0"/>
-      <c r="ZA7" s="0"/>
-      <c r="ZB7" s="0"/>
-      <c r="ZC7" s="0"/>
-      <c r="ZD7" s="0"/>
-      <c r="ZE7" s="0"/>
-      <c r="ZF7" s="0"/>
-      <c r="ZG7" s="0"/>
-      <c r="ZH7" s="0"/>
-      <c r="ZI7" s="0"/>
-      <c r="ZJ7" s="0"/>
-      <c r="ZK7" s="0"/>
-      <c r="ZL7" s="0"/>
-      <c r="ZM7" s="0"/>
-      <c r="ZN7" s="0"/>
-      <c r="ZO7" s="0"/>
-      <c r="ZP7" s="0"/>
-      <c r="ZQ7" s="0"/>
-      <c r="ZR7" s="0"/>
-      <c r="ZS7" s="0"/>
-      <c r="ZT7" s="0"/>
-      <c r="ZU7" s="0"/>
-      <c r="ZV7" s="0"/>
-      <c r="ZW7" s="0"/>
-      <c r="ZX7" s="0"/>
-      <c r="ZY7" s="0"/>
-      <c r="ZZ7" s="0"/>
-      <c r="AAA7" s="0"/>
-      <c r="AAB7" s="0"/>
-      <c r="AAC7" s="0"/>
-      <c r="AAD7" s="0"/>
-      <c r="AAE7" s="0"/>
-      <c r="AAF7" s="0"/>
-      <c r="AAG7" s="0"/>
-      <c r="AAH7" s="0"/>
-      <c r="AAI7" s="0"/>
-      <c r="AAJ7" s="0"/>
-      <c r="AAK7" s="0"/>
-      <c r="AAL7" s="0"/>
-      <c r="AAM7" s="0"/>
-      <c r="AAN7" s="0"/>
-      <c r="AAO7" s="0"/>
-      <c r="AAP7" s="0"/>
-      <c r="AAQ7" s="0"/>
-      <c r="AAR7" s="0"/>
-      <c r="AAS7" s="0"/>
-      <c r="AAT7" s="0"/>
-      <c r="AAU7" s="0"/>
-      <c r="AAV7" s="0"/>
-      <c r="AAW7" s="0"/>
-      <c r="AAX7" s="0"/>
-      <c r="AAY7" s="0"/>
-      <c r="AAZ7" s="0"/>
-      <c r="ABA7" s="0"/>
-      <c r="ABB7" s="0"/>
-      <c r="ABC7" s="0"/>
-      <c r="ABD7" s="0"/>
-      <c r="ABE7" s="0"/>
-      <c r="ABF7" s="0"/>
-      <c r="ABG7" s="0"/>
-      <c r="ABH7" s="0"/>
-      <c r="ABI7" s="0"/>
-      <c r="ABJ7" s="0"/>
-      <c r="ABK7" s="0"/>
-      <c r="ABL7" s="0"/>
-      <c r="ABM7" s="0"/>
-      <c r="ABN7" s="0"/>
-      <c r="ABO7" s="0"/>
-      <c r="ABP7" s="0"/>
-      <c r="ABQ7" s="0"/>
-      <c r="ABR7" s="0"/>
-      <c r="ABS7" s="0"/>
-      <c r="ABT7" s="0"/>
-      <c r="ABU7" s="0"/>
-      <c r="ABV7" s="0"/>
-      <c r="ABW7" s="0"/>
-      <c r="ABX7" s="0"/>
-      <c r="ABY7" s="0"/>
-      <c r="ABZ7" s="0"/>
-      <c r="ACA7" s="0"/>
-      <c r="ACB7" s="0"/>
-      <c r="ACC7" s="0"/>
-      <c r="ACD7" s="0"/>
-      <c r="ACE7" s="0"/>
-      <c r="ACF7" s="0"/>
-      <c r="ACG7" s="0"/>
-      <c r="ACH7" s="0"/>
-      <c r="ACI7" s="0"/>
-      <c r="ACJ7" s="0"/>
-      <c r="ACK7" s="0"/>
-      <c r="ACL7" s="0"/>
-      <c r="ACM7" s="0"/>
-      <c r="ACN7" s="0"/>
-      <c r="ACO7" s="0"/>
-      <c r="ACP7" s="0"/>
-      <c r="ACQ7" s="0"/>
-      <c r="ACR7" s="0"/>
-      <c r="ACS7" s="0"/>
-      <c r="ACT7" s="0"/>
-      <c r="ACU7" s="0"/>
-      <c r="ACV7" s="0"/>
-      <c r="ACW7" s="0"/>
-      <c r="ACX7" s="0"/>
-      <c r="ACY7" s="0"/>
-      <c r="ACZ7" s="0"/>
-      <c r="ADA7" s="0"/>
-      <c r="ADB7" s="0"/>
-      <c r="ADC7" s="0"/>
-      <c r="ADD7" s="0"/>
-      <c r="ADE7" s="0"/>
-      <c r="ADF7" s="0"/>
-      <c r="ADG7" s="0"/>
-      <c r="ADH7" s="0"/>
-      <c r="ADI7" s="0"/>
-      <c r="ADJ7" s="0"/>
-      <c r="ADK7" s="0"/>
-      <c r="ADL7" s="0"/>
-      <c r="ADM7" s="0"/>
-      <c r="ADN7" s="0"/>
-      <c r="ADO7" s="0"/>
-      <c r="ADP7" s="0"/>
-      <c r="ADQ7" s="0"/>
-      <c r="ADR7" s="0"/>
-      <c r="ADS7" s="0"/>
-      <c r="ADT7" s="0"/>
-      <c r="ADU7" s="0"/>
-      <c r="ADV7" s="0"/>
-      <c r="ADW7" s="0"/>
-      <c r="ADX7" s="0"/>
-      <c r="ADY7" s="0"/>
-      <c r="ADZ7" s="0"/>
-      <c r="AEA7" s="0"/>
-      <c r="AEB7" s="0"/>
-      <c r="AEC7" s="0"/>
-      <c r="AED7" s="0"/>
-      <c r="AEE7" s="0"/>
-      <c r="AEF7" s="0"/>
-      <c r="AEG7" s="0"/>
-      <c r="AEH7" s="0"/>
-      <c r="AEI7" s="0"/>
-      <c r="AEJ7" s="0"/>
-      <c r="AEK7" s="0"/>
-      <c r="AEL7" s="0"/>
-      <c r="AEM7" s="0"/>
-      <c r="AEN7" s="0"/>
-      <c r="AEO7" s="0"/>
-      <c r="AEP7" s="0"/>
-      <c r="AEQ7" s="0"/>
-      <c r="AER7" s="0"/>
-      <c r="AES7" s="0"/>
-      <c r="AET7" s="0"/>
-      <c r="AEU7" s="0"/>
-      <c r="AEV7" s="0"/>
-      <c r="AEW7" s="0"/>
-      <c r="AEX7" s="0"/>
-      <c r="AEY7" s="0"/>
-      <c r="AEZ7" s="0"/>
-      <c r="AFA7" s="0"/>
-      <c r="AFB7" s="0"/>
-      <c r="AFC7" s="0"/>
-      <c r="AFD7" s="0"/>
-      <c r="AFE7" s="0"/>
-      <c r="AFF7" s="0"/>
-      <c r="AFG7" s="0"/>
-      <c r="AFH7" s="0"/>
-      <c r="AFI7" s="0"/>
-      <c r="AFJ7" s="0"/>
-      <c r="AFK7" s="0"/>
-      <c r="AFL7" s="0"/>
-      <c r="AFM7" s="0"/>
-      <c r="AFN7" s="0"/>
-      <c r="AFO7" s="0"/>
-      <c r="AFP7" s="0"/>
-      <c r="AFQ7" s="0"/>
-      <c r="AFR7" s="0"/>
-      <c r="AFS7" s="0"/>
-      <c r="AFT7" s="0"/>
-      <c r="AFU7" s="0"/>
-      <c r="AFV7" s="0"/>
-      <c r="AFW7" s="0"/>
-      <c r="AFX7" s="0"/>
-      <c r="AFY7" s="0"/>
-      <c r="AFZ7" s="0"/>
-      <c r="AGA7" s="0"/>
-      <c r="AGB7" s="0"/>
-      <c r="AGC7" s="0"/>
-      <c r="AGD7" s="0"/>
-      <c r="AGE7" s="0"/>
-      <c r="AGF7" s="0"/>
-      <c r="AGG7" s="0"/>
-      <c r="AGH7" s="0"/>
-      <c r="AGI7" s="0"/>
-      <c r="AGJ7" s="0"/>
-      <c r="AGK7" s="0"/>
-      <c r="AGL7" s="0"/>
-      <c r="AGM7" s="0"/>
-      <c r="AGN7" s="0"/>
-      <c r="AGO7" s="0"/>
-      <c r="AGP7" s="0"/>
-      <c r="AGQ7" s="0"/>
-      <c r="AGR7" s="0"/>
-      <c r="AGS7" s="0"/>
-      <c r="AGT7" s="0"/>
-      <c r="AGU7" s="0"/>
-      <c r="AGV7" s="0"/>
-      <c r="AGW7" s="0"/>
-      <c r="AGX7" s="0"/>
-      <c r="AGY7" s="0"/>
-      <c r="AGZ7" s="0"/>
-      <c r="AHA7" s="0"/>
-      <c r="AHB7" s="0"/>
-      <c r="AHC7" s="0"/>
-      <c r="AHD7" s="0"/>
-      <c r="AHE7" s="0"/>
-      <c r="AHF7" s="0"/>
-      <c r="AHG7" s="0"/>
-      <c r="AHH7" s="0"/>
-      <c r="AHI7" s="0"/>
-      <c r="AHJ7" s="0"/>
-      <c r="AHK7" s="0"/>
-      <c r="AHL7" s="0"/>
-      <c r="AHM7" s="0"/>
-      <c r="AHN7" s="0"/>
-      <c r="AHO7" s="0"/>
-      <c r="AHP7" s="0"/>
-      <c r="AHQ7" s="0"/>
-      <c r="AHR7" s="0"/>
-      <c r="AHS7" s="0"/>
-      <c r="AHT7" s="0"/>
-      <c r="AHU7" s="0"/>
-      <c r="AHV7" s="0"/>
-      <c r="AHW7" s="0"/>
-      <c r="AHX7" s="0"/>
-      <c r="AHY7" s="0"/>
-      <c r="AHZ7" s="0"/>
-      <c r="AIA7" s="0"/>
-      <c r="AIB7" s="0"/>
-      <c r="AIC7" s="0"/>
-      <c r="AID7" s="0"/>
-      <c r="AIE7" s="0"/>
-      <c r="AIF7" s="0"/>
-      <c r="AIG7" s="0"/>
-      <c r="AIH7" s="0"/>
-      <c r="AII7" s="0"/>
-      <c r="AIJ7" s="0"/>
-      <c r="AIK7" s="0"/>
-      <c r="AIL7" s="0"/>
-      <c r="AIM7" s="0"/>
-      <c r="AIN7" s="0"/>
-      <c r="AIO7" s="0"/>
-      <c r="AIP7" s="0"/>
-      <c r="AIQ7" s="0"/>
-      <c r="AIR7" s="0"/>
-      <c r="AIS7" s="0"/>
-      <c r="AIT7" s="0"/>
-      <c r="AIU7" s="0"/>
-      <c r="AIV7" s="0"/>
-      <c r="AIW7" s="0"/>
-      <c r="AIX7" s="0"/>
-      <c r="AIY7" s="0"/>
-      <c r="AIZ7" s="0"/>
-      <c r="AJA7" s="0"/>
-      <c r="AJB7" s="0"/>
-      <c r="AJC7" s="0"/>
-      <c r="AJD7" s="0"/>
-      <c r="AJE7" s="0"/>
-      <c r="AJF7" s="0"/>
-      <c r="AJG7" s="0"/>
-      <c r="AJH7" s="0"/>
-      <c r="AJI7" s="0"/>
-      <c r="AJJ7" s="0"/>
-      <c r="AJK7" s="0"/>
-      <c r="AJL7" s="0"/>
-      <c r="AJM7" s="0"/>
-      <c r="AJN7" s="0"/>
-      <c r="AJO7" s="0"/>
-      <c r="AJP7" s="0"/>
-      <c r="AJQ7" s="0"/>
-      <c r="AJR7" s="0"/>
-      <c r="AJS7" s="0"/>
-      <c r="AJT7" s="0"/>
-      <c r="AJU7" s="0"/>
-      <c r="AJV7" s="0"/>
-      <c r="AJW7" s="0"/>
-      <c r="AJX7" s="0"/>
-      <c r="AJY7" s="0"/>
-      <c r="AJZ7" s="0"/>
-      <c r="AKA7" s="0"/>
-      <c r="AKB7" s="0"/>
-      <c r="AKC7" s="0"/>
-      <c r="AKD7" s="0"/>
-      <c r="AKE7" s="0"/>
-      <c r="AKF7" s="0"/>
-      <c r="AKG7" s="0"/>
-      <c r="AKH7" s="0"/>
-      <c r="AKI7" s="0"/>
-      <c r="AKJ7" s="0"/>
-      <c r="AKK7" s="0"/>
-      <c r="AKL7" s="0"/>
-      <c r="AKM7" s="0"/>
-      <c r="AKN7" s="0"/>
-      <c r="AKO7" s="0"/>
-      <c r="AKP7" s="0"/>
-      <c r="AKQ7" s="0"/>
-      <c r="AKR7" s="0"/>
-      <c r="AKS7" s="0"/>
-      <c r="AKT7" s="0"/>
-      <c r="AKU7" s="0"/>
-      <c r="AKV7" s="0"/>
-      <c r="AKW7" s="0"/>
-      <c r="AKX7" s="0"/>
-      <c r="AKY7" s="0"/>
-      <c r="AKZ7" s="0"/>
-      <c r="ALA7" s="0"/>
-      <c r="ALB7" s="0"/>
-      <c r="ALC7" s="0"/>
-      <c r="ALD7" s="0"/>
-      <c r="ALE7" s="0"/>
-      <c r="ALF7" s="0"/>
-      <c r="ALG7" s="0"/>
-      <c r="ALH7" s="0"/>
-      <c r="ALI7" s="0"/>
-      <c r="ALJ7" s="0"/>
-      <c r="ALK7" s="0"/>
-      <c r="ALL7" s="0"/>
-      <c r="ALM7" s="0"/>
-      <c r="ALN7" s="0"/>
-      <c r="ALO7" s="0"/>
-      <c r="ALP7" s="0"/>
-      <c r="ALQ7" s="0"/>
-      <c r="ALR7" s="0"/>
-      <c r="ALS7" s="0"/>
-      <c r="ALT7" s="0"/>
-      <c r="ALU7" s="0"/>
-      <c r="ALV7" s="0"/>
-      <c r="ALW7" s="0"/>
-      <c r="ALX7" s="0"/>
-      <c r="ALY7" s="0"/>
-      <c r="ALZ7" s="0"/>
-      <c r="AMA7" s="0"/>
-      <c r="AMB7" s="0"/>
-      <c r="AMC7" s="7"/>
-      <c r="AMD7" s="7"/>
-      <c r="AME7" s="7"/>
-      <c r="AMF7" s="7"/>
+      <c r="AMG7" s="0"/>
+      <c r="AMH7" s="0"/>
+      <c r="AMI7" s="0"/>
+      <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>23</v>
@@ -4132,40 +4114,36 @@
         <v>33</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>27</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>60</v>
+        <v>36</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="P8" s="10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AMG8" s="0"/>
-      <c r="AMH8" s="0"/>
-      <c r="AMI8" s="0"/>
-      <c r="AMJ8" s="0"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>62</v>
+        <v>66</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>23</v>
@@ -4180,36 +4158,36 @@
         <v>33</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="J9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" s="10" t="s">
+      <c r="M9" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="N9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>36</v>
-      </c>
       <c r="O9" s="12" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="P9" s="10" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>68</v>
+        <v>72</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>23</v>
@@ -4218,42 +4196,36 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="P10" s="10" t="n">
-        <v>25</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>23</v>
@@ -4262,36 +4234,36 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>41</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>78</v>
+        <v>43</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>23</v>
@@ -4300,72 +4272,34 @@
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>41</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>82</v>
+        <v>76</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="M13" s="10" t="s">
+      <c r="P12" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:W42"/>
+  <autoFilter ref="A2:W41"/>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
@@ -4402,15 +4336,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>2</v>
@@ -4418,7 +4352,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1.5</v>
@@ -4426,7 +4360,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>2</v>
@@ -4434,7 +4368,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>2</v>
@@ -4442,7 +4376,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>3</v>
@@ -4450,7 +4384,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>4</v>
@@ -4458,7 +4392,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>5</v>
@@ -4466,7 +4400,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>2</v>
@@ -4474,7 +4408,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>4</v>
@@ -4482,7 +4416,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>6</v>
@@ -4490,7 +4424,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>1</v>
@@ -4498,7 +4432,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>1</v>
@@ -4506,7 +4440,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>0.5</v>
@@ -4514,7 +4448,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>0.25</v>
@@ -4522,7 +4456,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>0.5</v>
@@ -4530,7 +4464,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>1</v>
@@ -4538,7 +4472,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>0.3</v>
@@ -4546,7 +4480,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>0.1</v>
@@ -4576,25 +4510,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="21" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="1018" min="5" style="21" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="15" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="15" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="1018" min="5" style="15" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22" t="s">
+    <row r="1" s="17" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="16" t="s">
         <v>110</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>111</v>
       </c>
       <c r="AME1" s="0"/>
       <c r="AMF1" s="0"/>
@@ -4604,176 +4538,176 @@
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>112</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="26" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="20" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>114</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="26" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="26" t="n">
+      <c r="A4" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>113</v>
+      <c r="D4" s="20" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="26" t="n">
+      <c r="A5" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>87</v>
+      <c r="D5" s="20" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="26" t="n">
+      <c r="A6" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="D6" s="26" t="n">
+      <c r="D6" s="20" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="26" t="n">
+      <c r="A7" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="D7" s="26" t="n">
+      <c r="D7" s="20" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="26" t="n">
+      <c r="A8" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="26" t="n">
+      <c r="D8" s="20" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="26" t="n">
+      <c r="A9" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="D9" s="26" t="s">
-        <v>115</v>
+      <c r="D9" s="20" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="26" t="n">
+      <c r="A10" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="D10" s="26" t="s">
-        <v>87</v>
+      <c r="D10" s="20" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="26" t="n">
+      <c r="A11" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="D11" s="26" t="s">
-        <v>115</v>
+      <c r="D11" s="20" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27" t="n">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27" t="n">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="D13" s="27"/>
+      <c r="D13" s="21"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27" t="n">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="D14" s="27"/>
+      <c r="D14" s="21"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27" t="n">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="D15" s="27"/>
+      <c r="D15" s="21"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/PNGRO/Data/Template.xlsx
+++ b/Projects/PNGRO/Data/Template.xlsx
@@ -13,21 +13,21 @@
     <sheet name="Eye-level" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">SBD_kpis!$A$2:$W$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">SBD_kpis!$A$2:$W$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">SBD_kpis!$A$2:$W$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$W$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">SBD_kpis!$A$2:$X$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">SBD_kpis!$A$2:$X$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">SBD_kpis!$A$2:$X$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$X$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$X$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$X$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$X$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$X$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$X$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$X$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$X$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$X$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$X$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$X$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$X$41</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="126">
   <si>
     <t>General Data</t>
   </si>
@@ -59,6 +59,9 @@
     <t>KPI Name</t>
   </si>
   <si>
+    <t>Category</t>
+  </si>
+  <si>
     <t>KPI Group Name</t>
   </si>
   <si>
@@ -105,6 +108,9 @@
   </si>
   <si>
     <t>Is Mach3 segment 50% of Gillette Systems shelf?</t>
+  </si>
+  <si>
+    <t>Shave Care</t>
   </si>
   <si>
     <t>Shave Care (Male)
@@ -147,15 +153,15 @@
     <t>Brand = Fairy and Benefit = lemon out of Brand=fairy</t>
   </si>
   <si>
+    <t>Benefit</t>
+  </si>
+  <si>
+    <t>lemon</t>
+  </si>
+  <si>
     <t>Fairy</t>
   </si>
   <si>
-    <t>Benefit</t>
-  </si>
-  <si>
-    <t>lemon</t>
-  </si>
-  <si>
     <t>Are Pantene Gold skus placed in the middle of the Pantene shelf?</t>
   </si>
   <si>
@@ -186,6 +192,9 @@
     <t>Is Always Platinum min 15% of Always Pads shelf?</t>
   </si>
   <si>
+    <t>Fem Care</t>
+  </si>
+  <si>
     <t>Fem</t>
   </si>
   <si>
@@ -204,6 +213,9 @@
     <t>Is Ariel Liquid Tabs min 15% from total Laundry category?</t>
   </si>
   <si>
+    <t>Laundary</t>
+  </si>
+  <si>
     <t>Laundry</t>
   </si>
   <si>
@@ -213,15 +225,15 @@
     <t>Ariel</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>LAUNDRY</t>
+  </si>
+  <si>
     <t>Liquid Tabs</t>
   </si>
   <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>LAUNDRY</t>
-  </si>
-  <si>
     <t>Is Blue collection min 30% from Lenor shelf?</t>
   </si>
   <si>
@@ -231,12 +243,12 @@
     <t>Brand =Lenor and form=liquid and benefit = Spring out of Brand =lenor and form=liquid</t>
   </si>
   <si>
+    <t>Liquid</t>
+  </si>
+  <si>
     <t>Lenor</t>
   </si>
   <si>
-    <t>Liquid</t>
-  </si>
-  <si>
     <t>Spring</t>
   </si>
   <si>
@@ -364,9 +376,6 @@
   </si>
   <si>
     <t>Retailer </t>
-  </si>
-  <si>
-    <t>Category</t>
   </si>
   <si>
     <t>Number of shelves</t>
@@ -505,12 +514,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFD966"/>
         <bgColor rgb="FFF4BE49"/>
       </patternFill>
@@ -531,6 +534,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -616,6 +625,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -625,10 +638,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -644,12 +653,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -660,11 +673,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -741,10 +750,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -753,29 +758,29 @@
   <dimension ref="1:12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="62.3441295546559"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="76.8056680161943"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1020" min="17" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="62.8785425101215"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.1417004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="77.4453441295547"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="31.085020242915"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="10.8178137651822"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1021" min="18" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -783,33 +788,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AMC1" s="4"/>
       <c r="AMD1" s="4"/>
       <c r="AME1" s="4"/>
       <c r="AMF1" s="4"/>
-      <c r="AMG1" s="0"/>
+      <c r="AMG1" s="4"/>
       <c r="AMH1" s="0"/>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
@@ -824,13 +829,13 @@
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -863,99 +868,105 @@
       <c r="P2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AMG2" s="0"/>
+      <c r="Q2" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="12" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="I3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="J3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="K3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="L3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10" t="n">
+      <c r="M3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11" t="n">
         <v>50</v>
       </c>
-      <c r="AMC3" s="7"/>
       <c r="AMD3" s="7"/>
       <c r="AME3" s="7"/>
       <c r="AMF3" s="7"/>
-      <c r="AMG3" s="0"/>
+      <c r="AMG3" s="7"/>
       <c r="AMH3" s="0"/>
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="10" t="s">
+      <c r="D4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="J4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10" t="n">
+      <c r="L4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="Q4" s="0"/>
       <c r="R4" s="0"/>
       <c r="S4" s="0"/>
       <c r="T4" s="0"/>
@@ -1955,49 +1966,52 @@
       <c r="ALZ4" s="0"/>
       <c r="AMA4" s="0"/>
       <c r="AMB4" s="0"/>
-      <c r="AMC4" s="7"/>
+      <c r="AMC4" s="0"/>
       <c r="AMD4" s="7"/>
       <c r="AME4" s="7"/>
       <c r="AMF4" s="7"/>
+      <c r="AMG4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="C5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="I5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="J5" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="K5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="L5" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="0"/>
+      <c r="M5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
       <c r="R5" s="0"/>
       <c r="S5" s="0"/>
       <c r="T5" s="0"/>
@@ -2997,51 +3011,54 @@
       <c r="ALZ5" s="0"/>
       <c r="AMA5" s="0"/>
       <c r="AMB5" s="0"/>
-      <c r="AMC5" s="7"/>
+      <c r="AMC5" s="0"/>
       <c r="AMD5" s="7"/>
       <c r="AME5" s="7"/>
       <c r="AMF5" s="7"/>
+      <c r="AMG5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="C6" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="D6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10" t="n">
+      <c r="K6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="Q6" s="0"/>
       <c r="R6" s="0"/>
       <c r="S6" s="0"/>
       <c r="T6" s="0"/>
@@ -4041,270 +4058,287 @@
       <c r="ALZ6" s="0"/>
       <c r="AMA6" s="0"/>
       <c r="AMB6" s="0"/>
-      <c r="AMC6" s="7"/>
+      <c r="AMC6" s="0"/>
       <c r="AMD6" s="7"/>
       <c r="AME6" s="7"/>
       <c r="AMF6" s="7"/>
+      <c r="AMG6" s="7"/>
     </row>
     <row r="7" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="B7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="P7" s="10" t="n">
+      <c r="L7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="AMG7" s="0"/>
       <c r="AMH7" s="0"/>
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="P8" s="10" t="n">
+      <c r="N8" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q8" s="11" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="B9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="M9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="P9" s="10" t="n">
+      <c r="N9" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q9" s="11" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="L10" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10" s="10" t="s">
+      <c r="C10" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
+      <c r="I10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="10" t="s">
+      <c r="C11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="I11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="L11" s="10" t="s">
+      <c r="J11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
+      <c r="L11" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="K12" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="L12" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10" t="s">
-        <v>86</v>
+      <c r="C12" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:W41"/>
   <mergeCells count="4">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:P1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4313,7 +4347,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4336,15 +4369,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>2</v>
@@ -4352,7 +4385,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1.5</v>
@@ -4360,7 +4393,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>2</v>
@@ -4368,7 +4401,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>2</v>
@@ -4376,7 +4409,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>3</v>
@@ -4384,7 +4417,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>4</v>
@@ -4392,7 +4425,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>5</v>
@@ -4400,7 +4433,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>2</v>
@@ -4408,7 +4441,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>4</v>
@@ -4416,7 +4449,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>6</v>
@@ -4424,7 +4457,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>1</v>
@@ -4432,7 +4465,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>1</v>
@@ -4440,7 +4473,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>0.5</v>
@@ -4448,7 +4481,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>0.25</v>
@@ -4456,7 +4489,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>0.5</v>
@@ -4464,7 +4497,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>1</v>
@@ -4472,7 +4505,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>0.3</v>
@@ -4480,7 +4513,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>0.1</v>
@@ -4510,25 +4543,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="15" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="15" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="15" width="21.1012145748988"/>
     <col collapsed="false" hidden="false" max="1018" min="5" style="15" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" s="17" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AME1" s="0"/>
       <c r="AMF1" s="0"/>
@@ -4539,66 +4572,66 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="18" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C2" s="20" t="n">
         <v>6</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C3" s="20" t="n">
         <v>8</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C4" s="20" t="n">
         <v>5</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="18" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C5" s="20" t="n">
         <v>8</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C6" s="20" t="n">
         <v>4</v>
@@ -4609,10 +4642,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="18" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C7" s="20" t="n">
         <v>5</v>
@@ -4623,10 +4656,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="18" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C8" s="20" t="n">
         <v>5</v>
@@ -4637,44 +4670,44 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="18" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C9" s="20" t="n">
         <v>6</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="18" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C10" s="20" t="n">
         <v>5</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="18" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C11" s="20" t="n">
         <v>6</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/PNGRO/Data/Template.xlsx
+++ b/Projects/PNGRO/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="SBD_kpis" sheetId="1" state="visible" r:id="rId2"/>
@@ -39,385 +39,400 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="126">
-  <si>
-    <t>General Data</t>
-  </si>
-  <si>
-    <t>In Store Context</t>
-  </si>
-  <si>
-    <t>KPI Logic</t>
-  </si>
-  <si>
-    <t>KPI Parameters</t>
-  </si>
-  <si>
-    <t>Scoring</t>
-  </si>
-  <si>
-    <t>KPI Name</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>KPI Group Name</t>
-  </si>
-  <si>
-    <t>Location Type</t>
-  </si>
-  <si>
-    <t>Scene Category</t>
-  </si>
-  <si>
-    <t>Template Name</t>
-  </si>
-  <si>
-    <t>Scene recognition tag</t>
-  </si>
-  <si>
-    <t>KPI Family</t>
-  </si>
-  <si>
-    <t>KPI Calc. Type</t>
-  </si>
-  <si>
-    <t>KPI Logic*</t>
-  </si>
-  <si>
-    <t>Param Type (1)/ Numerator</t>
-  </si>
-  <si>
-    <t>Param (1) Values</t>
-  </si>
-  <si>
-    <t>Param Type (2)/ Denominator</t>
-  </si>
-  <si>
-    <t>Param (2) Values</t>
-  </si>
-  <si>
-    <t>Param (3)</t>
-  </si>
-  <si>
-    <t>Param (3) Values</t>
-  </si>
-  <si>
-    <t>Target Policy</t>
-  </si>
-  <si>
-    <t>Is Mach3 segment 50% of Gillette Systems shelf?</t>
-  </si>
-  <si>
-    <t>Shave Care</t>
-  </si>
-  <si>
-    <t>Shave Care (Male)
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="131">
+  <si>
+    <t xml:space="preserve">General Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Store Context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Group Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene recognition tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Calc. Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Logic*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Param Type (1)/ Numerator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Param (1) Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Param Type (2)/ Denominator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Param (2) Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Param (3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Param (3) Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target Policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Mach3 segment 50% of Gillette Systems shelf?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shave Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shave Care (Male)
 </t>
   </si>
   <si>
-    <t>Primary Shelf</t>
-  </si>
-  <si>
-    <t>SOS</t>
-  </si>
-  <si>
-    <t>Precentages </t>
-  </si>
-  <si>
-    <t>Form = Mach3 out of segment=systems, PNG</t>
-  </si>
-  <si>
-    <t>brand_name</t>
-  </si>
-  <si>
-    <t>Gillette Mach3</t>
-  </si>
-  <si>
-    <t>Form</t>
-  </si>
-  <si>
-    <t>Systems</t>
-  </si>
-  <si>
-    <t>Is lemon scent min 40% of Fairy shelf?</t>
-  </si>
-  <si>
-    <t>Dish</t>
-  </si>
-  <si>
-    <t>Precentages</t>
-  </si>
-  <si>
-    <t>Brand = Fairy and Benefit = lemon out of Brand=fairy</t>
-  </si>
-  <si>
-    <t>Benefit</t>
-  </si>
-  <si>
-    <t>lemon</t>
-  </si>
-  <si>
-    <t>Fairy</t>
-  </si>
-  <si>
-    <t>Are Pantene Gold skus placed in the middle of the Pantene shelf?</t>
-  </si>
-  <si>
-    <t>Hair Care</t>
-  </si>
-  <si>
-    <t>Survey</t>
-  </si>
-  <si>
-    <t>Binary</t>
-  </si>
-  <si>
-    <t>survey question</t>
-  </si>
-  <si>
-    <t>question_text</t>
-  </si>
-  <si>
-    <t>Sunt SKU-urile de Pantene Gold plasate in mijlocul raftului de Pantene?</t>
-  </si>
-  <si>
-    <t>question_answer</t>
-  </si>
-  <si>
-    <t>Da</t>
-  </si>
-  <si>
-    <t>Is Always Platinum min 15% of Always Pads shelf?</t>
-  </si>
-  <si>
-    <t>Fem Care</t>
-  </si>
-  <si>
-    <t>Fem</t>
-  </si>
-  <si>
-    <t>Brand=always and category=pads and form=Platinum out of Brand=always and alient sucategory=pads</t>
-  </si>
-  <si>
-    <t>ALWAYS</t>
-  </si>
-  <si>
-    <t>sub_category</t>
-  </si>
-  <si>
-    <t>PADS</t>
-  </si>
-  <si>
-    <t>Is Ariel Liquid Tabs min 15% from total Laundry category?</t>
-  </si>
-  <si>
-    <t>Laundary</t>
-  </si>
-  <si>
-    <t>Laundry</t>
-  </si>
-  <si>
-    <t>Brand=Ariel and form=Liquid tabs out of Category=Laundry</t>
-  </si>
-  <si>
-    <t>Ariel</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>LAUNDRY</t>
-  </si>
-  <si>
-    <t>Liquid Tabs</t>
-  </si>
-  <si>
-    <t>Is Blue collection min 30% from Lenor shelf?</t>
-  </si>
-  <si>
-    <t>Fabric Enhancers</t>
-  </si>
-  <si>
-    <t>Brand =Lenor and form=liquid and benefit = Spring out of Brand =lenor and form=liquid</t>
-  </si>
-  <si>
-    <t>Liquid</t>
-  </si>
-  <si>
-    <t>Lenor</t>
-  </si>
-  <si>
-    <t>Spring</t>
-  </si>
-  <si>
-    <t>Is Pants min 25% of Pampers shelf?</t>
-  </si>
-  <si>
-    <t>Baby</t>
-  </si>
-  <si>
-    <t>Category = diapers  and brand=pampers and form=taped out of category = diapers and brand=pampers</t>
-  </si>
-  <si>
-    <t>DIAPERS</t>
-  </si>
-  <si>
-    <t>PAMPERS</t>
-  </si>
-  <si>
-    <t>taped</t>
-  </si>
-  <si>
-    <t>POC listed and placed within brushing</t>
-  </si>
-  <si>
-    <t>Oral Care</t>
-  </si>
-  <si>
-    <t>Relative Position</t>
-  </si>
-  <si>
-    <t>segment = poc(power oral care) and PG adjecent to toothbrush sub cat</t>
-  </si>
-  <si>
-    <t>Segment</t>
-  </si>
-  <si>
-    <t>poc</t>
-  </si>
-  <si>
-    <t>TOOTHBRUSH</t>
-  </si>
-  <si>
-    <t>Are Female Blades &amp; Razors placed in a distinct block than male Blades &amp; Razors?</t>
-  </si>
-  <si>
-    <t>Shave Care (Female)</t>
-  </si>
-  <si>
-    <t>Sunt aparatele de ras si razoarele pentru femei plasate in bloc separat fata de cele pentru barbati?</t>
-  </si>
-  <si>
-    <t>POC listed and placed within eye-level</t>
-  </si>
-  <si>
-    <t>Shelf Position</t>
-  </si>
-  <si>
-    <t>segment = poc(power oral care) and PG at eye level according to eye level matrix (TBD)</t>
-  </si>
-  <si>
-    <t>ORAL CARE</t>
-  </si>
-  <si>
-    <t>3,4,5</t>
-  </si>
-  <si>
-    <t>display name</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>Big Endcap</t>
-  </si>
-  <si>
-    <t>Small Endcap</t>
-  </si>
-  <si>
-    <t>Main Shelf</t>
-  </si>
-  <si>
-    <t>Stand Alone</t>
-  </si>
-  <si>
-    <t>Peninsula 1+2</t>
-  </si>
-  <si>
-    <t>Peninsula 1+3</t>
-  </si>
-  <si>
-    <t>Peninsula 1+4</t>
-  </si>
-  <si>
-    <t>Island 1x2</t>
-  </si>
-  <si>
-    <t>Island 2x2</t>
-  </si>
-  <si>
-    <t>Island 3x2</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>1 Pallet</t>
-  </si>
-  <si>
-    <t>1/2 Pallet</t>
-  </si>
-  <si>
-    <t>1/4 Pallet</t>
-  </si>
-  <si>
-    <t>Basket</t>
-  </si>
-  <si>
-    <t>Big Rack</t>
-  </si>
-  <si>
-    <t>Hangers</t>
-  </si>
-  <si>
-    <t>Parasite</t>
-  </si>
-  <si>
-    <t>Retailer </t>
-  </si>
-  <si>
-    <t>Number of shelves</t>
-  </si>
-  <si>
-    <t>Shelf number for the eye level counting from the bottom</t>
-  </si>
-  <si>
-    <t>Auchan version 1</t>
-  </si>
-  <si>
-    <t>3,4</t>
-  </si>
-  <si>
-    <t>Auchan version 2</t>
-  </si>
-  <si>
-    <t>4,5</t>
-  </si>
-  <si>
-    <t>KAUFLAND</t>
-  </si>
-  <si>
-    <t>CARREFOUR</t>
-  </si>
-  <si>
-    <t>CARREFOUR M</t>
-  </si>
-  <si>
-    <t>MEGA IMAGE</t>
-  </si>
-  <si>
-    <t>Mega Image Shop &amp; Go</t>
-  </si>
-  <si>
-    <t>PROFI</t>
-  </si>
-  <si>
-    <t>CORA</t>
-  </si>
-  <si>
-    <t>PENNY</t>
+    <t xml:space="preserve">Primary Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precentages </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form = Mach3 out of segment=systems, PNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brand_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gillette Mach3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is lemon scent min 40% of Fairy shelf?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precentages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand = Fairy and Benefit = lemon out of Brand=fairy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benefit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEMON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fairy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are Pantene Gold skus placed in the middle of the Pantene shelf?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hair Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Survey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">survey question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">question_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunt SKU-urile de Pantene Gold plasate in mijlocul raftului de Pantene?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">question_answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Da</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Always Platinum min 15% of Always Pads shelf?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fem Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand=always and category=pads and form=Platinum out of Brand=always and alient sucategory=pads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALWAYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PADS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Ariel Liquid Tabs min 15% from total Laundry category?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laundary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laundry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand=Ariel and form=Liquid tabs out of Category=Laundry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ariel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAUNDRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liquid Tabs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Blue collection min 30% from Lenor shelf?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabric Enhancers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand =Lenor and form=liquid and benefit = Spring out of Brand =lenor and form=liquid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liquid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPRING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Pants min 25% of Pampers shelf?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category = diapers  and brand=pampers and form=taped out of category = diapers and brand=pampers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIAPERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAMPERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POC listed and placed within brushing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oral Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relative Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segment = poc(power oral care) and PG adjecent to toothbrush sub cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOOTHBRUSH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are Female Blades &amp; Razors placed in a distinct block than male Blades &amp; Razors?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shave Care (Female)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunt aparatele de ras si razoarele pentru femei plasate in bloc separat fata de cele pentru barbati?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POC listed and placed within eye-level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segment = poc(power oral care) and PG at eye level according to eye level matrix (TBD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORAL CARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,4,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are H&amp;S male skus placed in hair care main shelf?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEAD&amp;SHOULDERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Endcap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small Endcap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stand Alone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peninsula 1+2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peninsula 1+3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peninsula 1+4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Island 1x2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Island 2x2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Island 3x2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Pallet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 Pallet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4 Pallet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Rack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hangers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parasite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retailer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of shelves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf number for the eye level counting from the bottom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auchan version 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auchan version 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAUFLAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARREFOUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARREFOUR M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEGA IMAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mega Image Shop &amp; Go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROFI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PENNY</t>
   </si>
 </sst>
 </file>
@@ -425,7 +440,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -755,26 +770,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:12"/>
+  <dimension ref="1:13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="62.8785425101215"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="63.412955465587"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="77.4453441295547"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="31.085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="78.0890688259109"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="26.3522267206478"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="16.3886639676113"/>
@@ -875,7 +890,7 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" s="12" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="12" customFormat="true" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -925,7 +940,7 @@
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>33</v>
       </c>
@@ -1972,7 +1987,7 @@
       <c r="AMF4" s="7"/>
       <c r="AMG4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
         <v>40</v>
       </c>
@@ -4102,10 +4117,10 @@
         <v>62</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q7" s="11" t="n">
         <v>15</v>
@@ -4116,13 +4131,13 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>25</v>
@@ -4137,25 +4152,25 @@
         <v>35</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M8" s="11" t="s">
         <v>29</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O8" s="11" t="s">
         <v>37</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q8" s="11" t="n">
         <v>30</v>
@@ -4163,13 +4178,13 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>25</v>
@@ -4184,25 +4199,25 @@
         <v>35</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>54</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>29</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="11" t="n">
         <v>25</v>
@@ -4210,13 +4225,13 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>25</v>
@@ -4225,16 +4240,16 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>43</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="L10" s="11" t="s">
         <v>81</v>
@@ -4249,7 +4264,7 @@
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
     </row>
-    <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
         <v>83</v>
       </c>
@@ -4295,10 +4310,10 @@
         <v>86</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>25</v>
@@ -4316,7 +4331,7 @@
         <v>88</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="L12" s="11" t="s">
         <v>81</v>
@@ -4331,6 +4346,38 @@
       <c r="P12" s="11"/>
       <c r="Q12" s="11" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4369,15 +4416,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>2</v>
@@ -4385,7 +4432,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1.5</v>
@@ -4393,7 +4440,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>2</v>
@@ -4401,7 +4448,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>2</v>
@@ -4409,7 +4456,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>3</v>
@@ -4417,7 +4464,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>4</v>
@@ -4425,7 +4472,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>5</v>
@@ -4433,7 +4480,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>2</v>
@@ -4441,7 +4488,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>4</v>
@@ -4449,7 +4496,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>6</v>
@@ -4457,7 +4504,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>1</v>
@@ -4465,7 +4512,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>1</v>
@@ -4473,7 +4520,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>0.5</v>
@@ -4481,7 +4528,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>0.25</v>
@@ -4489,7 +4536,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>0.5</v>
@@ -4497,7 +4544,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>1</v>
@@ -4505,7 +4552,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>0.3</v>
@@ -4513,7 +4560,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>0.1</v>
@@ -4543,25 +4590,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="22.1740890688259"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="15" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="15" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="15" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="1018" min="5" style="15" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" s="17" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AME1" s="0"/>
       <c r="AMF1" s="0"/>
@@ -4572,52 +4619,52 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="18" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C2" s="20" t="n">
         <v>6</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" s="20" t="n">
         <v>8</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="20" t="n">
         <v>5</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="18" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C5" s="20" t="n">
         <v>8</v>
@@ -4628,10 +4675,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="18" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="20" t="n">
         <v>4</v>
@@ -4642,10 +4689,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="18" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C7" s="20" t="n">
         <v>5</v>
@@ -4656,10 +4703,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="18" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C8" s="20" t="n">
         <v>5</v>
@@ -4670,24 +4717,24 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="18" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C9" s="20" t="n">
         <v>6</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="18" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C10" s="20" t="n">
         <v>5</v>
@@ -4698,16 +4745,16 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="18" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C11" s="20" t="n">
         <v>6</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/PNGRO/Data/Template.xlsx
+++ b/Projects/PNGRO/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="SBD_kpis" sheetId="1" state="visible" r:id="rId2"/>
@@ -285,7 +285,7 @@
     <t xml:space="preserve">segment = poc(power oral care) and PG adjecent to toothbrush sub cat</t>
   </si>
   <si>
-    <t xml:space="preserve">poc</t>
+    <t xml:space="preserve">Power Oral Care</t>
   </si>
   <si>
     <t xml:space="preserve">TOOTHBRUSH</t>
@@ -773,23 +773,23 @@
   <dimension ref="1:13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="63.412955465587"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="63.9514170040486"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="78.0890688259109"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="78.8380566801619"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="16.3886639676113"/>
@@ -4590,9 +4590,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="15" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="15" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="15" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="1018" min="5" style="15" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="9.10526315789474"/>
   </cols>

--- a/Projects/PNGRO/Data/Template.xlsx
+++ b/Projects/PNGRO/Data/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Shared\Implementation\Projects database\EUROPE\P&amp;G RO\Rollout\KPI Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7DEAE6F4-CA83-4A09-94ED-BF1CD7F86FC3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9F10B725-B0C6-47FA-AEF7-08D53BD22F6D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="132">
   <si>
     <t>General Data</t>
   </si>
@@ -431,13 +431,16 @@
     <t>PENNY</t>
   </si>
   <si>
-    <t>Sub category=diapers and brand = pampers and segment=pants out of sub category=diapers and brand=pampers</t>
-  </si>
-  <si>
     <t>Brand=always and sub-category =pads and form=Platinum out of Brand=always and sub category=pads</t>
   </si>
   <si>
     <t>Platinum</t>
+  </si>
+  <si>
+    <t>Old Category Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> category=diapers and brand = pampers and segment=pants out of category=diapers and brand=pampers</t>
   </si>
 </sst>
 </file>
@@ -1229,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3511,7 +3514,7 @@
         <v>35</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>29</v>
@@ -3529,7 +3532,7 @@
         <v>61</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q6" s="11">
         <v>15</v>
@@ -4659,10 +4662,10 @@
         <v>35</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L9" s="11" t="s">
         <v>71</v>
@@ -4715,7 +4718,7 @@
         <v>78</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N10" s="11" t="s">
         <v>79</v>
@@ -4797,7 +4800,7 @@
         <v>78</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="N12" s="11" t="s">
         <v>86</v>

--- a/Projects/PNGRO/Data/Template.xlsx
+++ b/Projects/PNGRO/Data/Template.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="134">
   <si>
     <t xml:space="preserve">Retailer </t>
   </si>
@@ -379,6 +379,9 @@
   </si>
   <si>
     <t xml:space="preserve">Fairy SRPs implemented at shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRP</t>
   </si>
   <si>
     <t xml:space="preserve">display name</t>
@@ -829,9 +832,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="1018" min="5" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="8.57085020242915"/>
   </cols>
@@ -1040,24 +1043,24 @@
   </sheetPr>
   <dimension ref="A1:AMG16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K27" activeCellId="0" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="64.5910931174089"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="8" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="65.1295546558705"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="8" width="17.5668016194332"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="8" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="8" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="8" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="8" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="8" width="21.1012145748988"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="8" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="8" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="8" width="88.2024291497976"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="8" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="8" width="31.8137651821862"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="8" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="8" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="8" width="89.0161943319838"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="8" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="8" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="8" width="26.995951417004"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="8" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="8" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="8" width="16.497975708502"/>
@@ -4666,8 +4669,12 @@
         <v>44</v>
       </c>
       <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
+      <c r="K14" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="L14" s="26" t="s">
+        <v>113</v>
+      </c>
       <c r="M14" s="26" t="s">
         <v>46</v>
       </c>
@@ -4754,15 +4761,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>2</v>
@@ -4770,7 +4777,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1.5</v>
@@ -4778,7 +4785,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>2</v>
@@ -4786,7 +4793,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>2</v>
@@ -4794,7 +4801,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>3</v>
@@ -4802,7 +4809,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>4</v>
@@ -4810,7 +4817,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>5</v>
@@ -4818,7 +4825,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>2</v>
@@ -4826,7 +4833,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B10" s="8" t="n">
         <v>4</v>
@@ -4834,7 +4841,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B11" s="8" t="n">
         <v>6</v>
@@ -4842,7 +4849,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>1</v>
@@ -4850,7 +4857,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B13" s="8" t="n">
         <v>1</v>
@@ -4858,7 +4865,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B14" s="8" t="n">
         <v>0.5</v>
@@ -4866,7 +4873,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B15" s="8" t="n">
         <v>0.25</v>
@@ -4874,7 +4881,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B16" s="8" t="n">
         <v>0.5</v>
@@ -4882,7 +4889,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B17" s="8" t="n">
         <v>1</v>
@@ -4890,7 +4897,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B18" s="8" t="n">
         <v>0.3</v>
@@ -4898,7 +4905,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B19" s="8" t="n">
         <v>0.1</v>

--- a/Projects/PNGRO/Data/Template.xlsx
+++ b/Projects/PNGRO/Data/Template.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="135">
   <si>
     <t xml:space="preserve">Retailer </t>
   </si>
@@ -379,6 +379,9 @@
   </si>
   <si>
     <t xml:space="preserve">Fairy SRPs implemented at shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS Facing</t>
   </si>
   <si>
     <t xml:space="preserve">SRP</t>
@@ -832,9 +835,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="1018" min="5" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="8.57085020242915"/>
   </cols>
@@ -1043,24 +1046,24 @@
   </sheetPr>
   <dimension ref="A1:AMG16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K27" activeCellId="0" sqref="K27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="65.1295546558705"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="8" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="65.663967611336"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="8" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="8" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="8" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="8" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="8" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="8" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="8" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="8" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="8" width="89.0161943319838"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="8" width="30.3157894736842"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="8" width="32.0283400809717"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="8" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="8" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="8" width="89.7651821862348"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="8" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="8" width="32.2429149797571"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="8" width="27.2064777327935"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="8" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="8" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="8" width="16.497975708502"/>
@@ -4663,17 +4666,17 @@
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
       <c r="H14" s="28" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="I14" s="28" t="s">
         <v>44</v>
       </c>
       <c r="J14" s="26"/>
       <c r="K14" s="26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L14" s="26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M14" s="26" t="s">
         <v>46</v>
@@ -4761,15 +4764,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>2</v>
@@ -4777,7 +4780,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1.5</v>
@@ -4785,7 +4788,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>2</v>
@@ -4793,7 +4796,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>2</v>
@@ -4801,7 +4804,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>3</v>
@@ -4809,7 +4812,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>4</v>
@@ -4817,7 +4820,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>5</v>
@@ -4825,7 +4828,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>2</v>
@@ -4833,7 +4836,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B10" s="8" t="n">
         <v>4</v>
@@ -4841,7 +4844,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B11" s="8" t="n">
         <v>6</v>
@@ -4849,7 +4852,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>1</v>
@@ -4857,7 +4860,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B13" s="8" t="n">
         <v>1</v>
@@ -4865,7 +4868,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B14" s="8" t="n">
         <v>0.5</v>
@@ -4873,7 +4876,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B15" s="8" t="n">
         <v>0.25</v>
@@ -4881,7 +4884,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B16" s="8" t="n">
         <v>0.5</v>
@@ -4889,7 +4892,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B17" s="8" t="n">
         <v>1</v>
@@ -4897,7 +4900,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B18" s="8" t="n">
         <v>0.3</v>
@@ -4905,7 +4908,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B19" s="8" t="n">
         <v>0.1</v>

--- a/Projects/PNGRO/Data/Template.xlsx
+++ b/Projects/PNGRO/Data/Template.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Eye-level" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="SBD_kpis" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="display weight" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="eye_level_parameters" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">SBD_kpis!$A$2:$X$41</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="141">
   <si>
     <t xml:space="preserve">Retailer </t>
   </si>
@@ -387,6 +388,12 @@
     <t xml:space="preserve">SRP</t>
   </si>
   <si>
+    <t xml:space="preserve">Head&amp;Shoulders at eye level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eye Level</t>
+  </si>
+  <si>
     <t xml:space="preserve">display name</t>
   </si>
   <si>
@@ -445,6 +452,18 @@
   </si>
   <si>
     <t xml:space="preserve">Parasite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of shelves min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of shelves max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ignore from top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ignore from bottom</t>
   </si>
 </sst>
 </file>
@@ -454,7 +473,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF626468"/>
@@ -526,6 +545,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -583,7 +610,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -596,6 +623,90 @@
       <right style="hair"/>
       <top style="hair"/>
       <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
   </borders>
@@ -628,7 +739,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -749,6 +860,54 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -829,15 +988,15 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="22.1740890688259"/>
     <col collapsed="false" hidden="false" max="1018" min="5" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="8.57085020242915"/>
   </cols>
@@ -1046,26 +1205,26 @@
   </sheetPr>
   <dimension ref="A1:AMG16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="65.663967611336"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="8" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="66.1983805668016"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="8" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="8" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="8" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="8" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="8" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="8" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="8" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="8" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="8" width="89.7651821862348"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="8" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="8" width="32.2429149797571"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="8" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="8" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="8" width="90.5141700404858"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="8" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="8" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="8" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="8" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="8" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="8" width="12.7165991902834"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="8" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="8" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="1021" min="18" style="8" width="9.10526315789474"/>
@@ -4691,23 +4850,37 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="26"/>
+      <c r="A15" s="26" t="s">
+        <v>115</v>
+      </c>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
+      <c r="D15" s="27" t="s">
+        <v>42</v>
+      </c>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
+      <c r="H15" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>52</v>
+      </c>
       <c r="J15" s="26"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
+      <c r="K15" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="26" t="s">
+        <v>109</v>
+      </c>
       <c r="M15" s="29"/>
       <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="29" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="26"/>
@@ -4752,8 +4925,8 @@
   </sheetPr>
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4764,15 +4937,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>2</v>
@@ -4780,7 +4953,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1.5</v>
@@ -4788,7 +4961,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>2</v>
@@ -4796,7 +4969,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>2</v>
@@ -4804,7 +4977,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>3</v>
@@ -4812,7 +4985,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>4</v>
@@ -4820,7 +4993,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>5</v>
@@ -4828,7 +5001,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>2</v>
@@ -4836,7 +5009,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B10" s="8" t="n">
         <v>4</v>
@@ -4844,7 +5017,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B11" s="8" t="n">
         <v>6</v>
@@ -4852,7 +5025,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>1</v>
@@ -4860,7 +5033,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B13" s="8" t="n">
         <v>1</v>
@@ -4868,7 +5041,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B14" s="8" t="n">
         <v>0.5</v>
@@ -4876,7 +5049,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B15" s="8" t="n">
         <v>0.25</v>
@@ -4884,7 +5057,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B16" s="8" t="n">
         <v>0.5</v>
@@ -4892,7 +5065,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B17" s="8" t="n">
         <v>1</v>
@@ -4900,7 +5073,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B18" s="8" t="n">
         <v>0.3</v>
@@ -4908,10 +5081,125 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B19" s="8" t="n">
         <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.3441295546559"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1943319838057"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.8744939271255"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.6963562753036"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="33" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" s="33" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="36" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" s="36" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="36" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" s="36" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="36" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" s="36" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="39" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" s="39" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="41" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/PNGRO/Data/Template.xlsx
+++ b/Projects/PNGRO/Data/Template.xlsx
@@ -12,23 +12,24 @@
     <sheet name="SBD_kpis" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="display weight" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="eye_level_parameters" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="retailer_targets" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">SBD_kpis!$A$2:$X$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0" vbProcedure="false">SBD_kpis!$A$2:$X$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$X$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$X$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$X$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$X$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$X$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$X$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$X$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$X$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$X$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$X$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$X$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$2:$X$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">SBD_kpis!$A$2:$X$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">SBD_kpis!$C$2:$Z$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0" vbProcedure="false">SBD_kpis!$C$2:$Z$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$Z$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$Z$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$Z$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$Z$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$Z$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$Z$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$Z$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$Z$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$Z$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$Z$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$Z$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$Z$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">SBD_kpis!$C$2:$Z$41</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="176">
   <si>
     <t xml:space="preserve">Retailer </t>
   </si>
@@ -109,6 +110,12 @@
   </si>
   <si>
     <t xml:space="preserve">Scoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Targets by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Number</t>
   </si>
   <si>
     <t xml:space="preserve">KPI Name</t>
@@ -379,9 +386,15 @@
     <t xml:space="preserve">Male</t>
   </si>
   <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fairy SRPs implemented at shelf</t>
   </si>
   <si>
+    <t xml:space="preserve">Home Care</t>
+  </si>
+  <si>
     <t xml:space="preserve">SOS Facing</t>
   </si>
   <si>
@@ -394,6 +407,87 @@
     <t xml:space="preserve">Eye Level</t>
   </si>
   <si>
+    <t xml:space="preserve">Availability of Venus rack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fairy HDW permanent rack x 2 /store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display: 2 x Oral Care rack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display: Liquid Tabs racks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One Dish Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block Adjacency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One Dish shelving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pantene Golden River </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blocked Together</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hair Care vertical brand blocks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codisplay: Venus/Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability Secondary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codisplay: Fairy HDW w. Fairy ADW/Proper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codisplay: Liquid Tabs w Laundry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Co-display: Oral Care with Beauty </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO-DISPLAY: PANTS  W PAMPERS DIAPERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CODISPLAY OF PREMIUM &amp; BEEDS WITHIN LENOR FE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CODISPLAY PLATINUM WITH PADS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO-DISPLAY PLATINUM ADW WITH FAIRY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POC CO-DISPLAY WITH P&amp;G ORAL CARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO-DISPLAY GILLETTE BLADES WITH GILLETTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf: # Skus POC in Beauty </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Shelf??</t>
+  </si>
+  <si>
     <t xml:space="preserve">display name</t>
   </si>
   <si>
@@ -464,6 +558,18 @@
   </si>
   <si>
     <t xml:space="preserve">Ignore from bottom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retailer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -599,14 +705,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4BE49"/>
-        <bgColor rgb="FFFFD966"/>
+        <fgColor rgb="FFCFE7F5"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCFE7F5"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <fgColor rgb="FFF4BE49"/>
+        <bgColor rgb="FFFFD966"/>
       </patternFill>
     </fill>
   </fills>
@@ -739,7 +845,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -792,11 +898,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -844,19 +958,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -989,14 +1099,14 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="1018" min="5" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="8.57085020242915"/>
   </cols>
@@ -1203,79 +1313,82 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMG16"/>
+  <dimension ref="A1:AMI34"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="66.1983805668016"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="8" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="8" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="8" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="8" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="8" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="8" width="90.5141700404858"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="8" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="8" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="8" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="8" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="8" width="12.7165991902834"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.582995951417"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="66.8421052631579"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="8" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="8" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="8" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="8" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="8" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="8" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="8" width="91.3724696356275"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="8" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="8" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="8" width="27.6356275303644"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="8" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="8" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="1021" min="18" style="8" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="8" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="8" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="8" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="1023" min="20" style="8" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="true" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="10" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
       <c r="G1" s="9"/>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AMD1" s="11"/>
-      <c r="AME1" s="11"/>
       <c r="AMF1" s="11"/>
       <c r="AMG1" s="11"/>
-    </row>
-    <row r="2" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMH1" s="11"/>
+      <c r="AMI1" s="11"/>
+    </row>
+    <row r="2" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>25</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>26</v>
@@ -1283,46 +1396,50 @@
       <c r="F2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" s="19" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
+      <c r="R2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="S2" s="13" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="3" s="21" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16" t="n">
+        <v>1</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>41</v>
@@ -1330,84 +1447,92 @@
       <c r="D3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18" t="s">
+      <c r="E3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="F3" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18" t="n">
+      <c r="O3" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="AMD3" s="14"/>
-      <c r="AME3" s="14"/>
-      <c r="AMF3" s="14"/>
-      <c r="AMG3" s="14"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
+      <c r="P3" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20" t="n">
         <v>50</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>51</v>
+      <c r="AMF3" s="15"/>
+      <c r="AMG3" s="15"/>
+      <c r="AMH3" s="15"/>
+      <c r="AMI3" s="15"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16" t="n">
+        <v>2</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="E4" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="M4" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="18" t="s">
+      <c r="M4" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18" t="n">
+      <c r="N4" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20" t="n">
         <v>40</v>
       </c>
-      <c r="R4" s="0"/>
-      <c r="S4" s="0"/>
       <c r="T4" s="0"/>
       <c r="U4" s="0"/>
       <c r="V4" s="0"/>
@@ -2406,53 +2531,57 @@
       <c r="AMA4" s="0"/>
       <c r="AMB4" s="0"/>
       <c r="AMC4" s="0"/>
-      <c r="AMD4" s="14"/>
-      <c r="AME4" s="14"/>
-      <c r="AMF4" s="14"/>
-      <c r="AMG4" s="14"/>
-    </row>
-    <row r="5" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>58</v>
+      <c r="AMD4" s="0"/>
+      <c r="AME4" s="0"/>
+      <c r="AMF4" s="15"/>
+      <c r="AMG4" s="15"/>
+      <c r="AMH4" s="15"/>
+      <c r="AMI4" s="15"/>
+    </row>
+    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="E5" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="M5" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="N5" s="18" t="s">
+      <c r="N5" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="0"/>
-      <c r="S5" s="0"/>
+      <c r="O5" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
       <c r="T5" s="0"/>
       <c r="U5" s="0"/>
       <c r="V5" s="0"/>
@@ -3451,59 +3580,63 @@
       <c r="AMA5" s="0"/>
       <c r="AMB5" s="0"/>
       <c r="AMC5" s="0"/>
-      <c r="AMD5" s="14"/>
-      <c r="AME5" s="14"/>
-      <c r="AMF5" s="14"/>
-      <c r="AMG5" s="14"/>
+      <c r="AMD5" s="0"/>
+      <c r="AME5" s="0"/>
+      <c r="AMF5" s="15"/>
+      <c r="AMG5" s="15"/>
+      <c r="AMH5" s="15"/>
+      <c r="AMI5" s="15"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="20" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="18" t="s">
+      <c r="E6" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="F6" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="N6" s="18" t="s">
+      <c r="M6" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="O6" s="18" t="s">
+      <c r="O6" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="P6" s="18" t="s">
+      <c r="P6" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="Q6" s="18" t="n">
+      <c r="Q6" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="R6" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="S6" s="20" t="n">
         <v>15</v>
       </c>
-      <c r="R6" s="0"/>
-      <c r="S6" s="0"/>
       <c r="T6" s="0"/>
       <c r="U6" s="0"/>
       <c r="V6" s="0"/>
@@ -4502,411 +4635,881 @@
       <c r="AMA6" s="0"/>
       <c r="AMB6" s="0"/>
       <c r="AMC6" s="0"/>
-      <c r="AMD6" s="14"/>
-      <c r="AME6" s="14"/>
-      <c r="AMF6" s="14"/>
-      <c r="AMG6" s="14"/>
-    </row>
-    <row r="7" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
+      <c r="AMD6" s="0"/>
+      <c r="AME6" s="0"/>
+      <c r="AMF6" s="15"/>
+      <c r="AMG6" s="15"/>
+      <c r="AMH6" s="15"/>
+      <c r="AMI6" s="15"/>
+    </row>
+    <row r="7" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q7" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="M7" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="N7" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="O7" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="P7" s="18" t="s">
+      <c r="R7" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="S7" s="20" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q8" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="R8" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="S8" s="20" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="Q7" s="18" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="L8" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="N8" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="O8" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="P8" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q8" s="18" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="L9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="M9" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="N9" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="O9" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="P9" s="18" t="s">
+      <c r="N9" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="Q9" s="18" t="n">
+      <c r="O9" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q9" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="R9" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="S9" s="20" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="E10" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" s="18" t="s">
+      <c r="F10" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="M10" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="N10" s="18" t="s">
+      <c r="K10" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-    </row>
-    <row r="11" customFormat="false" ht="38.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
+      <c r="M10" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="20" t="s">
+      <c r="O10" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" s="20" t="s">
         <v>100</v>
+      </c>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+    </row>
+    <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>101</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="18" t="s">
+      <c r="E11" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="O11" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="O12" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="P12" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="J11" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" s="18" t="s">
+      <c r="E13" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="M11" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="N11" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="I12" s="18" t="s">
+      <c r="L13" s="27"/>
+      <c r="M13" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="O13" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="P13" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="P14" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="28" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="16" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="J12" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="K12" s="18" t="s">
+      <c r="E15" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="M12" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="N12" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="I13" s="18" t="s">
+      <c r="N15" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="M13" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="N13" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="I14" s="28" t="s">
+      <c r="E16" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="N16" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="N17" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="N18" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="16" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="N19" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="16" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26" t="s">
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="L14" s="26" t="s">
+      <c r="B22" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="J22" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="M14" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="N14" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29" t="n">
+      <c r="B23" s="16" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="J24" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="16" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="J25" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="16" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="16" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="J27" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="16" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="J28" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="16" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="J29" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="16" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="J30" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="16" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="J31" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="16" t="n">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="L15" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
+      <c r="C32" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="J32" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="16" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="J33" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="16" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J34" s="28" t="s">
+        <v>136</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:R1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4937,15 +5540,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>2</v>
@@ -4953,7 +5556,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1.5</v>
@@ -4961,7 +5564,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>2</v>
@@ -4969,7 +5572,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>2</v>
@@ -4977,7 +5580,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>3</v>
@@ -4985,7 +5588,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>4</v>
@@ -4993,7 +5596,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>5</v>
@@ -5001,7 +5604,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>2</v>
@@ -5009,7 +5612,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="B10" s="8" t="n">
         <v>4</v>
@@ -5017,7 +5620,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="B11" s="8" t="n">
         <v>6</v>
@@ -5025,7 +5628,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>1</v>
@@ -5033,7 +5636,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="B13" s="8" t="n">
         <v>1</v>
@@ -5041,7 +5644,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="B14" s="8" t="n">
         <v>0.5</v>
@@ -5049,7 +5652,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="B15" s="8" t="n">
         <v>0.25</v>
@@ -5057,7 +5660,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="B16" s="8" t="n">
         <v>0.5</v>
@@ -5065,7 +5668,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="B17" s="8" t="n">
         <v>1</v>
@@ -5073,7 +5676,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="B18" s="8" t="n">
         <v>0.3</v>
@@ -5081,7 +5684,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="B19" s="8" t="n">
         <v>0.1</v>
@@ -5106,100 +5709,143 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.3441295546559"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1943319838057"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.8744939271255"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.6963562753036"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>140</v>
+      <c r="A1" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33" t="n">
+      <c r="A2" s="34" t="n">
         <v>3</v>
       </c>
-      <c r="B2" s="33" t="n">
+      <c r="B2" s="34" t="n">
         <v>3</v>
       </c>
-      <c r="C2" s="34" t="n">
+      <c r="C2" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="35" t="n">
+      <c r="D2" s="36" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="36" t="n">
+      <c r="A3" s="37" t="n">
         <v>4</v>
       </c>
-      <c r="B3" s="36" t="n">
+      <c r="B3" s="37" t="n">
         <v>4</v>
       </c>
-      <c r="C3" s="37" t="n">
+      <c r="C3" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="38" t="n">
+      <c r="D3" s="39" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="36" t="n">
+      <c r="A4" s="37" t="n">
         <v>5</v>
       </c>
-      <c r="B4" s="36" t="n">
+      <c r="B4" s="37" t="n">
         <v>5</v>
       </c>
-      <c r="C4" s="37" t="n">
+      <c r="C4" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="38" t="n">
+      <c r="D4" s="39" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="36" t="n">
+      <c r="A5" s="37" t="n">
         <v>6</v>
       </c>
-      <c r="B5" s="36" t="n">
+      <c r="B5" s="37" t="n">
         <v>6</v>
       </c>
-      <c r="C5" s="37" t="n">
+      <c r="C5" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="38" t="n">
+      <c r="D5" s="39" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="39" t="n">
+      <c r="A6" s="40" t="n">
         <v>7</v>
       </c>
-      <c r="B6" s="39" t="n">
+      <c r="B6" s="40" t="n">
         <v>100</v>
       </c>
-      <c r="C6" s="40" t="n">
+      <c r="C6" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="41" t="n">
+      <c r="D6" s="42" t="n">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K22" activeCellId="0" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="0" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/PNGRO/Data/Template.xlsx
+++ b/Projects/PNGRO/Data/Template.xlsx
@@ -5,33 +5,33 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Eye-level" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="SBD_kpis" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="display weight" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="eye_level_parameters" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="retailer_targets_final" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="retailer_targets" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="retailer_targets" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">retailer_targets!$A$1:$C$16</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">SBD_kpis!$C$2:$AG$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0" vbProcedure="false">SBD_kpis!$C$2:$AG$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$AG$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$AG$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$AG$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$AG$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$AG$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$AG$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$AG$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$AG$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$AG$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$AG$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$AG$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$AG$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">SBD_kpis!$C$2:$AG$41</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">SBD_kpis!$C$2:$AK$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">SBD_kpis!$C$2:$AK$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0" vbProcedure="false">SBD_kpis!$C$2:$AK$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$AK$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$AK$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$AK$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$AK$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$AK$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$AK$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$AK$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$AK$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$AK$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$AK$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$AK$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$AK$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">SBD_kpis!$A$2:$AD$34</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">SBD_kpis!$C$2:$AK$41</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -42,8 +42,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="AA27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Maya Dror:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Product Policy</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="209">
   <si>
     <t xml:space="preserve">Retailer </t>
   </si>
@@ -159,6 +195,12 @@
     <t xml:space="preserve">Param (1-1) Values</t>
   </si>
   <si>
+    <t xml:space="preserve">Param Type (1-2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Param (1-2) Values</t>
+  </si>
+  <si>
     <t xml:space="preserve">Param Type (2)/ Denominator</t>
   </si>
   <si>
@@ -169,6 +211,12 @@
   </si>
   <si>
     <t xml:space="preserve">Param (2-1) Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Param Type (2-2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Param (2-2) Values</t>
   </si>
   <si>
     <t xml:space="preserve">Param (3)</t>
@@ -442,13 +490,10 @@
     <t xml:space="preserve">display_name</t>
   </si>
   <si>
-    <t xml:space="preserve">Small Endcap</t>
+    <t xml:space="preserve">tbd</t>
   </si>
   <si>
     <t xml:space="preserve">Fairy HDW permanent rack x 2 /store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbd</t>
   </si>
   <si>
     <t xml:space="preserve">Display: 2 x Oral Care rack</t>
@@ -514,10 +559,10 @@
     <t xml:space="preserve">Codisplay: Fairy HDW w. Fairy ADW/Proper</t>
   </si>
   <si>
-    <t xml:space="preserve">Codisplay: Liquid Tabs w Laundry</t>
+    <t xml:space="preserve">MR. Proper</t>
   </si>
   <si>
-    <t xml:space="preserve">Laundry Detergent</t>
+    <t xml:space="preserve">Codisplay: Liquid Tabs w Laundry</t>
   </si>
   <si>
     <t xml:space="preserve">Liquid,Powder</t>
@@ -526,7 +571,13 @@
     <t xml:space="preserve">Co-display: Oral Care with Beauty</t>
   </si>
   <si>
-    <t xml:space="preserve">Shave Care,Hair Care,Fem Care</t>
+    <t xml:space="preserve">SHAVE CARE,HAIR CARE,FEM CARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOOTHBRUSH,  TOOTHPASTE, MOUTHWASH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category,majority</t>
   </si>
   <si>
     <t xml:space="preserve">CO-DISPLAY: PANTS  W PAMPERS DIAPERS</t>
@@ -535,7 +586,16 @@
     <t xml:space="preserve">Pampers</t>
   </si>
   <si>
+    <t xml:space="preserve">Pants</t>
+  </si>
+  <si>
     <t xml:space="preserve">CODISPLAY OF PREMIUM &amp; BEEDS WITHIN LENOR FE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FABRIC ENHANCERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beads,Premium</t>
   </si>
   <si>
     <t xml:space="preserve">CODISPLAY PLATINUM WITH PADS</t>
@@ -544,16 +604,22 @@
     <t xml:space="preserve">CO-DISPLAY PLATINUM ADW WITH FAIRY</t>
   </si>
   <si>
+    <t xml:space="preserve">HAND DISH,AUTO DISH</t>
+  </si>
+  <si>
     <t xml:space="preserve">POC CO-DISPLAY WITH P&amp;G ORAL CARE</t>
   </si>
   <si>
     <t xml:space="preserve">CO-DISPLAY GILLETTE BLADES WITH GILLETTE</t>
   </si>
   <si>
-    <t xml:space="preserve">Shelf: Skus POC in Beauty</t>
+    <t xml:space="preserve">SHAVE CARE</t>
   </si>
   <si>
-    <t xml:space="preserve">Primary Shelf??</t>
+    <t xml:space="preserve">Blades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf: Skus POC in Beauty</t>
   </si>
   <si>
     <t xml:space="preserve">display name</t>
@@ -563,6 +629,9 @@
   </si>
   <si>
     <t xml:space="preserve">Big Endcap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small Endcap</t>
   </si>
   <si>
     <t xml:space="preserve">Main Shelf</t>
@@ -728,22 +797,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF800000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF800000"/>
+      <color rgb="FFFF3300"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF3300"/>
-      <name val="Calibri"/>
+      <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -941,7 +1011,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1034,10 +1104,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1062,23 +1128,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1218,15 +1284,15 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="1018" min="5" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="8.57085020242915"/>
   </cols>
@@ -1433,40 +1499,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:34"/>
+  <dimension ref="A1:AMF34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S23" activeCellId="0" sqref="S23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="36.748987854251"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="8" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="48.2024291497976"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="8" width="17.6761133603239"/>
     <col collapsed="false" hidden="true" max="9" min="7" style="8" width="0"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="8" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="8" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="8" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="8" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="8" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="8" width="12.0526315789474"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="8" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="8" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="8" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="8" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="8" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="8" width="9.21052631578947"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="8" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="8" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="8" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="8" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="1016" min="27" style="8" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="1017" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="8" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="8" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="8" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="8" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="8" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="8" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="8" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="8" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="8" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="8" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="8" width="41.0283400809717"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="8" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="8" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="25" min="23" style="8" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="8" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="8" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="8" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="8" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1020" min="31" style="8" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1503,17 +1571,13 @@
       <c r="W1" s="9"/>
       <c r="X1" s="9"/>
       <c r="Y1" s="9"/>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AMC1" s="0"/>
-      <c r="AMD1" s="0"/>
-      <c r="AME1" s="0"/>
-      <c r="AMF1" s="0"/>
-      <c r="AMG1" s="0"/>
-      <c r="AMH1" s="0"/>
-      <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
@@ -1594,14 +1658,18 @@
       <c r="Z2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AMC2" s="0"/>
-      <c r="AMD2" s="0"/>
-      <c r="AME2" s="0"/>
-      <c r="AMF2" s="0"/>
-      <c r="AMG2" s="0"/>
-      <c r="AMH2" s="0"/>
-      <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
+      <c r="AA2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="3" s="20" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15"/>
@@ -1609,61 +1677,57 @@
         <v>1</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="19" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O3" s="19"/>
       <c r="P3" s="19"/>
-      <c r="Q3" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="R3" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" s="19" t="s">
+        <v>62</v>
+      </c>
       <c r="U3" s="19"/>
       <c r="V3" s="19"/>
       <c r="W3" s="19"/>
       <c r="X3" s="19"/>
       <c r="Y3" s="19"/>
-      <c r="Z3" s="19" t="n">
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19" t="n">
         <v>50</v>
       </c>
-      <c r="AMC3" s="0"/>
-      <c r="AMD3" s="0"/>
-      <c r="AME3" s="0"/>
-      <c r="AMF3" s="0"/>
-      <c r="AMG3" s="0"/>
-      <c r="AMH3" s="0"/>
-      <c r="AMI3" s="0"/>
-      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15"/>
@@ -1671,57 +1735,57 @@
         <v>2</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
-      <c r="Q4" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="R4" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="T4" s="19" t="s">
+        <v>69</v>
+      </c>
       <c r="U4" s="19"/>
       <c r="V4" s="19"/>
       <c r="W4" s="19"/>
       <c r="X4" s="19"/>
       <c r="Y4" s="19"/>
-      <c r="Z4" s="19" t="n">
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19" t="n">
         <v>40</v>
       </c>
-      <c r="AA4" s="0"/>
-      <c r="AB4" s="0"/>
-      <c r="AC4" s="0"/>
-      <c r="AD4" s="0"/>
       <c r="AE4" s="0"/>
       <c r="AF4" s="0"/>
       <c r="AG4" s="0"/>
@@ -2708,6 +2772,10 @@
       <c r="ALZ4" s="0"/>
       <c r="AMA4" s="0"/>
       <c r="AMB4" s="0"/>
+      <c r="AMC4" s="0"/>
+      <c r="AMD4" s="0"/>
+      <c r="AME4" s="0"/>
+      <c r="AMF4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15"/>
@@ -2715,55 +2783,55 @@
         <v>3</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
-      <c r="Q5" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="R5" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="T5" s="19" t="s">
+        <v>78</v>
+      </c>
       <c r="U5" s="19"/>
       <c r="V5" s="19"/>
       <c r="W5" s="19"/>
       <c r="X5" s="19"/>
       <c r="Y5" s="19"/>
       <c r="Z5" s="19"/>
-      <c r="AA5" s="0"/>
-      <c r="AB5" s="0"/>
-      <c r="AC5" s="0"/>
-      <c r="AD5" s="0"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
       <c r="AE5" s="0"/>
       <c r="AF5" s="0"/>
       <c r="AG5" s="0"/>
@@ -3750,6 +3818,10 @@
       <c r="ALZ5" s="0"/>
       <c r="AMA5" s="0"/>
       <c r="AMB5" s="0"/>
+      <c r="AMC5" s="0"/>
+      <c r="AMD5" s="0"/>
+      <c r="AME5" s="0"/>
+      <c r="AMF5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15"/>
@@ -3757,61 +3829,61 @@
         <v>4</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" s="23" t="s">
-        <v>78</v>
+        <v>65</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="N6" s="19" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
-      <c r="Q6" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="R6" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="V6" s="19" t="s">
-        <v>83</v>
-      </c>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="T6" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
       <c r="W6" s="19"/>
       <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19" t="n">
+      <c r="Y6" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z6" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19" t="n">
         <v>15</v>
       </c>
-      <c r="AA6" s="0"/>
-      <c r="AB6" s="0"/>
-      <c r="AC6" s="0"/>
-      <c r="AD6" s="0"/>
       <c r="AE6" s="0"/>
       <c r="AF6" s="0"/>
       <c r="AG6" s="0"/>
@@ -4798,6 +4870,10 @@
       <c r="ALZ6" s="0"/>
       <c r="AMA6" s="0"/>
       <c r="AMB6" s="0"/>
+      <c r="AMC6" s="0"/>
+      <c r="AMD6" s="0"/>
+      <c r="AME6" s="0"/>
+      <c r="AMF6" s="0"/>
     </row>
     <row r="7" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15"/>
@@ -4805,65 +4881,61 @@
         <v>5</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O7" s="19"/>
       <c r="P7" s="19"/>
-      <c r="Q7" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="R7" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="V7" s="19" t="s">
-        <v>90</v>
-      </c>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="T7" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
       <c r="W7" s="19"/>
       <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19" t="n">
+      <c r="Y7" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19" t="n">
         <v>15</v>
       </c>
-      <c r="AMC7" s="0"/>
-      <c r="AMD7" s="0"/>
-      <c r="AME7" s="0"/>
-      <c r="AMF7" s="0"/>
-      <c r="AMG7" s="0"/>
-      <c r="AMH7" s="0"/>
-      <c r="AMI7" s="0"/>
-      <c r="AMJ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15"/>
@@ -4871,61 +4943,61 @@
         <v>6</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="O8" s="19"/>
       <c r="P8" s="19"/>
-      <c r="Q8" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="R8" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="V8" s="19" t="s">
-        <v>96</v>
-      </c>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="T8" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
       <c r="W8" s="19"/>
       <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19" t="n">
+      <c r="Y8" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z8" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19" t="n">
         <v>30</v>
       </c>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
       <c r="AE8" s="0"/>
       <c r="AF8" s="0"/>
       <c r="AG8" s="0"/>
@@ -5912,6 +5984,10 @@
       <c r="ALZ8" s="0"/>
       <c r="AMA8" s="0"/>
       <c r="AMB8" s="0"/>
+      <c r="AMC8" s="0"/>
+      <c r="AMD8" s="0"/>
+      <c r="AME8" s="0"/>
+      <c r="AMF8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15"/>
@@ -5919,61 +5995,61 @@
         <v>7</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="19" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="L9" s="23" t="s">
-        <v>99</v>
+        <v>65</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>103</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
-      <c r="Q9" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="R9" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="V9" s="19" t="s">
-        <v>102</v>
-      </c>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="T9" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
       <c r="W9" s="19"/>
       <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19" t="n">
+      <c r="Y9" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z9" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19" t="n">
         <v>25</v>
       </c>
-      <c r="AA9" s="0"/>
-      <c r="AB9" s="0"/>
-      <c r="AC9" s="0"/>
-      <c r="AD9" s="0"/>
       <c r="AE9" s="0"/>
       <c r="AF9" s="0"/>
       <c r="AG9" s="0"/>
@@ -6960,6 +7036,10 @@
       <c r="ALZ9" s="0"/>
       <c r="AMA9" s="0"/>
       <c r="AMB9" s="0"/>
+      <c r="AMC9" s="0"/>
+      <c r="AMD9" s="0"/>
+      <c r="AME9" s="0"/>
+      <c r="AMF9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15"/>
@@ -6967,7 +7047,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>5</v>
@@ -6976,46 +7056,46 @@
         <v>5</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="19" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="O10" s="19"/>
       <c r="P10" s="19"/>
-      <c r="Q10" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="R10" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="T10" s="19" t="s">
+        <v>111</v>
+      </c>
       <c r="U10" s="19"/>
       <c r="V10" s="19"/>
       <c r="W10" s="19"/>
       <c r="X10" s="19"/>
       <c r="Y10" s="19"/>
       <c r="Z10" s="19"/>
-      <c r="AA10" s="0"/>
-      <c r="AB10" s="0"/>
-      <c r="AC10" s="0"/>
-      <c r="AD10" s="0"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
       <c r="AE10" s="0"/>
       <c r="AF10" s="0"/>
       <c r="AG10" s="0"/>
@@ -8002,6 +8082,10 @@
       <c r="ALZ10" s="0"/>
       <c r="AMA10" s="0"/>
       <c r="AMB10" s="0"/>
+      <c r="AMC10" s="0"/>
+      <c r="AMD10" s="0"/>
+      <c r="AME10" s="0"/>
+      <c r="AMF10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15"/>
@@ -8009,55 +8093,55 @@
         <v>9</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="19" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
-      <c r="Q11" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="R11" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="T11" s="19" t="s">
+        <v>78</v>
+      </c>
       <c r="U11" s="19"/>
       <c r="V11" s="19"/>
       <c r="W11" s="19"/>
       <c r="X11" s="19"/>
       <c r="Y11" s="19"/>
       <c r="Z11" s="19"/>
-      <c r="AA11" s="0"/>
-      <c r="AB11" s="0"/>
-      <c r="AC11" s="0"/>
-      <c r="AD11" s="0"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
       <c r="AE11" s="0"/>
       <c r="AF11" s="0"/>
       <c r="AG11" s="0"/>
@@ -9044,14 +9128,18 @@
       <c r="ALZ11" s="0"/>
       <c r="AMA11" s="0"/>
       <c r="AMB11" s="0"/>
+      <c r="AMC11" s="0"/>
+      <c r="AMD11" s="0"/>
+      <c r="AME11" s="0"/>
+      <c r="AMF11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>111</v>
+      <c r="C12" s="23" t="s">
+        <v>115</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>5</v>
@@ -9060,48 +9148,48 @@
         <v>5</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="N12" s="19" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
-      <c r="Q12" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="R12" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="T12" s="19" t="s">
+        <v>119</v>
+      </c>
       <c r="U12" s="19"/>
       <c r="V12" s="19"/>
       <c r="W12" s="19"/>
       <c r="X12" s="19"/>
       <c r="Y12" s="19"/>
-      <c r="Z12" s="19" t="s">
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AA12" s="0"/>
-      <c r="AB12" s="0"/>
-      <c r="AC12" s="0"/>
-      <c r="AD12" s="0"/>
       <c r="AE12" s="0"/>
       <c r="AF12" s="0"/>
       <c r="AG12" s="0"/>
@@ -10088,60 +10176,64 @@
       <c r="ALZ12" s="0"/>
       <c r="AMA12" s="0"/>
       <c r="AMB12" s="0"/>
+      <c r="AMC12" s="0"/>
+      <c r="AMD12" s="0"/>
+      <c r="AME12" s="0"/>
+      <c r="AMF12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>116</v>
+      <c r="C13" s="24" t="s">
+        <v>120</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="27" t="s">
-        <v>117</v>
+        <v>55</v>
+      </c>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="26" t="s">
+        <v>121</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="L13" s="26"/>
+        <v>73</v>
+      </c>
+      <c r="L13" s="25"/>
       <c r="M13" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="N13" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="R13" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="0"/>
-      <c r="AB13" s="0"/>
-      <c r="AC13" s="0"/>
-      <c r="AD13" s="0"/>
+        <v>59</v>
+      </c>
+      <c r="N13" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="T13" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="25"/>
       <c r="AE13" s="0"/>
       <c r="AF13" s="0"/>
       <c r="AG13" s="0"/>
@@ -11128,62 +11220,66 @@
       <c r="ALZ13" s="0"/>
       <c r="AMA13" s="0"/>
       <c r="AMB13" s="0"/>
+      <c r="AMC13" s="0"/>
+      <c r="AMD13" s="0"/>
+      <c r="AME13" s="0"/>
+      <c r="AMF13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="15" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B14" s="15" t="n">
         <v>12</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>51</v>
+        <v>127</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>55</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
-      <c r="J14" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="K14" s="28" t="s">
-        <v>53</v>
+      <c r="J14" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="L14" s="15"/>
       <c r="M14" s="15" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
-      <c r="Q14" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="R14" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="0"/>
-      <c r="AB14" s="0"/>
-      <c r="AC14" s="0"/>
-      <c r="AD14" s="0"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="T14" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="26"/>
       <c r="AE14" s="0"/>
       <c r="AF14" s="0"/>
       <c r="AG14" s="0"/>
@@ -12170,58 +12266,62 @@
       <c r="ALZ14" s="0"/>
       <c r="AMA14" s="0"/>
       <c r="AMB14" s="0"/>
+      <c r="AMC14" s="0"/>
+      <c r="AMD14" s="0"/>
+      <c r="AME14" s="0"/>
+      <c r="AMF14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B15" s="15" t="n">
         <v>13</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>51</v>
+        <v>71</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>55</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="K15" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="N15" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="0"/>
-      <c r="AB15" s="0"/>
-      <c r="AC15" s="0"/>
-      <c r="AD15" s="0"/>
+      <c r="J15" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="N15" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
       <c r="AE15" s="0"/>
       <c r="AF15" s="0"/>
       <c r="AG15" s="0"/>
@@ -13208,56 +13308,58 @@
       <c r="ALZ15" s="0"/>
       <c r="AMA15" s="0"/>
       <c r="AMB15" s="0"/>
+      <c r="AMC15" s="0"/>
+      <c r="AMD15" s="0"/>
+      <c r="AME15" s="0"/>
+      <c r="AMF15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="15" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B16" s="15" t="n">
         <v>14</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>129</v>
+      <c r="C16" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="26" t="s">
+        <v>133</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
-      <c r="J16" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27" t="s">
-        <v>131</v>
+      <c r="J16" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="K16" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26" t="s">
+        <v>135</v>
       </c>
       <c r="N16" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="0"/>
-      <c r="AB16" s="0"/>
-      <c r="AC16" s="0"/>
-      <c r="AD16" s="0"/>
+        <v>136</v>
+      </c>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
       <c r="AE16" s="0"/>
       <c r="AF16" s="0"/>
       <c r="AG16" s="0"/>
@@ -14244,52 +14346,58 @@
       <c r="ALZ16" s="0"/>
       <c r="AMA16" s="0"/>
       <c r="AMB16" s="0"/>
+      <c r="AMC16" s="0"/>
+      <c r="AMD16" s="0"/>
+      <c r="AME16" s="0"/>
+      <c r="AMF16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B17" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="26" t="s">
         <v>133</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="27" t="s">
-        <v>129</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
-      <c r="J17" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27" t="s">
-        <v>131</v>
+      <c r="J17" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26" t="s">
+        <v>135</v>
       </c>
       <c r="N17" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="0"/>
-      <c r="AB17" s="0"/>
-      <c r="AC17" s="0"/>
-      <c r="AD17" s="0"/>
+        <v>136</v>
+      </c>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26"/>
       <c r="AE17" s="0"/>
       <c r="AF17" s="0"/>
       <c r="AG17" s="0"/>
@@ -15276,52 +15384,58 @@
       <c r="ALZ17" s="0"/>
       <c r="AMA17" s="0"/>
       <c r="AMB17" s="0"/>
+      <c r="AMC17" s="0"/>
+      <c r="AMD17" s="0"/>
+      <c r="AME17" s="0"/>
+      <c r="AMF17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B18" s="15" t="n">
         <v>16</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="27" t="s">
-        <v>129</v>
+      <c r="C18" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="26" t="s">
+        <v>133</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
-      <c r="J18" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27" t="s">
-        <v>131</v>
+      <c r="J18" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="K18" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26" t="s">
+        <v>135</v>
       </c>
       <c r="N18" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="0"/>
-      <c r="AB18" s="0"/>
-      <c r="AC18" s="0"/>
-      <c r="AD18" s="0"/>
+        <v>136</v>
+      </c>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
       <c r="AE18" s="0"/>
       <c r="AF18" s="0"/>
       <c r="AG18" s="0"/>
@@ -16308,52 +16422,58 @@
       <c r="ALZ18" s="0"/>
       <c r="AMA18" s="0"/>
       <c r="AMB18" s="0"/>
+      <c r="AMC18" s="0"/>
+      <c r="AMD18" s="0"/>
+      <c r="AME18" s="0"/>
+      <c r="AMF18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="15" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B19" s="15" t="n">
         <v>17</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="27" t="s">
-        <v>129</v>
+      <c r="C19" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="26" t="s">
+        <v>133</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
-      <c r="J19" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27" t="s">
-        <v>131</v>
+      <c r="J19" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26" t="s">
+        <v>135</v>
       </c>
       <c r="N19" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="0"/>
-      <c r="AB19" s="0"/>
-      <c r="AC19" s="0"/>
-      <c r="AD19" s="0"/>
+        <v>136</v>
+      </c>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="26"/>
       <c r="AE19" s="0"/>
       <c r="AF19" s="0"/>
       <c r="AG19" s="0"/>
@@ -17340,58 +17460,64 @@
       <c r="ALZ19" s="0"/>
       <c r="AMA19" s="0"/>
       <c r="AMB19" s="0"/>
+      <c r="AMC19" s="0"/>
+      <c r="AMD19" s="0"/>
+      <c r="AME19" s="0"/>
+      <c r="AMF19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="15" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B20" s="15" t="n">
         <v>18</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="27" t="s">
-        <v>129</v>
+        <v>140</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="26" t="s">
+        <v>133</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
-      <c r="J20" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="K20" s="15"/>
+      <c r="J20" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="L20" s="15"/>
       <c r="M20" s="15" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
-      <c r="Q20" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="R20" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="T20" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="U20" s="15"/>
       <c r="V20" s="15"/>
       <c r="W20" s="15"/>
       <c r="X20" s="15"/>
-      <c r="Y20" s="27" t="s">
-        <v>141</v>
-      </c>
+      <c r="Y20" s="15"/>
       <c r="Z20" s="15"/>
-      <c r="AA20" s="0"/>
-      <c r="AB20" s="0"/>
-      <c r="AC20" s="0"/>
-      <c r="AD20" s="0"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD20" s="15"/>
       <c r="AE20" s="0"/>
       <c r="AF20" s="0"/>
       <c r="AG20" s="0"/>
@@ -18378,58 +18504,64 @@
       <c r="ALZ20" s="0"/>
       <c r="AMA20" s="0"/>
       <c r="AMB20" s="0"/>
+      <c r="AMC20" s="0"/>
+      <c r="AMD20" s="0"/>
+      <c r="AME20" s="0"/>
+      <c r="AMF20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B21" s="15" t="n">
         <v>19</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="27" t="s">
-        <v>51</v>
+        <v>145</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="26" t="s">
+        <v>55</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
-      <c r="J21" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="K21" s="15"/>
+      <c r="J21" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="L21" s="15"/>
       <c r="M21" s="15" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
-      <c r="Q21" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="R21" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="T21" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="U21" s="15"/>
       <c r="V21" s="15"/>
       <c r="W21" s="15"/>
       <c r="X21" s="15"/>
-      <c r="Y21" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="0"/>
-      <c r="AB21" s="0"/>
-      <c r="AC21" s="0"/>
-      <c r="AD21" s="0"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD21" s="26"/>
       <c r="AE21" s="0"/>
       <c r="AF21" s="0"/>
       <c r="AG21" s="0"/>
@@ -19416,68 +19548,72 @@
       <c r="ALZ21" s="0"/>
       <c r="AMA21" s="0"/>
       <c r="AMB21" s="0"/>
+      <c r="AMC21" s="0"/>
+      <c r="AMD21" s="0"/>
+      <c r="AME21" s="0"/>
+      <c r="AMF21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B22" s="15" t="n">
         <v>20</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+        <v>146</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
       <c r="F22" s="15" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="J22" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="K22" s="31" t="s">
-        <v>61</v>
+        <v>147</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="L22" s="15"/>
       <c r="M22" s="15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
-      <c r="Q22" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="R22" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="V22" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="W22" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="X22" s="15" t="n">
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="T22" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z22" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="Y22" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="0"/>
-      <c r="AB22" s="0"/>
-      <c r="AC22" s="0"/>
-      <c r="AD22" s="0"/>
+      <c r="AA22" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB22" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC22" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD22" s="26"/>
       <c r="AE22" s="0"/>
       <c r="AF22" s="0"/>
       <c r="AG22" s="0"/>
@@ -20464,43 +20600,47 @@
       <c r="ALZ22" s="0"/>
       <c r="AMA22" s="0"/>
       <c r="AMB22" s="0"/>
+      <c r="AMC22" s="0"/>
+      <c r="AMD22" s="0"/>
+      <c r="AME22" s="0"/>
+      <c r="AMF22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="15" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B23" s="15" t="n">
         <v>21</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
+        <v>152</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
       <c r="F23" s="15" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
       <c r="J23" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="K23" s="32" t="s">
-        <v>69</v>
+        <v>147</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="L23" s="15"/>
       <c r="M23" s="15" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P23" s="15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q23" s="15"/>
       <c r="R23" s="15"/>
@@ -20508,20 +20648,24 @@
       <c r="T23" s="15"/>
       <c r="U23" s="15"/>
       <c r="V23" s="15"/>
-      <c r="W23" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="X23" s="15" t="n">
-        <v>2</v>
-      </c>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
       <c r="Y23" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="0"/>
-      <c r="AB23" s="0"/>
-      <c r="AC23" s="0"/>
-      <c r="AD23" s="0"/>
+        <v>150</v>
+      </c>
+      <c r="Z23" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA23" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB23" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC23" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD23" s="26"/>
       <c r="AE23" s="0"/>
       <c r="AF23" s="0"/>
       <c r="AG23" s="0"/>
@@ -21508,62 +21652,68 @@
       <c r="ALZ23" s="0"/>
       <c r="AMA23" s="0"/>
       <c r="AMB23" s="0"/>
+      <c r="AMC23" s="0"/>
+      <c r="AMD23" s="0"/>
+      <c r="AME23" s="0"/>
+      <c r="AMF23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="15" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B24" s="15" t="n">
         <v>22</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
+        <v>154</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
       <c r="F24" s="15" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
       <c r="J24" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="K24" s="15"/>
+        <v>155</v>
+      </c>
+      <c r="K24" s="26" t="s">
+        <v>65</v>
+      </c>
       <c r="L24" s="15"/>
       <c r="M24" s="15" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="R24" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="V24" s="15" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="T24" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
       <c r="W24" s="15"/>
       <c r="X24" s="15"/>
       <c r="Y24" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="0"/>
-      <c r="AB24" s="0"/>
-      <c r="AC24" s="0"/>
-      <c r="AD24" s="0"/>
+        <v>150</v>
+      </c>
+      <c r="Z24" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD24" s="26"/>
       <c r="AE24" s="0"/>
       <c r="AF24" s="0"/>
       <c r="AG24" s="0"/>
@@ -22550,48 +22700,72 @@
       <c r="ALZ24" s="0"/>
       <c r="AMA24" s="0"/>
       <c r="AMB24" s="0"/>
+      <c r="AMC24" s="0"/>
+      <c r="AMD24" s="0"/>
+      <c r="AME24" s="0"/>
+      <c r="AMF24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="15" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B25" s="15" t="n">
         <v>23</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
+        <v>158</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
       <c r="F25" s="15" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
       <c r="J25" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="K25" s="15"/>
+        <v>155</v>
+      </c>
+      <c r="K25" s="26" t="s">
+        <v>65</v>
+      </c>
       <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
+      <c r="M25" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="N25" s="15" t="s">
+        <v>142</v>
+      </c>
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
       <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="0"/>
-      <c r="AB25" s="0"/>
-      <c r="AC25" s="0"/>
-      <c r="AD25" s="0"/>
+      <c r="S25" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="T25" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="U25" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="V25" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z25" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD25" s="26"/>
       <c r="AE25" s="0"/>
       <c r="AF25" s="0"/>
       <c r="AG25" s="0"/>
@@ -23578,70 +23752,76 @@
       <c r="ALZ25" s="0"/>
       <c r="AMA25" s="0"/>
       <c r="AMB25" s="0"/>
+      <c r="AMC25" s="0"/>
+      <c r="AMD25" s="0"/>
+      <c r="AME25" s="0"/>
+      <c r="AMF25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="15" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B26" s="15" t="n">
         <v>24</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
+        <v>160</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
       <c r="F26" s="15" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
       <c r="J26" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="K26" s="15"/>
+        <v>155</v>
+      </c>
+      <c r="K26" s="26" t="s">
+        <v>65</v>
+      </c>
       <c r="L26" s="15"/>
       <c r="M26" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="N26" s="15" t="s">
-        <v>157</v>
+        <v>92</v>
+      </c>
+      <c r="N26" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P26" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q26" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="R26" s="15" t="s">
-        <v>157</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
       <c r="S26" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="T26" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
+      </c>
+      <c r="T26" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="U26" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="V26" s="15" t="n">
-        <v>4</v>
+        <v>86</v>
+      </c>
+      <c r="V26" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="W26" s="15"/>
       <c r="X26" s="15"/>
       <c r="Y26" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z26" s="27"/>
-      <c r="AA26" s="0"/>
-      <c r="AB26" s="0"/>
-      <c r="AC26" s="0"/>
-      <c r="AD26" s="0"/>
+        <v>150</v>
+      </c>
+      <c r="Z26" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD26" s="26"/>
       <c r="AE26" s="0"/>
       <c r="AF26" s="0"/>
       <c r="AG26" s="0"/>
@@ -24628,66 +24808,72 @@
       <c r="ALZ26" s="0"/>
       <c r="AMA26" s="0"/>
       <c r="AMB26" s="0"/>
+      <c r="AMC26" s="0"/>
+      <c r="AMD26" s="0"/>
+      <c r="AME26" s="0"/>
+      <c r="AMF26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="15" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B27" s="15" t="n">
         <v>25</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
+        <v>162</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
       <c r="F27" s="15" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
       <c r="J27" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="K27" s="15"/>
+        <v>155</v>
+      </c>
+      <c r="K27" s="26" t="s">
+        <v>65</v>
+      </c>
       <c r="L27" s="15"/>
       <c r="M27" s="15" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="N27" s="15" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
-      <c r="Q27" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="R27" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="V27" s="15" t="n">
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="T27" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z27" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="W27" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="X27" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y27" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z27" s="27"/>
-      <c r="AA27" s="0"/>
-      <c r="AB27" s="0"/>
-      <c r="AC27" s="0"/>
-      <c r="AD27" s="0"/>
+      <c r="AA27" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB27" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC27" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD27" s="26"/>
       <c r="AE27" s="0"/>
       <c r="AF27" s="0"/>
       <c r="AG27" s="0"/>
@@ -25674,359 +25860,474 @@
       <c r="ALZ27" s="0"/>
       <c r="AMA27" s="0"/>
       <c r="AMB27" s="0"/>
+      <c r="AMC27" s="0"/>
+      <c r="AMD27" s="0"/>
+      <c r="AME27" s="0"/>
+      <c r="AMF27" s="0"/>
     </row>
-    <row r="28" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="B28" s="33" t="n">
+    <row r="28" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="15" t="n">
         <v>26</v>
       </c>
-      <c r="C28" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
+      <c r="C28" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
       <c r="F28" s="15" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
       <c r="J28" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="K28" s="15"/>
+        <v>155</v>
+      </c>
+      <c r="K28" s="26" t="s">
+        <v>65</v>
+      </c>
       <c r="L28" s="15"/>
       <c r="M28" s="15" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="R28" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
+        <v>104</v>
+      </c>
+      <c r="O28" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P28" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="T28" s="15" t="s">
+        <v>167</v>
+      </c>
       <c r="U28" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="V28" s="15" t="n">
-        <v>4</v>
+        <v>61</v>
+      </c>
+      <c r="V28" s="15" t="s">
+        <v>168</v>
       </c>
       <c r="W28" s="15"/>
       <c r="X28" s="15"/>
       <c r="Y28" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z28" s="27"/>
-      <c r="AMC28" s="0"/>
-      <c r="AMD28" s="0"/>
-      <c r="AME28" s="0"/>
-      <c r="AMF28" s="0"/>
-      <c r="AMG28" s="0"/>
-      <c r="AMH28" s="0"/>
-      <c r="AMI28" s="0"/>
-      <c r="AMJ28" s="0"/>
+        <v>150</v>
+      </c>
+      <c r="Z28" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD28" s="26"/>
     </row>
-    <row r="29" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" s="33" t="n">
+    <row r="29" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="15" t="n">
         <v>27</v>
       </c>
-      <c r="C29" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
+      <c r="C29" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
       <c r="F29" s="15" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
       <c r="J29" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="K29" s="15"/>
+        <v>155</v>
+      </c>
+      <c r="K29" s="26" t="s">
+        <v>65</v>
+      </c>
       <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
+      <c r="M29" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="N29" s="15" t="s">
+        <v>170</v>
+      </c>
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
       <c r="Q29" s="15"/>
       <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
-      <c r="V29" s="15"/>
+      <c r="S29" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="T29" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="U29" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="V29" s="15" t="s">
+        <v>171</v>
+      </c>
       <c r="W29" s="15"/>
       <c r="X29" s="15"/>
       <c r="Y29" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z29" s="27"/>
-      <c r="AMC29" s="0"/>
-      <c r="AMD29" s="0"/>
-      <c r="AME29" s="0"/>
-      <c r="AMF29" s="0"/>
-      <c r="AMG29" s="0"/>
-      <c r="AMH29" s="0"/>
-      <c r="AMI29" s="0"/>
-      <c r="AMJ29" s="0"/>
+        <v>150</v>
+      </c>
+      <c r="Z29" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA29" s="29"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD29" s="26"/>
     </row>
-    <row r="30" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="B30" s="33" t="n">
+    <row r="30" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" s="15" t="n">
         <v>28</v>
       </c>
-      <c r="C30" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
+      <c r="C30" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
       <c r="F30" s="15" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
       <c r="J30" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="K30" s="15"/>
+        <v>155</v>
+      </c>
+      <c r="K30" s="26" t="s">
+        <v>65</v>
+      </c>
       <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
+      <c r="M30" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="N30" s="15" t="s">
+        <v>85</v>
+      </c>
       <c r="O30" s="15"/>
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
       <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
+      <c r="S30" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="T30" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="U30" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="V30" s="15" t="s">
+        <v>87</v>
+      </c>
       <c r="W30" s="15"/>
       <c r="X30" s="15"/>
       <c r="Y30" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z30" s="27"/>
-      <c r="AMC30" s="0"/>
-      <c r="AMD30" s="0"/>
-      <c r="AME30" s="0"/>
-      <c r="AMF30" s="0"/>
-      <c r="AMG30" s="0"/>
-      <c r="AMH30" s="0"/>
-      <c r="AMI30" s="0"/>
-      <c r="AMJ30" s="0"/>
+        <v>150</v>
+      </c>
+      <c r="Z30" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD30" s="26"/>
     </row>
-    <row r="31" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="B31" s="33" t="n">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="15" t="n">
         <v>29</v>
       </c>
-      <c r="C31" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
+      <c r="C31" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
       <c r="F31" s="15" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
       <c r="J31" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="K31" s="15"/>
+        <v>155</v>
+      </c>
+      <c r="K31" s="26" t="s">
+        <v>65</v>
+      </c>
       <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
+      <c r="M31" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="N31" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="O31" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P31" s="15" t="s">
+        <v>69</v>
+      </c>
       <c r="Q31" s="15"/>
       <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="15"/>
+      <c r="S31" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="T31" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="U31" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="V31" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="W31" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="X31" s="15" t="s">
+        <v>87</v>
+      </c>
       <c r="Y31" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z31" s="27"/>
-      <c r="AMC31" s="0"/>
-      <c r="AMD31" s="0"/>
-      <c r="AME31" s="0"/>
-      <c r="AMF31" s="0"/>
-      <c r="AMG31" s="0"/>
-      <c r="AMH31" s="0"/>
-      <c r="AMI31" s="0"/>
-      <c r="AMJ31" s="0"/>
+        <v>150</v>
+      </c>
+      <c r="Z31" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA31" s="33"/>
+      <c r="AB31" s="33"/>
+      <c r="AC31" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD31" s="26"/>
     </row>
-    <row r="32" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="B32" s="33" t="n">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="15" t="n">
         <v>30</v>
       </c>
-      <c r="C32" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="C32" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
       <c r="F32" s="15" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
       <c r="J32" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="K32" s="15"/>
+        <v>155</v>
+      </c>
+      <c r="K32" s="26" t="s">
+        <v>65</v>
+      </c>
       <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
+      <c r="M32" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="N32" s="15" t="s">
+        <v>164</v>
+      </c>
       <c r="O32" s="15"/>
       <c r="P32" s="15"/>
       <c r="Q32" s="15"/>
       <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="15"/>
-      <c r="V32" s="15"/>
+      <c r="S32" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="T32" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="U32" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="V32" s="15" t="s">
+        <v>110</v>
+      </c>
       <c r="W32" s="15"/>
       <c r="X32" s="15"/>
       <c r="Y32" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z32" s="27"/>
-      <c r="AMC32" s="0"/>
-      <c r="AMD32" s="0"/>
-      <c r="AME32" s="0"/>
-      <c r="AMF32" s="0"/>
-      <c r="AMG32" s="0"/>
-      <c r="AMH32" s="0"/>
-      <c r="AMI32" s="0"/>
-      <c r="AMJ32" s="0"/>
+        <v>150</v>
+      </c>
+      <c r="Z32" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA32" s="29"/>
+      <c r="AB32" s="29"/>
+      <c r="AC32" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD32" s="26"/>
     </row>
-    <row r="33" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="B33" s="33" t="n">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="15" t="n">
         <v>31</v>
       </c>
-      <c r="C33" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="C33" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
       <c r="F33" s="15" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
       <c r="J33" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="K33" s="15"/>
+        <v>155</v>
+      </c>
+      <c r="K33" s="26" t="s">
+        <v>65</v>
+      </c>
       <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
+      <c r="M33" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="N33" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="O33" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="P33" s="15" t="s">
+        <v>156</v>
+      </c>
       <c r="Q33" s="15"/>
       <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="15"/>
-      <c r="V33" s="15"/>
+      <c r="S33" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="T33" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="U33" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="V33" s="15" t="s">
+        <v>178</v>
+      </c>
       <c r="W33" s="15"/>
       <c r="X33" s="15"/>
       <c r="Y33" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z33" s="27"/>
-      <c r="AMC33" s="0"/>
-      <c r="AMD33" s="0"/>
-      <c r="AME33" s="0"/>
-      <c r="AMF33" s="0"/>
-      <c r="AMG33" s="0"/>
-      <c r="AMH33" s="0"/>
-      <c r="AMI33" s="0"/>
-      <c r="AMJ33" s="0"/>
+        <v>150</v>
+      </c>
+      <c r="Z33" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA33" s="29"/>
+      <c r="AB33" s="29"/>
+      <c r="AC33" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD33" s="26"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="15" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B34" s="15" t="n">
         <v>32</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+        <v>179</v>
+      </c>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
       <c r="F34" s="15" t="s">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
       <c r="J34" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="K34" s="15"/>
+        <v>155</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
+      <c r="M34" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="N34" s="15" t="s">
+        <v>163</v>
+      </c>
       <c r="O34" s="15"/>
       <c r="P34" s="15"/>
       <c r="Q34" s="15"/>
       <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
+      <c r="S34" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="T34" s="15" t="s">
+        <v>110</v>
+      </c>
       <c r="U34" s="15"/>
       <c r="V34" s="15"/>
       <c r="W34" s="15"/>
       <c r="X34" s="15"/>
-      <c r="Y34" s="15"/>
-      <c r="Z34" s="27"/>
+      <c r="Y34" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z34" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA34" s="15"/>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD34" s="26"/>
     </row>
   </sheetData>
+  <autoFilter ref="C2:AK41"/>
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:V1"/>
+    <mergeCell ref="M1:Z1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -26037,7 +26338,7 @@
   </sheetPr>
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -26049,15 +26350,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>2</v>
@@ -26065,7 +26366,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1.5</v>
@@ -26073,7 +26374,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>2</v>
@@ -26081,7 +26382,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>2</v>
@@ -26089,7 +26390,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>3</v>
@@ -26097,7 +26398,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>4</v>
@@ -26105,7 +26406,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>5</v>
@@ -26113,7 +26414,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>2</v>
@@ -26121,7 +26422,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="B10" s="8" t="n">
         <v>4</v>
@@ -26129,7 +26430,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="B11" s="8" t="n">
         <v>6</v>
@@ -26137,7 +26438,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>1</v>
@@ -26145,7 +26446,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="B13" s="8" t="n">
         <v>1</v>
@@ -26153,7 +26454,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="B14" s="8" t="n">
         <v>0.5</v>
@@ -26161,7 +26462,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="B15" s="8" t="n">
         <v>0.25</v>
@@ -26169,7 +26470,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="B16" s="8" t="n">
         <v>0.5</v>
@@ -26177,7 +26478,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="B17" s="8" t="n">
         <v>1</v>
@@ -26185,7 +26486,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B18" s="8" t="n">
         <v>0.3</v>
@@ -26193,7 +26494,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="B19" s="8" t="n">
         <v>0.1</v>
@@ -26217,100 +26518,99 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O20" activeCellId="0" sqref="O20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>192</v>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>203</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="38" t="n">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="37" t="n">
         <v>3</v>
       </c>
-      <c r="B2" s="38" t="n">
+      <c r="B2" s="37" t="n">
         <v>3</v>
       </c>
-      <c r="C2" s="39" t="n">
+      <c r="C2" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="40" t="n">
+      <c r="D2" s="39" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41" t="n">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="40" t="n">
         <v>4</v>
       </c>
-      <c r="B3" s="41" t="n">
+      <c r="B3" s="40" t="n">
         <v>4</v>
       </c>
-      <c r="C3" s="42" t="n">
+      <c r="C3" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="43" t="n">
+      <c r="D3" s="42" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="41" t="n">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="40" t="n">
         <v>5</v>
       </c>
-      <c r="B4" s="41" t="n">
+      <c r="B4" s="40" t="n">
         <v>5</v>
       </c>
-      <c r="C4" s="42" t="n">
+      <c r="C4" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="43" t="n">
+      <c r="D4" s="42" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="41" t="n">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="40" t="n">
         <v>6</v>
       </c>
-      <c r="B5" s="41" t="n">
+      <c r="B5" s="40" t="n">
         <v>6</v>
       </c>
-      <c r="C5" s="42" t="n">
+      <c r="C5" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="43" t="n">
+      <c r="D5" s="42" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="44" t="n">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="43" t="n">
         <v>7</v>
       </c>
-      <c r="B6" s="44" t="n">
+      <c r="B6" s="43" t="n">
         <v>100</v>
       </c>
-      <c r="C6" s="45" t="n">
+      <c r="C6" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="46" t="n">
+      <c r="D6" s="45" t="n">
         <v>2</v>
       </c>
     </row>
@@ -26330,127 +26630,188 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P40" activeCellId="0" sqref="P40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4331983805668"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="47" t="n">
+      <c r="A2" s="46" t="n">
         <v>12</v>
       </c>
-      <c r="B2" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="C2" s="47" t="n">
+      <c r="B2" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="46" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="47" t="n">
+      <c r="A3" s="46" t="n">
         <v>12</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="47" t="n">
+      <c r="C3" s="46" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="47" t="n">
+      <c r="A4" s="46" t="n">
         <v>12</v>
       </c>
-      <c r="B4" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="47" t="n">
+      <c r="B4" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="46" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="47" t="n">
+      <c r="A5" s="46" t="n">
         <v>13</v>
       </c>
-      <c r="B5" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="47" t="n">
-        <v>100</v>
+      <c r="B5" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="46" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="47" t="n">
+      <c r="A6" s="46" t="n">
         <v>14</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="47" t="n">
+      <c r="C6" s="46" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="47" t="n">
+      <c r="A7" s="46" t="n">
         <v>14</v>
       </c>
-      <c r="B7" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="C7" s="47" t="n">
+      <c r="B7" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="46" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="47" t="n">
-        <v>22</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="47" t="n">
-        <v>100</v>
+      <c r="A8" s="46" t="n">
+        <v>15</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="46" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="47" t="n">
+      <c r="A9" s="46" t="n">
         <v>18</v>
       </c>
-      <c r="B9" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="C9" s="47" t="n">
+      <c r="B9" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="46" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="47" t="n">
+      <c r="A10" s="46" t="n">
+        <v>18</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="46" t="n">
+        <v>20</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="46"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="46" t="n">
+        <v>21</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" s="46"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="46" t="n">
+        <v>22</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="46" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="46" t="n">
+        <v>23</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="46" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="46" t="n">
+        <v>24</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" s="46" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="46" t="n">
         <v>25</v>
       </c>
-      <c r="B10" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="47" t="n">
+      <c r="B16" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="46" t="n">
         <v>50</v>
       </c>
     </row>
@@ -26463,207 +26824,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H34" activeCellId="0" sqref="H34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.6113360323887"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.1417004048583"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="47" t="n">
-        <v>12</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="C2" s="47" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="47" t="n">
-        <v>12</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="47" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="47" t="n">
-        <v>12</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="47" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="47" t="n">
-        <v>13</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="C5" s="47" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="47" t="n">
-        <v>14</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="47" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="47" t="n">
-        <v>14</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="C7" s="47" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="47" t="n">
-        <v>15</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="47" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="47" t="n">
-        <v>18</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="C9" s="47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="47" t="n">
-        <v>18</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" s="47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="47" t="n">
-        <v>20</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="C11" s="47"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="47" t="n">
-        <v>21</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="C12" s="47"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="47" t="n">
-        <v>22</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="47" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="47" t="n">
-        <v>23</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="C14" s="47" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="47" t="n">
-        <v>24</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="C15" s="47" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="47" t="n">
-        <v>25</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="C16" s="47" t="n">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:C16"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Projects/PNGRO/Data/Template.xlsx
+++ b/Projects/PNGRO/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Eye-level" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,23 +15,24 @@
     <sheet name="retailer_targets" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">SBD_kpis!$C$2:$AK$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">SBD_kpis!$C$2:$AK$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0" vbProcedure="false">SBD_kpis!$C$2:$AK$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$AK$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$AK$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$AK$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$AK$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$AK$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$AK$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$AK$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$AK$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$AK$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$AK$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$AK$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$2:$AK$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">SBD_kpis!$A$2:$AD$34</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">SBD_kpis!$C$2:$AK$41</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">SBD_kpis!$A$3:$AD$35</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">SBD_kpis!$C$3:$AK$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0" vbProcedure="false">SBD_kpis!$C$3:$AK$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AK$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AK$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AK$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AK$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AK$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AK$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AK$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AK$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AK$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AK$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AK$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AK$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">SBD_kpis!$C$3:$AK$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">SBD_kpis!$A$3:$AD$35</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">SBD_kpis!$C$3:$AK$42</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -48,7 +49,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="AA27" authorId="0">
+    <comment ref="AA28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1285,14 +1286,14 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="K29" activeCellId="0" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.8866396761134"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="1018" min="5" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="8.57085020242915"/>
   </cols>
@@ -1499,40 +1500,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMF34"/>
+  <dimension ref="A1:AMF35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="48.2024291497976"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.1821862348178"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="48.6315789473684"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="8" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="8" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="8" width="17.7813765182186"/>
     <col collapsed="false" hidden="true" max="9" min="7" style="8" width="0"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="8" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="8" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="8" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="8" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="8" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="8" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="8" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="8" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="8" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="8" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="8" width="41.0283400809717"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="8" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="8" width="15.3886639676113"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="8" width="84.6032388663968"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="8" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="8" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="8" width="17.2591093117409"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="8" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="8" width="17.2591093117409"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="8" width="18.9514170040486"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="8" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="8" width="41.3481781376518"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="8" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="8" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="25" min="23" style="8" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="8" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="8" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="8" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="8" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="8" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="24" min="23" style="8" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="8" width="11.3198380566802"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="8" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="8" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="8" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="8" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="1020" min="31" style="8" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="8.57085020242915"/>
   </cols>
@@ -1579,169 +1581,143 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+    <row r="2" s="10" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+    </row>
+    <row r="3" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="W3" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="X3" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Y2" s="12" t="s">
+      <c r="Y3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="Z2" s="12" t="s">
+      <c r="Z3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AA2" s="12" t="s">
+      <c r="AA3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AB2" s="12" t="s">
+      <c r="AB3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="12" t="s">
+      <c r="AC3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AD2" s="12" t="s">
+      <c r="AD3" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" s="20" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="T3" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="20" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15"/>
       <c r="B4" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>55</v>
@@ -1753,26 +1729,26 @@
         <v>56</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
       <c r="R4" s="19"/>
       <c r="S4" s="19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T4" s="19" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="U4" s="19"/>
       <c r="V4" s="19"/>
@@ -1784,1012 +1760,22 @@
       <c r="AB4" s="19"/>
       <c r="AC4" s="19"/>
       <c r="AD4" s="19" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE4" s="0"/>
-      <c r="AF4" s="0"/>
-      <c r="AG4" s="0"/>
-      <c r="AH4" s="0"/>
-      <c r="AI4" s="0"/>
-      <c r="AJ4" s="0"/>
-      <c r="AK4" s="0"/>
-      <c r="AL4" s="0"/>
-      <c r="AM4" s="0"/>
-      <c r="AN4" s="0"/>
-      <c r="AO4" s="0"/>
-      <c r="AP4" s="0"/>
-      <c r="AQ4" s="0"/>
-      <c r="AR4" s="0"/>
-      <c r="AS4" s="0"/>
-      <c r="AT4" s="0"/>
-      <c r="AU4" s="0"/>
-      <c r="AV4" s="0"/>
-      <c r="AW4" s="0"/>
-      <c r="AX4" s="0"/>
-      <c r="AY4" s="0"/>
-      <c r="AZ4" s="0"/>
-      <c r="BA4" s="0"/>
-      <c r="BB4" s="0"/>
-      <c r="BC4" s="0"/>
-      <c r="BD4" s="0"/>
-      <c r="BE4" s="0"/>
-      <c r="BF4" s="0"/>
-      <c r="BG4" s="0"/>
-      <c r="BH4" s="0"/>
-      <c r="BI4" s="0"/>
-      <c r="BJ4" s="0"/>
-      <c r="BK4" s="0"/>
-      <c r="BL4" s="0"/>
-      <c r="BM4" s="0"/>
-      <c r="BN4" s="0"/>
-      <c r="BO4" s="0"/>
-      <c r="BP4" s="0"/>
-      <c r="BQ4" s="0"/>
-      <c r="BR4" s="0"/>
-      <c r="BS4" s="0"/>
-      <c r="BT4" s="0"/>
-      <c r="BU4" s="0"/>
-      <c r="BV4" s="0"/>
-      <c r="BW4" s="0"/>
-      <c r="BX4" s="0"/>
-      <c r="BY4" s="0"/>
-      <c r="BZ4" s="0"/>
-      <c r="CA4" s="0"/>
-      <c r="CB4" s="0"/>
-      <c r="CC4" s="0"/>
-      <c r="CD4" s="0"/>
-      <c r="CE4" s="0"/>
-      <c r="CF4" s="0"/>
-      <c r="CG4" s="0"/>
-      <c r="CH4" s="0"/>
-      <c r="CI4" s="0"/>
-      <c r="CJ4" s="0"/>
-      <c r="CK4" s="0"/>
-      <c r="CL4" s="0"/>
-      <c r="CM4" s="0"/>
-      <c r="CN4" s="0"/>
-      <c r="CO4" s="0"/>
-      <c r="CP4" s="0"/>
-      <c r="CQ4" s="0"/>
-      <c r="CR4" s="0"/>
-      <c r="CS4" s="0"/>
-      <c r="CT4" s="0"/>
-      <c r="CU4" s="0"/>
-      <c r="CV4" s="0"/>
-      <c r="CW4" s="0"/>
-      <c r="CX4" s="0"/>
-      <c r="CY4" s="0"/>
-      <c r="CZ4" s="0"/>
-      <c r="DA4" s="0"/>
-      <c r="DB4" s="0"/>
-      <c r="DC4" s="0"/>
-      <c r="DD4" s="0"/>
-      <c r="DE4" s="0"/>
-      <c r="DF4" s="0"/>
-      <c r="DG4" s="0"/>
-      <c r="DH4" s="0"/>
-      <c r="DI4" s="0"/>
-      <c r="DJ4" s="0"/>
-      <c r="DK4" s="0"/>
-      <c r="DL4" s="0"/>
-      <c r="DM4" s="0"/>
-      <c r="DN4" s="0"/>
-      <c r="DO4" s="0"/>
-      <c r="DP4" s="0"/>
-      <c r="DQ4" s="0"/>
-      <c r="DR4" s="0"/>
-      <c r="DS4" s="0"/>
-      <c r="DT4" s="0"/>
-      <c r="DU4" s="0"/>
-      <c r="DV4" s="0"/>
-      <c r="DW4" s="0"/>
-      <c r="DX4" s="0"/>
-      <c r="DY4" s="0"/>
-      <c r="DZ4" s="0"/>
-      <c r="EA4" s="0"/>
-      <c r="EB4" s="0"/>
-      <c r="EC4" s="0"/>
-      <c r="ED4" s="0"/>
-      <c r="EE4" s="0"/>
-      <c r="EF4" s="0"/>
-      <c r="EG4" s="0"/>
-      <c r="EH4" s="0"/>
-      <c r="EI4" s="0"/>
-      <c r="EJ4" s="0"/>
-      <c r="EK4" s="0"/>
-      <c r="EL4" s="0"/>
-      <c r="EM4" s="0"/>
-      <c r="EN4" s="0"/>
-      <c r="EO4" s="0"/>
-      <c r="EP4" s="0"/>
-      <c r="EQ4" s="0"/>
-      <c r="ER4" s="0"/>
-      <c r="ES4" s="0"/>
-      <c r="ET4" s="0"/>
-      <c r="EU4" s="0"/>
-      <c r="EV4" s="0"/>
-      <c r="EW4" s="0"/>
-      <c r="EX4" s="0"/>
-      <c r="EY4" s="0"/>
-      <c r="EZ4" s="0"/>
-      <c r="FA4" s="0"/>
-      <c r="FB4" s="0"/>
-      <c r="FC4" s="0"/>
-      <c r="FD4" s="0"/>
-      <c r="FE4" s="0"/>
-      <c r="FF4" s="0"/>
-      <c r="FG4" s="0"/>
-      <c r="FH4" s="0"/>
-      <c r="FI4" s="0"/>
-      <c r="FJ4" s="0"/>
-      <c r="FK4" s="0"/>
-      <c r="FL4" s="0"/>
-      <c r="FM4" s="0"/>
-      <c r="FN4" s="0"/>
-      <c r="FO4" s="0"/>
-      <c r="FP4" s="0"/>
-      <c r="FQ4" s="0"/>
-      <c r="FR4" s="0"/>
-      <c r="FS4" s="0"/>
-      <c r="FT4" s="0"/>
-      <c r="FU4" s="0"/>
-      <c r="FV4" s="0"/>
-      <c r="FW4" s="0"/>
-      <c r="FX4" s="0"/>
-      <c r="FY4" s="0"/>
-      <c r="FZ4" s="0"/>
-      <c r="GA4" s="0"/>
-      <c r="GB4" s="0"/>
-      <c r="GC4" s="0"/>
-      <c r="GD4" s="0"/>
-      <c r="GE4" s="0"/>
-      <c r="GF4" s="0"/>
-      <c r="GG4" s="0"/>
-      <c r="GH4" s="0"/>
-      <c r="GI4" s="0"/>
-      <c r="GJ4" s="0"/>
-      <c r="GK4" s="0"/>
-      <c r="GL4" s="0"/>
-      <c r="GM4" s="0"/>
-      <c r="GN4" s="0"/>
-      <c r="GO4" s="0"/>
-      <c r="GP4" s="0"/>
-      <c r="GQ4" s="0"/>
-      <c r="GR4" s="0"/>
-      <c r="GS4" s="0"/>
-      <c r="GT4" s="0"/>
-      <c r="GU4" s="0"/>
-      <c r="GV4" s="0"/>
-      <c r="GW4" s="0"/>
-      <c r="GX4" s="0"/>
-      <c r="GY4" s="0"/>
-      <c r="GZ4" s="0"/>
-      <c r="HA4" s="0"/>
-      <c r="HB4" s="0"/>
-      <c r="HC4" s="0"/>
-      <c r="HD4" s="0"/>
-      <c r="HE4" s="0"/>
-      <c r="HF4" s="0"/>
-      <c r="HG4" s="0"/>
-      <c r="HH4" s="0"/>
-      <c r="HI4" s="0"/>
-      <c r="HJ4" s="0"/>
-      <c r="HK4" s="0"/>
-      <c r="HL4" s="0"/>
-      <c r="HM4" s="0"/>
-      <c r="HN4" s="0"/>
-      <c r="HO4" s="0"/>
-      <c r="HP4" s="0"/>
-      <c r="HQ4" s="0"/>
-      <c r="HR4" s="0"/>
-      <c r="HS4" s="0"/>
-      <c r="HT4" s="0"/>
-      <c r="HU4" s="0"/>
-      <c r="HV4" s="0"/>
-      <c r="HW4" s="0"/>
-      <c r="HX4" s="0"/>
-      <c r="HY4" s="0"/>
-      <c r="HZ4" s="0"/>
-      <c r="IA4" s="0"/>
-      <c r="IB4" s="0"/>
-      <c r="IC4" s="0"/>
-      <c r="ID4" s="0"/>
-      <c r="IE4" s="0"/>
-      <c r="IF4" s="0"/>
-      <c r="IG4" s="0"/>
-      <c r="IH4" s="0"/>
-      <c r="II4" s="0"/>
-      <c r="IJ4" s="0"/>
-      <c r="IK4" s="0"/>
-      <c r="IL4" s="0"/>
-      <c r="IM4" s="0"/>
-      <c r="IN4" s="0"/>
-      <c r="IO4" s="0"/>
-      <c r="IP4" s="0"/>
-      <c r="IQ4" s="0"/>
-      <c r="IR4" s="0"/>
-      <c r="IS4" s="0"/>
-      <c r="IT4" s="0"/>
-      <c r="IU4" s="0"/>
-      <c r="IV4" s="0"/>
-      <c r="IW4" s="0"/>
-      <c r="IX4" s="0"/>
-      <c r="IY4" s="0"/>
-      <c r="IZ4" s="0"/>
-      <c r="JA4" s="0"/>
-      <c r="JB4" s="0"/>
-      <c r="JC4" s="0"/>
-      <c r="JD4" s="0"/>
-      <c r="JE4" s="0"/>
-      <c r="JF4" s="0"/>
-      <c r="JG4" s="0"/>
-      <c r="JH4" s="0"/>
-      <c r="JI4" s="0"/>
-      <c r="JJ4" s="0"/>
-      <c r="JK4" s="0"/>
-      <c r="JL4" s="0"/>
-      <c r="JM4" s="0"/>
-      <c r="JN4" s="0"/>
-      <c r="JO4" s="0"/>
-      <c r="JP4" s="0"/>
-      <c r="JQ4" s="0"/>
-      <c r="JR4" s="0"/>
-      <c r="JS4" s="0"/>
-      <c r="JT4" s="0"/>
-      <c r="JU4" s="0"/>
-      <c r="JV4" s="0"/>
-      <c r="JW4" s="0"/>
-      <c r="JX4" s="0"/>
-      <c r="JY4" s="0"/>
-      <c r="JZ4" s="0"/>
-      <c r="KA4" s="0"/>
-      <c r="KB4" s="0"/>
-      <c r="KC4" s="0"/>
-      <c r="KD4" s="0"/>
-      <c r="KE4" s="0"/>
-      <c r="KF4" s="0"/>
-      <c r="KG4" s="0"/>
-      <c r="KH4" s="0"/>
-      <c r="KI4" s="0"/>
-      <c r="KJ4" s="0"/>
-      <c r="KK4" s="0"/>
-      <c r="KL4" s="0"/>
-      <c r="KM4" s="0"/>
-      <c r="KN4" s="0"/>
-      <c r="KO4" s="0"/>
-      <c r="KP4" s="0"/>
-      <c r="KQ4" s="0"/>
-      <c r="KR4" s="0"/>
-      <c r="KS4" s="0"/>
-      <c r="KT4" s="0"/>
-      <c r="KU4" s="0"/>
-      <c r="KV4" s="0"/>
-      <c r="KW4" s="0"/>
-      <c r="KX4" s="0"/>
-      <c r="KY4" s="0"/>
-      <c r="KZ4" s="0"/>
-      <c r="LA4" s="0"/>
-      <c r="LB4" s="0"/>
-      <c r="LC4" s="0"/>
-      <c r="LD4" s="0"/>
-      <c r="LE4" s="0"/>
-      <c r="LF4" s="0"/>
-      <c r="LG4" s="0"/>
-      <c r="LH4" s="0"/>
-      <c r="LI4" s="0"/>
-      <c r="LJ4" s="0"/>
-      <c r="LK4" s="0"/>
-      <c r="LL4" s="0"/>
-      <c r="LM4" s="0"/>
-      <c r="LN4" s="0"/>
-      <c r="LO4" s="0"/>
-      <c r="LP4" s="0"/>
-      <c r="LQ4" s="0"/>
-      <c r="LR4" s="0"/>
-      <c r="LS4" s="0"/>
-      <c r="LT4" s="0"/>
-      <c r="LU4" s="0"/>
-      <c r="LV4" s="0"/>
-      <c r="LW4" s="0"/>
-      <c r="LX4" s="0"/>
-      <c r="LY4" s="0"/>
-      <c r="LZ4" s="0"/>
-      <c r="MA4" s="0"/>
-      <c r="MB4" s="0"/>
-      <c r="MC4" s="0"/>
-      <c r="MD4" s="0"/>
-      <c r="ME4" s="0"/>
-      <c r="MF4" s="0"/>
-      <c r="MG4" s="0"/>
-      <c r="MH4" s="0"/>
-      <c r="MI4" s="0"/>
-      <c r="MJ4" s="0"/>
-      <c r="MK4" s="0"/>
-      <c r="ML4" s="0"/>
-      <c r="MM4" s="0"/>
-      <c r="MN4" s="0"/>
-      <c r="MO4" s="0"/>
-      <c r="MP4" s="0"/>
-      <c r="MQ4" s="0"/>
-      <c r="MR4" s="0"/>
-      <c r="MS4" s="0"/>
-      <c r="MT4" s="0"/>
-      <c r="MU4" s="0"/>
-      <c r="MV4" s="0"/>
-      <c r="MW4" s="0"/>
-      <c r="MX4" s="0"/>
-      <c r="MY4" s="0"/>
-      <c r="MZ4" s="0"/>
-      <c r="NA4" s="0"/>
-      <c r="NB4" s="0"/>
-      <c r="NC4" s="0"/>
-      <c r="ND4" s="0"/>
-      <c r="NE4" s="0"/>
-      <c r="NF4" s="0"/>
-      <c r="NG4" s="0"/>
-      <c r="NH4" s="0"/>
-      <c r="NI4" s="0"/>
-      <c r="NJ4" s="0"/>
-      <c r="NK4" s="0"/>
-      <c r="NL4" s="0"/>
-      <c r="NM4" s="0"/>
-      <c r="NN4" s="0"/>
-      <c r="NO4" s="0"/>
-      <c r="NP4" s="0"/>
-      <c r="NQ4" s="0"/>
-      <c r="NR4" s="0"/>
-      <c r="NS4" s="0"/>
-      <c r="NT4" s="0"/>
-      <c r="NU4" s="0"/>
-      <c r="NV4" s="0"/>
-      <c r="NW4" s="0"/>
-      <c r="NX4" s="0"/>
-      <c r="NY4" s="0"/>
-      <c r="NZ4" s="0"/>
-      <c r="OA4" s="0"/>
-      <c r="OB4" s="0"/>
-      <c r="OC4" s="0"/>
-      <c r="OD4" s="0"/>
-      <c r="OE4" s="0"/>
-      <c r="OF4" s="0"/>
-      <c r="OG4" s="0"/>
-      <c r="OH4" s="0"/>
-      <c r="OI4" s="0"/>
-      <c r="OJ4" s="0"/>
-      <c r="OK4" s="0"/>
-      <c r="OL4" s="0"/>
-      <c r="OM4" s="0"/>
-      <c r="ON4" s="0"/>
-      <c r="OO4" s="0"/>
-      <c r="OP4" s="0"/>
-      <c r="OQ4" s="0"/>
-      <c r="OR4" s="0"/>
-      <c r="OS4" s="0"/>
-      <c r="OT4" s="0"/>
-      <c r="OU4" s="0"/>
-      <c r="OV4" s="0"/>
-      <c r="OW4" s="0"/>
-      <c r="OX4" s="0"/>
-      <c r="OY4" s="0"/>
-      <c r="OZ4" s="0"/>
-      <c r="PA4" s="0"/>
-      <c r="PB4" s="0"/>
-      <c r="PC4" s="0"/>
-      <c r="PD4" s="0"/>
-      <c r="PE4" s="0"/>
-      <c r="PF4" s="0"/>
-      <c r="PG4" s="0"/>
-      <c r="PH4" s="0"/>
-      <c r="PI4" s="0"/>
-      <c r="PJ4" s="0"/>
-      <c r="PK4" s="0"/>
-      <c r="PL4" s="0"/>
-      <c r="PM4" s="0"/>
-      <c r="PN4" s="0"/>
-      <c r="PO4" s="0"/>
-      <c r="PP4" s="0"/>
-      <c r="PQ4" s="0"/>
-      <c r="PR4" s="0"/>
-      <c r="PS4" s="0"/>
-      <c r="PT4" s="0"/>
-      <c r="PU4" s="0"/>
-      <c r="PV4" s="0"/>
-      <c r="PW4" s="0"/>
-      <c r="PX4" s="0"/>
-      <c r="PY4" s="0"/>
-      <c r="PZ4" s="0"/>
-      <c r="QA4" s="0"/>
-      <c r="QB4" s="0"/>
-      <c r="QC4" s="0"/>
-      <c r="QD4" s="0"/>
-      <c r="QE4" s="0"/>
-      <c r="QF4" s="0"/>
-      <c r="QG4" s="0"/>
-      <c r="QH4" s="0"/>
-      <c r="QI4" s="0"/>
-      <c r="QJ4" s="0"/>
-      <c r="QK4" s="0"/>
-      <c r="QL4" s="0"/>
-      <c r="QM4" s="0"/>
-      <c r="QN4" s="0"/>
-      <c r="QO4" s="0"/>
-      <c r="QP4" s="0"/>
-      <c r="QQ4" s="0"/>
-      <c r="QR4" s="0"/>
-      <c r="QS4" s="0"/>
-      <c r="QT4" s="0"/>
-      <c r="QU4" s="0"/>
-      <c r="QV4" s="0"/>
-      <c r="QW4" s="0"/>
-      <c r="QX4" s="0"/>
-      <c r="QY4" s="0"/>
-      <c r="QZ4" s="0"/>
-      <c r="RA4" s="0"/>
-      <c r="RB4" s="0"/>
-      <c r="RC4" s="0"/>
-      <c r="RD4" s="0"/>
-      <c r="RE4" s="0"/>
-      <c r="RF4" s="0"/>
-      <c r="RG4" s="0"/>
-      <c r="RH4" s="0"/>
-      <c r="RI4" s="0"/>
-      <c r="RJ4" s="0"/>
-      <c r="RK4" s="0"/>
-      <c r="RL4" s="0"/>
-      <c r="RM4" s="0"/>
-      <c r="RN4" s="0"/>
-      <c r="RO4" s="0"/>
-      <c r="RP4" s="0"/>
-      <c r="RQ4" s="0"/>
-      <c r="RR4" s="0"/>
-      <c r="RS4" s="0"/>
-      <c r="RT4" s="0"/>
-      <c r="RU4" s="0"/>
-      <c r="RV4" s="0"/>
-      <c r="RW4" s="0"/>
-      <c r="RX4" s="0"/>
-      <c r="RY4" s="0"/>
-      <c r="RZ4" s="0"/>
-      <c r="SA4" s="0"/>
-      <c r="SB4" s="0"/>
-      <c r="SC4" s="0"/>
-      <c r="SD4" s="0"/>
-      <c r="SE4" s="0"/>
-      <c r="SF4" s="0"/>
-      <c r="SG4" s="0"/>
-      <c r="SH4" s="0"/>
-      <c r="SI4" s="0"/>
-      <c r="SJ4" s="0"/>
-      <c r="SK4" s="0"/>
-      <c r="SL4" s="0"/>
-      <c r="SM4" s="0"/>
-      <c r="SN4" s="0"/>
-      <c r="SO4" s="0"/>
-      <c r="SP4" s="0"/>
-      <c r="SQ4" s="0"/>
-      <c r="SR4" s="0"/>
-      <c r="SS4" s="0"/>
-      <c r="ST4" s="0"/>
-      <c r="SU4" s="0"/>
-      <c r="SV4" s="0"/>
-      <c r="SW4" s="0"/>
-      <c r="SX4" s="0"/>
-      <c r="SY4" s="0"/>
-      <c r="SZ4" s="0"/>
-      <c r="TA4" s="0"/>
-      <c r="TB4" s="0"/>
-      <c r="TC4" s="0"/>
-      <c r="TD4" s="0"/>
-      <c r="TE4" s="0"/>
-      <c r="TF4" s="0"/>
-      <c r="TG4" s="0"/>
-      <c r="TH4" s="0"/>
-      <c r="TI4" s="0"/>
-      <c r="TJ4" s="0"/>
-      <c r="TK4" s="0"/>
-      <c r="TL4" s="0"/>
-      <c r="TM4" s="0"/>
-      <c r="TN4" s="0"/>
-      <c r="TO4" s="0"/>
-      <c r="TP4" s="0"/>
-      <c r="TQ4" s="0"/>
-      <c r="TR4" s="0"/>
-      <c r="TS4" s="0"/>
-      <c r="TT4" s="0"/>
-      <c r="TU4" s="0"/>
-      <c r="TV4" s="0"/>
-      <c r="TW4" s="0"/>
-      <c r="TX4" s="0"/>
-      <c r="TY4" s="0"/>
-      <c r="TZ4" s="0"/>
-      <c r="UA4" s="0"/>
-      <c r="UB4" s="0"/>
-      <c r="UC4" s="0"/>
-      <c r="UD4" s="0"/>
-      <c r="UE4" s="0"/>
-      <c r="UF4" s="0"/>
-      <c r="UG4" s="0"/>
-      <c r="UH4" s="0"/>
-      <c r="UI4" s="0"/>
-      <c r="UJ4" s="0"/>
-      <c r="UK4" s="0"/>
-      <c r="UL4" s="0"/>
-      <c r="UM4" s="0"/>
-      <c r="UN4" s="0"/>
-      <c r="UO4" s="0"/>
-      <c r="UP4" s="0"/>
-      <c r="UQ4" s="0"/>
-      <c r="UR4" s="0"/>
-      <c r="US4" s="0"/>
-      <c r="UT4" s="0"/>
-      <c r="UU4" s="0"/>
-      <c r="UV4" s="0"/>
-      <c r="UW4" s="0"/>
-      <c r="UX4" s="0"/>
-      <c r="UY4" s="0"/>
-      <c r="UZ4" s="0"/>
-      <c r="VA4" s="0"/>
-      <c r="VB4" s="0"/>
-      <c r="VC4" s="0"/>
-      <c r="VD4" s="0"/>
-      <c r="VE4" s="0"/>
-      <c r="VF4" s="0"/>
-      <c r="VG4" s="0"/>
-      <c r="VH4" s="0"/>
-      <c r="VI4" s="0"/>
-      <c r="VJ4" s="0"/>
-      <c r="VK4" s="0"/>
-      <c r="VL4" s="0"/>
-      <c r="VM4" s="0"/>
-      <c r="VN4" s="0"/>
-      <c r="VO4" s="0"/>
-      <c r="VP4" s="0"/>
-      <c r="VQ4" s="0"/>
-      <c r="VR4" s="0"/>
-      <c r="VS4" s="0"/>
-      <c r="VT4" s="0"/>
-      <c r="VU4" s="0"/>
-      <c r="VV4" s="0"/>
-      <c r="VW4" s="0"/>
-      <c r="VX4" s="0"/>
-      <c r="VY4" s="0"/>
-      <c r="VZ4" s="0"/>
-      <c r="WA4" s="0"/>
-      <c r="WB4" s="0"/>
-      <c r="WC4" s="0"/>
-      <c r="WD4" s="0"/>
-      <c r="WE4" s="0"/>
-      <c r="WF4" s="0"/>
-      <c r="WG4" s="0"/>
-      <c r="WH4" s="0"/>
-      <c r="WI4" s="0"/>
-      <c r="WJ4" s="0"/>
-      <c r="WK4" s="0"/>
-      <c r="WL4" s="0"/>
-      <c r="WM4" s="0"/>
-      <c r="WN4" s="0"/>
-      <c r="WO4" s="0"/>
-      <c r="WP4" s="0"/>
-      <c r="WQ4" s="0"/>
-      <c r="WR4" s="0"/>
-      <c r="WS4" s="0"/>
-      <c r="WT4" s="0"/>
-      <c r="WU4" s="0"/>
-      <c r="WV4" s="0"/>
-      <c r="WW4" s="0"/>
-      <c r="WX4" s="0"/>
-      <c r="WY4" s="0"/>
-      <c r="WZ4" s="0"/>
-      <c r="XA4" s="0"/>
-      <c r="XB4" s="0"/>
-      <c r="XC4" s="0"/>
-      <c r="XD4" s="0"/>
-      <c r="XE4" s="0"/>
-      <c r="XF4" s="0"/>
-      <c r="XG4" s="0"/>
-      <c r="XH4" s="0"/>
-      <c r="XI4" s="0"/>
-      <c r="XJ4" s="0"/>
-      <c r="XK4" s="0"/>
-      <c r="XL4" s="0"/>
-      <c r="XM4" s="0"/>
-      <c r="XN4" s="0"/>
-      <c r="XO4" s="0"/>
-      <c r="XP4" s="0"/>
-      <c r="XQ4" s="0"/>
-      <c r="XR4" s="0"/>
-      <c r="XS4" s="0"/>
-      <c r="XT4" s="0"/>
-      <c r="XU4" s="0"/>
-      <c r="XV4" s="0"/>
-      <c r="XW4" s="0"/>
-      <c r="XX4" s="0"/>
-      <c r="XY4" s="0"/>
-      <c r="XZ4" s="0"/>
-      <c r="YA4" s="0"/>
-      <c r="YB4" s="0"/>
-      <c r="YC4" s="0"/>
-      <c r="YD4" s="0"/>
-      <c r="YE4" s="0"/>
-      <c r="YF4" s="0"/>
-      <c r="YG4" s="0"/>
-      <c r="YH4" s="0"/>
-      <c r="YI4" s="0"/>
-      <c r="YJ4" s="0"/>
-      <c r="YK4" s="0"/>
-      <c r="YL4" s="0"/>
-      <c r="YM4" s="0"/>
-      <c r="YN4" s="0"/>
-      <c r="YO4" s="0"/>
-      <c r="YP4" s="0"/>
-      <c r="YQ4" s="0"/>
-      <c r="YR4" s="0"/>
-      <c r="YS4" s="0"/>
-      <c r="YT4" s="0"/>
-      <c r="YU4" s="0"/>
-      <c r="YV4" s="0"/>
-      <c r="YW4" s="0"/>
-      <c r="YX4" s="0"/>
-      <c r="YY4" s="0"/>
-      <c r="YZ4" s="0"/>
-      <c r="ZA4" s="0"/>
-      <c r="ZB4" s="0"/>
-      <c r="ZC4" s="0"/>
-      <c r="ZD4" s="0"/>
-      <c r="ZE4" s="0"/>
-      <c r="ZF4" s="0"/>
-      <c r="ZG4" s="0"/>
-      <c r="ZH4" s="0"/>
-      <c r="ZI4" s="0"/>
-      <c r="ZJ4" s="0"/>
-      <c r="ZK4" s="0"/>
-      <c r="ZL4" s="0"/>
-      <c r="ZM4" s="0"/>
-      <c r="ZN4" s="0"/>
-      <c r="ZO4" s="0"/>
-      <c r="ZP4" s="0"/>
-      <c r="ZQ4" s="0"/>
-      <c r="ZR4" s="0"/>
-      <c r="ZS4" s="0"/>
-      <c r="ZT4" s="0"/>
-      <c r="ZU4" s="0"/>
-      <c r="ZV4" s="0"/>
-      <c r="ZW4" s="0"/>
-      <c r="ZX4" s="0"/>
-      <c r="ZY4" s="0"/>
-      <c r="ZZ4" s="0"/>
-      <c r="AAA4" s="0"/>
-      <c r="AAB4" s="0"/>
-      <c r="AAC4" s="0"/>
-      <c r="AAD4" s="0"/>
-      <c r="AAE4" s="0"/>
-      <c r="AAF4" s="0"/>
-      <c r="AAG4" s="0"/>
-      <c r="AAH4" s="0"/>
-      <c r="AAI4" s="0"/>
-      <c r="AAJ4" s="0"/>
-      <c r="AAK4" s="0"/>
-      <c r="AAL4" s="0"/>
-      <c r="AAM4" s="0"/>
-      <c r="AAN4" s="0"/>
-      <c r="AAO4" s="0"/>
-      <c r="AAP4" s="0"/>
-      <c r="AAQ4" s="0"/>
-      <c r="AAR4" s="0"/>
-      <c r="AAS4" s="0"/>
-      <c r="AAT4" s="0"/>
-      <c r="AAU4" s="0"/>
-      <c r="AAV4" s="0"/>
-      <c r="AAW4" s="0"/>
-      <c r="AAX4" s="0"/>
-      <c r="AAY4" s="0"/>
-      <c r="AAZ4" s="0"/>
-      <c r="ABA4" s="0"/>
-      <c r="ABB4" s="0"/>
-      <c r="ABC4" s="0"/>
-      <c r="ABD4" s="0"/>
-      <c r="ABE4" s="0"/>
-      <c r="ABF4" s="0"/>
-      <c r="ABG4" s="0"/>
-      <c r="ABH4" s="0"/>
-      <c r="ABI4" s="0"/>
-      <c r="ABJ4" s="0"/>
-      <c r="ABK4" s="0"/>
-      <c r="ABL4" s="0"/>
-      <c r="ABM4" s="0"/>
-      <c r="ABN4" s="0"/>
-      <c r="ABO4" s="0"/>
-      <c r="ABP4" s="0"/>
-      <c r="ABQ4" s="0"/>
-      <c r="ABR4" s="0"/>
-      <c r="ABS4" s="0"/>
-      <c r="ABT4" s="0"/>
-      <c r="ABU4" s="0"/>
-      <c r="ABV4" s="0"/>
-      <c r="ABW4" s="0"/>
-      <c r="ABX4" s="0"/>
-      <c r="ABY4" s="0"/>
-      <c r="ABZ4" s="0"/>
-      <c r="ACA4" s="0"/>
-      <c r="ACB4" s="0"/>
-      <c r="ACC4" s="0"/>
-      <c r="ACD4" s="0"/>
-      <c r="ACE4" s="0"/>
-      <c r="ACF4" s="0"/>
-      <c r="ACG4" s="0"/>
-      <c r="ACH4" s="0"/>
-      <c r="ACI4" s="0"/>
-      <c r="ACJ4" s="0"/>
-      <c r="ACK4" s="0"/>
-      <c r="ACL4" s="0"/>
-      <c r="ACM4" s="0"/>
-      <c r="ACN4" s="0"/>
-      <c r="ACO4" s="0"/>
-      <c r="ACP4" s="0"/>
-      <c r="ACQ4" s="0"/>
-      <c r="ACR4" s="0"/>
-      <c r="ACS4" s="0"/>
-      <c r="ACT4" s="0"/>
-      <c r="ACU4" s="0"/>
-      <c r="ACV4" s="0"/>
-      <c r="ACW4" s="0"/>
-      <c r="ACX4" s="0"/>
-      <c r="ACY4" s="0"/>
-      <c r="ACZ4" s="0"/>
-      <c r="ADA4" s="0"/>
-      <c r="ADB4" s="0"/>
-      <c r="ADC4" s="0"/>
-      <c r="ADD4" s="0"/>
-      <c r="ADE4" s="0"/>
-      <c r="ADF4" s="0"/>
-      <c r="ADG4" s="0"/>
-      <c r="ADH4" s="0"/>
-      <c r="ADI4" s="0"/>
-      <c r="ADJ4" s="0"/>
-      <c r="ADK4" s="0"/>
-      <c r="ADL4" s="0"/>
-      <c r="ADM4" s="0"/>
-      <c r="ADN4" s="0"/>
-      <c r="ADO4" s="0"/>
-      <c r="ADP4" s="0"/>
-      <c r="ADQ4" s="0"/>
-      <c r="ADR4" s="0"/>
-      <c r="ADS4" s="0"/>
-      <c r="ADT4" s="0"/>
-      <c r="ADU4" s="0"/>
-      <c r="ADV4" s="0"/>
-      <c r="ADW4" s="0"/>
-      <c r="ADX4" s="0"/>
-      <c r="ADY4" s="0"/>
-      <c r="ADZ4" s="0"/>
-      <c r="AEA4" s="0"/>
-      <c r="AEB4" s="0"/>
-      <c r="AEC4" s="0"/>
-      <c r="AED4" s="0"/>
-      <c r="AEE4" s="0"/>
-      <c r="AEF4" s="0"/>
-      <c r="AEG4" s="0"/>
-      <c r="AEH4" s="0"/>
-      <c r="AEI4" s="0"/>
-      <c r="AEJ4" s="0"/>
-      <c r="AEK4" s="0"/>
-      <c r="AEL4" s="0"/>
-      <c r="AEM4" s="0"/>
-      <c r="AEN4" s="0"/>
-      <c r="AEO4" s="0"/>
-      <c r="AEP4" s="0"/>
-      <c r="AEQ4" s="0"/>
-      <c r="AER4" s="0"/>
-      <c r="AES4" s="0"/>
-      <c r="AET4" s="0"/>
-      <c r="AEU4" s="0"/>
-      <c r="AEV4" s="0"/>
-      <c r="AEW4" s="0"/>
-      <c r="AEX4" s="0"/>
-      <c r="AEY4" s="0"/>
-      <c r="AEZ4" s="0"/>
-      <c r="AFA4" s="0"/>
-      <c r="AFB4" s="0"/>
-      <c r="AFC4" s="0"/>
-      <c r="AFD4" s="0"/>
-      <c r="AFE4" s="0"/>
-      <c r="AFF4" s="0"/>
-      <c r="AFG4" s="0"/>
-      <c r="AFH4" s="0"/>
-      <c r="AFI4" s="0"/>
-      <c r="AFJ4" s="0"/>
-      <c r="AFK4" s="0"/>
-      <c r="AFL4" s="0"/>
-      <c r="AFM4" s="0"/>
-      <c r="AFN4" s="0"/>
-      <c r="AFO4" s="0"/>
-      <c r="AFP4" s="0"/>
-      <c r="AFQ4" s="0"/>
-      <c r="AFR4" s="0"/>
-      <c r="AFS4" s="0"/>
-      <c r="AFT4" s="0"/>
-      <c r="AFU4" s="0"/>
-      <c r="AFV4" s="0"/>
-      <c r="AFW4" s="0"/>
-      <c r="AFX4" s="0"/>
-      <c r="AFY4" s="0"/>
-      <c r="AFZ4" s="0"/>
-      <c r="AGA4" s="0"/>
-      <c r="AGB4" s="0"/>
-      <c r="AGC4" s="0"/>
-      <c r="AGD4" s="0"/>
-      <c r="AGE4" s="0"/>
-      <c r="AGF4" s="0"/>
-      <c r="AGG4" s="0"/>
-      <c r="AGH4" s="0"/>
-      <c r="AGI4" s="0"/>
-      <c r="AGJ4" s="0"/>
-      <c r="AGK4" s="0"/>
-      <c r="AGL4" s="0"/>
-      <c r="AGM4" s="0"/>
-      <c r="AGN4" s="0"/>
-      <c r="AGO4" s="0"/>
-      <c r="AGP4" s="0"/>
-      <c r="AGQ4" s="0"/>
-      <c r="AGR4" s="0"/>
-      <c r="AGS4" s="0"/>
-      <c r="AGT4" s="0"/>
-      <c r="AGU4" s="0"/>
-      <c r="AGV4" s="0"/>
-      <c r="AGW4" s="0"/>
-      <c r="AGX4" s="0"/>
-      <c r="AGY4" s="0"/>
-      <c r="AGZ4" s="0"/>
-      <c r="AHA4" s="0"/>
-      <c r="AHB4" s="0"/>
-      <c r="AHC4" s="0"/>
-      <c r="AHD4" s="0"/>
-      <c r="AHE4" s="0"/>
-      <c r="AHF4" s="0"/>
-      <c r="AHG4" s="0"/>
-      <c r="AHH4" s="0"/>
-      <c r="AHI4" s="0"/>
-      <c r="AHJ4" s="0"/>
-      <c r="AHK4" s="0"/>
-      <c r="AHL4" s="0"/>
-      <c r="AHM4" s="0"/>
-      <c r="AHN4" s="0"/>
-      <c r="AHO4" s="0"/>
-      <c r="AHP4" s="0"/>
-      <c r="AHQ4" s="0"/>
-      <c r="AHR4" s="0"/>
-      <c r="AHS4" s="0"/>
-      <c r="AHT4" s="0"/>
-      <c r="AHU4" s="0"/>
-      <c r="AHV4" s="0"/>
-      <c r="AHW4" s="0"/>
-      <c r="AHX4" s="0"/>
-      <c r="AHY4" s="0"/>
-      <c r="AHZ4" s="0"/>
-      <c r="AIA4" s="0"/>
-      <c r="AIB4" s="0"/>
-      <c r="AIC4" s="0"/>
-      <c r="AID4" s="0"/>
-      <c r="AIE4" s="0"/>
-      <c r="AIF4" s="0"/>
-      <c r="AIG4" s="0"/>
-      <c r="AIH4" s="0"/>
-      <c r="AII4" s="0"/>
-      <c r="AIJ4" s="0"/>
-      <c r="AIK4" s="0"/>
-      <c r="AIL4" s="0"/>
-      <c r="AIM4" s="0"/>
-      <c r="AIN4" s="0"/>
-      <c r="AIO4" s="0"/>
-      <c r="AIP4" s="0"/>
-      <c r="AIQ4" s="0"/>
-      <c r="AIR4" s="0"/>
-      <c r="AIS4" s="0"/>
-      <c r="AIT4" s="0"/>
-      <c r="AIU4" s="0"/>
-      <c r="AIV4" s="0"/>
-      <c r="AIW4" s="0"/>
-      <c r="AIX4" s="0"/>
-      <c r="AIY4" s="0"/>
-      <c r="AIZ4" s="0"/>
-      <c r="AJA4" s="0"/>
-      <c r="AJB4" s="0"/>
-      <c r="AJC4" s="0"/>
-      <c r="AJD4" s="0"/>
-      <c r="AJE4" s="0"/>
-      <c r="AJF4" s="0"/>
-      <c r="AJG4" s="0"/>
-      <c r="AJH4" s="0"/>
-      <c r="AJI4" s="0"/>
-      <c r="AJJ4" s="0"/>
-      <c r="AJK4" s="0"/>
-      <c r="AJL4" s="0"/>
-      <c r="AJM4" s="0"/>
-      <c r="AJN4" s="0"/>
-      <c r="AJO4" s="0"/>
-      <c r="AJP4" s="0"/>
-      <c r="AJQ4" s="0"/>
-      <c r="AJR4" s="0"/>
-      <c r="AJS4" s="0"/>
-      <c r="AJT4" s="0"/>
-      <c r="AJU4" s="0"/>
-      <c r="AJV4" s="0"/>
-      <c r="AJW4" s="0"/>
-      <c r="AJX4" s="0"/>
-      <c r="AJY4" s="0"/>
-      <c r="AJZ4" s="0"/>
-      <c r="AKA4" s="0"/>
-      <c r="AKB4" s="0"/>
-      <c r="AKC4" s="0"/>
-      <c r="AKD4" s="0"/>
-      <c r="AKE4" s="0"/>
-      <c r="AKF4" s="0"/>
-      <c r="AKG4" s="0"/>
-      <c r="AKH4" s="0"/>
-      <c r="AKI4" s="0"/>
-      <c r="AKJ4" s="0"/>
-      <c r="AKK4" s="0"/>
-      <c r="AKL4" s="0"/>
-      <c r="AKM4" s="0"/>
-      <c r="AKN4" s="0"/>
-      <c r="AKO4" s="0"/>
-      <c r="AKP4" s="0"/>
-      <c r="AKQ4" s="0"/>
-      <c r="AKR4" s="0"/>
-      <c r="AKS4" s="0"/>
-      <c r="AKT4" s="0"/>
-      <c r="AKU4" s="0"/>
-      <c r="AKV4" s="0"/>
-      <c r="AKW4" s="0"/>
-      <c r="AKX4" s="0"/>
-      <c r="AKY4" s="0"/>
-      <c r="AKZ4" s="0"/>
-      <c r="ALA4" s="0"/>
-      <c r="ALB4" s="0"/>
-      <c r="ALC4" s="0"/>
-      <c r="ALD4" s="0"/>
-      <c r="ALE4" s="0"/>
-      <c r="ALF4" s="0"/>
-      <c r="ALG4" s="0"/>
-      <c r="ALH4" s="0"/>
-      <c r="ALI4" s="0"/>
-      <c r="ALJ4" s="0"/>
-      <c r="ALK4" s="0"/>
-      <c r="ALL4" s="0"/>
-      <c r="ALM4" s="0"/>
-      <c r="ALN4" s="0"/>
-      <c r="ALO4" s="0"/>
-      <c r="ALP4" s="0"/>
-      <c r="ALQ4" s="0"/>
-      <c r="ALR4" s="0"/>
-      <c r="ALS4" s="0"/>
-      <c r="ALT4" s="0"/>
-      <c r="ALU4" s="0"/>
-      <c r="ALV4" s="0"/>
-      <c r="ALW4" s="0"/>
-      <c r="ALX4" s="0"/>
-      <c r="ALY4" s="0"/>
-      <c r="ALZ4" s="0"/>
-      <c r="AMA4" s="0"/>
-      <c r="AMB4" s="0"/>
-      <c r="AMC4" s="0"/>
-      <c r="AMD4" s="0"/>
-      <c r="AME4" s="0"/>
-      <c r="AMF4" s="0"/>
+        <v>50</v>
+      </c>
     </row>
-    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>71</v>
+        <v>64</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>55</v>
@@ -2798,29 +1784,29 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="N5" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
+        <v>67</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
       <c r="S5" s="19" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="T5" s="19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="U5" s="19"/>
       <c r="V5" s="19"/>
@@ -2831,7 +1817,9 @@
       <c r="AA5" s="19"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
+      <c r="AD5" s="19" t="n">
+        <v>40</v>
+      </c>
       <c r="AE5" s="0"/>
       <c r="AF5" s="0"/>
       <c r="AG5" s="0"/>
@@ -3823,19 +2811,19 @@
       <c r="AME5" s="0"/>
       <c r="AMF5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15"/>
       <c r="B6" s="15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>55</v>
@@ -3844,46 +2832,40 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="N6" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
+        <v>75</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
       <c r="S6" s="19" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="T6" s="19" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
       <c r="W6" s="19"/>
       <c r="X6" s="19"/>
-      <c r="Y6" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z6" s="19" t="s">
-        <v>87</v>
-      </c>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="19"/>
       <c r="AC6" s="19"/>
-      <c r="AD6" s="19" t="n">
-        <v>15</v>
-      </c>
+      <c r="AD6" s="19"/>
       <c r="AE6" s="0"/>
       <c r="AF6" s="0"/>
       <c r="AG6" s="0"/>
@@ -4875,19 +3857,19 @@
       <c r="AME6" s="0"/>
       <c r="AMF6" s="0"/>
     </row>
-    <row r="7" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>55</v>
@@ -4902,23 +3884,23 @@
         <v>65</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="M7" s="19" t="s">
         <v>59</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="O7" s="19"/>
       <c r="P7" s="19"/>
       <c r="Q7" s="19"/>
       <c r="R7" s="19"/>
       <c r="S7" s="19" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="T7" s="19" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="U7" s="19"/>
       <c r="V7" s="19"/>
@@ -4928,7 +3910,7 @@
         <v>86</v>
       </c>
       <c r="Z7" s="19" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AA7" s="19"/>
       <c r="AB7" s="19"/>
@@ -4936,20 +3918,1010 @@
       <c r="AD7" s="19" t="n">
         <v>15</v>
       </c>
+      <c r="AE7" s="0"/>
+      <c r="AF7" s="0"/>
+      <c r="AG7" s="0"/>
+      <c r="AH7" s="0"/>
+      <c r="AI7" s="0"/>
+      <c r="AJ7" s="0"/>
+      <c r="AK7" s="0"/>
+      <c r="AL7" s="0"/>
+      <c r="AM7" s="0"/>
+      <c r="AN7" s="0"/>
+      <c r="AO7" s="0"/>
+      <c r="AP7" s="0"/>
+      <c r="AQ7" s="0"/>
+      <c r="AR7" s="0"/>
+      <c r="AS7" s="0"/>
+      <c r="AT7" s="0"/>
+      <c r="AU7" s="0"/>
+      <c r="AV7" s="0"/>
+      <c r="AW7" s="0"/>
+      <c r="AX7" s="0"/>
+      <c r="AY7" s="0"/>
+      <c r="AZ7" s="0"/>
+      <c r="BA7" s="0"/>
+      <c r="BB7" s="0"/>
+      <c r="BC7" s="0"/>
+      <c r="BD7" s="0"/>
+      <c r="BE7" s="0"/>
+      <c r="BF7" s="0"/>
+      <c r="BG7" s="0"/>
+      <c r="BH7" s="0"/>
+      <c r="BI7" s="0"/>
+      <c r="BJ7" s="0"/>
+      <c r="BK7" s="0"/>
+      <c r="BL7" s="0"/>
+      <c r="BM7" s="0"/>
+      <c r="BN7" s="0"/>
+      <c r="BO7" s="0"/>
+      <c r="BP7" s="0"/>
+      <c r="BQ7" s="0"/>
+      <c r="BR7" s="0"/>
+      <c r="BS7" s="0"/>
+      <c r="BT7" s="0"/>
+      <c r="BU7" s="0"/>
+      <c r="BV7" s="0"/>
+      <c r="BW7" s="0"/>
+      <c r="BX7" s="0"/>
+      <c r="BY7" s="0"/>
+      <c r="BZ7" s="0"/>
+      <c r="CA7" s="0"/>
+      <c r="CB7" s="0"/>
+      <c r="CC7" s="0"/>
+      <c r="CD7" s="0"/>
+      <c r="CE7" s="0"/>
+      <c r="CF7" s="0"/>
+      <c r="CG7" s="0"/>
+      <c r="CH7" s="0"/>
+      <c r="CI7" s="0"/>
+      <c r="CJ7" s="0"/>
+      <c r="CK7" s="0"/>
+      <c r="CL7" s="0"/>
+      <c r="CM7" s="0"/>
+      <c r="CN7" s="0"/>
+      <c r="CO7" s="0"/>
+      <c r="CP7" s="0"/>
+      <c r="CQ7" s="0"/>
+      <c r="CR7" s="0"/>
+      <c r="CS7" s="0"/>
+      <c r="CT7" s="0"/>
+      <c r="CU7" s="0"/>
+      <c r="CV7" s="0"/>
+      <c r="CW7" s="0"/>
+      <c r="CX7" s="0"/>
+      <c r="CY7" s="0"/>
+      <c r="CZ7" s="0"/>
+      <c r="DA7" s="0"/>
+      <c r="DB7" s="0"/>
+      <c r="DC7" s="0"/>
+      <c r="DD7" s="0"/>
+      <c r="DE7" s="0"/>
+      <c r="DF7" s="0"/>
+      <c r="DG7" s="0"/>
+      <c r="DH7" s="0"/>
+      <c r="DI7" s="0"/>
+      <c r="DJ7" s="0"/>
+      <c r="DK7" s="0"/>
+      <c r="DL7" s="0"/>
+      <c r="DM7" s="0"/>
+      <c r="DN7" s="0"/>
+      <c r="DO7" s="0"/>
+      <c r="DP7" s="0"/>
+      <c r="DQ7" s="0"/>
+      <c r="DR7" s="0"/>
+      <c r="DS7" s="0"/>
+      <c r="DT7" s="0"/>
+      <c r="DU7" s="0"/>
+      <c r="DV7" s="0"/>
+      <c r="DW7" s="0"/>
+      <c r="DX7" s="0"/>
+      <c r="DY7" s="0"/>
+      <c r="DZ7" s="0"/>
+      <c r="EA7" s="0"/>
+      <c r="EB7" s="0"/>
+      <c r="EC7" s="0"/>
+      <c r="ED7" s="0"/>
+      <c r="EE7" s="0"/>
+      <c r="EF7" s="0"/>
+      <c r="EG7" s="0"/>
+      <c r="EH7" s="0"/>
+      <c r="EI7" s="0"/>
+      <c r="EJ7" s="0"/>
+      <c r="EK7" s="0"/>
+      <c r="EL7" s="0"/>
+      <c r="EM7" s="0"/>
+      <c r="EN7" s="0"/>
+      <c r="EO7" s="0"/>
+      <c r="EP7" s="0"/>
+      <c r="EQ7" s="0"/>
+      <c r="ER7" s="0"/>
+      <c r="ES7" s="0"/>
+      <c r="ET7" s="0"/>
+      <c r="EU7" s="0"/>
+      <c r="EV7" s="0"/>
+      <c r="EW7" s="0"/>
+      <c r="EX7" s="0"/>
+      <c r="EY7" s="0"/>
+      <c r="EZ7" s="0"/>
+      <c r="FA7" s="0"/>
+      <c r="FB7" s="0"/>
+      <c r="FC7" s="0"/>
+      <c r="FD7" s="0"/>
+      <c r="FE7" s="0"/>
+      <c r="FF7" s="0"/>
+      <c r="FG7" s="0"/>
+      <c r="FH7" s="0"/>
+      <c r="FI7" s="0"/>
+      <c r="FJ7" s="0"/>
+      <c r="FK7" s="0"/>
+      <c r="FL7" s="0"/>
+      <c r="FM7" s="0"/>
+      <c r="FN7" s="0"/>
+      <c r="FO7" s="0"/>
+      <c r="FP7" s="0"/>
+      <c r="FQ7" s="0"/>
+      <c r="FR7" s="0"/>
+      <c r="FS7" s="0"/>
+      <c r="FT7" s="0"/>
+      <c r="FU7" s="0"/>
+      <c r="FV7" s="0"/>
+      <c r="FW7" s="0"/>
+      <c r="FX7" s="0"/>
+      <c r="FY7" s="0"/>
+      <c r="FZ7" s="0"/>
+      <c r="GA7" s="0"/>
+      <c r="GB7" s="0"/>
+      <c r="GC7" s="0"/>
+      <c r="GD7" s="0"/>
+      <c r="GE7" s="0"/>
+      <c r="GF7" s="0"/>
+      <c r="GG7" s="0"/>
+      <c r="GH7" s="0"/>
+      <c r="GI7" s="0"/>
+      <c r="GJ7" s="0"/>
+      <c r="GK7" s="0"/>
+      <c r="GL7" s="0"/>
+      <c r="GM7" s="0"/>
+      <c r="GN7" s="0"/>
+      <c r="GO7" s="0"/>
+      <c r="GP7" s="0"/>
+      <c r="GQ7" s="0"/>
+      <c r="GR7" s="0"/>
+      <c r="GS7" s="0"/>
+      <c r="GT7" s="0"/>
+      <c r="GU7" s="0"/>
+      <c r="GV7" s="0"/>
+      <c r="GW7" s="0"/>
+      <c r="GX7" s="0"/>
+      <c r="GY7" s="0"/>
+      <c r="GZ7" s="0"/>
+      <c r="HA7" s="0"/>
+      <c r="HB7" s="0"/>
+      <c r="HC7" s="0"/>
+      <c r="HD7" s="0"/>
+      <c r="HE7" s="0"/>
+      <c r="HF7" s="0"/>
+      <c r="HG7" s="0"/>
+      <c r="HH7" s="0"/>
+      <c r="HI7" s="0"/>
+      <c r="HJ7" s="0"/>
+      <c r="HK7" s="0"/>
+      <c r="HL7" s="0"/>
+      <c r="HM7" s="0"/>
+      <c r="HN7" s="0"/>
+      <c r="HO7" s="0"/>
+      <c r="HP7" s="0"/>
+      <c r="HQ7" s="0"/>
+      <c r="HR7" s="0"/>
+      <c r="HS7" s="0"/>
+      <c r="HT7" s="0"/>
+      <c r="HU7" s="0"/>
+      <c r="HV7" s="0"/>
+      <c r="HW7" s="0"/>
+      <c r="HX7" s="0"/>
+      <c r="HY7" s="0"/>
+      <c r="HZ7" s="0"/>
+      <c r="IA7" s="0"/>
+      <c r="IB7" s="0"/>
+      <c r="IC7" s="0"/>
+      <c r="ID7" s="0"/>
+      <c r="IE7" s="0"/>
+      <c r="IF7" s="0"/>
+      <c r="IG7" s="0"/>
+      <c r="IH7" s="0"/>
+      <c r="II7" s="0"/>
+      <c r="IJ7" s="0"/>
+      <c r="IK7" s="0"/>
+      <c r="IL7" s="0"/>
+      <c r="IM7" s="0"/>
+      <c r="IN7" s="0"/>
+      <c r="IO7" s="0"/>
+      <c r="IP7" s="0"/>
+      <c r="IQ7" s="0"/>
+      <c r="IR7" s="0"/>
+      <c r="IS7" s="0"/>
+      <c r="IT7" s="0"/>
+      <c r="IU7" s="0"/>
+      <c r="IV7" s="0"/>
+      <c r="IW7" s="0"/>
+      <c r="IX7" s="0"/>
+      <c r="IY7" s="0"/>
+      <c r="IZ7" s="0"/>
+      <c r="JA7" s="0"/>
+      <c r="JB7" s="0"/>
+      <c r="JC7" s="0"/>
+      <c r="JD7" s="0"/>
+      <c r="JE7" s="0"/>
+      <c r="JF7" s="0"/>
+      <c r="JG7" s="0"/>
+      <c r="JH7" s="0"/>
+      <c r="JI7" s="0"/>
+      <c r="JJ7" s="0"/>
+      <c r="JK7" s="0"/>
+      <c r="JL7" s="0"/>
+      <c r="JM7" s="0"/>
+      <c r="JN7" s="0"/>
+      <c r="JO7" s="0"/>
+      <c r="JP7" s="0"/>
+      <c r="JQ7" s="0"/>
+      <c r="JR7" s="0"/>
+      <c r="JS7" s="0"/>
+      <c r="JT7" s="0"/>
+      <c r="JU7" s="0"/>
+      <c r="JV7" s="0"/>
+      <c r="JW7" s="0"/>
+      <c r="JX7" s="0"/>
+      <c r="JY7" s="0"/>
+      <c r="JZ7" s="0"/>
+      <c r="KA7" s="0"/>
+      <c r="KB7" s="0"/>
+      <c r="KC7" s="0"/>
+      <c r="KD7" s="0"/>
+      <c r="KE7" s="0"/>
+      <c r="KF7" s="0"/>
+      <c r="KG7" s="0"/>
+      <c r="KH7" s="0"/>
+      <c r="KI7" s="0"/>
+      <c r="KJ7" s="0"/>
+      <c r="KK7" s="0"/>
+      <c r="KL7" s="0"/>
+      <c r="KM7" s="0"/>
+      <c r="KN7" s="0"/>
+      <c r="KO7" s="0"/>
+      <c r="KP7" s="0"/>
+      <c r="KQ7" s="0"/>
+      <c r="KR7" s="0"/>
+      <c r="KS7" s="0"/>
+      <c r="KT7" s="0"/>
+      <c r="KU7" s="0"/>
+      <c r="KV7" s="0"/>
+      <c r="KW7" s="0"/>
+      <c r="KX7" s="0"/>
+      <c r="KY7" s="0"/>
+      <c r="KZ7" s="0"/>
+      <c r="LA7" s="0"/>
+      <c r="LB7" s="0"/>
+      <c r="LC7" s="0"/>
+      <c r="LD7" s="0"/>
+      <c r="LE7" s="0"/>
+      <c r="LF7" s="0"/>
+      <c r="LG7" s="0"/>
+      <c r="LH7" s="0"/>
+      <c r="LI7" s="0"/>
+      <c r="LJ7" s="0"/>
+      <c r="LK7" s="0"/>
+      <c r="LL7" s="0"/>
+      <c r="LM7" s="0"/>
+      <c r="LN7" s="0"/>
+      <c r="LO7" s="0"/>
+      <c r="LP7" s="0"/>
+      <c r="LQ7" s="0"/>
+      <c r="LR7" s="0"/>
+      <c r="LS7" s="0"/>
+      <c r="LT7" s="0"/>
+      <c r="LU7" s="0"/>
+      <c r="LV7" s="0"/>
+      <c r="LW7" s="0"/>
+      <c r="LX7" s="0"/>
+      <c r="LY7" s="0"/>
+      <c r="LZ7" s="0"/>
+      <c r="MA7" s="0"/>
+      <c r="MB7" s="0"/>
+      <c r="MC7" s="0"/>
+      <c r="MD7" s="0"/>
+      <c r="ME7" s="0"/>
+      <c r="MF7" s="0"/>
+      <c r="MG7" s="0"/>
+      <c r="MH7" s="0"/>
+      <c r="MI7" s="0"/>
+      <c r="MJ7" s="0"/>
+      <c r="MK7" s="0"/>
+      <c r="ML7" s="0"/>
+      <c r="MM7" s="0"/>
+      <c r="MN7" s="0"/>
+      <c r="MO7" s="0"/>
+      <c r="MP7" s="0"/>
+      <c r="MQ7" s="0"/>
+      <c r="MR7" s="0"/>
+      <c r="MS7" s="0"/>
+      <c r="MT7" s="0"/>
+      <c r="MU7" s="0"/>
+      <c r="MV7" s="0"/>
+      <c r="MW7" s="0"/>
+      <c r="MX7" s="0"/>
+      <c r="MY7" s="0"/>
+      <c r="MZ7" s="0"/>
+      <c r="NA7" s="0"/>
+      <c r="NB7" s="0"/>
+      <c r="NC7" s="0"/>
+      <c r="ND7" s="0"/>
+      <c r="NE7" s="0"/>
+      <c r="NF7" s="0"/>
+      <c r="NG7" s="0"/>
+      <c r="NH7" s="0"/>
+      <c r="NI7" s="0"/>
+      <c r="NJ7" s="0"/>
+      <c r="NK7" s="0"/>
+      <c r="NL7" s="0"/>
+      <c r="NM7" s="0"/>
+      <c r="NN7" s="0"/>
+      <c r="NO7" s="0"/>
+      <c r="NP7" s="0"/>
+      <c r="NQ7" s="0"/>
+      <c r="NR7" s="0"/>
+      <c r="NS7" s="0"/>
+      <c r="NT7" s="0"/>
+      <c r="NU7" s="0"/>
+      <c r="NV7" s="0"/>
+      <c r="NW7" s="0"/>
+      <c r="NX7" s="0"/>
+      <c r="NY7" s="0"/>
+      <c r="NZ7" s="0"/>
+      <c r="OA7" s="0"/>
+      <c r="OB7" s="0"/>
+      <c r="OC7" s="0"/>
+      <c r="OD7" s="0"/>
+      <c r="OE7" s="0"/>
+      <c r="OF7" s="0"/>
+      <c r="OG7" s="0"/>
+      <c r="OH7" s="0"/>
+      <c r="OI7" s="0"/>
+      <c r="OJ7" s="0"/>
+      <c r="OK7" s="0"/>
+      <c r="OL7" s="0"/>
+      <c r="OM7" s="0"/>
+      <c r="ON7" s="0"/>
+      <c r="OO7" s="0"/>
+      <c r="OP7" s="0"/>
+      <c r="OQ7" s="0"/>
+      <c r="OR7" s="0"/>
+      <c r="OS7" s="0"/>
+      <c r="OT7" s="0"/>
+      <c r="OU7" s="0"/>
+      <c r="OV7" s="0"/>
+      <c r="OW7" s="0"/>
+      <c r="OX7" s="0"/>
+      <c r="OY7" s="0"/>
+      <c r="OZ7" s="0"/>
+      <c r="PA7" s="0"/>
+      <c r="PB7" s="0"/>
+      <c r="PC7" s="0"/>
+      <c r="PD7" s="0"/>
+      <c r="PE7" s="0"/>
+      <c r="PF7" s="0"/>
+      <c r="PG7" s="0"/>
+      <c r="PH7" s="0"/>
+      <c r="PI7" s="0"/>
+      <c r="PJ7" s="0"/>
+      <c r="PK7" s="0"/>
+      <c r="PL7" s="0"/>
+      <c r="PM7" s="0"/>
+      <c r="PN7" s="0"/>
+      <c r="PO7" s="0"/>
+      <c r="PP7" s="0"/>
+      <c r="PQ7" s="0"/>
+      <c r="PR7" s="0"/>
+      <c r="PS7" s="0"/>
+      <c r="PT7" s="0"/>
+      <c r="PU7" s="0"/>
+      <c r="PV7" s="0"/>
+      <c r="PW7" s="0"/>
+      <c r="PX7" s="0"/>
+      <c r="PY7" s="0"/>
+      <c r="PZ7" s="0"/>
+      <c r="QA7" s="0"/>
+      <c r="QB7" s="0"/>
+      <c r="QC7" s="0"/>
+      <c r="QD7" s="0"/>
+      <c r="QE7" s="0"/>
+      <c r="QF7" s="0"/>
+      <c r="QG7" s="0"/>
+      <c r="QH7" s="0"/>
+      <c r="QI7" s="0"/>
+      <c r="QJ7" s="0"/>
+      <c r="QK7" s="0"/>
+      <c r="QL7" s="0"/>
+      <c r="QM7" s="0"/>
+      <c r="QN7" s="0"/>
+      <c r="QO7" s="0"/>
+      <c r="QP7" s="0"/>
+      <c r="QQ7" s="0"/>
+      <c r="QR7" s="0"/>
+      <c r="QS7" s="0"/>
+      <c r="QT7" s="0"/>
+      <c r="QU7" s="0"/>
+      <c r="QV7" s="0"/>
+      <c r="QW7" s="0"/>
+      <c r="QX7" s="0"/>
+      <c r="QY7" s="0"/>
+      <c r="QZ7" s="0"/>
+      <c r="RA7" s="0"/>
+      <c r="RB7" s="0"/>
+      <c r="RC7" s="0"/>
+      <c r="RD7" s="0"/>
+      <c r="RE7" s="0"/>
+      <c r="RF7" s="0"/>
+      <c r="RG7" s="0"/>
+      <c r="RH7" s="0"/>
+      <c r="RI7" s="0"/>
+      <c r="RJ7" s="0"/>
+      <c r="RK7" s="0"/>
+      <c r="RL7" s="0"/>
+      <c r="RM7" s="0"/>
+      <c r="RN7" s="0"/>
+      <c r="RO7" s="0"/>
+      <c r="RP7" s="0"/>
+      <c r="RQ7" s="0"/>
+      <c r="RR7" s="0"/>
+      <c r="RS7" s="0"/>
+      <c r="RT7" s="0"/>
+      <c r="RU7" s="0"/>
+      <c r="RV7" s="0"/>
+      <c r="RW7" s="0"/>
+      <c r="RX7" s="0"/>
+      <c r="RY7" s="0"/>
+      <c r="RZ7" s="0"/>
+      <c r="SA7" s="0"/>
+      <c r="SB7" s="0"/>
+      <c r="SC7" s="0"/>
+      <c r="SD7" s="0"/>
+      <c r="SE7" s="0"/>
+      <c r="SF7" s="0"/>
+      <c r="SG7" s="0"/>
+      <c r="SH7" s="0"/>
+      <c r="SI7" s="0"/>
+      <c r="SJ7" s="0"/>
+      <c r="SK7" s="0"/>
+      <c r="SL7" s="0"/>
+      <c r="SM7" s="0"/>
+      <c r="SN7" s="0"/>
+      <c r="SO7" s="0"/>
+      <c r="SP7" s="0"/>
+      <c r="SQ7" s="0"/>
+      <c r="SR7" s="0"/>
+      <c r="SS7" s="0"/>
+      <c r="ST7" s="0"/>
+      <c r="SU7" s="0"/>
+      <c r="SV7" s="0"/>
+      <c r="SW7" s="0"/>
+      <c r="SX7" s="0"/>
+      <c r="SY7" s="0"/>
+      <c r="SZ7" s="0"/>
+      <c r="TA7" s="0"/>
+      <c r="TB7" s="0"/>
+      <c r="TC7" s="0"/>
+      <c r="TD7" s="0"/>
+      <c r="TE7" s="0"/>
+      <c r="TF7" s="0"/>
+      <c r="TG7" s="0"/>
+      <c r="TH7" s="0"/>
+      <c r="TI7" s="0"/>
+      <c r="TJ7" s="0"/>
+      <c r="TK7" s="0"/>
+      <c r="TL7" s="0"/>
+      <c r="TM7" s="0"/>
+      <c r="TN7" s="0"/>
+      <c r="TO7" s="0"/>
+      <c r="TP7" s="0"/>
+      <c r="TQ7" s="0"/>
+      <c r="TR7" s="0"/>
+      <c r="TS7" s="0"/>
+      <c r="TT7" s="0"/>
+      <c r="TU7" s="0"/>
+      <c r="TV7" s="0"/>
+      <c r="TW7" s="0"/>
+      <c r="TX7" s="0"/>
+      <c r="TY7" s="0"/>
+      <c r="TZ7" s="0"/>
+      <c r="UA7" s="0"/>
+      <c r="UB7" s="0"/>
+      <c r="UC7" s="0"/>
+      <c r="UD7" s="0"/>
+      <c r="UE7" s="0"/>
+      <c r="UF7" s="0"/>
+      <c r="UG7" s="0"/>
+      <c r="UH7" s="0"/>
+      <c r="UI7" s="0"/>
+      <c r="UJ7" s="0"/>
+      <c r="UK7" s="0"/>
+      <c r="UL7" s="0"/>
+      <c r="UM7" s="0"/>
+      <c r="UN7" s="0"/>
+      <c r="UO7" s="0"/>
+      <c r="UP7" s="0"/>
+      <c r="UQ7" s="0"/>
+      <c r="UR7" s="0"/>
+      <c r="US7" s="0"/>
+      <c r="UT7" s="0"/>
+      <c r="UU7" s="0"/>
+      <c r="UV7" s="0"/>
+      <c r="UW7" s="0"/>
+      <c r="UX7" s="0"/>
+      <c r="UY7" s="0"/>
+      <c r="UZ7" s="0"/>
+      <c r="VA7" s="0"/>
+      <c r="VB7" s="0"/>
+      <c r="VC7" s="0"/>
+      <c r="VD7" s="0"/>
+      <c r="VE7" s="0"/>
+      <c r="VF7" s="0"/>
+      <c r="VG7" s="0"/>
+      <c r="VH7" s="0"/>
+      <c r="VI7" s="0"/>
+      <c r="VJ7" s="0"/>
+      <c r="VK7" s="0"/>
+      <c r="VL7" s="0"/>
+      <c r="VM7" s="0"/>
+      <c r="VN7" s="0"/>
+      <c r="VO7" s="0"/>
+      <c r="VP7" s="0"/>
+      <c r="VQ7" s="0"/>
+      <c r="VR7" s="0"/>
+      <c r="VS7" s="0"/>
+      <c r="VT7" s="0"/>
+      <c r="VU7" s="0"/>
+      <c r="VV7" s="0"/>
+      <c r="VW7" s="0"/>
+      <c r="VX7" s="0"/>
+      <c r="VY7" s="0"/>
+      <c r="VZ7" s="0"/>
+      <c r="WA7" s="0"/>
+      <c r="WB7" s="0"/>
+      <c r="WC7" s="0"/>
+      <c r="WD7" s="0"/>
+      <c r="WE7" s="0"/>
+      <c r="WF7" s="0"/>
+      <c r="WG7" s="0"/>
+      <c r="WH7" s="0"/>
+      <c r="WI7" s="0"/>
+      <c r="WJ7" s="0"/>
+      <c r="WK7" s="0"/>
+      <c r="WL7" s="0"/>
+      <c r="WM7" s="0"/>
+      <c r="WN7" s="0"/>
+      <c r="WO7" s="0"/>
+      <c r="WP7" s="0"/>
+      <c r="WQ7" s="0"/>
+      <c r="WR7" s="0"/>
+      <c r="WS7" s="0"/>
+      <c r="WT7" s="0"/>
+      <c r="WU7" s="0"/>
+      <c r="WV7" s="0"/>
+      <c r="WW7" s="0"/>
+      <c r="WX7" s="0"/>
+      <c r="WY7" s="0"/>
+      <c r="WZ7" s="0"/>
+      <c r="XA7" s="0"/>
+      <c r="XB7" s="0"/>
+      <c r="XC7" s="0"/>
+      <c r="XD7" s="0"/>
+      <c r="XE7" s="0"/>
+      <c r="XF7" s="0"/>
+      <c r="XG7" s="0"/>
+      <c r="XH7" s="0"/>
+      <c r="XI7" s="0"/>
+      <c r="XJ7" s="0"/>
+      <c r="XK7" s="0"/>
+      <c r="XL7" s="0"/>
+      <c r="XM7" s="0"/>
+      <c r="XN7" s="0"/>
+      <c r="XO7" s="0"/>
+      <c r="XP7" s="0"/>
+      <c r="XQ7" s="0"/>
+      <c r="XR7" s="0"/>
+      <c r="XS7" s="0"/>
+      <c r="XT7" s="0"/>
+      <c r="XU7" s="0"/>
+      <c r="XV7" s="0"/>
+      <c r="XW7" s="0"/>
+      <c r="XX7" s="0"/>
+      <c r="XY7" s="0"/>
+      <c r="XZ7" s="0"/>
+      <c r="YA7" s="0"/>
+      <c r="YB7" s="0"/>
+      <c r="YC7" s="0"/>
+      <c r="YD7" s="0"/>
+      <c r="YE7" s="0"/>
+      <c r="YF7" s="0"/>
+      <c r="YG7" s="0"/>
+      <c r="YH7" s="0"/>
+      <c r="YI7" s="0"/>
+      <c r="YJ7" s="0"/>
+      <c r="YK7" s="0"/>
+      <c r="YL7" s="0"/>
+      <c r="YM7" s="0"/>
+      <c r="YN7" s="0"/>
+      <c r="YO7" s="0"/>
+      <c r="YP7" s="0"/>
+      <c r="YQ7" s="0"/>
+      <c r="YR7" s="0"/>
+      <c r="YS7" s="0"/>
+      <c r="YT7" s="0"/>
+      <c r="YU7" s="0"/>
+      <c r="YV7" s="0"/>
+      <c r="YW7" s="0"/>
+      <c r="YX7" s="0"/>
+      <c r="YY7" s="0"/>
+      <c r="YZ7" s="0"/>
+      <c r="ZA7" s="0"/>
+      <c r="ZB7" s="0"/>
+      <c r="ZC7" s="0"/>
+      <c r="ZD7" s="0"/>
+      <c r="ZE7" s="0"/>
+      <c r="ZF7" s="0"/>
+      <c r="ZG7" s="0"/>
+      <c r="ZH7" s="0"/>
+      <c r="ZI7" s="0"/>
+      <c r="ZJ7" s="0"/>
+      <c r="ZK7" s="0"/>
+      <c r="ZL7" s="0"/>
+      <c r="ZM7" s="0"/>
+      <c r="ZN7" s="0"/>
+      <c r="ZO7" s="0"/>
+      <c r="ZP7" s="0"/>
+      <c r="ZQ7" s="0"/>
+      <c r="ZR7" s="0"/>
+      <c r="ZS7" s="0"/>
+      <c r="ZT7" s="0"/>
+      <c r="ZU7" s="0"/>
+      <c r="ZV7" s="0"/>
+      <c r="ZW7" s="0"/>
+      <c r="ZX7" s="0"/>
+      <c r="ZY7" s="0"/>
+      <c r="ZZ7" s="0"/>
+      <c r="AAA7" s="0"/>
+      <c r="AAB7" s="0"/>
+      <c r="AAC7" s="0"/>
+      <c r="AAD7" s="0"/>
+      <c r="AAE7" s="0"/>
+      <c r="AAF7" s="0"/>
+      <c r="AAG7" s="0"/>
+      <c r="AAH7" s="0"/>
+      <c r="AAI7" s="0"/>
+      <c r="AAJ7" s="0"/>
+      <c r="AAK7" s="0"/>
+      <c r="AAL7" s="0"/>
+      <c r="AAM7" s="0"/>
+      <c r="AAN7" s="0"/>
+      <c r="AAO7" s="0"/>
+      <c r="AAP7" s="0"/>
+      <c r="AAQ7" s="0"/>
+      <c r="AAR7" s="0"/>
+      <c r="AAS7" s="0"/>
+      <c r="AAT7" s="0"/>
+      <c r="AAU7" s="0"/>
+      <c r="AAV7" s="0"/>
+      <c r="AAW7" s="0"/>
+      <c r="AAX7" s="0"/>
+      <c r="AAY7" s="0"/>
+      <c r="AAZ7" s="0"/>
+      <c r="ABA7" s="0"/>
+      <c r="ABB7" s="0"/>
+      <c r="ABC7" s="0"/>
+      <c r="ABD7" s="0"/>
+      <c r="ABE7" s="0"/>
+      <c r="ABF7" s="0"/>
+      <c r="ABG7" s="0"/>
+      <c r="ABH7" s="0"/>
+      <c r="ABI7" s="0"/>
+      <c r="ABJ7" s="0"/>
+      <c r="ABK7" s="0"/>
+      <c r="ABL7" s="0"/>
+      <c r="ABM7" s="0"/>
+      <c r="ABN7" s="0"/>
+      <c r="ABO7" s="0"/>
+      <c r="ABP7" s="0"/>
+      <c r="ABQ7" s="0"/>
+      <c r="ABR7" s="0"/>
+      <c r="ABS7" s="0"/>
+      <c r="ABT7" s="0"/>
+      <c r="ABU7" s="0"/>
+      <c r="ABV7" s="0"/>
+      <c r="ABW7" s="0"/>
+      <c r="ABX7" s="0"/>
+      <c r="ABY7" s="0"/>
+      <c r="ABZ7" s="0"/>
+      <c r="ACA7" s="0"/>
+      <c r="ACB7" s="0"/>
+      <c r="ACC7" s="0"/>
+      <c r="ACD7" s="0"/>
+      <c r="ACE7" s="0"/>
+      <c r="ACF7" s="0"/>
+      <c r="ACG7" s="0"/>
+      <c r="ACH7" s="0"/>
+      <c r="ACI7" s="0"/>
+      <c r="ACJ7" s="0"/>
+      <c r="ACK7" s="0"/>
+      <c r="ACL7" s="0"/>
+      <c r="ACM7" s="0"/>
+      <c r="ACN7" s="0"/>
+      <c r="ACO7" s="0"/>
+      <c r="ACP7" s="0"/>
+      <c r="ACQ7" s="0"/>
+      <c r="ACR7" s="0"/>
+      <c r="ACS7" s="0"/>
+      <c r="ACT7" s="0"/>
+      <c r="ACU7" s="0"/>
+      <c r="ACV7" s="0"/>
+      <c r="ACW7" s="0"/>
+      <c r="ACX7" s="0"/>
+      <c r="ACY7" s="0"/>
+      <c r="ACZ7" s="0"/>
+      <c r="ADA7" s="0"/>
+      <c r="ADB7" s="0"/>
+      <c r="ADC7" s="0"/>
+      <c r="ADD7" s="0"/>
+      <c r="ADE7" s="0"/>
+      <c r="ADF7" s="0"/>
+      <c r="ADG7" s="0"/>
+      <c r="ADH7" s="0"/>
+      <c r="ADI7" s="0"/>
+      <c r="ADJ7" s="0"/>
+      <c r="ADK7" s="0"/>
+      <c r="ADL7" s="0"/>
+      <c r="ADM7" s="0"/>
+      <c r="ADN7" s="0"/>
+      <c r="ADO7" s="0"/>
+      <c r="ADP7" s="0"/>
+      <c r="ADQ7" s="0"/>
+      <c r="ADR7" s="0"/>
+      <c r="ADS7" s="0"/>
+      <c r="ADT7" s="0"/>
+      <c r="ADU7" s="0"/>
+      <c r="ADV7" s="0"/>
+      <c r="ADW7" s="0"/>
+      <c r="ADX7" s="0"/>
+      <c r="ADY7" s="0"/>
+      <c r="ADZ7" s="0"/>
+      <c r="AEA7" s="0"/>
+      <c r="AEB7" s="0"/>
+      <c r="AEC7" s="0"/>
+      <c r="AED7" s="0"/>
+      <c r="AEE7" s="0"/>
+      <c r="AEF7" s="0"/>
+      <c r="AEG7" s="0"/>
+      <c r="AEH7" s="0"/>
+      <c r="AEI7" s="0"/>
+      <c r="AEJ7" s="0"/>
+      <c r="AEK7" s="0"/>
+      <c r="AEL7" s="0"/>
+      <c r="AEM7" s="0"/>
+      <c r="AEN7" s="0"/>
+      <c r="AEO7" s="0"/>
+      <c r="AEP7" s="0"/>
+      <c r="AEQ7" s="0"/>
+      <c r="AER7" s="0"/>
+      <c r="AES7" s="0"/>
+      <c r="AET7" s="0"/>
+      <c r="AEU7" s="0"/>
+      <c r="AEV7" s="0"/>
+      <c r="AEW7" s="0"/>
+      <c r="AEX7" s="0"/>
+      <c r="AEY7" s="0"/>
+      <c r="AEZ7" s="0"/>
+      <c r="AFA7" s="0"/>
+      <c r="AFB7" s="0"/>
+      <c r="AFC7" s="0"/>
+      <c r="AFD7" s="0"/>
+      <c r="AFE7" s="0"/>
+      <c r="AFF7" s="0"/>
+      <c r="AFG7" s="0"/>
+      <c r="AFH7" s="0"/>
+      <c r="AFI7" s="0"/>
+      <c r="AFJ7" s="0"/>
+      <c r="AFK7" s="0"/>
+      <c r="AFL7" s="0"/>
+      <c r="AFM7" s="0"/>
+      <c r="AFN7" s="0"/>
+      <c r="AFO7" s="0"/>
+      <c r="AFP7" s="0"/>
+      <c r="AFQ7" s="0"/>
+      <c r="AFR7" s="0"/>
+      <c r="AFS7" s="0"/>
+      <c r="AFT7" s="0"/>
+      <c r="AFU7" s="0"/>
+      <c r="AFV7" s="0"/>
+      <c r="AFW7" s="0"/>
+      <c r="AFX7" s="0"/>
+      <c r="AFY7" s="0"/>
+      <c r="AFZ7" s="0"/>
+      <c r="AGA7" s="0"/>
+      <c r="AGB7" s="0"/>
+      <c r="AGC7" s="0"/>
+      <c r="AGD7" s="0"/>
+      <c r="AGE7" s="0"/>
+      <c r="AGF7" s="0"/>
+      <c r="AGG7" s="0"/>
+      <c r="AGH7" s="0"/>
+      <c r="AGI7" s="0"/>
+      <c r="AGJ7" s="0"/>
+      <c r="AGK7" s="0"/>
+      <c r="AGL7" s="0"/>
+      <c r="AGM7" s="0"/>
+      <c r="AGN7" s="0"/>
+      <c r="AGO7" s="0"/>
+      <c r="AGP7" s="0"/>
+      <c r="AGQ7" s="0"/>
+      <c r="AGR7" s="0"/>
+      <c r="AGS7" s="0"/>
+      <c r="AGT7" s="0"/>
+      <c r="AGU7" s="0"/>
+      <c r="AGV7" s="0"/>
+      <c r="AGW7" s="0"/>
+      <c r="AGX7" s="0"/>
+      <c r="AGY7" s="0"/>
+      <c r="AGZ7" s="0"/>
+      <c r="AHA7" s="0"/>
+      <c r="AHB7" s="0"/>
+      <c r="AHC7" s="0"/>
+      <c r="AHD7" s="0"/>
+      <c r="AHE7" s="0"/>
+      <c r="AHF7" s="0"/>
+      <c r="AHG7" s="0"/>
+      <c r="AHH7" s="0"/>
+      <c r="AHI7" s="0"/>
+      <c r="AHJ7" s="0"/>
+      <c r="AHK7" s="0"/>
+      <c r="AHL7" s="0"/>
+      <c r="AHM7" s="0"/>
+      <c r="AHN7" s="0"/>
+      <c r="AHO7" s="0"/>
+      <c r="AHP7" s="0"/>
+      <c r="AHQ7" s="0"/>
+      <c r="AHR7" s="0"/>
+      <c r="AHS7" s="0"/>
+      <c r="AHT7" s="0"/>
+      <c r="AHU7" s="0"/>
+      <c r="AHV7" s="0"/>
+      <c r="AHW7" s="0"/>
+      <c r="AHX7" s="0"/>
+      <c r="AHY7" s="0"/>
+      <c r="AHZ7" s="0"/>
+      <c r="AIA7" s="0"/>
+      <c r="AIB7" s="0"/>
+      <c r="AIC7" s="0"/>
+      <c r="AID7" s="0"/>
+      <c r="AIE7" s="0"/>
+      <c r="AIF7" s="0"/>
+      <c r="AIG7" s="0"/>
+      <c r="AIH7" s="0"/>
+      <c r="AII7" s="0"/>
+      <c r="AIJ7" s="0"/>
+      <c r="AIK7" s="0"/>
+      <c r="AIL7" s="0"/>
+      <c r="AIM7" s="0"/>
+      <c r="AIN7" s="0"/>
+      <c r="AIO7" s="0"/>
+      <c r="AIP7" s="0"/>
+      <c r="AIQ7" s="0"/>
+      <c r="AIR7" s="0"/>
+      <c r="AIS7" s="0"/>
+      <c r="AIT7" s="0"/>
+      <c r="AIU7" s="0"/>
+      <c r="AIV7" s="0"/>
+      <c r="AIW7" s="0"/>
+      <c r="AIX7" s="0"/>
+      <c r="AIY7" s="0"/>
+      <c r="AIZ7" s="0"/>
+      <c r="AJA7" s="0"/>
+      <c r="AJB7" s="0"/>
+      <c r="AJC7" s="0"/>
+      <c r="AJD7" s="0"/>
+      <c r="AJE7" s="0"/>
+      <c r="AJF7" s="0"/>
+      <c r="AJG7" s="0"/>
+      <c r="AJH7" s="0"/>
+      <c r="AJI7" s="0"/>
+      <c r="AJJ7" s="0"/>
+      <c r="AJK7" s="0"/>
+      <c r="AJL7" s="0"/>
+      <c r="AJM7" s="0"/>
+      <c r="AJN7" s="0"/>
+      <c r="AJO7" s="0"/>
+      <c r="AJP7" s="0"/>
+      <c r="AJQ7" s="0"/>
+      <c r="AJR7" s="0"/>
+      <c r="AJS7" s="0"/>
+      <c r="AJT7" s="0"/>
+      <c r="AJU7" s="0"/>
+      <c r="AJV7" s="0"/>
+      <c r="AJW7" s="0"/>
+      <c r="AJX7" s="0"/>
+      <c r="AJY7" s="0"/>
+      <c r="AJZ7" s="0"/>
+      <c r="AKA7" s="0"/>
+      <c r="AKB7" s="0"/>
+      <c r="AKC7" s="0"/>
+      <c r="AKD7" s="0"/>
+      <c r="AKE7" s="0"/>
+      <c r="AKF7" s="0"/>
+      <c r="AKG7" s="0"/>
+      <c r="AKH7" s="0"/>
+      <c r="AKI7" s="0"/>
+      <c r="AKJ7" s="0"/>
+      <c r="AKK7" s="0"/>
+      <c r="AKL7" s="0"/>
+      <c r="AKM7" s="0"/>
+      <c r="AKN7" s="0"/>
+      <c r="AKO7" s="0"/>
+      <c r="AKP7" s="0"/>
+      <c r="AKQ7" s="0"/>
+      <c r="AKR7" s="0"/>
+      <c r="AKS7" s="0"/>
+      <c r="AKT7" s="0"/>
+      <c r="AKU7" s="0"/>
+      <c r="AKV7" s="0"/>
+      <c r="AKW7" s="0"/>
+      <c r="AKX7" s="0"/>
+      <c r="AKY7" s="0"/>
+      <c r="AKZ7" s="0"/>
+      <c r="ALA7" s="0"/>
+      <c r="ALB7" s="0"/>
+      <c r="ALC7" s="0"/>
+      <c r="ALD7" s="0"/>
+      <c r="ALE7" s="0"/>
+      <c r="ALF7" s="0"/>
+      <c r="ALG7" s="0"/>
+      <c r="ALH7" s="0"/>
+      <c r="ALI7" s="0"/>
+      <c r="ALJ7" s="0"/>
+      <c r="ALK7" s="0"/>
+      <c r="ALL7" s="0"/>
+      <c r="ALM7" s="0"/>
+      <c r="ALN7" s="0"/>
+      <c r="ALO7" s="0"/>
+      <c r="ALP7" s="0"/>
+      <c r="ALQ7" s="0"/>
+      <c r="ALR7" s="0"/>
+      <c r="ALS7" s="0"/>
+      <c r="ALT7" s="0"/>
+      <c r="ALU7" s="0"/>
+      <c r="ALV7" s="0"/>
+      <c r="ALW7" s="0"/>
+      <c r="ALX7" s="0"/>
+      <c r="ALY7" s="0"/>
+      <c r="ALZ7" s="0"/>
+      <c r="AMA7" s="0"/>
+      <c r="AMB7" s="0"/>
+      <c r="AMC7" s="0"/>
+      <c r="AMD7" s="0"/>
+      <c r="AME7" s="0"/>
+      <c r="AMF7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>55</v>
@@ -4964,1044 +4936,54 @@
         <v>65</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="O8" s="19"/>
       <c r="P8" s="19"/>
       <c r="Q8" s="19"/>
       <c r="R8" s="19"/>
       <c r="S8" s="19" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="T8" s="19" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="U8" s="19"/>
       <c r="V8" s="19"/>
       <c r="W8" s="19"/>
       <c r="X8" s="19"/>
       <c r="Y8" s="19" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="Z8" s="19" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AA8" s="19"/>
       <c r="AB8" s="19"/>
       <c r="AC8" s="19"/>
       <c r="AD8" s="19" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE8" s="0"/>
-      <c r="AF8" s="0"/>
-      <c r="AG8" s="0"/>
-      <c r="AH8" s="0"/>
-      <c r="AI8" s="0"/>
-      <c r="AJ8" s="0"/>
-      <c r="AK8" s="0"/>
-      <c r="AL8" s="0"/>
-      <c r="AM8" s="0"/>
-      <c r="AN8" s="0"/>
-      <c r="AO8" s="0"/>
-      <c r="AP8" s="0"/>
-      <c r="AQ8" s="0"/>
-      <c r="AR8" s="0"/>
-      <c r="AS8" s="0"/>
-      <c r="AT8" s="0"/>
-      <c r="AU8" s="0"/>
-      <c r="AV8" s="0"/>
-      <c r="AW8" s="0"/>
-      <c r="AX8" s="0"/>
-      <c r="AY8" s="0"/>
-      <c r="AZ8" s="0"/>
-      <c r="BA8" s="0"/>
-      <c r="BB8" s="0"/>
-      <c r="BC8" s="0"/>
-      <c r="BD8" s="0"/>
-      <c r="BE8" s="0"/>
-      <c r="BF8" s="0"/>
-      <c r="BG8" s="0"/>
-      <c r="BH8" s="0"/>
-      <c r="BI8" s="0"/>
-      <c r="BJ8" s="0"/>
-      <c r="BK8" s="0"/>
-      <c r="BL8" s="0"/>
-      <c r="BM8" s="0"/>
-      <c r="BN8" s="0"/>
-      <c r="BO8" s="0"/>
-      <c r="BP8" s="0"/>
-      <c r="BQ8" s="0"/>
-      <c r="BR8" s="0"/>
-      <c r="BS8" s="0"/>
-      <c r="BT8" s="0"/>
-      <c r="BU8" s="0"/>
-      <c r="BV8" s="0"/>
-      <c r="BW8" s="0"/>
-      <c r="BX8" s="0"/>
-      <c r="BY8" s="0"/>
-      <c r="BZ8" s="0"/>
-      <c r="CA8" s="0"/>
-      <c r="CB8" s="0"/>
-      <c r="CC8" s="0"/>
-      <c r="CD8" s="0"/>
-      <c r="CE8" s="0"/>
-      <c r="CF8" s="0"/>
-      <c r="CG8" s="0"/>
-      <c r="CH8" s="0"/>
-      <c r="CI8" s="0"/>
-      <c r="CJ8" s="0"/>
-      <c r="CK8" s="0"/>
-      <c r="CL8" s="0"/>
-      <c r="CM8" s="0"/>
-      <c r="CN8" s="0"/>
-      <c r="CO8" s="0"/>
-      <c r="CP8" s="0"/>
-      <c r="CQ8" s="0"/>
-      <c r="CR8" s="0"/>
-      <c r="CS8" s="0"/>
-      <c r="CT8" s="0"/>
-      <c r="CU8" s="0"/>
-      <c r="CV8" s="0"/>
-      <c r="CW8" s="0"/>
-      <c r="CX8" s="0"/>
-      <c r="CY8" s="0"/>
-      <c r="CZ8" s="0"/>
-      <c r="DA8" s="0"/>
-      <c r="DB8" s="0"/>
-      <c r="DC8" s="0"/>
-      <c r="DD8" s="0"/>
-      <c r="DE8" s="0"/>
-      <c r="DF8" s="0"/>
-      <c r="DG8" s="0"/>
-      <c r="DH8" s="0"/>
-      <c r="DI8" s="0"/>
-      <c r="DJ8" s="0"/>
-      <c r="DK8" s="0"/>
-      <c r="DL8" s="0"/>
-      <c r="DM8" s="0"/>
-      <c r="DN8" s="0"/>
-      <c r="DO8" s="0"/>
-      <c r="DP8" s="0"/>
-      <c r="DQ8" s="0"/>
-      <c r="DR8" s="0"/>
-      <c r="DS8" s="0"/>
-      <c r="DT8" s="0"/>
-      <c r="DU8" s="0"/>
-      <c r="DV8" s="0"/>
-      <c r="DW8" s="0"/>
-      <c r="DX8" s="0"/>
-      <c r="DY8" s="0"/>
-      <c r="DZ8" s="0"/>
-      <c r="EA8" s="0"/>
-      <c r="EB8" s="0"/>
-      <c r="EC8" s="0"/>
-      <c r="ED8" s="0"/>
-      <c r="EE8" s="0"/>
-      <c r="EF8" s="0"/>
-      <c r="EG8" s="0"/>
-      <c r="EH8" s="0"/>
-      <c r="EI8" s="0"/>
-      <c r="EJ8" s="0"/>
-      <c r="EK8" s="0"/>
-      <c r="EL8" s="0"/>
-      <c r="EM8" s="0"/>
-      <c r="EN8" s="0"/>
-      <c r="EO8" s="0"/>
-      <c r="EP8" s="0"/>
-      <c r="EQ8" s="0"/>
-      <c r="ER8" s="0"/>
-      <c r="ES8" s="0"/>
-      <c r="ET8" s="0"/>
-      <c r="EU8" s="0"/>
-      <c r="EV8" s="0"/>
-      <c r="EW8" s="0"/>
-      <c r="EX8" s="0"/>
-      <c r="EY8" s="0"/>
-      <c r="EZ8" s="0"/>
-      <c r="FA8" s="0"/>
-      <c r="FB8" s="0"/>
-      <c r="FC8" s="0"/>
-      <c r="FD8" s="0"/>
-      <c r="FE8" s="0"/>
-      <c r="FF8" s="0"/>
-      <c r="FG8" s="0"/>
-      <c r="FH8" s="0"/>
-      <c r="FI8" s="0"/>
-      <c r="FJ8" s="0"/>
-      <c r="FK8" s="0"/>
-      <c r="FL8" s="0"/>
-      <c r="FM8" s="0"/>
-      <c r="FN8" s="0"/>
-      <c r="FO8" s="0"/>
-      <c r="FP8" s="0"/>
-      <c r="FQ8" s="0"/>
-      <c r="FR8" s="0"/>
-      <c r="FS8" s="0"/>
-      <c r="FT8" s="0"/>
-      <c r="FU8" s="0"/>
-      <c r="FV8" s="0"/>
-      <c r="FW8" s="0"/>
-      <c r="FX8" s="0"/>
-      <c r="FY8" s="0"/>
-      <c r="FZ8" s="0"/>
-      <c r="GA8" s="0"/>
-      <c r="GB8" s="0"/>
-      <c r="GC8" s="0"/>
-      <c r="GD8" s="0"/>
-      <c r="GE8" s="0"/>
-      <c r="GF8" s="0"/>
-      <c r="GG8" s="0"/>
-      <c r="GH8" s="0"/>
-      <c r="GI8" s="0"/>
-      <c r="GJ8" s="0"/>
-      <c r="GK8" s="0"/>
-      <c r="GL8" s="0"/>
-      <c r="GM8" s="0"/>
-      <c r="GN8" s="0"/>
-      <c r="GO8" s="0"/>
-      <c r="GP8" s="0"/>
-      <c r="GQ8" s="0"/>
-      <c r="GR8" s="0"/>
-      <c r="GS8" s="0"/>
-      <c r="GT8" s="0"/>
-      <c r="GU8" s="0"/>
-      <c r="GV8" s="0"/>
-      <c r="GW8" s="0"/>
-      <c r="GX8" s="0"/>
-      <c r="GY8" s="0"/>
-      <c r="GZ8" s="0"/>
-      <c r="HA8" s="0"/>
-      <c r="HB8" s="0"/>
-      <c r="HC8" s="0"/>
-      <c r="HD8" s="0"/>
-      <c r="HE8" s="0"/>
-      <c r="HF8" s="0"/>
-      <c r="HG8" s="0"/>
-      <c r="HH8" s="0"/>
-      <c r="HI8" s="0"/>
-      <c r="HJ8" s="0"/>
-      <c r="HK8" s="0"/>
-      <c r="HL8" s="0"/>
-      <c r="HM8" s="0"/>
-      <c r="HN8" s="0"/>
-      <c r="HO8" s="0"/>
-      <c r="HP8" s="0"/>
-      <c r="HQ8" s="0"/>
-      <c r="HR8" s="0"/>
-      <c r="HS8" s="0"/>
-      <c r="HT8" s="0"/>
-      <c r="HU8" s="0"/>
-      <c r="HV8" s="0"/>
-      <c r="HW8" s="0"/>
-      <c r="HX8" s="0"/>
-      <c r="HY8" s="0"/>
-      <c r="HZ8" s="0"/>
-      <c r="IA8" s="0"/>
-      <c r="IB8" s="0"/>
-      <c r="IC8" s="0"/>
-      <c r="ID8" s="0"/>
-      <c r="IE8" s="0"/>
-      <c r="IF8" s="0"/>
-      <c r="IG8" s="0"/>
-      <c r="IH8" s="0"/>
-      <c r="II8" s="0"/>
-      <c r="IJ8" s="0"/>
-      <c r="IK8" s="0"/>
-      <c r="IL8" s="0"/>
-      <c r="IM8" s="0"/>
-      <c r="IN8" s="0"/>
-      <c r="IO8" s="0"/>
-      <c r="IP8" s="0"/>
-      <c r="IQ8" s="0"/>
-      <c r="IR8" s="0"/>
-      <c r="IS8" s="0"/>
-      <c r="IT8" s="0"/>
-      <c r="IU8" s="0"/>
-      <c r="IV8" s="0"/>
-      <c r="IW8" s="0"/>
-      <c r="IX8" s="0"/>
-      <c r="IY8" s="0"/>
-      <c r="IZ8" s="0"/>
-      <c r="JA8" s="0"/>
-      <c r="JB8" s="0"/>
-      <c r="JC8" s="0"/>
-      <c r="JD8" s="0"/>
-      <c r="JE8" s="0"/>
-      <c r="JF8" s="0"/>
-      <c r="JG8" s="0"/>
-      <c r="JH8" s="0"/>
-      <c r="JI8" s="0"/>
-      <c r="JJ8" s="0"/>
-      <c r="JK8" s="0"/>
-      <c r="JL8" s="0"/>
-      <c r="JM8" s="0"/>
-      <c r="JN8" s="0"/>
-      <c r="JO8" s="0"/>
-      <c r="JP8" s="0"/>
-      <c r="JQ8" s="0"/>
-      <c r="JR8" s="0"/>
-      <c r="JS8" s="0"/>
-      <c r="JT8" s="0"/>
-      <c r="JU8" s="0"/>
-      <c r="JV8" s="0"/>
-      <c r="JW8" s="0"/>
-      <c r="JX8" s="0"/>
-      <c r="JY8" s="0"/>
-      <c r="JZ8" s="0"/>
-      <c r="KA8" s="0"/>
-      <c r="KB8" s="0"/>
-      <c r="KC8" s="0"/>
-      <c r="KD8" s="0"/>
-      <c r="KE8" s="0"/>
-      <c r="KF8" s="0"/>
-      <c r="KG8" s="0"/>
-      <c r="KH8" s="0"/>
-      <c r="KI8" s="0"/>
-      <c r="KJ8" s="0"/>
-      <c r="KK8" s="0"/>
-      <c r="KL8" s="0"/>
-      <c r="KM8" s="0"/>
-      <c r="KN8" s="0"/>
-      <c r="KO8" s="0"/>
-      <c r="KP8" s="0"/>
-      <c r="KQ8" s="0"/>
-      <c r="KR8" s="0"/>
-      <c r="KS8" s="0"/>
-      <c r="KT8" s="0"/>
-      <c r="KU8" s="0"/>
-      <c r="KV8" s="0"/>
-      <c r="KW8" s="0"/>
-      <c r="KX8" s="0"/>
-      <c r="KY8" s="0"/>
-      <c r="KZ8" s="0"/>
-      <c r="LA8" s="0"/>
-      <c r="LB8" s="0"/>
-      <c r="LC8" s="0"/>
-      <c r="LD8" s="0"/>
-      <c r="LE8" s="0"/>
-      <c r="LF8" s="0"/>
-      <c r="LG8" s="0"/>
-      <c r="LH8" s="0"/>
-      <c r="LI8" s="0"/>
-      <c r="LJ8" s="0"/>
-      <c r="LK8" s="0"/>
-      <c r="LL8" s="0"/>
-      <c r="LM8" s="0"/>
-      <c r="LN8" s="0"/>
-      <c r="LO8" s="0"/>
-      <c r="LP8" s="0"/>
-      <c r="LQ8" s="0"/>
-      <c r="LR8" s="0"/>
-      <c r="LS8" s="0"/>
-      <c r="LT8" s="0"/>
-      <c r="LU8" s="0"/>
-      <c r="LV8" s="0"/>
-      <c r="LW8" s="0"/>
-      <c r="LX8" s="0"/>
-      <c r="LY8" s="0"/>
-      <c r="LZ8" s="0"/>
-      <c r="MA8" s="0"/>
-      <c r="MB8" s="0"/>
-      <c r="MC8" s="0"/>
-      <c r="MD8" s="0"/>
-      <c r="ME8" s="0"/>
-      <c r="MF8" s="0"/>
-      <c r="MG8" s="0"/>
-      <c r="MH8" s="0"/>
-      <c r="MI8" s="0"/>
-      <c r="MJ8" s="0"/>
-      <c r="MK8" s="0"/>
-      <c r="ML8" s="0"/>
-      <c r="MM8" s="0"/>
-      <c r="MN8" s="0"/>
-      <c r="MO8" s="0"/>
-      <c r="MP8" s="0"/>
-      <c r="MQ8" s="0"/>
-      <c r="MR8" s="0"/>
-      <c r="MS8" s="0"/>
-      <c r="MT8" s="0"/>
-      <c r="MU8" s="0"/>
-      <c r="MV8" s="0"/>
-      <c r="MW8" s="0"/>
-      <c r="MX8" s="0"/>
-      <c r="MY8" s="0"/>
-      <c r="MZ8" s="0"/>
-      <c r="NA8" s="0"/>
-      <c r="NB8" s="0"/>
-      <c r="NC8" s="0"/>
-      <c r="ND8" s="0"/>
-      <c r="NE8" s="0"/>
-      <c r="NF8" s="0"/>
-      <c r="NG8" s="0"/>
-      <c r="NH8" s="0"/>
-      <c r="NI8" s="0"/>
-      <c r="NJ8" s="0"/>
-      <c r="NK8" s="0"/>
-      <c r="NL8" s="0"/>
-      <c r="NM8" s="0"/>
-      <c r="NN8" s="0"/>
-      <c r="NO8" s="0"/>
-      <c r="NP8" s="0"/>
-      <c r="NQ8" s="0"/>
-      <c r="NR8" s="0"/>
-      <c r="NS8" s="0"/>
-      <c r="NT8" s="0"/>
-      <c r="NU8" s="0"/>
-      <c r="NV8" s="0"/>
-      <c r="NW8" s="0"/>
-      <c r="NX8" s="0"/>
-      <c r="NY8" s="0"/>
-      <c r="NZ8" s="0"/>
-      <c r="OA8" s="0"/>
-      <c r="OB8" s="0"/>
-      <c r="OC8" s="0"/>
-      <c r="OD8" s="0"/>
-      <c r="OE8" s="0"/>
-      <c r="OF8" s="0"/>
-      <c r="OG8" s="0"/>
-      <c r="OH8" s="0"/>
-      <c r="OI8" s="0"/>
-      <c r="OJ8" s="0"/>
-      <c r="OK8" s="0"/>
-      <c r="OL8" s="0"/>
-      <c r="OM8" s="0"/>
-      <c r="ON8" s="0"/>
-      <c r="OO8" s="0"/>
-      <c r="OP8" s="0"/>
-      <c r="OQ8" s="0"/>
-      <c r="OR8" s="0"/>
-      <c r="OS8" s="0"/>
-      <c r="OT8" s="0"/>
-      <c r="OU8" s="0"/>
-      <c r="OV8" s="0"/>
-      <c r="OW8" s="0"/>
-      <c r="OX8" s="0"/>
-      <c r="OY8" s="0"/>
-      <c r="OZ8" s="0"/>
-      <c r="PA8" s="0"/>
-      <c r="PB8" s="0"/>
-      <c r="PC8" s="0"/>
-      <c r="PD8" s="0"/>
-      <c r="PE8" s="0"/>
-      <c r="PF8" s="0"/>
-      <c r="PG8" s="0"/>
-      <c r="PH8" s="0"/>
-      <c r="PI8" s="0"/>
-      <c r="PJ8" s="0"/>
-      <c r="PK8" s="0"/>
-      <c r="PL8" s="0"/>
-      <c r="PM8" s="0"/>
-      <c r="PN8" s="0"/>
-      <c r="PO8" s="0"/>
-      <c r="PP8" s="0"/>
-      <c r="PQ8" s="0"/>
-      <c r="PR8" s="0"/>
-      <c r="PS8" s="0"/>
-      <c r="PT8" s="0"/>
-      <c r="PU8" s="0"/>
-      <c r="PV8" s="0"/>
-      <c r="PW8" s="0"/>
-      <c r="PX8" s="0"/>
-      <c r="PY8" s="0"/>
-      <c r="PZ8" s="0"/>
-      <c r="QA8" s="0"/>
-      <c r="QB8" s="0"/>
-      <c r="QC8" s="0"/>
-      <c r="QD8" s="0"/>
-      <c r="QE8" s="0"/>
-      <c r="QF8" s="0"/>
-      <c r="QG8" s="0"/>
-      <c r="QH8" s="0"/>
-      <c r="QI8" s="0"/>
-      <c r="QJ8" s="0"/>
-      <c r="QK8" s="0"/>
-      <c r="QL8" s="0"/>
-      <c r="QM8" s="0"/>
-      <c r="QN8" s="0"/>
-      <c r="QO8" s="0"/>
-      <c r="QP8" s="0"/>
-      <c r="QQ8" s="0"/>
-      <c r="QR8" s="0"/>
-      <c r="QS8" s="0"/>
-      <c r="QT8" s="0"/>
-      <c r="QU8" s="0"/>
-      <c r="QV8" s="0"/>
-      <c r="QW8" s="0"/>
-      <c r="QX8" s="0"/>
-      <c r="QY8" s="0"/>
-      <c r="QZ8" s="0"/>
-      <c r="RA8" s="0"/>
-      <c r="RB8" s="0"/>
-      <c r="RC8" s="0"/>
-      <c r="RD8" s="0"/>
-      <c r="RE8" s="0"/>
-      <c r="RF8" s="0"/>
-      <c r="RG8" s="0"/>
-      <c r="RH8" s="0"/>
-      <c r="RI8" s="0"/>
-      <c r="RJ8" s="0"/>
-      <c r="RK8" s="0"/>
-      <c r="RL8" s="0"/>
-      <c r="RM8" s="0"/>
-      <c r="RN8" s="0"/>
-      <c r="RO8" s="0"/>
-      <c r="RP8" s="0"/>
-      <c r="RQ8" s="0"/>
-      <c r="RR8" s="0"/>
-      <c r="RS8" s="0"/>
-      <c r="RT8" s="0"/>
-      <c r="RU8" s="0"/>
-      <c r="RV8" s="0"/>
-      <c r="RW8" s="0"/>
-      <c r="RX8" s="0"/>
-      <c r="RY8" s="0"/>
-      <c r="RZ8" s="0"/>
-      <c r="SA8" s="0"/>
-      <c r="SB8" s="0"/>
-      <c r="SC8" s="0"/>
-      <c r="SD8" s="0"/>
-      <c r="SE8" s="0"/>
-      <c r="SF8" s="0"/>
-      <c r="SG8" s="0"/>
-      <c r="SH8" s="0"/>
-      <c r="SI8" s="0"/>
-      <c r="SJ8" s="0"/>
-      <c r="SK8" s="0"/>
-      <c r="SL8" s="0"/>
-      <c r="SM8" s="0"/>
-      <c r="SN8" s="0"/>
-      <c r="SO8" s="0"/>
-      <c r="SP8" s="0"/>
-      <c r="SQ8" s="0"/>
-      <c r="SR8" s="0"/>
-      <c r="SS8" s="0"/>
-      <c r="ST8" s="0"/>
-      <c r="SU8" s="0"/>
-      <c r="SV8" s="0"/>
-      <c r="SW8" s="0"/>
-      <c r="SX8" s="0"/>
-      <c r="SY8" s="0"/>
-      <c r="SZ8" s="0"/>
-      <c r="TA8" s="0"/>
-      <c r="TB8" s="0"/>
-      <c r="TC8" s="0"/>
-      <c r="TD8" s="0"/>
-      <c r="TE8" s="0"/>
-      <c r="TF8" s="0"/>
-      <c r="TG8" s="0"/>
-      <c r="TH8" s="0"/>
-      <c r="TI8" s="0"/>
-      <c r="TJ8" s="0"/>
-      <c r="TK8" s="0"/>
-      <c r="TL8" s="0"/>
-      <c r="TM8" s="0"/>
-      <c r="TN8" s="0"/>
-      <c r="TO8" s="0"/>
-      <c r="TP8" s="0"/>
-      <c r="TQ8" s="0"/>
-      <c r="TR8" s="0"/>
-      <c r="TS8" s="0"/>
-      <c r="TT8" s="0"/>
-      <c r="TU8" s="0"/>
-      <c r="TV8" s="0"/>
-      <c r="TW8" s="0"/>
-      <c r="TX8" s="0"/>
-      <c r="TY8" s="0"/>
-      <c r="TZ8" s="0"/>
-      <c r="UA8" s="0"/>
-      <c r="UB8" s="0"/>
-      <c r="UC8" s="0"/>
-      <c r="UD8" s="0"/>
-      <c r="UE8" s="0"/>
-      <c r="UF8" s="0"/>
-      <c r="UG8" s="0"/>
-      <c r="UH8" s="0"/>
-      <c r="UI8" s="0"/>
-      <c r="UJ8" s="0"/>
-      <c r="UK8" s="0"/>
-      <c r="UL8" s="0"/>
-      <c r="UM8" s="0"/>
-      <c r="UN8" s="0"/>
-      <c r="UO8" s="0"/>
-      <c r="UP8" s="0"/>
-      <c r="UQ8" s="0"/>
-      <c r="UR8" s="0"/>
-      <c r="US8" s="0"/>
-      <c r="UT8" s="0"/>
-      <c r="UU8" s="0"/>
-      <c r="UV8" s="0"/>
-      <c r="UW8" s="0"/>
-      <c r="UX8" s="0"/>
-      <c r="UY8" s="0"/>
-      <c r="UZ8" s="0"/>
-      <c r="VA8" s="0"/>
-      <c r="VB8" s="0"/>
-      <c r="VC8" s="0"/>
-      <c r="VD8" s="0"/>
-      <c r="VE8" s="0"/>
-      <c r="VF8" s="0"/>
-      <c r="VG8" s="0"/>
-      <c r="VH8" s="0"/>
-      <c r="VI8" s="0"/>
-      <c r="VJ8" s="0"/>
-      <c r="VK8" s="0"/>
-      <c r="VL8" s="0"/>
-      <c r="VM8" s="0"/>
-      <c r="VN8" s="0"/>
-      <c r="VO8" s="0"/>
-      <c r="VP8" s="0"/>
-      <c r="VQ8" s="0"/>
-      <c r="VR8" s="0"/>
-      <c r="VS8" s="0"/>
-      <c r="VT8" s="0"/>
-      <c r="VU8" s="0"/>
-      <c r="VV8" s="0"/>
-      <c r="VW8" s="0"/>
-      <c r="VX8" s="0"/>
-      <c r="VY8" s="0"/>
-      <c r="VZ8" s="0"/>
-      <c r="WA8" s="0"/>
-      <c r="WB8" s="0"/>
-      <c r="WC8" s="0"/>
-      <c r="WD8" s="0"/>
-      <c r="WE8" s="0"/>
-      <c r="WF8" s="0"/>
-      <c r="WG8" s="0"/>
-      <c r="WH8" s="0"/>
-      <c r="WI8" s="0"/>
-      <c r="WJ8" s="0"/>
-      <c r="WK8" s="0"/>
-      <c r="WL8" s="0"/>
-      <c r="WM8" s="0"/>
-      <c r="WN8" s="0"/>
-      <c r="WO8" s="0"/>
-      <c r="WP8" s="0"/>
-      <c r="WQ8" s="0"/>
-      <c r="WR8" s="0"/>
-      <c r="WS8" s="0"/>
-      <c r="WT8" s="0"/>
-      <c r="WU8" s="0"/>
-      <c r="WV8" s="0"/>
-      <c r="WW8" s="0"/>
-      <c r="WX8" s="0"/>
-      <c r="WY8" s="0"/>
-      <c r="WZ8" s="0"/>
-      <c r="XA8" s="0"/>
-      <c r="XB8" s="0"/>
-      <c r="XC8" s="0"/>
-      <c r="XD8" s="0"/>
-      <c r="XE8" s="0"/>
-      <c r="XF8" s="0"/>
-      <c r="XG8" s="0"/>
-      <c r="XH8" s="0"/>
-      <c r="XI8" s="0"/>
-      <c r="XJ8" s="0"/>
-      <c r="XK8" s="0"/>
-      <c r="XL8" s="0"/>
-      <c r="XM8" s="0"/>
-      <c r="XN8" s="0"/>
-      <c r="XO8" s="0"/>
-      <c r="XP8" s="0"/>
-      <c r="XQ8" s="0"/>
-      <c r="XR8" s="0"/>
-      <c r="XS8" s="0"/>
-      <c r="XT8" s="0"/>
-      <c r="XU8" s="0"/>
-      <c r="XV8" s="0"/>
-      <c r="XW8" s="0"/>
-      <c r="XX8" s="0"/>
-      <c r="XY8" s="0"/>
-      <c r="XZ8" s="0"/>
-      <c r="YA8" s="0"/>
-      <c r="YB8" s="0"/>
-      <c r="YC8" s="0"/>
-      <c r="YD8" s="0"/>
-      <c r="YE8" s="0"/>
-      <c r="YF8" s="0"/>
-      <c r="YG8" s="0"/>
-      <c r="YH8" s="0"/>
-      <c r="YI8" s="0"/>
-      <c r="YJ8" s="0"/>
-      <c r="YK8" s="0"/>
-      <c r="YL8" s="0"/>
-      <c r="YM8" s="0"/>
-      <c r="YN8" s="0"/>
-      <c r="YO8" s="0"/>
-      <c r="YP8" s="0"/>
-      <c r="YQ8" s="0"/>
-      <c r="YR8" s="0"/>
-      <c r="YS8" s="0"/>
-      <c r="YT8" s="0"/>
-      <c r="YU8" s="0"/>
-      <c r="YV8" s="0"/>
-      <c r="YW8" s="0"/>
-      <c r="YX8" s="0"/>
-      <c r="YY8" s="0"/>
-      <c r="YZ8" s="0"/>
-      <c r="ZA8" s="0"/>
-      <c r="ZB8" s="0"/>
-      <c r="ZC8" s="0"/>
-      <c r="ZD8" s="0"/>
-      <c r="ZE8" s="0"/>
-      <c r="ZF8" s="0"/>
-      <c r="ZG8" s="0"/>
-      <c r="ZH8" s="0"/>
-      <c r="ZI8" s="0"/>
-      <c r="ZJ8" s="0"/>
-      <c r="ZK8" s="0"/>
-      <c r="ZL8" s="0"/>
-      <c r="ZM8" s="0"/>
-      <c r="ZN8" s="0"/>
-      <c r="ZO8" s="0"/>
-      <c r="ZP8" s="0"/>
-      <c r="ZQ8" s="0"/>
-      <c r="ZR8" s="0"/>
-      <c r="ZS8" s="0"/>
-      <c r="ZT8" s="0"/>
-      <c r="ZU8" s="0"/>
-      <c r="ZV8" s="0"/>
-      <c r="ZW8" s="0"/>
-      <c r="ZX8" s="0"/>
-      <c r="ZY8" s="0"/>
-      <c r="ZZ8" s="0"/>
-      <c r="AAA8" s="0"/>
-      <c r="AAB8" s="0"/>
-      <c r="AAC8" s="0"/>
-      <c r="AAD8" s="0"/>
-      <c r="AAE8" s="0"/>
-      <c r="AAF8" s="0"/>
-      <c r="AAG8" s="0"/>
-      <c r="AAH8" s="0"/>
-      <c r="AAI8" s="0"/>
-      <c r="AAJ8" s="0"/>
-      <c r="AAK8" s="0"/>
-      <c r="AAL8" s="0"/>
-      <c r="AAM8" s="0"/>
-      <c r="AAN8" s="0"/>
-      <c r="AAO8" s="0"/>
-      <c r="AAP8" s="0"/>
-      <c r="AAQ8" s="0"/>
-      <c r="AAR8" s="0"/>
-      <c r="AAS8" s="0"/>
-      <c r="AAT8" s="0"/>
-      <c r="AAU8" s="0"/>
-      <c r="AAV8" s="0"/>
-      <c r="AAW8" s="0"/>
-      <c r="AAX8" s="0"/>
-      <c r="AAY8" s="0"/>
-      <c r="AAZ8" s="0"/>
-      <c r="ABA8" s="0"/>
-      <c r="ABB8" s="0"/>
-      <c r="ABC8" s="0"/>
-      <c r="ABD8" s="0"/>
-      <c r="ABE8" s="0"/>
-      <c r="ABF8" s="0"/>
-      <c r="ABG8" s="0"/>
-      <c r="ABH8" s="0"/>
-      <c r="ABI8" s="0"/>
-      <c r="ABJ8" s="0"/>
-      <c r="ABK8" s="0"/>
-      <c r="ABL8" s="0"/>
-      <c r="ABM8" s="0"/>
-      <c r="ABN8" s="0"/>
-      <c r="ABO8" s="0"/>
-      <c r="ABP8" s="0"/>
-      <c r="ABQ8" s="0"/>
-      <c r="ABR8" s="0"/>
-      <c r="ABS8" s="0"/>
-      <c r="ABT8" s="0"/>
-      <c r="ABU8" s="0"/>
-      <c r="ABV8" s="0"/>
-      <c r="ABW8" s="0"/>
-      <c r="ABX8" s="0"/>
-      <c r="ABY8" s="0"/>
-      <c r="ABZ8" s="0"/>
-      <c r="ACA8" s="0"/>
-      <c r="ACB8" s="0"/>
-      <c r="ACC8" s="0"/>
-      <c r="ACD8" s="0"/>
-      <c r="ACE8" s="0"/>
-      <c r="ACF8" s="0"/>
-      <c r="ACG8" s="0"/>
-      <c r="ACH8" s="0"/>
-      <c r="ACI8" s="0"/>
-      <c r="ACJ8" s="0"/>
-      <c r="ACK8" s="0"/>
-      <c r="ACL8" s="0"/>
-      <c r="ACM8" s="0"/>
-      <c r="ACN8" s="0"/>
-      <c r="ACO8" s="0"/>
-      <c r="ACP8" s="0"/>
-      <c r="ACQ8" s="0"/>
-      <c r="ACR8" s="0"/>
-      <c r="ACS8" s="0"/>
-      <c r="ACT8" s="0"/>
-      <c r="ACU8" s="0"/>
-      <c r="ACV8" s="0"/>
-      <c r="ACW8" s="0"/>
-      <c r="ACX8" s="0"/>
-      <c r="ACY8" s="0"/>
-      <c r="ACZ8" s="0"/>
-      <c r="ADA8" s="0"/>
-      <c r="ADB8" s="0"/>
-      <c r="ADC8" s="0"/>
-      <c r="ADD8" s="0"/>
-      <c r="ADE8" s="0"/>
-      <c r="ADF8" s="0"/>
-      <c r="ADG8" s="0"/>
-      <c r="ADH8" s="0"/>
-      <c r="ADI8" s="0"/>
-      <c r="ADJ8" s="0"/>
-      <c r="ADK8" s="0"/>
-      <c r="ADL8" s="0"/>
-      <c r="ADM8" s="0"/>
-      <c r="ADN8" s="0"/>
-      <c r="ADO8" s="0"/>
-      <c r="ADP8" s="0"/>
-      <c r="ADQ8" s="0"/>
-      <c r="ADR8" s="0"/>
-      <c r="ADS8" s="0"/>
-      <c r="ADT8" s="0"/>
-      <c r="ADU8" s="0"/>
-      <c r="ADV8" s="0"/>
-      <c r="ADW8" s="0"/>
-      <c r="ADX8" s="0"/>
-      <c r="ADY8" s="0"/>
-      <c r="ADZ8" s="0"/>
-      <c r="AEA8" s="0"/>
-      <c r="AEB8" s="0"/>
-      <c r="AEC8" s="0"/>
-      <c r="AED8" s="0"/>
-      <c r="AEE8" s="0"/>
-      <c r="AEF8" s="0"/>
-      <c r="AEG8" s="0"/>
-      <c r="AEH8" s="0"/>
-      <c r="AEI8" s="0"/>
-      <c r="AEJ8" s="0"/>
-      <c r="AEK8" s="0"/>
-      <c r="AEL8" s="0"/>
-      <c r="AEM8" s="0"/>
-      <c r="AEN8" s="0"/>
-      <c r="AEO8" s="0"/>
-      <c r="AEP8" s="0"/>
-      <c r="AEQ8" s="0"/>
-      <c r="AER8" s="0"/>
-      <c r="AES8" s="0"/>
-      <c r="AET8" s="0"/>
-      <c r="AEU8" s="0"/>
-      <c r="AEV8" s="0"/>
-      <c r="AEW8" s="0"/>
-      <c r="AEX8" s="0"/>
-      <c r="AEY8" s="0"/>
-      <c r="AEZ8" s="0"/>
-      <c r="AFA8" s="0"/>
-      <c r="AFB8" s="0"/>
-      <c r="AFC8" s="0"/>
-      <c r="AFD8" s="0"/>
-      <c r="AFE8" s="0"/>
-      <c r="AFF8" s="0"/>
-      <c r="AFG8" s="0"/>
-      <c r="AFH8" s="0"/>
-      <c r="AFI8" s="0"/>
-      <c r="AFJ8" s="0"/>
-      <c r="AFK8" s="0"/>
-      <c r="AFL8" s="0"/>
-      <c r="AFM8" s="0"/>
-      <c r="AFN8" s="0"/>
-      <c r="AFO8" s="0"/>
-      <c r="AFP8" s="0"/>
-      <c r="AFQ8" s="0"/>
-      <c r="AFR8" s="0"/>
-      <c r="AFS8" s="0"/>
-      <c r="AFT8" s="0"/>
-      <c r="AFU8" s="0"/>
-      <c r="AFV8" s="0"/>
-      <c r="AFW8" s="0"/>
-      <c r="AFX8" s="0"/>
-      <c r="AFY8" s="0"/>
-      <c r="AFZ8" s="0"/>
-      <c r="AGA8" s="0"/>
-      <c r="AGB8" s="0"/>
-      <c r="AGC8" s="0"/>
-      <c r="AGD8" s="0"/>
-      <c r="AGE8" s="0"/>
-      <c r="AGF8" s="0"/>
-      <c r="AGG8" s="0"/>
-      <c r="AGH8" s="0"/>
-      <c r="AGI8" s="0"/>
-      <c r="AGJ8" s="0"/>
-      <c r="AGK8" s="0"/>
-      <c r="AGL8" s="0"/>
-      <c r="AGM8" s="0"/>
-      <c r="AGN8" s="0"/>
-      <c r="AGO8" s="0"/>
-      <c r="AGP8" s="0"/>
-      <c r="AGQ8" s="0"/>
-      <c r="AGR8" s="0"/>
-      <c r="AGS8" s="0"/>
-      <c r="AGT8" s="0"/>
-      <c r="AGU8" s="0"/>
-      <c r="AGV8" s="0"/>
-      <c r="AGW8" s="0"/>
-      <c r="AGX8" s="0"/>
-      <c r="AGY8" s="0"/>
-      <c r="AGZ8" s="0"/>
-      <c r="AHA8" s="0"/>
-      <c r="AHB8" s="0"/>
-      <c r="AHC8" s="0"/>
-      <c r="AHD8" s="0"/>
-      <c r="AHE8" s="0"/>
-      <c r="AHF8" s="0"/>
-      <c r="AHG8" s="0"/>
-      <c r="AHH8" s="0"/>
-      <c r="AHI8" s="0"/>
-      <c r="AHJ8" s="0"/>
-      <c r="AHK8" s="0"/>
-      <c r="AHL8" s="0"/>
-      <c r="AHM8" s="0"/>
-      <c r="AHN8" s="0"/>
-      <c r="AHO8" s="0"/>
-      <c r="AHP8" s="0"/>
-      <c r="AHQ8" s="0"/>
-      <c r="AHR8" s="0"/>
-      <c r="AHS8" s="0"/>
-      <c r="AHT8" s="0"/>
-      <c r="AHU8" s="0"/>
-      <c r="AHV8" s="0"/>
-      <c r="AHW8" s="0"/>
-      <c r="AHX8" s="0"/>
-      <c r="AHY8" s="0"/>
-      <c r="AHZ8" s="0"/>
-      <c r="AIA8" s="0"/>
-      <c r="AIB8" s="0"/>
-      <c r="AIC8" s="0"/>
-      <c r="AID8" s="0"/>
-      <c r="AIE8" s="0"/>
-      <c r="AIF8" s="0"/>
-      <c r="AIG8" s="0"/>
-      <c r="AIH8" s="0"/>
-      <c r="AII8" s="0"/>
-      <c r="AIJ8" s="0"/>
-      <c r="AIK8" s="0"/>
-      <c r="AIL8" s="0"/>
-      <c r="AIM8" s="0"/>
-      <c r="AIN8" s="0"/>
-      <c r="AIO8" s="0"/>
-      <c r="AIP8" s="0"/>
-      <c r="AIQ8" s="0"/>
-      <c r="AIR8" s="0"/>
-      <c r="AIS8" s="0"/>
-      <c r="AIT8" s="0"/>
-      <c r="AIU8" s="0"/>
-      <c r="AIV8" s="0"/>
-      <c r="AIW8" s="0"/>
-      <c r="AIX8" s="0"/>
-      <c r="AIY8" s="0"/>
-      <c r="AIZ8" s="0"/>
-      <c r="AJA8" s="0"/>
-      <c r="AJB8" s="0"/>
-      <c r="AJC8" s="0"/>
-      <c r="AJD8" s="0"/>
-      <c r="AJE8" s="0"/>
-      <c r="AJF8" s="0"/>
-      <c r="AJG8" s="0"/>
-      <c r="AJH8" s="0"/>
-      <c r="AJI8" s="0"/>
-      <c r="AJJ8" s="0"/>
-      <c r="AJK8" s="0"/>
-      <c r="AJL8" s="0"/>
-      <c r="AJM8" s="0"/>
-      <c r="AJN8" s="0"/>
-      <c r="AJO8" s="0"/>
-      <c r="AJP8" s="0"/>
-      <c r="AJQ8" s="0"/>
-      <c r="AJR8" s="0"/>
-      <c r="AJS8" s="0"/>
-      <c r="AJT8" s="0"/>
-      <c r="AJU8" s="0"/>
-      <c r="AJV8" s="0"/>
-      <c r="AJW8" s="0"/>
-      <c r="AJX8" s="0"/>
-      <c r="AJY8" s="0"/>
-      <c r="AJZ8" s="0"/>
-      <c r="AKA8" s="0"/>
-      <c r="AKB8" s="0"/>
-      <c r="AKC8" s="0"/>
-      <c r="AKD8" s="0"/>
-      <c r="AKE8" s="0"/>
-      <c r="AKF8" s="0"/>
-      <c r="AKG8" s="0"/>
-      <c r="AKH8" s="0"/>
-      <c r="AKI8" s="0"/>
-      <c r="AKJ8" s="0"/>
-      <c r="AKK8" s="0"/>
-      <c r="AKL8" s="0"/>
-      <c r="AKM8" s="0"/>
-      <c r="AKN8" s="0"/>
-      <c r="AKO8" s="0"/>
-      <c r="AKP8" s="0"/>
-      <c r="AKQ8" s="0"/>
-      <c r="AKR8" s="0"/>
-      <c r="AKS8" s="0"/>
-      <c r="AKT8" s="0"/>
-      <c r="AKU8" s="0"/>
-      <c r="AKV8" s="0"/>
-      <c r="AKW8" s="0"/>
-      <c r="AKX8" s="0"/>
-      <c r="AKY8" s="0"/>
-      <c r="AKZ8" s="0"/>
-      <c r="ALA8" s="0"/>
-      <c r="ALB8" s="0"/>
-      <c r="ALC8" s="0"/>
-      <c r="ALD8" s="0"/>
-      <c r="ALE8" s="0"/>
-      <c r="ALF8" s="0"/>
-      <c r="ALG8" s="0"/>
-      <c r="ALH8" s="0"/>
-      <c r="ALI8" s="0"/>
-      <c r="ALJ8" s="0"/>
-      <c r="ALK8" s="0"/>
-      <c r="ALL8" s="0"/>
-      <c r="ALM8" s="0"/>
-      <c r="ALN8" s="0"/>
-      <c r="ALO8" s="0"/>
-      <c r="ALP8" s="0"/>
-      <c r="ALQ8" s="0"/>
-      <c r="ALR8" s="0"/>
-      <c r="ALS8" s="0"/>
-      <c r="ALT8" s="0"/>
-      <c r="ALU8" s="0"/>
-      <c r="ALV8" s="0"/>
-      <c r="ALW8" s="0"/>
-      <c r="ALX8" s="0"/>
-      <c r="ALY8" s="0"/>
-      <c r="ALZ8" s="0"/>
-      <c r="AMA8" s="0"/>
-      <c r="AMB8" s="0"/>
-      <c r="AMC8" s="0"/>
-      <c r="AMD8" s="0"/>
-      <c r="AME8" s="0"/>
-      <c r="AMF8" s="0"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>55</v>
@@ -6016,13 +4998,13 @@
         <v>65</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
@@ -6032,23 +5014,23 @@
         <v>59</v>
       </c>
       <c r="T9" s="19" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="U9" s="19"/>
       <c r="V9" s="19"/>
       <c r="W9" s="19"/>
       <c r="X9" s="19"/>
       <c r="Y9" s="19" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="Z9" s="19" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AA9" s="19"/>
       <c r="AB9" s="19"/>
       <c r="AC9" s="19"/>
       <c r="AD9" s="19" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AE9" s="0"/>
       <c r="AF9" s="0"/>
@@ -7044,16 +6026,16 @@
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>55</v>
@@ -7062,40 +6044,46 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="19" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="O10" s="19"/>
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
       <c r="S10" s="19" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="T10" s="19" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="U10" s="19"/>
       <c r="V10" s="19"/>
       <c r="W10" s="19"/>
       <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
+      <c r="Y10" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z10" s="19" t="s">
+        <v>106</v>
+      </c>
       <c r="AA10" s="19"/>
       <c r="AB10" s="19"/>
       <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
+      <c r="AD10" s="19" t="n">
+        <v>25</v>
+      </c>
       <c r="AE10" s="0"/>
       <c r="AF10" s="0"/>
       <c r="AG10" s="0"/>
@@ -8087,19 +7075,19 @@
       <c r="AME10" s="0"/>
       <c r="AMF10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>113</v>
+        <v>5</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>55</v>
@@ -8108,29 +7096,29 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="19" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="K11" s="19" t="s">
         <v>73</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="N11" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
+        <v>61</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
       <c r="S11" s="19" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="T11" s="19" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="U11" s="19"/>
       <c r="V11" s="19"/>
@@ -9133,19 +8121,19 @@
       <c r="AME11" s="0"/>
       <c r="AMF11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>115</v>
+        <v>9</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>55</v>
@@ -9154,29 +8142,29 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="K12" s="19" t="s">
         <v>73</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="N12" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
+        <v>75</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
       <c r="S12" s="19" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="T12" s="19" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="U12" s="19"/>
       <c r="V12" s="19"/>
@@ -9187,9 +8175,7 @@
       <c r="AA12" s="19"/>
       <c r="AB12" s="19"/>
       <c r="AC12" s="19"/>
-      <c r="AD12" s="19" t="s">
-        <v>11</v>
-      </c>
+      <c r="AD12" s="19"/>
       <c r="AE12" s="0"/>
       <c r="AF12" s="0"/>
       <c r="AG12" s="0"/>
@@ -10184,56 +9170,60 @@
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>120</v>
+        <v>10</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>115</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>71</v>
+        <v>5</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>5</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="26" t="s">
-        <v>121</v>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19" t="s">
+        <v>116</v>
       </c>
       <c r="K13" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="L13" s="25"/>
+      <c r="L13" s="19" t="s">
+        <v>117</v>
+      </c>
       <c r="M13" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="N13" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="T13" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
-      <c r="AC13" s="25"/>
-      <c r="AD13" s="25"/>
+        <v>61</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="T13" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19" t="s">
+        <v>11</v>
+      </c>
       <c r="AE13" s="0"/>
       <c r="AF13" s="0"/>
       <c r="AG13" s="0"/>
@@ -11226,60 +10216,58 @@
       <c r="AMF13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
-        <v>125</v>
-      </c>
+      <c r="A14" s="15"/>
       <c r="B14" s="15" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="K14" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="N14" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15" t="s">
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="25"/>
+      <c r="M14" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="T14" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="26"/>
+      <c r="N14" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="T14" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="25"/>
       <c r="AE14" s="0"/>
       <c r="AF14" s="0"/>
       <c r="AG14" s="0"/>
@@ -12276,16 +11264,16 @@
         <v>125</v>
       </c>
       <c r="B15" s="15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="F15" s="26" t="s">
         <v>55</v>
@@ -12293,34 +11281,38 @@
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="K15" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26" t="s">
+      <c r="J15" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="N15" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="26"/>
+      <c r="T15" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
       <c r="AD15" s="26"/>
       <c r="AE15" s="0"/>
       <c r="AF15" s="0"/>
@@ -13318,36 +12310,40 @@
         <v>125</v>
       </c>
       <c r="B16" s="15" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="F16" s="26" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="26" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K16" s="26" t="s">
         <v>65</v>
       </c>
       <c r="L16" s="26"/>
       <c r="M16" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="N16" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
+        <v>59</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
       <c r="S16" s="26"/>
       <c r="T16" s="26"/>
       <c r="U16" s="26"/>
@@ -14356,10 +13352,10 @@
         <v>125</v>
       </c>
       <c r="B17" s="15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
@@ -15394,10 +14390,10 @@
         <v>125</v>
       </c>
       <c r="B18" s="15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
@@ -16432,10 +15428,10 @@
         <v>125</v>
       </c>
       <c r="B19" s="15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
@@ -17470,10 +16466,10 @@
         <v>125</v>
       </c>
       <c r="B20" s="15" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>140</v>
+        <v>17</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>139</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
@@ -17484,40 +16480,34 @@
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="N20" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="T20" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD20" s="15"/>
+        <v>134</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="N20" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="26"/>
+      <c r="AD20" s="26"/>
       <c r="AE20" s="0"/>
       <c r="AF20" s="0"/>
       <c r="AG20" s="0"/>
@@ -18514,15 +17504,15 @@
         <v>125</v>
       </c>
       <c r="B21" s="15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="29"/>
       <c r="F21" s="26" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
@@ -18558,10 +17548,10 @@
       <c r="Z21" s="15"/>
       <c r="AA21" s="15"/>
       <c r="AB21" s="15"/>
-      <c r="AC21" s="15" t="s">
+      <c r="AC21" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="AD21" s="26"/>
+      <c r="AD21" s="15"/>
       <c r="AE21" s="0"/>
       <c r="AF21" s="0"/>
       <c r="AG21" s="0"/>
@@ -19558,31 +18548,31 @@
         <v>125</v>
       </c>
       <c r="B22" s="15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
-      <c r="F22" s="15" t="s">
-        <v>133</v>
+      <c r="F22" s="26" t="s">
+        <v>55</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
-      <c r="J22" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="K22" s="27" t="s">
+      <c r="J22" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="K22" s="15" t="s">
         <v>73</v>
       </c>
       <c r="L22" s="15"/>
       <c r="M22" s="15" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
@@ -19592,24 +18582,16 @@
         <v>92</v>
       </c>
       <c r="T22" s="15" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="U22" s="15"/>
       <c r="V22" s="15"/>
       <c r="W22" s="15"/>
       <c r="X22" s="15"/>
-      <c r="Y22" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z22" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA22" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB22" s="15" t="n">
-        <v>2</v>
-      </c>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
       <c r="AC22" s="15" t="s">
         <v>144</v>
       </c>
@@ -20610,15 +19592,15 @@
         <v>125</v>
       </c>
       <c r="B23" s="15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D23" s="29"/>
       <c r="E23" s="29"/>
       <c r="F23" s="15" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
@@ -20626,26 +19608,26 @@
       <c r="J23" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="K23" s="15" t="s">
+      <c r="K23" s="27" t="s">
         <v>73</v>
       </c>
       <c r="L23" s="15"/>
       <c r="M23" s="15" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="O23" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="P23" s="15" t="s">
-        <v>59</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
       <c r="Q23" s="15"/>
       <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
+      <c r="S23" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="T23" s="15" t="s">
+        <v>149</v>
+      </c>
       <c r="U23" s="15"/>
       <c r="V23" s="15"/>
       <c r="W23" s="15"/>
@@ -20654,13 +19636,13 @@
         <v>150</v>
       </c>
       <c r="Z23" s="15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA23" s="15" t="s">
         <v>151</v>
       </c>
       <c r="AB23" s="15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC23" s="15" t="s">
         <v>144</v>
@@ -21662,42 +20644,42 @@
         <v>125</v>
       </c>
       <c r="B24" s="15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
       <c r="F24" s="15" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
       <c r="J24" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="K24" s="26" t="s">
-        <v>65</v>
+        <v>147</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="L24" s="15"/>
       <c r="M24" s="15" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
+        <v>149</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
-      <c r="S24" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="T24" s="15" t="s">
-        <v>157</v>
-      </c>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
       <c r="W24" s="15"/>
@@ -21706,10 +20688,14 @@
         <v>150</v>
       </c>
       <c r="Z24" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA24" s="29"/>
-      <c r="AB24" s="29"/>
+        <v>3</v>
+      </c>
+      <c r="AA24" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB24" s="15" t="n">
+        <v>3</v>
+      </c>
       <c r="AC24" s="15" t="s">
         <v>144</v>
       </c>
@@ -22710,10 +21696,10 @@
         <v>125</v>
       </c>
       <c r="B25" s="15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
@@ -22731,29 +21717,25 @@
       </c>
       <c r="L25" s="15"/>
       <c r="M25" s="15" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="N25" s="15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
       <c r="R25" s="15"/>
       <c r="S25" s="15" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="T25" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="U25" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="V25" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
+        <v>157</v>
+      </c>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
       <c r="Y25" s="15" t="s">
         <v>150</v>
       </c>
@@ -23762,10 +22744,10 @@
         <v>125</v>
       </c>
       <c r="B26" s="15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -23785,31 +22767,27 @@
       <c r="M26" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="N26" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="O26" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="P26" s="15" t="s">
-        <v>161</v>
-      </c>
+      <c r="N26" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
       <c r="Q26" s="15"/>
       <c r="R26" s="15"/>
       <c r="S26" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="T26" s="29" t="s">
-        <v>93</v>
+      <c r="T26" s="15" t="s">
+        <v>143</v>
       </c>
       <c r="U26" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="V26" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="W26" s="15"/>
-      <c r="X26" s="15"/>
+        <v>59</v>
+      </c>
+      <c r="V26" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
       <c r="Y26" s="15" t="s">
         <v>150</v>
       </c>
@@ -24818,10 +23796,10 @@
         <v>125</v>
       </c>
       <c r="B27" s="15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D27" s="29"/>
       <c r="E27" s="29"/>
@@ -24841,21 +23819,29 @@
       <c r="M27" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="N27" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
+      <c r="N27" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="P27" s="15" t="s">
+        <v>161</v>
+      </c>
       <c r="Q27" s="15"/>
       <c r="R27" s="15"/>
       <c r="S27" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="T27" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
+      <c r="T27" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="U27" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="V27" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="W27" s="15"/>
       <c r="X27" s="15"/>
       <c r="Y27" s="15" t="s">
@@ -24864,12 +23850,8 @@
       <c r="Z27" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="AA27" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB27" s="15" t="s">
-        <v>163</v>
-      </c>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
       <c r="AC27" s="15" t="s">
         <v>144</v>
       </c>
@@ -25865,15 +24847,15 @@
       <c r="AME27" s="0"/>
       <c r="AMF27" s="0"/>
     </row>
-    <row r="28" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="15" t="s">
         <v>125</v>
       </c>
       <c r="B28" s="15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D28" s="29"/>
       <c r="E28" s="29"/>
@@ -25894,28 +24876,20 @@
         <v>92</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="O28" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="P28" s="15" t="s">
-        <v>167</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
       <c r="Q28" s="15"/>
       <c r="R28" s="15"/>
       <c r="S28" s="15" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="T28" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="U28" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="V28" s="15" t="s">
-        <v>168</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
       <c r="W28" s="15"/>
       <c r="X28" s="15"/>
       <c r="Y28" s="15" t="s">
@@ -25924,22 +24898,1016 @@
       <c r="Z28" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="AA28" s="29"/>
-      <c r="AB28" s="29"/>
+      <c r="AA28" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB28" s="15" t="s">
+        <v>163</v>
+      </c>
       <c r="AC28" s="15" t="s">
         <v>144</v>
       </c>
       <c r="AD28" s="26"/>
+      <c r="AE28" s="0"/>
+      <c r="AF28" s="0"/>
+      <c r="AG28" s="0"/>
+      <c r="AH28" s="0"/>
+      <c r="AI28" s="0"/>
+      <c r="AJ28" s="0"/>
+      <c r="AK28" s="0"/>
+      <c r="AL28" s="0"/>
+      <c r="AM28" s="0"/>
+      <c r="AN28" s="0"/>
+      <c r="AO28" s="0"/>
+      <c r="AP28" s="0"/>
+      <c r="AQ28" s="0"/>
+      <c r="AR28" s="0"/>
+      <c r="AS28" s="0"/>
+      <c r="AT28" s="0"/>
+      <c r="AU28" s="0"/>
+      <c r="AV28" s="0"/>
+      <c r="AW28" s="0"/>
+      <c r="AX28" s="0"/>
+      <c r="AY28" s="0"/>
+      <c r="AZ28" s="0"/>
+      <c r="BA28" s="0"/>
+      <c r="BB28" s="0"/>
+      <c r="BC28" s="0"/>
+      <c r="BD28" s="0"/>
+      <c r="BE28" s="0"/>
+      <c r="BF28" s="0"/>
+      <c r="BG28" s="0"/>
+      <c r="BH28" s="0"/>
+      <c r="BI28" s="0"/>
+      <c r="BJ28" s="0"/>
+      <c r="BK28" s="0"/>
+      <c r="BL28" s="0"/>
+      <c r="BM28" s="0"/>
+      <c r="BN28" s="0"/>
+      <c r="BO28" s="0"/>
+      <c r="BP28" s="0"/>
+      <c r="BQ28" s="0"/>
+      <c r="BR28" s="0"/>
+      <c r="BS28" s="0"/>
+      <c r="BT28" s="0"/>
+      <c r="BU28" s="0"/>
+      <c r="BV28" s="0"/>
+      <c r="BW28" s="0"/>
+      <c r="BX28" s="0"/>
+      <c r="BY28" s="0"/>
+      <c r="BZ28" s="0"/>
+      <c r="CA28" s="0"/>
+      <c r="CB28" s="0"/>
+      <c r="CC28" s="0"/>
+      <c r="CD28" s="0"/>
+      <c r="CE28" s="0"/>
+      <c r="CF28" s="0"/>
+      <c r="CG28" s="0"/>
+      <c r="CH28" s="0"/>
+      <c r="CI28" s="0"/>
+      <c r="CJ28" s="0"/>
+      <c r="CK28" s="0"/>
+      <c r="CL28" s="0"/>
+      <c r="CM28" s="0"/>
+      <c r="CN28" s="0"/>
+      <c r="CO28" s="0"/>
+      <c r="CP28" s="0"/>
+      <c r="CQ28" s="0"/>
+      <c r="CR28" s="0"/>
+      <c r="CS28" s="0"/>
+      <c r="CT28" s="0"/>
+      <c r="CU28" s="0"/>
+      <c r="CV28" s="0"/>
+      <c r="CW28" s="0"/>
+      <c r="CX28" s="0"/>
+      <c r="CY28" s="0"/>
+      <c r="CZ28" s="0"/>
+      <c r="DA28" s="0"/>
+      <c r="DB28" s="0"/>
+      <c r="DC28" s="0"/>
+      <c r="DD28" s="0"/>
+      <c r="DE28" s="0"/>
+      <c r="DF28" s="0"/>
+      <c r="DG28" s="0"/>
+      <c r="DH28" s="0"/>
+      <c r="DI28" s="0"/>
+      <c r="DJ28" s="0"/>
+      <c r="DK28" s="0"/>
+      <c r="DL28" s="0"/>
+      <c r="DM28" s="0"/>
+      <c r="DN28" s="0"/>
+      <c r="DO28" s="0"/>
+      <c r="DP28" s="0"/>
+      <c r="DQ28" s="0"/>
+      <c r="DR28" s="0"/>
+      <c r="DS28" s="0"/>
+      <c r="DT28" s="0"/>
+      <c r="DU28" s="0"/>
+      <c r="DV28" s="0"/>
+      <c r="DW28" s="0"/>
+      <c r="DX28" s="0"/>
+      <c r="DY28" s="0"/>
+      <c r="DZ28" s="0"/>
+      <c r="EA28" s="0"/>
+      <c r="EB28" s="0"/>
+      <c r="EC28" s="0"/>
+      <c r="ED28" s="0"/>
+      <c r="EE28" s="0"/>
+      <c r="EF28" s="0"/>
+      <c r="EG28" s="0"/>
+      <c r="EH28" s="0"/>
+      <c r="EI28" s="0"/>
+      <c r="EJ28" s="0"/>
+      <c r="EK28" s="0"/>
+      <c r="EL28" s="0"/>
+      <c r="EM28" s="0"/>
+      <c r="EN28" s="0"/>
+      <c r="EO28" s="0"/>
+      <c r="EP28" s="0"/>
+      <c r="EQ28" s="0"/>
+      <c r="ER28" s="0"/>
+      <c r="ES28" s="0"/>
+      <c r="ET28" s="0"/>
+      <c r="EU28" s="0"/>
+      <c r="EV28" s="0"/>
+      <c r="EW28" s="0"/>
+      <c r="EX28" s="0"/>
+      <c r="EY28" s="0"/>
+      <c r="EZ28" s="0"/>
+      <c r="FA28" s="0"/>
+      <c r="FB28" s="0"/>
+      <c r="FC28" s="0"/>
+      <c r="FD28" s="0"/>
+      <c r="FE28" s="0"/>
+      <c r="FF28" s="0"/>
+      <c r="FG28" s="0"/>
+      <c r="FH28" s="0"/>
+      <c r="FI28" s="0"/>
+      <c r="FJ28" s="0"/>
+      <c r="FK28" s="0"/>
+      <c r="FL28" s="0"/>
+      <c r="FM28" s="0"/>
+      <c r="FN28" s="0"/>
+      <c r="FO28" s="0"/>
+      <c r="FP28" s="0"/>
+      <c r="FQ28" s="0"/>
+      <c r="FR28" s="0"/>
+      <c r="FS28" s="0"/>
+      <c r="FT28" s="0"/>
+      <c r="FU28" s="0"/>
+      <c r="FV28" s="0"/>
+      <c r="FW28" s="0"/>
+      <c r="FX28" s="0"/>
+      <c r="FY28" s="0"/>
+      <c r="FZ28" s="0"/>
+      <c r="GA28" s="0"/>
+      <c r="GB28" s="0"/>
+      <c r="GC28" s="0"/>
+      <c r="GD28" s="0"/>
+      <c r="GE28" s="0"/>
+      <c r="GF28" s="0"/>
+      <c r="GG28" s="0"/>
+      <c r="GH28" s="0"/>
+      <c r="GI28" s="0"/>
+      <c r="GJ28" s="0"/>
+      <c r="GK28" s="0"/>
+      <c r="GL28" s="0"/>
+      <c r="GM28" s="0"/>
+      <c r="GN28" s="0"/>
+      <c r="GO28" s="0"/>
+      <c r="GP28" s="0"/>
+      <c r="GQ28" s="0"/>
+      <c r="GR28" s="0"/>
+      <c r="GS28" s="0"/>
+      <c r="GT28" s="0"/>
+      <c r="GU28" s="0"/>
+      <c r="GV28" s="0"/>
+      <c r="GW28" s="0"/>
+      <c r="GX28" s="0"/>
+      <c r="GY28" s="0"/>
+      <c r="GZ28" s="0"/>
+      <c r="HA28" s="0"/>
+      <c r="HB28" s="0"/>
+      <c r="HC28" s="0"/>
+      <c r="HD28" s="0"/>
+      <c r="HE28" s="0"/>
+      <c r="HF28" s="0"/>
+      <c r="HG28" s="0"/>
+      <c r="HH28" s="0"/>
+      <c r="HI28" s="0"/>
+      <c r="HJ28" s="0"/>
+      <c r="HK28" s="0"/>
+      <c r="HL28" s="0"/>
+      <c r="HM28" s="0"/>
+      <c r="HN28" s="0"/>
+      <c r="HO28" s="0"/>
+      <c r="HP28" s="0"/>
+      <c r="HQ28" s="0"/>
+      <c r="HR28" s="0"/>
+      <c r="HS28" s="0"/>
+      <c r="HT28" s="0"/>
+      <c r="HU28" s="0"/>
+      <c r="HV28" s="0"/>
+      <c r="HW28" s="0"/>
+      <c r="HX28" s="0"/>
+      <c r="HY28" s="0"/>
+      <c r="HZ28" s="0"/>
+      <c r="IA28" s="0"/>
+      <c r="IB28" s="0"/>
+      <c r="IC28" s="0"/>
+      <c r="ID28" s="0"/>
+      <c r="IE28" s="0"/>
+      <c r="IF28" s="0"/>
+      <c r="IG28" s="0"/>
+      <c r="IH28" s="0"/>
+      <c r="II28" s="0"/>
+      <c r="IJ28" s="0"/>
+      <c r="IK28" s="0"/>
+      <c r="IL28" s="0"/>
+      <c r="IM28" s="0"/>
+      <c r="IN28" s="0"/>
+      <c r="IO28" s="0"/>
+      <c r="IP28" s="0"/>
+      <c r="IQ28" s="0"/>
+      <c r="IR28" s="0"/>
+      <c r="IS28" s="0"/>
+      <c r="IT28" s="0"/>
+      <c r="IU28" s="0"/>
+      <c r="IV28" s="0"/>
+      <c r="IW28" s="0"/>
+      <c r="IX28" s="0"/>
+      <c r="IY28" s="0"/>
+      <c r="IZ28" s="0"/>
+      <c r="JA28" s="0"/>
+      <c r="JB28" s="0"/>
+      <c r="JC28" s="0"/>
+      <c r="JD28" s="0"/>
+      <c r="JE28" s="0"/>
+      <c r="JF28" s="0"/>
+      <c r="JG28" s="0"/>
+      <c r="JH28" s="0"/>
+      <c r="JI28" s="0"/>
+      <c r="JJ28" s="0"/>
+      <c r="JK28" s="0"/>
+      <c r="JL28" s="0"/>
+      <c r="JM28" s="0"/>
+      <c r="JN28" s="0"/>
+      <c r="JO28" s="0"/>
+      <c r="JP28" s="0"/>
+      <c r="JQ28" s="0"/>
+      <c r="JR28" s="0"/>
+      <c r="JS28" s="0"/>
+      <c r="JT28" s="0"/>
+      <c r="JU28" s="0"/>
+      <c r="JV28" s="0"/>
+      <c r="JW28" s="0"/>
+      <c r="JX28" s="0"/>
+      <c r="JY28" s="0"/>
+      <c r="JZ28" s="0"/>
+      <c r="KA28" s="0"/>
+      <c r="KB28" s="0"/>
+      <c r="KC28" s="0"/>
+      <c r="KD28" s="0"/>
+      <c r="KE28" s="0"/>
+      <c r="KF28" s="0"/>
+      <c r="KG28" s="0"/>
+      <c r="KH28" s="0"/>
+      <c r="KI28" s="0"/>
+      <c r="KJ28" s="0"/>
+      <c r="KK28" s="0"/>
+      <c r="KL28" s="0"/>
+      <c r="KM28" s="0"/>
+      <c r="KN28" s="0"/>
+      <c r="KO28" s="0"/>
+      <c r="KP28" s="0"/>
+      <c r="KQ28" s="0"/>
+      <c r="KR28" s="0"/>
+      <c r="KS28" s="0"/>
+      <c r="KT28" s="0"/>
+      <c r="KU28" s="0"/>
+      <c r="KV28" s="0"/>
+      <c r="KW28" s="0"/>
+      <c r="KX28" s="0"/>
+      <c r="KY28" s="0"/>
+      <c r="KZ28" s="0"/>
+      <c r="LA28" s="0"/>
+      <c r="LB28" s="0"/>
+      <c r="LC28" s="0"/>
+      <c r="LD28" s="0"/>
+      <c r="LE28" s="0"/>
+      <c r="LF28" s="0"/>
+      <c r="LG28" s="0"/>
+      <c r="LH28" s="0"/>
+      <c r="LI28" s="0"/>
+      <c r="LJ28" s="0"/>
+      <c r="LK28" s="0"/>
+      <c r="LL28" s="0"/>
+      <c r="LM28" s="0"/>
+      <c r="LN28" s="0"/>
+      <c r="LO28" s="0"/>
+      <c r="LP28" s="0"/>
+      <c r="LQ28" s="0"/>
+      <c r="LR28" s="0"/>
+      <c r="LS28" s="0"/>
+      <c r="LT28" s="0"/>
+      <c r="LU28" s="0"/>
+      <c r="LV28" s="0"/>
+      <c r="LW28" s="0"/>
+      <c r="LX28" s="0"/>
+      <c r="LY28" s="0"/>
+      <c r="LZ28" s="0"/>
+      <c r="MA28" s="0"/>
+      <c r="MB28" s="0"/>
+      <c r="MC28" s="0"/>
+      <c r="MD28" s="0"/>
+      <c r="ME28" s="0"/>
+      <c r="MF28" s="0"/>
+      <c r="MG28" s="0"/>
+      <c r="MH28" s="0"/>
+      <c r="MI28" s="0"/>
+      <c r="MJ28" s="0"/>
+      <c r="MK28" s="0"/>
+      <c r="ML28" s="0"/>
+      <c r="MM28" s="0"/>
+      <c r="MN28" s="0"/>
+      <c r="MO28" s="0"/>
+      <c r="MP28" s="0"/>
+      <c r="MQ28" s="0"/>
+      <c r="MR28" s="0"/>
+      <c r="MS28" s="0"/>
+      <c r="MT28" s="0"/>
+      <c r="MU28" s="0"/>
+      <c r="MV28" s="0"/>
+      <c r="MW28" s="0"/>
+      <c r="MX28" s="0"/>
+      <c r="MY28" s="0"/>
+      <c r="MZ28" s="0"/>
+      <c r="NA28" s="0"/>
+      <c r="NB28" s="0"/>
+      <c r="NC28" s="0"/>
+      <c r="ND28" s="0"/>
+      <c r="NE28" s="0"/>
+      <c r="NF28" s="0"/>
+      <c r="NG28" s="0"/>
+      <c r="NH28" s="0"/>
+      <c r="NI28" s="0"/>
+      <c r="NJ28" s="0"/>
+      <c r="NK28" s="0"/>
+      <c r="NL28" s="0"/>
+      <c r="NM28" s="0"/>
+      <c r="NN28" s="0"/>
+      <c r="NO28" s="0"/>
+      <c r="NP28" s="0"/>
+      <c r="NQ28" s="0"/>
+      <c r="NR28" s="0"/>
+      <c r="NS28" s="0"/>
+      <c r="NT28" s="0"/>
+      <c r="NU28" s="0"/>
+      <c r="NV28" s="0"/>
+      <c r="NW28" s="0"/>
+      <c r="NX28" s="0"/>
+      <c r="NY28" s="0"/>
+      <c r="NZ28" s="0"/>
+      <c r="OA28" s="0"/>
+      <c r="OB28" s="0"/>
+      <c r="OC28" s="0"/>
+      <c r="OD28" s="0"/>
+      <c r="OE28" s="0"/>
+      <c r="OF28" s="0"/>
+      <c r="OG28" s="0"/>
+      <c r="OH28" s="0"/>
+      <c r="OI28" s="0"/>
+      <c r="OJ28" s="0"/>
+      <c r="OK28" s="0"/>
+      <c r="OL28" s="0"/>
+      <c r="OM28" s="0"/>
+      <c r="ON28" s="0"/>
+      <c r="OO28" s="0"/>
+      <c r="OP28" s="0"/>
+      <c r="OQ28" s="0"/>
+      <c r="OR28" s="0"/>
+      <c r="OS28" s="0"/>
+      <c r="OT28" s="0"/>
+      <c r="OU28" s="0"/>
+      <c r="OV28" s="0"/>
+      <c r="OW28" s="0"/>
+      <c r="OX28" s="0"/>
+      <c r="OY28" s="0"/>
+      <c r="OZ28" s="0"/>
+      <c r="PA28" s="0"/>
+      <c r="PB28" s="0"/>
+      <c r="PC28" s="0"/>
+      <c r="PD28" s="0"/>
+      <c r="PE28" s="0"/>
+      <c r="PF28" s="0"/>
+      <c r="PG28" s="0"/>
+      <c r="PH28" s="0"/>
+      <c r="PI28" s="0"/>
+      <c r="PJ28" s="0"/>
+      <c r="PK28" s="0"/>
+      <c r="PL28" s="0"/>
+      <c r="PM28" s="0"/>
+      <c r="PN28" s="0"/>
+      <c r="PO28" s="0"/>
+      <c r="PP28" s="0"/>
+      <c r="PQ28" s="0"/>
+      <c r="PR28" s="0"/>
+      <c r="PS28" s="0"/>
+      <c r="PT28" s="0"/>
+      <c r="PU28" s="0"/>
+      <c r="PV28" s="0"/>
+      <c r="PW28" s="0"/>
+      <c r="PX28" s="0"/>
+      <c r="PY28" s="0"/>
+      <c r="PZ28" s="0"/>
+      <c r="QA28" s="0"/>
+      <c r="QB28" s="0"/>
+      <c r="QC28" s="0"/>
+      <c r="QD28" s="0"/>
+      <c r="QE28" s="0"/>
+      <c r="QF28" s="0"/>
+      <c r="QG28" s="0"/>
+      <c r="QH28" s="0"/>
+      <c r="QI28" s="0"/>
+      <c r="QJ28" s="0"/>
+      <c r="QK28" s="0"/>
+      <c r="QL28" s="0"/>
+      <c r="QM28" s="0"/>
+      <c r="QN28" s="0"/>
+      <c r="QO28" s="0"/>
+      <c r="QP28" s="0"/>
+      <c r="QQ28" s="0"/>
+      <c r="QR28" s="0"/>
+      <c r="QS28" s="0"/>
+      <c r="QT28" s="0"/>
+      <c r="QU28" s="0"/>
+      <c r="QV28" s="0"/>
+      <c r="QW28" s="0"/>
+      <c r="QX28" s="0"/>
+      <c r="QY28" s="0"/>
+      <c r="QZ28" s="0"/>
+      <c r="RA28" s="0"/>
+      <c r="RB28" s="0"/>
+      <c r="RC28" s="0"/>
+      <c r="RD28" s="0"/>
+      <c r="RE28" s="0"/>
+      <c r="RF28" s="0"/>
+      <c r="RG28" s="0"/>
+      <c r="RH28" s="0"/>
+      <c r="RI28" s="0"/>
+      <c r="RJ28" s="0"/>
+      <c r="RK28" s="0"/>
+      <c r="RL28" s="0"/>
+      <c r="RM28" s="0"/>
+      <c r="RN28" s="0"/>
+      <c r="RO28" s="0"/>
+      <c r="RP28" s="0"/>
+      <c r="RQ28" s="0"/>
+      <c r="RR28" s="0"/>
+      <c r="RS28" s="0"/>
+      <c r="RT28" s="0"/>
+      <c r="RU28" s="0"/>
+      <c r="RV28" s="0"/>
+      <c r="RW28" s="0"/>
+      <c r="RX28" s="0"/>
+      <c r="RY28" s="0"/>
+      <c r="RZ28" s="0"/>
+      <c r="SA28" s="0"/>
+      <c r="SB28" s="0"/>
+      <c r="SC28" s="0"/>
+      <c r="SD28" s="0"/>
+      <c r="SE28" s="0"/>
+      <c r="SF28" s="0"/>
+      <c r="SG28" s="0"/>
+      <c r="SH28" s="0"/>
+      <c r="SI28" s="0"/>
+      <c r="SJ28" s="0"/>
+      <c r="SK28" s="0"/>
+      <c r="SL28" s="0"/>
+      <c r="SM28" s="0"/>
+      <c r="SN28" s="0"/>
+      <c r="SO28" s="0"/>
+      <c r="SP28" s="0"/>
+      <c r="SQ28" s="0"/>
+      <c r="SR28" s="0"/>
+      <c r="SS28" s="0"/>
+      <c r="ST28" s="0"/>
+      <c r="SU28" s="0"/>
+      <c r="SV28" s="0"/>
+      <c r="SW28" s="0"/>
+      <c r="SX28" s="0"/>
+      <c r="SY28" s="0"/>
+      <c r="SZ28" s="0"/>
+      <c r="TA28" s="0"/>
+      <c r="TB28" s="0"/>
+      <c r="TC28" s="0"/>
+      <c r="TD28" s="0"/>
+      <c r="TE28" s="0"/>
+      <c r="TF28" s="0"/>
+      <c r="TG28" s="0"/>
+      <c r="TH28" s="0"/>
+      <c r="TI28" s="0"/>
+      <c r="TJ28" s="0"/>
+      <c r="TK28" s="0"/>
+      <c r="TL28" s="0"/>
+      <c r="TM28" s="0"/>
+      <c r="TN28" s="0"/>
+      <c r="TO28" s="0"/>
+      <c r="TP28" s="0"/>
+      <c r="TQ28" s="0"/>
+      <c r="TR28" s="0"/>
+      <c r="TS28" s="0"/>
+      <c r="TT28" s="0"/>
+      <c r="TU28" s="0"/>
+      <c r="TV28" s="0"/>
+      <c r="TW28" s="0"/>
+      <c r="TX28" s="0"/>
+      <c r="TY28" s="0"/>
+      <c r="TZ28" s="0"/>
+      <c r="UA28" s="0"/>
+      <c r="UB28" s="0"/>
+      <c r="UC28" s="0"/>
+      <c r="UD28" s="0"/>
+      <c r="UE28" s="0"/>
+      <c r="UF28" s="0"/>
+      <c r="UG28" s="0"/>
+      <c r="UH28" s="0"/>
+      <c r="UI28" s="0"/>
+      <c r="UJ28" s="0"/>
+      <c r="UK28" s="0"/>
+      <c r="UL28" s="0"/>
+      <c r="UM28" s="0"/>
+      <c r="UN28" s="0"/>
+      <c r="UO28" s="0"/>
+      <c r="UP28" s="0"/>
+      <c r="UQ28" s="0"/>
+      <c r="UR28" s="0"/>
+      <c r="US28" s="0"/>
+      <c r="UT28" s="0"/>
+      <c r="UU28" s="0"/>
+      <c r="UV28" s="0"/>
+      <c r="UW28" s="0"/>
+      <c r="UX28" s="0"/>
+      <c r="UY28" s="0"/>
+      <c r="UZ28" s="0"/>
+      <c r="VA28" s="0"/>
+      <c r="VB28" s="0"/>
+      <c r="VC28" s="0"/>
+      <c r="VD28" s="0"/>
+      <c r="VE28" s="0"/>
+      <c r="VF28" s="0"/>
+      <c r="VG28" s="0"/>
+      <c r="VH28" s="0"/>
+      <c r="VI28" s="0"/>
+      <c r="VJ28" s="0"/>
+      <c r="VK28" s="0"/>
+      <c r="VL28" s="0"/>
+      <c r="VM28" s="0"/>
+      <c r="VN28" s="0"/>
+      <c r="VO28" s="0"/>
+      <c r="VP28" s="0"/>
+      <c r="VQ28" s="0"/>
+      <c r="VR28" s="0"/>
+      <c r="VS28" s="0"/>
+      <c r="VT28" s="0"/>
+      <c r="VU28" s="0"/>
+      <c r="VV28" s="0"/>
+      <c r="VW28" s="0"/>
+      <c r="VX28" s="0"/>
+      <c r="VY28" s="0"/>
+      <c r="VZ28" s="0"/>
+      <c r="WA28" s="0"/>
+      <c r="WB28" s="0"/>
+      <c r="WC28" s="0"/>
+      <c r="WD28" s="0"/>
+      <c r="WE28" s="0"/>
+      <c r="WF28" s="0"/>
+      <c r="WG28" s="0"/>
+      <c r="WH28" s="0"/>
+      <c r="WI28" s="0"/>
+      <c r="WJ28" s="0"/>
+      <c r="WK28" s="0"/>
+      <c r="WL28" s="0"/>
+      <c r="WM28" s="0"/>
+      <c r="WN28" s="0"/>
+      <c r="WO28" s="0"/>
+      <c r="WP28" s="0"/>
+      <c r="WQ28" s="0"/>
+      <c r="WR28" s="0"/>
+      <c r="WS28" s="0"/>
+      <c r="WT28" s="0"/>
+      <c r="WU28" s="0"/>
+      <c r="WV28" s="0"/>
+      <c r="WW28" s="0"/>
+      <c r="WX28" s="0"/>
+      <c r="WY28" s="0"/>
+      <c r="WZ28" s="0"/>
+      <c r="XA28" s="0"/>
+      <c r="XB28" s="0"/>
+      <c r="XC28" s="0"/>
+      <c r="XD28" s="0"/>
+      <c r="XE28" s="0"/>
+      <c r="XF28" s="0"/>
+      <c r="XG28" s="0"/>
+      <c r="XH28" s="0"/>
+      <c r="XI28" s="0"/>
+      <c r="XJ28" s="0"/>
+      <c r="XK28" s="0"/>
+      <c r="XL28" s="0"/>
+      <c r="XM28" s="0"/>
+      <c r="XN28" s="0"/>
+      <c r="XO28" s="0"/>
+      <c r="XP28" s="0"/>
+      <c r="XQ28" s="0"/>
+      <c r="XR28" s="0"/>
+      <c r="XS28" s="0"/>
+      <c r="XT28" s="0"/>
+      <c r="XU28" s="0"/>
+      <c r="XV28" s="0"/>
+      <c r="XW28" s="0"/>
+      <c r="XX28" s="0"/>
+      <c r="XY28" s="0"/>
+      <c r="XZ28" s="0"/>
+      <c r="YA28" s="0"/>
+      <c r="YB28" s="0"/>
+      <c r="YC28" s="0"/>
+      <c r="YD28" s="0"/>
+      <c r="YE28" s="0"/>
+      <c r="YF28" s="0"/>
+      <c r="YG28" s="0"/>
+      <c r="YH28" s="0"/>
+      <c r="YI28" s="0"/>
+      <c r="YJ28" s="0"/>
+      <c r="YK28" s="0"/>
+      <c r="YL28" s="0"/>
+      <c r="YM28" s="0"/>
+      <c r="YN28" s="0"/>
+      <c r="YO28" s="0"/>
+      <c r="YP28" s="0"/>
+      <c r="YQ28" s="0"/>
+      <c r="YR28" s="0"/>
+      <c r="YS28" s="0"/>
+      <c r="YT28" s="0"/>
+      <c r="YU28" s="0"/>
+      <c r="YV28" s="0"/>
+      <c r="YW28" s="0"/>
+      <c r="YX28" s="0"/>
+      <c r="YY28" s="0"/>
+      <c r="YZ28" s="0"/>
+      <c r="ZA28" s="0"/>
+      <c r="ZB28" s="0"/>
+      <c r="ZC28" s="0"/>
+      <c r="ZD28" s="0"/>
+      <c r="ZE28" s="0"/>
+      <c r="ZF28" s="0"/>
+      <c r="ZG28" s="0"/>
+      <c r="ZH28" s="0"/>
+      <c r="ZI28" s="0"/>
+      <c r="ZJ28" s="0"/>
+      <c r="ZK28" s="0"/>
+      <c r="ZL28" s="0"/>
+      <c r="ZM28" s="0"/>
+      <c r="ZN28" s="0"/>
+      <c r="ZO28" s="0"/>
+      <c r="ZP28" s="0"/>
+      <c r="ZQ28" s="0"/>
+      <c r="ZR28" s="0"/>
+      <c r="ZS28" s="0"/>
+      <c r="ZT28" s="0"/>
+      <c r="ZU28" s="0"/>
+      <c r="ZV28" s="0"/>
+      <c r="ZW28" s="0"/>
+      <c r="ZX28" s="0"/>
+      <c r="ZY28" s="0"/>
+      <c r="ZZ28" s="0"/>
+      <c r="AAA28" s="0"/>
+      <c r="AAB28" s="0"/>
+      <c r="AAC28" s="0"/>
+      <c r="AAD28" s="0"/>
+      <c r="AAE28" s="0"/>
+      <c r="AAF28" s="0"/>
+      <c r="AAG28" s="0"/>
+      <c r="AAH28" s="0"/>
+      <c r="AAI28" s="0"/>
+      <c r="AAJ28" s="0"/>
+      <c r="AAK28" s="0"/>
+      <c r="AAL28" s="0"/>
+      <c r="AAM28" s="0"/>
+      <c r="AAN28" s="0"/>
+      <c r="AAO28" s="0"/>
+      <c r="AAP28" s="0"/>
+      <c r="AAQ28" s="0"/>
+      <c r="AAR28" s="0"/>
+      <c r="AAS28" s="0"/>
+      <c r="AAT28" s="0"/>
+      <c r="AAU28" s="0"/>
+      <c r="AAV28" s="0"/>
+      <c r="AAW28" s="0"/>
+      <c r="AAX28" s="0"/>
+      <c r="AAY28" s="0"/>
+      <c r="AAZ28" s="0"/>
+      <c r="ABA28" s="0"/>
+      <c r="ABB28" s="0"/>
+      <c r="ABC28" s="0"/>
+      <c r="ABD28" s="0"/>
+      <c r="ABE28" s="0"/>
+      <c r="ABF28" s="0"/>
+      <c r="ABG28" s="0"/>
+      <c r="ABH28" s="0"/>
+      <c r="ABI28" s="0"/>
+      <c r="ABJ28" s="0"/>
+      <c r="ABK28" s="0"/>
+      <c r="ABL28" s="0"/>
+      <c r="ABM28" s="0"/>
+      <c r="ABN28" s="0"/>
+      <c r="ABO28" s="0"/>
+      <c r="ABP28" s="0"/>
+      <c r="ABQ28" s="0"/>
+      <c r="ABR28" s="0"/>
+      <c r="ABS28" s="0"/>
+      <c r="ABT28" s="0"/>
+      <c r="ABU28" s="0"/>
+      <c r="ABV28" s="0"/>
+      <c r="ABW28" s="0"/>
+      <c r="ABX28" s="0"/>
+      <c r="ABY28" s="0"/>
+      <c r="ABZ28" s="0"/>
+      <c r="ACA28" s="0"/>
+      <c r="ACB28" s="0"/>
+      <c r="ACC28" s="0"/>
+      <c r="ACD28" s="0"/>
+      <c r="ACE28" s="0"/>
+      <c r="ACF28" s="0"/>
+      <c r="ACG28" s="0"/>
+      <c r="ACH28" s="0"/>
+      <c r="ACI28" s="0"/>
+      <c r="ACJ28" s="0"/>
+      <c r="ACK28" s="0"/>
+      <c r="ACL28" s="0"/>
+      <c r="ACM28" s="0"/>
+      <c r="ACN28" s="0"/>
+      <c r="ACO28" s="0"/>
+      <c r="ACP28" s="0"/>
+      <c r="ACQ28" s="0"/>
+      <c r="ACR28" s="0"/>
+      <c r="ACS28" s="0"/>
+      <c r="ACT28" s="0"/>
+      <c r="ACU28" s="0"/>
+      <c r="ACV28" s="0"/>
+      <c r="ACW28" s="0"/>
+      <c r="ACX28" s="0"/>
+      <c r="ACY28" s="0"/>
+      <c r="ACZ28" s="0"/>
+      <c r="ADA28" s="0"/>
+      <c r="ADB28" s="0"/>
+      <c r="ADC28" s="0"/>
+      <c r="ADD28" s="0"/>
+      <c r="ADE28" s="0"/>
+      <c r="ADF28" s="0"/>
+      <c r="ADG28" s="0"/>
+      <c r="ADH28" s="0"/>
+      <c r="ADI28" s="0"/>
+      <c r="ADJ28" s="0"/>
+      <c r="ADK28" s="0"/>
+      <c r="ADL28" s="0"/>
+      <c r="ADM28" s="0"/>
+      <c r="ADN28" s="0"/>
+      <c r="ADO28" s="0"/>
+      <c r="ADP28" s="0"/>
+      <c r="ADQ28" s="0"/>
+      <c r="ADR28" s="0"/>
+      <c r="ADS28" s="0"/>
+      <c r="ADT28" s="0"/>
+      <c r="ADU28" s="0"/>
+      <c r="ADV28" s="0"/>
+      <c r="ADW28" s="0"/>
+      <c r="ADX28" s="0"/>
+      <c r="ADY28" s="0"/>
+      <c r="ADZ28" s="0"/>
+      <c r="AEA28" s="0"/>
+      <c r="AEB28" s="0"/>
+      <c r="AEC28" s="0"/>
+      <c r="AED28" s="0"/>
+      <c r="AEE28" s="0"/>
+      <c r="AEF28" s="0"/>
+      <c r="AEG28" s="0"/>
+      <c r="AEH28" s="0"/>
+      <c r="AEI28" s="0"/>
+      <c r="AEJ28" s="0"/>
+      <c r="AEK28" s="0"/>
+      <c r="AEL28" s="0"/>
+      <c r="AEM28" s="0"/>
+      <c r="AEN28" s="0"/>
+      <c r="AEO28" s="0"/>
+      <c r="AEP28" s="0"/>
+      <c r="AEQ28" s="0"/>
+      <c r="AER28" s="0"/>
+      <c r="AES28" s="0"/>
+      <c r="AET28" s="0"/>
+      <c r="AEU28" s="0"/>
+      <c r="AEV28" s="0"/>
+      <c r="AEW28" s="0"/>
+      <c r="AEX28" s="0"/>
+      <c r="AEY28" s="0"/>
+      <c r="AEZ28" s="0"/>
+      <c r="AFA28" s="0"/>
+      <c r="AFB28" s="0"/>
+      <c r="AFC28" s="0"/>
+      <c r="AFD28" s="0"/>
+      <c r="AFE28" s="0"/>
+      <c r="AFF28" s="0"/>
+      <c r="AFG28" s="0"/>
+      <c r="AFH28" s="0"/>
+      <c r="AFI28" s="0"/>
+      <c r="AFJ28" s="0"/>
+      <c r="AFK28" s="0"/>
+      <c r="AFL28" s="0"/>
+      <c r="AFM28" s="0"/>
+      <c r="AFN28" s="0"/>
+      <c r="AFO28" s="0"/>
+      <c r="AFP28" s="0"/>
+      <c r="AFQ28" s="0"/>
+      <c r="AFR28" s="0"/>
+      <c r="AFS28" s="0"/>
+      <c r="AFT28" s="0"/>
+      <c r="AFU28" s="0"/>
+      <c r="AFV28" s="0"/>
+      <c r="AFW28" s="0"/>
+      <c r="AFX28" s="0"/>
+      <c r="AFY28" s="0"/>
+      <c r="AFZ28" s="0"/>
+      <c r="AGA28" s="0"/>
+      <c r="AGB28" s="0"/>
+      <c r="AGC28" s="0"/>
+      <c r="AGD28" s="0"/>
+      <c r="AGE28" s="0"/>
+      <c r="AGF28" s="0"/>
+      <c r="AGG28" s="0"/>
+      <c r="AGH28" s="0"/>
+      <c r="AGI28" s="0"/>
+      <c r="AGJ28" s="0"/>
+      <c r="AGK28" s="0"/>
+      <c r="AGL28" s="0"/>
+      <c r="AGM28" s="0"/>
+      <c r="AGN28" s="0"/>
+      <c r="AGO28" s="0"/>
+      <c r="AGP28" s="0"/>
+      <c r="AGQ28" s="0"/>
+      <c r="AGR28" s="0"/>
+      <c r="AGS28" s="0"/>
+      <c r="AGT28" s="0"/>
+      <c r="AGU28" s="0"/>
+      <c r="AGV28" s="0"/>
+      <c r="AGW28" s="0"/>
+      <c r="AGX28" s="0"/>
+      <c r="AGY28" s="0"/>
+      <c r="AGZ28" s="0"/>
+      <c r="AHA28" s="0"/>
+      <c r="AHB28" s="0"/>
+      <c r="AHC28" s="0"/>
+      <c r="AHD28" s="0"/>
+      <c r="AHE28" s="0"/>
+      <c r="AHF28" s="0"/>
+      <c r="AHG28" s="0"/>
+      <c r="AHH28" s="0"/>
+      <c r="AHI28" s="0"/>
+      <c r="AHJ28" s="0"/>
+      <c r="AHK28" s="0"/>
+      <c r="AHL28" s="0"/>
+      <c r="AHM28" s="0"/>
+      <c r="AHN28" s="0"/>
+      <c r="AHO28" s="0"/>
+      <c r="AHP28" s="0"/>
+      <c r="AHQ28" s="0"/>
+      <c r="AHR28" s="0"/>
+      <c r="AHS28" s="0"/>
+      <c r="AHT28" s="0"/>
+      <c r="AHU28" s="0"/>
+      <c r="AHV28" s="0"/>
+      <c r="AHW28" s="0"/>
+      <c r="AHX28" s="0"/>
+      <c r="AHY28" s="0"/>
+      <c r="AHZ28" s="0"/>
+      <c r="AIA28" s="0"/>
+      <c r="AIB28" s="0"/>
+      <c r="AIC28" s="0"/>
+      <c r="AID28" s="0"/>
+      <c r="AIE28" s="0"/>
+      <c r="AIF28" s="0"/>
+      <c r="AIG28" s="0"/>
+      <c r="AIH28" s="0"/>
+      <c r="AII28" s="0"/>
+      <c r="AIJ28" s="0"/>
+      <c r="AIK28" s="0"/>
+      <c r="AIL28" s="0"/>
+      <c r="AIM28" s="0"/>
+      <c r="AIN28" s="0"/>
+      <c r="AIO28" s="0"/>
+      <c r="AIP28" s="0"/>
+      <c r="AIQ28" s="0"/>
+      <c r="AIR28" s="0"/>
+      <c r="AIS28" s="0"/>
+      <c r="AIT28" s="0"/>
+      <c r="AIU28" s="0"/>
+      <c r="AIV28" s="0"/>
+      <c r="AIW28" s="0"/>
+      <c r="AIX28" s="0"/>
+      <c r="AIY28" s="0"/>
+      <c r="AIZ28" s="0"/>
+      <c r="AJA28" s="0"/>
+      <c r="AJB28" s="0"/>
+      <c r="AJC28" s="0"/>
+      <c r="AJD28" s="0"/>
+      <c r="AJE28" s="0"/>
+      <c r="AJF28" s="0"/>
+      <c r="AJG28" s="0"/>
+      <c r="AJH28" s="0"/>
+      <c r="AJI28" s="0"/>
+      <c r="AJJ28" s="0"/>
+      <c r="AJK28" s="0"/>
+      <c r="AJL28" s="0"/>
+      <c r="AJM28" s="0"/>
+      <c r="AJN28" s="0"/>
+      <c r="AJO28" s="0"/>
+      <c r="AJP28" s="0"/>
+      <c r="AJQ28" s="0"/>
+      <c r="AJR28" s="0"/>
+      <c r="AJS28" s="0"/>
+      <c r="AJT28" s="0"/>
+      <c r="AJU28" s="0"/>
+      <c r="AJV28" s="0"/>
+      <c r="AJW28" s="0"/>
+      <c r="AJX28" s="0"/>
+      <c r="AJY28" s="0"/>
+      <c r="AJZ28" s="0"/>
+      <c r="AKA28" s="0"/>
+      <c r="AKB28" s="0"/>
+      <c r="AKC28" s="0"/>
+      <c r="AKD28" s="0"/>
+      <c r="AKE28" s="0"/>
+      <c r="AKF28" s="0"/>
+      <c r="AKG28" s="0"/>
+      <c r="AKH28" s="0"/>
+      <c r="AKI28" s="0"/>
+      <c r="AKJ28" s="0"/>
+      <c r="AKK28" s="0"/>
+      <c r="AKL28" s="0"/>
+      <c r="AKM28" s="0"/>
+      <c r="AKN28" s="0"/>
+      <c r="AKO28" s="0"/>
+      <c r="AKP28" s="0"/>
+      <c r="AKQ28" s="0"/>
+      <c r="AKR28" s="0"/>
+      <c r="AKS28" s="0"/>
+      <c r="AKT28" s="0"/>
+      <c r="AKU28" s="0"/>
+      <c r="AKV28" s="0"/>
+      <c r="AKW28" s="0"/>
+      <c r="AKX28" s="0"/>
+      <c r="AKY28" s="0"/>
+      <c r="AKZ28" s="0"/>
+      <c r="ALA28" s="0"/>
+      <c r="ALB28" s="0"/>
+      <c r="ALC28" s="0"/>
+      <c r="ALD28" s="0"/>
+      <c r="ALE28" s="0"/>
+      <c r="ALF28" s="0"/>
+      <c r="ALG28" s="0"/>
+      <c r="ALH28" s="0"/>
+      <c r="ALI28" s="0"/>
+      <c r="ALJ28" s="0"/>
+      <c r="ALK28" s="0"/>
+      <c r="ALL28" s="0"/>
+      <c r="ALM28" s="0"/>
+      <c r="ALN28" s="0"/>
+      <c r="ALO28" s="0"/>
+      <c r="ALP28" s="0"/>
+      <c r="ALQ28" s="0"/>
+      <c r="ALR28" s="0"/>
+      <c r="ALS28" s="0"/>
+      <c r="ALT28" s="0"/>
+      <c r="ALU28" s="0"/>
+      <c r="ALV28" s="0"/>
+      <c r="ALW28" s="0"/>
+      <c r="ALX28" s="0"/>
+      <c r="ALY28" s="0"/>
+      <c r="ALZ28" s="0"/>
+      <c r="AMA28" s="0"/>
+      <c r="AMB28" s="0"/>
+      <c r="AMC28" s="0"/>
+      <c r="AMD28" s="0"/>
+      <c r="AME28" s="0"/>
+      <c r="AMF28" s="0"/>
     </row>
     <row r="29" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="15" t="s">
         <v>125</v>
       </c>
       <c r="B29" s="15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D29" s="29"/>
       <c r="E29" s="29"/>
@@ -25960,23 +25928,27 @@
         <v>92</v>
       </c>
       <c r="N29" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
+        <v>104</v>
+      </c>
+      <c r="O29" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P29" s="15" t="s">
+        <v>167</v>
+      </c>
       <c r="Q29" s="15"/>
       <c r="R29" s="15"/>
       <c r="S29" s="15" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="T29" s="15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="U29" s="15" t="s">
         <v>61</v>
       </c>
       <c r="V29" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="W29" s="15"/>
       <c r="X29" s="15"/>
@@ -25998,10 +25970,10 @@
         <v>125</v>
       </c>
       <c r="B30" s="15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D30" s="29"/>
       <c r="E30" s="29"/>
@@ -26019,26 +25991,26 @@
       </c>
       <c r="L30" s="15"/>
       <c r="M30" s="15" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="N30" s="15" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="O30" s="15"/>
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
       <c r="R30" s="15"/>
       <c r="S30" s="15" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="T30" s="15" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="U30" s="15" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="V30" s="15" t="s">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="W30" s="15"/>
       <c r="X30" s="15"/>
@@ -26055,15 +26027,15 @@
       </c>
       <c r="AD30" s="26"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="15" t="s">
         <v>125</v>
       </c>
       <c r="B31" s="15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D31" s="29"/>
       <c r="E31" s="29"/>
@@ -26081,45 +26053,37 @@
       </c>
       <c r="L31" s="15"/>
       <c r="M31" s="15" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="N31" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="O31" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="P31" s="15" t="s">
-        <v>69</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
       <c r="Q31" s="15"/>
       <c r="R31" s="15"/>
       <c r="S31" s="15" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="T31" s="15" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="U31" s="15" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="V31" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="W31" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="X31" s="15" t="s">
         <v>87</v>
       </c>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
       <c r="Y31" s="15" t="s">
         <v>150</v>
       </c>
       <c r="Z31" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="AA31" s="33"/>
-      <c r="AB31" s="33"/>
+      <c r="AA31" s="29"/>
+      <c r="AB31" s="29"/>
       <c r="AC31" s="15" t="s">
         <v>144</v>
       </c>
@@ -26130,10 +26094,10 @@
         <v>125</v>
       </c>
       <c r="B32" s="15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
@@ -26154,34 +26118,42 @@
         <v>92</v>
       </c>
       <c r="N32" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
+        <v>174</v>
+      </c>
+      <c r="O32" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P32" s="15" t="s">
+        <v>69</v>
+      </c>
       <c r="Q32" s="15"/>
       <c r="R32" s="15"/>
       <c r="S32" s="15" t="s">
         <v>92</v>
       </c>
       <c r="T32" s="15" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="U32" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="V32" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="W32" s="15"/>
-      <c r="X32" s="15"/>
+        <v>69</v>
+      </c>
+      <c r="W32" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="X32" s="15" t="s">
+        <v>87</v>
+      </c>
       <c r="Y32" s="15" t="s">
         <v>150</v>
       </c>
       <c r="Z32" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="AA32" s="29"/>
-      <c r="AB32" s="29"/>
+      <c r="AA32" s="33"/>
+      <c r="AB32" s="33"/>
       <c r="AC32" s="15" t="s">
         <v>144</v>
       </c>
@@ -26192,10 +26164,10 @@
         <v>125</v>
       </c>
       <c r="B33" s="15" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D33" s="29"/>
       <c r="E33" s="29"/>
@@ -26216,27 +26188,23 @@
         <v>92</v>
       </c>
       <c r="N33" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="O33" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="P33" s="15" t="s">
-        <v>156</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
       <c r="Q33" s="15"/>
       <c r="R33" s="15"/>
       <c r="S33" s="15" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="T33" s="15" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="U33" s="15" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="V33" s="15" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="W33" s="15"/>
       <c r="X33" s="15"/>
@@ -26258,15 +26226,15 @@
         <v>125</v>
       </c>
       <c r="B34" s="15" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D34" s="29"/>
       <c r="E34" s="29"/>
       <c r="F34" s="15" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -26274,28 +26242,36 @@
       <c r="J34" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="K34" s="15" t="s">
-        <v>73</v>
+      <c r="K34" s="26" t="s">
+        <v>65</v>
       </c>
       <c r="L34" s="15"/>
       <c r="M34" s="15" t="s">
         <v>92</v>
       </c>
       <c r="N34" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
+        <v>177</v>
+      </c>
+      <c r="O34" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="P34" s="15" t="s">
+        <v>156</v>
+      </c>
       <c r="Q34" s="15"/>
       <c r="R34" s="15"/>
       <c r="S34" s="15" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="T34" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="U34" s="15"/>
-      <c r="V34" s="15"/>
+        <v>156</v>
+      </c>
+      <c r="U34" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="V34" s="15" t="s">
+        <v>178</v>
+      </c>
       <c r="W34" s="15"/>
       <c r="X34" s="15"/>
       <c r="Y34" s="15" t="s">
@@ -26304,15 +26280,73 @@
       <c r="Z34" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="AA34" s="15"/>
-      <c r="AB34" s="15"/>
+      <c r="AA34" s="29"/>
+      <c r="AB34" s="29"/>
       <c r="AC34" s="15" t="s">
         <v>144</v>
       </c>
       <c r="AD34" s="26"/>
     </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" s="15" t="n">
+        <v>32</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="N35" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="T35" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z35" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA35" s="15"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD35" s="26"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C2:AK41"/>
+  <autoFilter ref="A3:AD35"/>
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:I1"/>
@@ -26519,14 +26553,14 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -26632,14 +26666,14 @@
   </sheetPr>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P40" activeCellId="0" sqref="P40"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/PNGRO/Data/Template.xlsx
+++ b/Projects/PNGRO/Data/Template.xlsx
@@ -16,23 +16,24 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">SBD_kpis!$A$3:$AD$35</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">SBD_kpis!$C$3:$AK$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0" vbProcedure="false">SBD_kpis!$C$3:$AK$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AK$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AK$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AK$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AK$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AK$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AK$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AK$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AK$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AK$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AK$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AK$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AK$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">SBD_kpis!$C$3:$AK$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">SBD_kpis!$A$3:$AD$35</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">SBD_kpis!$C$3:$AK$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">SBD_kpis!$A$3:$AC$35</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">SBD_kpis!$A$3:$AC$35</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -49,7 +50,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="AA28" authorId="0">
+    <comment ref="X28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="209">
   <si>
     <t xml:space="preserve">Retailer </t>
   </si>
@@ -151,6 +152,12 @@
     <t xml:space="preserve">Scoring</t>
   </si>
   <si>
+    <t xml:space="preserve">Group 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">By Retailer</t>
   </si>
   <si>
@@ -179,9 +186,6 @@
   </si>
   <si>
     <t xml:space="preserve">KPI Calc. Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Logic*</t>
   </si>
   <si>
     <t xml:space="preserve">Param Type (1)/ Numerator</t>
@@ -226,16 +230,19 @@
     <t xml:space="preserve">Param (3) Values</t>
   </si>
   <si>
-    <t xml:space="preserve">Param (4)</t>
+    <t xml:space="preserve">Facings</t>
   </si>
   <si>
-    <t xml:space="preserve">Param (4) Values</t>
+    <t xml:space="preserve">Min Shelf Number</t>
   </si>
   <si>
     <t xml:space="preserve">Manufacturer</t>
   </si>
   <si>
     <t xml:space="preserve">Target Policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Logic*</t>
   </si>
   <si>
     <t xml:space="preserve">Is Mach3 segment 50% of Gillette Systems shelf?</t>
@@ -257,9 +264,6 @@
     <t xml:space="preserve">Precentages </t>
   </si>
   <si>
-    <t xml:space="preserve">Form = Mach3 out of segment=systems, PNG</t>
-  </si>
-  <si>
     <t xml:space="preserve">brand_name</t>
   </si>
   <si>
@@ -272,6 +276,9 @@
     <t xml:space="preserve">Systems</t>
   </si>
   <si>
+    <t xml:space="preserve">Form = Mach3 out of segment=systems, PNG</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is lemon scent min 40% of Fairy shelf?</t>
   </si>
   <si>
@@ -281,9 +288,6 @@
     <t xml:space="preserve">Precentages</t>
   </si>
   <si>
-    <t xml:space="preserve">Brand = Fairy and Benefit = lemon out of Brand=fairy</t>
-  </si>
-  <si>
     <t xml:space="preserve">Benefit</t>
   </si>
   <si>
@@ -291,6 +295,9 @@
   </si>
   <si>
     <t xml:space="preserve">Fairy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand = Fairy and Benefit = lemon out of Brand=fairy</t>
   </si>
   <si>
     <t xml:space="preserve">Are Pantene Gold skus placed in the middle of the Pantene shelf?</t>
@@ -305,9 +312,6 @@
     <t xml:space="preserve">Binary</t>
   </si>
   <si>
-    <t xml:space="preserve">survey question</t>
-  </si>
-  <si>
     <t xml:space="preserve">question_text</t>
   </si>
   <si>
@@ -320,6 +324,9 @@
     <t xml:space="preserve">Da</t>
   </si>
   <si>
+    <t xml:space="preserve">survey question</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Always Platinum min 15% of Always Pads shelf?</t>
   </si>
   <si>
@@ -327,9 +334,6 @@
   </si>
   <si>
     <t xml:space="preserve">Fem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand=always and sub-category =pads and form=Platinum out of Brand=always and sub category=pads</t>
   </si>
   <si>
     <t xml:space="preserve">ALWAYS</t>
@@ -347,13 +351,13 @@
     <t xml:space="preserve">Platinum</t>
   </si>
   <si>
+    <t xml:space="preserve">Brand=always and sub-category =pads and form=Platinum out of Brand=always and sub category=pads</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Ariel Liquid Tabs min 15% from total Laundry category?</t>
   </si>
   <si>
     <t xml:space="preserve">Laundry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand=Ariel and form=Liquid tabs out of Category=Laundry</t>
   </si>
   <si>
     <t xml:space="preserve">Ariel</t>
@@ -368,13 +372,13 @@
     <t xml:space="preserve">Liquid Tabs</t>
   </si>
   <si>
+    <t xml:space="preserve">Brand=Ariel and form=Liquid tabs out of Category=Laundry</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Blue collection min 30% from Lenor shelf?</t>
   </si>
   <si>
     <t xml:space="preserve">Fabric Enhancers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand =Lenor and form=liquid and benefit = Spring out of Brand =lenor and form=liquid</t>
   </si>
   <si>
     <t xml:space="preserve">Liquid</t>
@@ -386,13 +390,13 @@
     <t xml:space="preserve">SPRING</t>
   </si>
   <si>
+    <t xml:space="preserve">Brand =Lenor and form=liquid and benefit = Spring out of Brand =lenor and form=liquid</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Pants min 25% of Pampers shelf?</t>
   </si>
   <si>
     <t xml:space="preserve">Baby</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> category=diapers and brand = pampers and segment=pants out of category=diapers and brand=pampers</t>
   </si>
   <si>
     <t xml:space="preserve">DIAPERS</t>
@@ -404,19 +408,22 @@
     <t xml:space="preserve">Taped</t>
   </si>
   <si>
+    <t xml:space="preserve"> category=diapers and brand = pampers and segment=pants out of category=diapers and brand=pampers</t>
+  </si>
+  <si>
     <t xml:space="preserve">POC listed and placed within brushing</t>
   </si>
   <si>
     <t xml:space="preserve">Relative Position</t>
   </si>
   <si>
-    <t xml:space="preserve">segment = poc(power oral care) and PG adjecent to toothbrush sub cat</t>
-  </si>
-  <si>
     <t xml:space="preserve">Power Oral Care</t>
   </si>
   <si>
     <t xml:space="preserve">TOOTHBRUSH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segment = poc(power oral care) and PG adjecent to toothbrush sub cat</t>
   </si>
   <si>
     <t xml:space="preserve">Are Female Blades &amp; Razors placed in a distinct block than male Blades &amp; Razors?</t>
@@ -434,13 +441,13 @@
     <t xml:space="preserve">Shelf Position</t>
   </si>
   <si>
-    <t xml:space="preserve">segment = poc(power oral care) and PG at eye level according to eye level matrix (TBD)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Old Category Name</t>
   </si>
   <si>
     <t xml:space="preserve">ORAL CARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segment = poc(power oral care) and PG at eye level according to eye level matrix (TBD)</t>
   </si>
   <si>
     <t xml:space="preserve">Are H&amp;S male skus placed in hair care main shelf?</t>
@@ -533,16 +540,10 @@
     <t xml:space="preserve">HAIR CARE</t>
   </si>
   <si>
-    <t xml:space="preserve">facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min_shelf_num</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hair Care vertical brand blocks</t>
   </si>
   <si>
-    <t xml:space="preserve">block_by</t>
+    <t xml:space="preserve">Blocked Together Vertical Brand</t>
   </si>
   <si>
     <t xml:space="preserve">Codisplay: Venus/Male</t>
@@ -872,14 +873,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCFE7F5"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <fgColor rgb="FFF4BE49"/>
+        <bgColor rgb="FFFFD966"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4BE49"/>
-        <bgColor rgb="FFFFD966"/>
+        <fgColor rgb="FFCFE7F5"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1012,7 +1013,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1053,6 +1054,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1061,11 +1066,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1073,7 +1074,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1117,15 +1118,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1137,7 +1138,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1195,6 +1196,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1291,9 +1296,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="1018" min="5" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="8.57085020242915"/>
   </cols>
@@ -1500,46 +1505,47 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMF35"/>
+  <dimension ref="1:35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA34" activeCellId="0" sqref="AA34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.1821862348178"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="48.6315789473684"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="8" width="17.7813765182186"/>
-    <col collapsed="false" hidden="true" max="9" min="7" style="8" width="0"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="8" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="8" width="15.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="8" width="84.6032388663968"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="8" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="8" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="8" width="17.2591093117409"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="8" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="8" width="17.2591093117409"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="8" width="18.9514170040486"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="8" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="8" width="41.3481781376518"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="8" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="8" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="24" min="23" style="8" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="8" width="11.3198380566802"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="8" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="8" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="8" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="8" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="1020" min="31" style="8" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0526315789474"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="8" width="14.8825910931174"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="8" width="11.8704453441296"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="8" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="8" width="21.4939271255061"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="8" width="28.1578947368421"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="8" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="8" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="8" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="8" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="8" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="8" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="8" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="8" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="8" width="30.7004048582996"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="8" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="8" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="8" width="16.9595141700405"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="8" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="8" width="11.3562753036437"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="8" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="28" min="26" style="8" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="8" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="8" width="85.2672064777328"/>
+    <col collapsed="false" hidden="false" max="1019" min="31" style="8" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="11" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
         <v>18</v>
       </c>
@@ -1553,14 +1559,14 @@
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9" t="s">
+      <c r="K1" s="10"/>
+      <c r="L1" s="9" t="s">
         <v>21</v>
       </c>
+      <c r="M1" s="9"/>
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
@@ -1576,12 +1582,15 @@
       <c r="Z1" s="9"/>
       <c r="AA1" s="9"/>
       <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
         <v>22</v>
       </c>
+      <c r="AD1" s="9"/>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="10" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="11" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1593,18 +1602,22 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
+      <c r="L2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
       <c r="X2" s="9"/>
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
@@ -1612,98 +1625,104 @@
       <c r="AB2" s="9"/>
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
+      <c r="AMH2" s="0"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>24</v>
+      <c r="A3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X3" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Y3" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Z3" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AA3" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AB3" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AC3" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AD3" s="12" t="s">
-        <v>51</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="AMH3" s="0"/>
+      <c r="AMI3" s="0"/>
+      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" s="20" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15"/>
@@ -1711,45 +1730,43 @@
         <v>1</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4" s="19" t="s">
-        <v>60</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="N4" s="19"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
+      <c r="R4" s="19" t="s">
+        <v>62</v>
+      </c>
       <c r="S4" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="T4" s="19" t="s">
-        <v>62</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="T4" s="19"/>
       <c r="U4" s="19"/>
       <c r="V4" s="19"/>
       <c r="W4" s="19"/>
@@ -1758,10 +1775,15 @@
       <c r="Z4" s="19"/>
       <c r="AA4" s="19"/>
       <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19" t="n">
+      <c r="AC4" s="19" t="n">
         <v>50</v>
       </c>
+      <c r="AD4" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AMH4" s="0"/>
+      <c r="AMI4" s="0"/>
+      <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15"/>
@@ -1769,45 +1791,43 @@
         <v>2</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>68</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="N5" s="19"/>
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
       <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
+      <c r="R5" s="19" t="s">
+        <v>60</v>
+      </c>
       <c r="S5" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="T5" s="19" t="s">
-        <v>69</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="T5" s="19"/>
       <c r="U5" s="19"/>
       <c r="V5" s="19"/>
       <c r="W5" s="19"/>
@@ -1816,9 +1836,11 @@
       <c r="Z5" s="19"/>
       <c r="AA5" s="19"/>
       <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19" t="n">
+      <c r="AC5" s="19" t="n">
         <v>40</v>
+      </c>
+      <c r="AD5" s="19" t="s">
+        <v>71</v>
       </c>
       <c r="AE5" s="0"/>
       <c r="AF5" s="0"/>
@@ -2809,7 +2831,6 @@
       <c r="AMC5" s="0"/>
       <c r="AMD5" s="0"/>
       <c r="AME5" s="0"/>
-      <c r="AMF5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15"/>
@@ -2817,45 +2838,43 @@
         <v>3</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="N6" s="22" t="s">
         <v>76</v>
       </c>
+      <c r="M6" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="22"/>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
+      <c r="R6" s="19" t="s">
+        <v>78</v>
+      </c>
       <c r="S6" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="T6" s="19" t="s">
-        <v>78</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="T6" s="19"/>
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
       <c r="W6" s="19"/>
@@ -2865,7 +2884,9 @@
       <c r="AA6" s="19"/>
       <c r="AB6" s="19"/>
       <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
+      <c r="AD6" s="19" t="s">
+        <v>80</v>
+      </c>
       <c r="AE6" s="0"/>
       <c r="AF6" s="0"/>
       <c r="AG6" s="0"/>
@@ -3855,7 +3876,6 @@
       <c r="AMC6" s="0"/>
       <c r="AMD6" s="0"/>
       <c r="AME6" s="0"/>
-      <c r="AMF6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15"/>
@@ -3863,60 +3883,60 @@
         <v>4</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="N7" s="19" t="s">
-        <v>83</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="N7" s="19"/>
       <c r="O7" s="19"/>
       <c r="P7" s="19"/>
       <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
+      <c r="R7" s="19" t="s">
+        <v>85</v>
+      </c>
       <c r="S7" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="T7" s="19" t="s">
-        <v>85</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="T7" s="19"/>
       <c r="U7" s="19"/>
       <c r="V7" s="19"/>
       <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
+      <c r="X7" s="19" t="s">
+        <v>87</v>
+      </c>
       <c r="Y7" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z7" s="19" t="s">
-        <v>87</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="Z7" s="19"/>
       <c r="AA7" s="19"/>
       <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19" t="n">
+      <c r="AC7" s="19" t="n">
         <v>15</v>
+      </c>
+      <c r="AD7" s="19" t="s">
+        <v>89</v>
       </c>
       <c r="AE7" s="0"/>
       <c r="AF7" s="0"/>
@@ -4907,7 +4927,6 @@
       <c r="AMC7" s="0"/>
       <c r="AMD7" s="0"/>
       <c r="AME7" s="0"/>
-      <c r="AMF7" s="0"/>
     </row>
     <row r="8" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15"/>
@@ -4915,61 +4934,64 @@
         <v>5</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="N8" s="19" t="s">
-        <v>91</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N8" s="19"/>
       <c r="O8" s="19"/>
       <c r="P8" s="19"/>
       <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
+      <c r="R8" s="19" t="s">
+        <v>93</v>
+      </c>
       <c r="S8" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="T8" s="19" t="s">
-        <v>93</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="T8" s="19"/>
       <c r="U8" s="19"/>
       <c r="V8" s="19"/>
       <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
+      <c r="X8" s="19" t="s">
+        <v>87</v>
+      </c>
       <c r="Y8" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z8" s="19" t="s">
-        <v>94</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="Z8" s="19"/>
       <c r="AA8" s="19"/>
       <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19" t="n">
+      <c r="AC8" s="19" t="n">
         <v>15</v>
       </c>
+      <c r="AD8" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="AMH8" s="0"/>
+      <c r="AMI8" s="0"/>
+      <c r="AMJ8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15"/>
@@ -4977,60 +4999,60 @@
         <v>6</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="N9" s="19" t="s">
-        <v>98</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="N9" s="19"/>
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
+      <c r="R9" s="19" t="s">
+        <v>60</v>
+      </c>
       <c r="S9" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="T9" s="19" t="s">
-        <v>99</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="T9" s="19"/>
       <c r="U9" s="19"/>
       <c r="V9" s="19"/>
       <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
+      <c r="X9" s="19" t="s">
+        <v>68</v>
+      </c>
       <c r="Y9" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z9" s="19" t="s">
-        <v>100</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="Z9" s="19"/>
       <c r="AA9" s="19"/>
       <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19" t="n">
+      <c r="AC9" s="19" t="n">
         <v>30</v>
+      </c>
+      <c r="AD9" s="19" t="s">
+        <v>102</v>
       </c>
       <c r="AE9" s="0"/>
       <c r="AF9" s="0"/>
@@ -6021,7 +6043,6 @@
       <c r="AMC9" s="0"/>
       <c r="AMD9" s="0"/>
       <c r="AME9" s="0"/>
-      <c r="AMF9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15"/>
@@ -6029,60 +6050,60 @@
         <v>7</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="N10" s="19" t="s">
-        <v>104</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N10" s="19"/>
       <c r="O10" s="19"/>
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
+      <c r="R10" s="19" t="s">
+        <v>60</v>
+      </c>
       <c r="S10" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="T10" s="19" t="s">
-        <v>105</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="T10" s="19"/>
       <c r="U10" s="19"/>
       <c r="V10" s="19"/>
       <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
+      <c r="X10" s="19" t="s">
+        <v>87</v>
+      </c>
       <c r="Y10" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z10" s="19" t="s">
-        <v>106</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="Z10" s="19"/>
       <c r="AA10" s="19"/>
       <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19" t="n">
+      <c r="AC10" s="19" t="n">
         <v>25</v>
+      </c>
+      <c r="AD10" s="19" t="s">
+        <v>108</v>
       </c>
       <c r="AE10" s="0"/>
       <c r="AF10" s="0"/>
@@ -7073,7 +7094,6 @@
       <c r="AMC10" s="0"/>
       <c r="AMD10" s="0"/>
       <c r="AME10" s="0"/>
-      <c r="AMF10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15"/>
@@ -7081,7 +7101,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>5</v>
@@ -7090,36 +7110,34 @@
         <v>5</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>110</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N11" s="19"/>
       <c r="O11" s="19"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
+      <c r="R11" s="19" t="s">
+        <v>93</v>
+      </c>
       <c r="S11" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="T11" s="19" t="s">
-        <v>111</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="T11" s="19"/>
       <c r="U11" s="19"/>
       <c r="V11" s="19"/>
       <c r="W11" s="19"/>
@@ -7129,7 +7147,9 @@
       <c r="AA11" s="19"/>
       <c r="AB11" s="19"/>
       <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
+      <c r="AD11" s="19" t="s">
+        <v>113</v>
+      </c>
       <c r="AE11" s="0"/>
       <c r="AF11" s="0"/>
       <c r="AG11" s="0"/>
@@ -8119,7 +8139,6 @@
       <c r="AMC11" s="0"/>
       <c r="AMD11" s="0"/>
       <c r="AME11" s="0"/>
-      <c r="AMF11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15"/>
@@ -8127,45 +8146,43 @@
         <v>9</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="M12" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="N12" s="22" t="s">
-        <v>114</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="N12" s="22"/>
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
+      <c r="R12" s="19" t="s">
+        <v>78</v>
+      </c>
       <c r="S12" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="T12" s="19" t="s">
-        <v>78</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="T12" s="19"/>
       <c r="U12" s="19"/>
       <c r="V12" s="19"/>
       <c r="W12" s="19"/>
@@ -8175,7 +8192,9 @@
       <c r="AA12" s="19"/>
       <c r="AB12" s="19"/>
       <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
+      <c r="AD12" s="19" t="s">
+        <v>80</v>
+      </c>
       <c r="AE12" s="0"/>
       <c r="AF12" s="0"/>
       <c r="AG12" s="0"/>
@@ -9165,7 +9184,6 @@
       <c r="AMC12" s="0"/>
       <c r="AMD12" s="0"/>
       <c r="AME12" s="0"/>
-      <c r="AMF12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15"/>
@@ -9173,7 +9191,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>5</v>
@@ -9182,36 +9200,34 @@
         <v>5</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
       <c r="J13" s="19" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="N13" s="19" t="s">
-        <v>110</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N13" s="19"/>
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
+      <c r="R13" s="19" t="s">
+        <v>119</v>
+      </c>
       <c r="S13" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="T13" s="19" t="s">
-        <v>119</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="T13" s="19"/>
       <c r="U13" s="19"/>
       <c r="V13" s="19"/>
       <c r="W13" s="19"/>
@@ -9220,9 +9236,11 @@
       <c r="Z13" s="19"/>
       <c r="AA13" s="19"/>
       <c r="AB13" s="19"/>
-      <c r="AC13" s="19"/>
+      <c r="AC13" s="19" t="s">
+        <v>11</v>
+      </c>
       <c r="AD13" s="19" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="AE13" s="0"/>
       <c r="AF13" s="0"/>
@@ -10213,7 +10231,6 @@
       <c r="AMC13" s="0"/>
       <c r="AMD13" s="0"/>
       <c r="AME13" s="0"/>
-      <c r="AMF13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="15"/>
@@ -10221,43 +10238,43 @@
         <v>11</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
       <c r="J14" s="26" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="L14" s="25"/>
-      <c r="M14" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="N14" s="25" t="s">
-        <v>122</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="M14" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="N14" s="25"/>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
+      <c r="R14" s="25" t="s">
+        <v>125</v>
+      </c>
       <c r="S14" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="T14" s="25" t="s">
-        <v>124</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="T14" s="25"/>
       <c r="U14" s="25"/>
       <c r="V14" s="25"/>
       <c r="W14" s="25"/>
@@ -11257,63 +11274,62 @@
       <c r="AMC14" s="0"/>
       <c r="AMD14" s="0"/>
       <c r="AME14" s="0"/>
-      <c r="AMF14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B15" s="15" t="n">
         <v>12</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="27" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L15" s="15"/>
+        <v>59</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>131</v>
+      </c>
       <c r="M15" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="N15" s="15" t="s">
-        <v>129</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N15" s="15"/>
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
+      <c r="R15" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="S15" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="T15" s="15" t="s">
-        <v>69</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="T15" s="15"/>
       <c r="U15" s="15"/>
       <c r="V15" s="15"/>
       <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
+      <c r="X15" s="28"/>
       <c r="Y15" s="28"/>
       <c r="Z15" s="28"/>
       <c r="AA15" s="28"/>
       <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="15"/>
       <c r="AE15" s="0"/>
       <c r="AF15" s="0"/>
       <c r="AG15" s="0"/>
@@ -12303,43 +12319,42 @@
       <c r="AMC15" s="0"/>
       <c r="AMD15" s="0"/>
       <c r="AME15" s="0"/>
-      <c r="AMF15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B16" s="15" t="n">
         <v>13</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="26" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K16" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="L16" s="26"/>
+        <v>67</v>
+      </c>
+      <c r="L16" s="26" t="s">
+        <v>60</v>
+      </c>
       <c r="M16" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="N16" s="26" t="s">
-        <v>122</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="N16" s="26"/>
       <c r="O16" s="26"/>
       <c r="P16" s="26"/>
       <c r="Q16" s="26"/>
@@ -13345,43 +13360,42 @@
       <c r="AMC16" s="0"/>
       <c r="AMD16" s="0"/>
       <c r="AME16" s="0"/>
-      <c r="AMF16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B17" s="15" t="n">
         <v>14</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
       <c r="F17" s="26" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="J17" s="26" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K17" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="N17" s="30" t="s">
-        <v>136</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="L17" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="M17" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="N17" s="31"/>
       <c r="O17" s="31"/>
       <c r="P17" s="31"/>
       <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
+      <c r="R17" s="26"/>
       <c r="S17" s="26"/>
       <c r="T17" s="26"/>
       <c r="U17" s="26"/>
@@ -14383,43 +14397,42 @@
       <c r="AMC17" s="0"/>
       <c r="AMD17" s="0"/>
       <c r="AME17" s="0"/>
-      <c r="AMF17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B18" s="15" t="n">
         <v>15</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
       <c r="F18" s="26" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
       <c r="J18" s="26" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K18" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="N18" s="30" t="s">
-        <v>136</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="L18" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="M18" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="N18" s="31"/>
       <c r="O18" s="31"/>
       <c r="P18" s="31"/>
       <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
+      <c r="R18" s="26"/>
       <c r="S18" s="26"/>
       <c r="T18" s="26"/>
       <c r="U18" s="26"/>
@@ -15421,43 +15434,42 @@
       <c r="AMC18" s="0"/>
       <c r="AMD18" s="0"/>
       <c r="AME18" s="0"/>
-      <c r="AMF18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B19" s="15" t="n">
         <v>16</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="26" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="26" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K19" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="N19" s="30" t="s">
-        <v>136</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="L19" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="M19" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="N19" s="31"/>
       <c r="O19" s="31"/>
       <c r="P19" s="31"/>
       <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
+      <c r="R19" s="26"/>
       <c r="S19" s="26"/>
       <c r="T19" s="26"/>
       <c r="U19" s="26"/>
@@ -16459,43 +16471,42 @@
       <c r="AMC19" s="0"/>
       <c r="AMD19" s="0"/>
       <c r="AME19" s="0"/>
-      <c r="AMF19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B20" s="15" t="n">
         <v>17</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
       <c r="F20" s="26" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="26" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K20" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="N20" s="30" t="s">
-        <v>136</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="L20" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="M20" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="N20" s="31"/>
       <c r="O20" s="31"/>
       <c r="P20" s="31"/>
       <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
+      <c r="R20" s="26"/>
       <c r="S20" s="26"/>
       <c r="T20" s="26"/>
       <c r="U20" s="26"/>
@@ -17497,49 +17508,48 @@
       <c r="AMC20" s="0"/>
       <c r="AMD20" s="0"/>
       <c r="AME20" s="0"/>
-      <c r="AMF20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B21" s="15" t="n">
         <v>18</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="29"/>
       <c r="F21" s="26" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
       <c r="J21" s="26" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="L21" s="15"/>
+        <v>75</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="M21" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="N21" s="15" t="s">
-        <v>142</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="N21" s="15"/>
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
+      <c r="R21" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="S21" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="T21" s="15" t="s">
-        <v>143</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="T21" s="15"/>
       <c r="U21" s="15"/>
       <c r="V21" s="15"/>
       <c r="W21" s="15"/>
@@ -17547,10 +17557,10 @@
       <c r="Y21" s="15"/>
       <c r="Z21" s="15"/>
       <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="26" t="s">
-        <v>144</v>
-      </c>
+      <c r="AB21" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC21" s="15"/>
       <c r="AD21" s="15"/>
       <c r="AE21" s="0"/>
       <c r="AF21" s="0"/>
@@ -18541,49 +18551,48 @@
       <c r="AMC21" s="0"/>
       <c r="AMD21" s="0"/>
       <c r="AME21" s="0"/>
-      <c r="AMF21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B22" s="15" t="n">
         <v>19</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
       <c r="F22" s="26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="J22" s="26" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="L22" s="15"/>
+        <v>75</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="M22" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="N22" s="15" t="s">
-        <v>142</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="N22" s="15"/>
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
       <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
+      <c r="R22" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="S22" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="T22" s="15" t="s">
-        <v>143</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="T22" s="15"/>
       <c r="U22" s="15"/>
       <c r="V22" s="15"/>
       <c r="W22" s="15"/>
@@ -18591,11 +18600,11 @@
       <c r="Y22" s="15"/>
       <c r="Z22" s="15"/>
       <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD22" s="26"/>
+      <c r="AB22" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="15"/>
       <c r="AE22" s="0"/>
       <c r="AF22" s="0"/>
       <c r="AG22" s="0"/>
@@ -19585,69 +19594,64 @@
       <c r="AMC22" s="0"/>
       <c r="AMD22" s="0"/>
       <c r="AME22" s="0"/>
-      <c r="AMF22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B23" s="15" t="n">
         <v>20</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D23" s="29"/>
       <c r="E23" s="29"/>
       <c r="F23" s="15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
       <c r="J23" s="15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K23" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="L23" s="15"/>
+        <v>75</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="M23" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="N23" s="15" t="s">
-        <v>148</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="N23" s="15"/>
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
       <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
+      <c r="R23" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="S23" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="T23" s="15" t="s">
-        <v>149</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="T23" s="15"/>
       <c r="U23" s="15"/>
       <c r="V23" s="15"/>
       <c r="W23" s="15"/>
       <c r="X23" s="15"/>
-      <c r="Y23" s="15" t="s">
-        <v>150</v>
-      </c>
+      <c r="Y23" s="15"/>
       <c r="Z23" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="AA23" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB23" s="15" t="n">
+      <c r="AA23" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="AC23" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD23" s="26"/>
+      <c r="AB23" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="15"/>
       <c r="AE23" s="0"/>
       <c r="AF23" s="0"/>
       <c r="AG23" s="0"/>
@@ -20637,11 +20641,10 @@
       <c r="AMC23" s="0"/>
       <c r="AMD23" s="0"/>
       <c r="AME23" s="0"/>
-      <c r="AMF23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B24" s="15" t="n">
         <v>21</v>
@@ -20652,30 +20655,26 @@
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
       <c r="F24" s="15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
       <c r="J24" s="15" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="L24" s="15"/>
+        <v>75</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="M24" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="N24" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="O24" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="P24" s="15" t="s">
-        <v>59</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
@@ -20684,22 +20683,18 @@
       <c r="V24" s="15"/>
       <c r="W24" s="15"/>
       <c r="X24" s="15"/>
-      <c r="Y24" s="15" t="s">
-        <v>150</v>
-      </c>
+      <c r="Y24" s="15"/>
       <c r="Z24" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="AA24" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB24" s="15" t="n">
+      <c r="AA24" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="AC24" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD24" s="26"/>
+      <c r="AB24" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="15"/>
       <c r="AE24" s="0"/>
       <c r="AF24" s="0"/>
       <c r="AG24" s="0"/>
@@ -21689,11 +21684,10 @@
       <c r="AMC24" s="0"/>
       <c r="AMD24" s="0"/>
       <c r="AME24" s="0"/>
-      <c r="AMF24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B25" s="15" t="n">
         <v>22</v>
@@ -21704,7 +21698,7 @@
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
       <c r="F25" s="15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -21713,41 +21707,39 @@
         <v>155</v>
       </c>
       <c r="K25" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="L25" s="15"/>
+        <v>67</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>85</v>
+      </c>
       <c r="M25" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="N25" s="15" t="s">
         <v>156</v>
       </c>
+      <c r="N25" s="15"/>
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
+      <c r="R25" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="S25" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="T25" s="15" t="s">
         <v>157</v>
       </c>
+      <c r="T25" s="15"/>
       <c r="U25" s="15"/>
       <c r="V25" s="15"/>
       <c r="W25" s="15"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="15" t="s">
-        <v>150</v>
-      </c>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
       <c r="Z25" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="AA25" s="29"/>
-      <c r="AB25" s="29"/>
-      <c r="AC25" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD25" s="26"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC25" s="26"/>
+      <c r="AD25" s="15"/>
       <c r="AE25" s="0"/>
       <c r="AF25" s="0"/>
       <c r="AG25" s="0"/>
@@ -22737,11 +22729,10 @@
       <c r="AMC25" s="0"/>
       <c r="AMD25" s="0"/>
       <c r="AME25" s="0"/>
-      <c r="AMF25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B26" s="15" t="n">
         <v>23</v>
@@ -22752,7 +22743,7 @@
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
       <c r="F26" s="15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
@@ -22761,45 +22752,43 @@
         <v>155</v>
       </c>
       <c r="K26" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="L26" s="15"/>
+        <v>67</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="M26" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="N26" s="15" t="s">
-        <v>142</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="N26" s="15"/>
       <c r="O26" s="15"/>
       <c r="P26" s="15"/>
       <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
+      <c r="R26" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="S26" s="15" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="T26" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="U26" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="V26" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="U26" s="29" t="s">
         <v>159</v>
       </c>
+      <c r="V26" s="29"/>
       <c r="W26" s="29"/>
       <c r="X26" s="29"/>
-      <c r="Y26" s="15" t="s">
-        <v>150</v>
-      </c>
+      <c r="Y26" s="29"/>
       <c r="Z26" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="AA26" s="29"/>
-      <c r="AB26" s="29"/>
-      <c r="AC26" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="15"/>
       <c r="AE26" s="0"/>
       <c r="AF26" s="0"/>
       <c r="AG26" s="0"/>
@@ -23789,11 +23778,10 @@
       <c r="AMC26" s="0"/>
       <c r="AMD26" s="0"/>
       <c r="AME26" s="0"/>
-      <c r="AMF26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B27" s="15" t="n">
         <v>24</v>
@@ -23804,7 +23792,7 @@
       <c r="D27" s="29"/>
       <c r="E27" s="29"/>
       <c r="F27" s="15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
@@ -23813,49 +23801,47 @@
         <v>155</v>
       </c>
       <c r="K27" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="N27" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="L27" s="15" t="s">
         <v>93</v>
       </c>
+      <c r="M27" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="N27" s="15" t="s">
+        <v>87</v>
+      </c>
       <c r="O27" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="P27" s="15" t="s">
         <v>161</v>
       </c>
+      <c r="P27" s="15"/>
       <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="T27" s="29" t="s">
+      <c r="R27" s="15" t="s">
         <v>93</v>
       </c>
+      <c r="S27" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="T27" s="15" t="s">
+        <v>87</v>
+      </c>
       <c r="U27" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="V27" s="15" t="s">
-        <v>94</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="V27" s="15"/>
       <c r="W27" s="15"/>
-      <c r="X27" s="15"/>
-      <c r="Y27" s="15" t="s">
-        <v>150</v>
-      </c>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
       <c r="Z27" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="AA27" s="29"/>
-      <c r="AB27" s="29"/>
-      <c r="AC27" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD27" s="26"/>
+      <c r="AA27" s="26"/>
+      <c r="AB27" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC27" s="26"/>
+      <c r="AD27" s="15"/>
       <c r="AE27" s="0"/>
       <c r="AF27" s="0"/>
       <c r="AG27" s="0"/>
@@ -24845,11 +24831,10 @@
       <c r="AMC27" s="0"/>
       <c r="AMD27" s="0"/>
       <c r="AME27" s="0"/>
-      <c r="AMF27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B28" s="15" t="n">
         <v>25</v>
@@ -24860,7 +24845,7 @@
       <c r="D28" s="29"/>
       <c r="E28" s="29"/>
       <c r="F28" s="15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
@@ -24869,45 +24854,43 @@
         <v>155</v>
       </c>
       <c r="K28" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="L28" s="15"/>
+        <v>67</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="M28" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="N28" s="15" t="s">
         <v>163</v>
       </c>
+      <c r="N28" s="15"/>
       <c r="O28" s="15"/>
       <c r="P28" s="15"/>
       <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
+      <c r="R28" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="S28" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="T28" s="15" t="s">
         <v>164</v>
       </c>
+      <c r="T28" s="15"/>
       <c r="U28" s="15"/>
       <c r="V28" s="15"/>
       <c r="W28" s="15"/>
-      <c r="X28" s="15"/>
+      <c r="X28" s="15" t="s">
+        <v>165</v>
+      </c>
       <c r="Y28" s="15" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="Z28" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="AA28" s="15" t="s">
-        <v>165</v>
-      </c>
+      <c r="AA28" s="26"/>
       <c r="AB28" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC28" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD28" s="26"/>
+        <v>146</v>
+      </c>
+      <c r="AC28" s="26"/>
+      <c r="AD28" s="15"/>
       <c r="AE28" s="0"/>
       <c r="AF28" s="0"/>
       <c r="AG28" s="0"/>
@@ -25897,11 +25880,10 @@
       <c r="AMC28" s="0"/>
       <c r="AMD28" s="0"/>
       <c r="AME28" s="0"/>
-      <c r="AMF28" s="0"/>
     </row>
     <row r="29" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B29" s="15" t="n">
         <v>26</v>
@@ -25912,7 +25894,7 @@
       <c r="D29" s="29"/>
       <c r="E29" s="29"/>
       <c r="F29" s="15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
@@ -25921,53 +25903,54 @@
         <v>155</v>
       </c>
       <c r="K29" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="L29" s="15"/>
+        <v>67</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="M29" s="15" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="N29" s="15" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="P29" s="15" t="s">
         <v>167</v>
       </c>
+      <c r="P29" s="15"/>
       <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
+      <c r="R29" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="S29" s="15" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="T29" s="15" t="s">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="U29" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="V29" s="15" t="s">
         <v>168</v>
       </c>
+      <c r="V29" s="15"/>
       <c r="W29" s="15"/>
-      <c r="X29" s="15"/>
-      <c r="Y29" s="15" t="s">
-        <v>150</v>
-      </c>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
       <c r="Z29" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="AA29" s="29"/>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD29" s="26"/>
+      <c r="AA29" s="26"/>
+      <c r="AB29" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC29" s="26"/>
+      <c r="AD29" s="15"/>
+      <c r="AMH29" s="0"/>
+      <c r="AMI29" s="0"/>
+      <c r="AMJ29" s="0"/>
     </row>
     <row r="30" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B30" s="15" t="n">
         <v>27</v>
@@ -25978,7 +25961,7 @@
       <c r="D30" s="29"/>
       <c r="E30" s="29"/>
       <c r="F30" s="15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
@@ -25987,49 +25970,50 @@
         <v>155</v>
       </c>
       <c r="K30" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="L30" s="15"/>
+        <v>67</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="M30" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="N30" s="15" t="s">
         <v>170</v>
       </c>
+      <c r="N30" s="15"/>
       <c r="O30" s="15"/>
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
+      <c r="R30" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="S30" s="15" t="s">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c r="T30" s="15" t="s">
-        <v>170</v>
+        <v>62</v>
       </c>
       <c r="U30" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="V30" s="15" t="s">
         <v>171</v>
       </c>
+      <c r="V30" s="15"/>
       <c r="W30" s="15"/>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="15" t="s">
-        <v>150</v>
-      </c>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
       <c r="Z30" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="AA30" s="29"/>
-      <c r="AB30" s="29"/>
-      <c r="AC30" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD30" s="26"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC30" s="26"/>
+      <c r="AD30" s="15"/>
+      <c r="AMH30" s="0"/>
+      <c r="AMI30" s="0"/>
+      <c r="AMJ30" s="0"/>
     </row>
     <row r="31" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B31" s="15" t="n">
         <v>28</v>
@@ -26040,7 +26024,7 @@
       <c r="D31" s="29"/>
       <c r="E31" s="29"/>
       <c r="F31" s="15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
@@ -26049,49 +26033,50 @@
         <v>155</v>
       </c>
       <c r="K31" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="L31" s="15"/>
+        <v>67</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>85</v>
+      </c>
       <c r="M31" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="N31" s="15" t="s">
-        <v>85</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="N31" s="15"/>
       <c r="O31" s="15"/>
       <c r="P31" s="15"/>
       <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
+      <c r="R31" s="15" t="s">
+        <v>85</v>
+      </c>
       <c r="S31" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="T31" s="15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="U31" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="V31" s="15" t="s">
-        <v>87</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="V31" s="15"/>
       <c r="W31" s="15"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="15" t="s">
-        <v>150</v>
-      </c>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
       <c r="Z31" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="AA31" s="29"/>
-      <c r="AB31" s="29"/>
-      <c r="AC31" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD31" s="26"/>
+      <c r="AA31" s="26"/>
+      <c r="AB31" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC31" s="26"/>
+      <c r="AD31" s="15"/>
+      <c r="AMH31" s="0"/>
+      <c r="AMI31" s="0"/>
+      <c r="AMJ31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B32" s="15" t="n">
         <v>29</v>
@@ -26102,7 +26087,7 @@
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
       <c r="F32" s="15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -26111,57 +26096,55 @@
         <v>155</v>
       </c>
       <c r="K32" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="L32" s="15"/>
+        <v>67</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="M32" s="15" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="N32" s="15" t="s">
-        <v>174</v>
+        <v>60</v>
       </c>
       <c r="O32" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="P32" s="15" t="s">
-        <v>69</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P32" s="15"/>
       <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
+      <c r="R32" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="S32" s="15" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="T32" s="15" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="U32" s="15" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="V32" s="15" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="W32" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="X32" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y32" s="15" t="s">
-        <v>150</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="33"/>
       <c r="Z32" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="AA32" s="33"/>
-      <c r="AB32" s="33"/>
-      <c r="AC32" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD32" s="26"/>
+      <c r="AA32" s="26"/>
+      <c r="AB32" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC32" s="26"/>
+      <c r="AD32" s="15"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B33" s="15" t="n">
         <v>30</v>
@@ -26172,7 +26155,7 @@
       <c r="D33" s="29"/>
       <c r="E33" s="29"/>
       <c r="F33" s="15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
@@ -26181,49 +26164,47 @@
         <v>155</v>
       </c>
       <c r="K33" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="L33" s="15"/>
+        <v>67</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="M33" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="N33" s="15" t="s">
         <v>164</v>
       </c>
+      <c r="N33" s="15"/>
       <c r="O33" s="15"/>
       <c r="P33" s="15"/>
       <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
+      <c r="R33" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="S33" s="15" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="T33" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="U33" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="U33" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="V33" s="15" t="s">
-        <v>110</v>
-      </c>
+      <c r="V33" s="15"/>
       <c r="W33" s="15"/>
-      <c r="X33" s="15"/>
-      <c r="Y33" s="15" t="s">
-        <v>150</v>
-      </c>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="29"/>
       <c r="Z33" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="AA33" s="29"/>
-      <c r="AB33" s="29"/>
-      <c r="AC33" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD33" s="26"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="15"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B34" s="15" t="n">
         <v>31</v>
@@ -26234,7 +26215,7 @@
       <c r="D34" s="29"/>
       <c r="E34" s="29"/>
       <c r="F34" s="15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -26243,53 +26224,51 @@
         <v>155</v>
       </c>
       <c r="K34" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="L34" s="15"/>
+        <v>67</v>
+      </c>
+      <c r="L34" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="M34" s="15" t="s">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c r="N34" s="15" t="s">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="O34" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="P34" s="15" t="s">
         <v>156</v>
       </c>
+      <c r="P34" s="15"/>
       <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
+      <c r="R34" s="15" t="s">
+        <v>85</v>
+      </c>
       <c r="S34" s="15" t="s">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c r="T34" s="15" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="U34" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="V34" s="15" t="s">
         <v>178</v>
       </c>
+      <c r="V34" s="15"/>
       <c r="W34" s="15"/>
-      <c r="X34" s="15"/>
-      <c r="Y34" s="15" t="s">
-        <v>150</v>
-      </c>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
       <c r="Z34" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="AA34" s="29"/>
-      <c r="AB34" s="29"/>
-      <c r="AC34" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD34" s="26"/>
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC34" s="26"/>
+      <c r="AD34" s="15"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B35" s="15" t="n">
         <v>32</v>
@@ -26300,7 +26279,7 @@
       <c r="D35" s="29"/>
       <c r="E35" s="29"/>
       <c r="F35" s="15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
@@ -26309,49 +26288,49 @@
         <v>155</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="L35" s="15"/>
+        <v>75</v>
+      </c>
+      <c r="L35" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="M35" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="N35" s="15" t="s">
         <v>163</v>
       </c>
+      <c r="N35" s="15"/>
       <c r="O35" s="15"/>
       <c r="P35" s="15"/>
       <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
+      <c r="R35" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="S35" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="T35" s="15" t="s">
-        <v>110</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="T35" s="15"/>
       <c r="U35" s="15"/>
       <c r="V35" s="15"/>
       <c r="W35" s="15"/>
       <c r="X35" s="15"/>
-      <c r="Y35" s="15" t="s">
-        <v>150</v>
-      </c>
+      <c r="Y35" s="15"/>
       <c r="Z35" s="15" t="n">
         <v>4</v>
       </c>
       <c r="AA35" s="15"/>
-      <c r="AB35" s="15"/>
-      <c r="AC35" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD35" s="26"/>
+      <c r="AB35" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC35" s="26"/>
+      <c r="AD35" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:AD35"/>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:Z1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:Y1"/>
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="R2:W2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -26558,9 +26537,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -26673,179 +26652,179 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="46" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46" t="n">
+      <c r="A2" s="47" t="n">
         <v>12</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="46" t="n">
+      <c r="C2" s="47" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="46" t="n">
+      <c r="A3" s="47" t="n">
         <v>12</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="46" t="n">
+      <c r="C3" s="47" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="46" t="n">
+      <c r="A4" s="47" t="n">
         <v>12</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="46" t="n">
+      <c r="C4" s="47" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="46" t="n">
+      <c r="A5" s="47" t="n">
         <v>13</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="C5" s="46" t="n">
+      <c r="C5" s="47" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46" t="n">
+      <c r="A6" s="47" t="n">
         <v>14</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="46" t="n">
+      <c r="C6" s="47" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="46" t="n">
+      <c r="A7" s="47" t="n">
         <v>14</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="C7" s="46" t="n">
+      <c r="C7" s="47" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="46" t="n">
+      <c r="A8" s="47" t="n">
         <v>15</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="46" t="n">
+      <c r="C8" s="47" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="46" t="n">
+      <c r="A9" s="47" t="n">
         <v>18</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="C9" s="46" t="n">
+      <c r="C9" s="47" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="46" t="n">
+      <c r="A10" s="47" t="n">
         <v>18</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="C10" s="46" t="n">
+      <c r="C10" s="47" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="46" t="n">
+      <c r="A11" s="47" t="n">
         <v>20</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="C11" s="46"/>
+      <c r="C11" s="47"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="46" t="n">
+      <c r="A12" s="47" t="n">
         <v>21</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="C12" s="46"/>
+      <c r="C12" s="47"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="46" t="n">
+      <c r="A13" s="47" t="n">
         <v>22</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="46" t="n">
+      <c r="C13" s="47" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="46" t="n">
+      <c r="A14" s="47" t="n">
         <v>23</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="C14" s="46" t="n">
+      <c r="C14" s="47" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="46" t="n">
+      <c r="A15" s="47" t="n">
         <v>24</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="C15" s="46" t="n">
+      <c r="C15" s="47" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="46" t="n">
+      <c r="A16" s="47" t="n">
         <v>25</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="C16" s="46" t="n">
+      <c r="C16" s="47" t="n">
         <v>50</v>
       </c>
     </row>

--- a/Projects/PNGRO/Data/Template.xlsx
+++ b/Projects/PNGRO/Data/Template.xlsx
@@ -5,35 +5,36 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Eye-level" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="SBD_kpis" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="display weight" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="eye_level_parameters" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="retailer_targets" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="SBD_kpis" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="display weight" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="eye_level_parameters" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="retailer_targets" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">SBD_kpis!$A$3:$AD$35</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">SBD_kpis!$A$3:$AC$35</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">SBD_kpis!$A$3:$AC$35</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">SBD_kpis!$A$3:$AD$35</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">SBD_kpis!$A$3:$AC$35</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">SBD_kpis!$A$3:$AD$35</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">SBD_kpis!$A$3:$AC$35</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">SBD_kpis!$A$3:$AC$35</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -44,7 +45,7 @@
 </workbook>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author/>
@@ -81,61 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="209">
-  <si>
-    <t xml:space="preserve">Retailer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of shelves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shelf number for the eye level counting from the bottom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auchan version 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oral Care</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auchan version 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KAUFLAND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARREFOUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,4,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARREFOUR M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEGA IMAGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mega Image Shop &amp; Go</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROFI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENNY</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="200">
   <si>
     <t xml:space="preserve">General Data</t>
   </si>
@@ -165,6 +112,9 @@
   </si>
   <si>
     <t xml:space="preserve">KPI Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category</t>
   </si>
   <si>
     <t xml:space="preserve">KPI Group Name</t>
@@ -414,6 +364,9 @@
     <t xml:space="preserve">POC listed and placed within brushing</t>
   </si>
   <si>
+    <t xml:space="preserve">Oral Care</t>
+  </si>
+  <si>
     <t xml:space="preserve">Relative Position</t>
   </si>
   <si>
@@ -445,6 +398,9 @@
   </si>
   <si>
     <t xml:space="preserve">ORAL CARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,4,5</t>
   </si>
   <si>
     <t xml:space="preserve">segment = poc(power oral care) and PG at eye level according to eye level matrix (TBD)</t>
@@ -480,10 +436,16 @@
     <t xml:space="preserve">SRP</t>
   </si>
   <si>
+    <t xml:space="preserve">sos_facings_ignore_stack; facings SRP of Fairy/facings of Fairy</t>
+  </si>
+  <si>
     <t xml:space="preserve">Head&amp;Shoulders at eye level</t>
   </si>
   <si>
     <t xml:space="preserve">Eye Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skus of H&amp;S on eye_level as defined by eye_lvl_matrix</t>
   </si>
   <si>
     <t xml:space="preserve">Availability of Venus rack</t>
@@ -499,6 +461,9 @@
   </si>
   <si>
     <t xml:space="preserve">tbd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">share of displays with certain display_name out of all displays</t>
   </si>
   <si>
     <t xml:space="preserve">Fairy HDW permanent rack x 2 /store</t>
@@ -708,7 +673,16 @@
     <t xml:space="preserve">AUCHAN</t>
   </si>
   <si>
+    <t xml:space="preserve">PROFI</t>
+  </si>
+  <si>
     <t xml:space="preserve">SELGROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARREFOUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEGA IMAGE</t>
   </si>
 </sst>
 </file>
@@ -742,13 +716,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="16"/>
       <color rgb="FFFFFFFF"/>
@@ -780,6 +747,13 @@
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -828,42 +802,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
-        <bgColor rgb="FFF4BE49"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8FAADC"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA9D18E"/>
-        <bgColor rgb="FF99CCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -874,13 +818,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF4BE49"/>
-        <bgColor rgb="FFFFD966"/>
+        <bgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCFE7F5"/>
         <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -984,7 +934,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1008,41 +958,9 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1050,35 +968,63 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1086,59 +1032,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1146,7 +1064,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1162,59 +1080,58 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1232,9 +1149,9 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFA9D18E"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF8FAADC"/>
+      <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCFE7F5"/>
@@ -1257,7 +1174,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFD966"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -1288,559 +1205,1328 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K29" activeCellId="0" sqref="K29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="1018" min="5" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="8.57085020242915"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="3" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" s="6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D15" s="7"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="1:35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA34" activeCellId="0" sqref="AA34"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AD18" activeCellId="0" sqref="AD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="49.0607287449393"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="8" width="14.8825910931174"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="8" width="11.8704453441296"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="8" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="8" width="21.4939271255061"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="8" width="28.1578947368421"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="8" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="8" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="8" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="8" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="8" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="8" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="8" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="8" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="8" width="30.7004048582996"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="8" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="8" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="8" width="16.9595141700405"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="8" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="8" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="8" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="28" min="26" style="8" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="8" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="8" width="85.2672064777328"/>
-    <col collapsed="false" hidden="false" max="1019" min="31" style="8" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="49.8097165991903"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.3562753036437"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="28" min="26" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="86.7651821862348"/>
+    <col collapsed="false" hidden="false" max="1019" min="31" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD1" s="9"/>
+    <row r="1" s="4" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" s="2"/>
       <c r="AMH1" s="0"/>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="11" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10" t="s">
+    <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="0"/>
+      <c r="AF2" s="0"/>
+      <c r="AG2" s="0"/>
+      <c r="AH2" s="0"/>
+      <c r="AI2" s="0"/>
+      <c r="AJ2" s="0"/>
+      <c r="AK2" s="0"/>
+      <c r="AL2" s="0"/>
+      <c r="AM2" s="0"/>
+      <c r="AN2" s="0"/>
+      <c r="AO2" s="0"/>
+      <c r="AP2" s="0"/>
+      <c r="AQ2" s="0"/>
+      <c r="AR2" s="0"/>
+      <c r="AS2" s="0"/>
+      <c r="AT2" s="0"/>
+      <c r="AU2" s="0"/>
+      <c r="AV2" s="0"/>
+      <c r="AW2" s="0"/>
+      <c r="AX2" s="0"/>
+      <c r="AY2" s="0"/>
+      <c r="AZ2" s="0"/>
+      <c r="BA2" s="0"/>
+      <c r="BB2" s="0"/>
+      <c r="BC2" s="0"/>
+      <c r="BD2" s="0"/>
+      <c r="BE2" s="0"/>
+      <c r="BF2" s="0"/>
+      <c r="BG2" s="0"/>
+      <c r="BH2" s="0"/>
+      <c r="BI2" s="0"/>
+      <c r="BJ2" s="0"/>
+      <c r="BK2" s="0"/>
+      <c r="BL2" s="0"/>
+      <c r="BM2" s="0"/>
+      <c r="BN2" s="0"/>
+      <c r="BO2" s="0"/>
+      <c r="BP2" s="0"/>
+      <c r="BQ2" s="0"/>
+      <c r="BR2" s="0"/>
+      <c r="BS2" s="0"/>
+      <c r="BT2" s="0"/>
+      <c r="BU2" s="0"/>
+      <c r="BV2" s="0"/>
+      <c r="BW2" s="0"/>
+      <c r="BX2" s="0"/>
+      <c r="BY2" s="0"/>
+      <c r="BZ2" s="0"/>
+      <c r="CA2" s="0"/>
+      <c r="CB2" s="0"/>
+      <c r="CC2" s="0"/>
+      <c r="CD2" s="0"/>
+      <c r="CE2" s="0"/>
+      <c r="CF2" s="0"/>
+      <c r="CG2" s="0"/>
+      <c r="CH2" s="0"/>
+      <c r="CI2" s="0"/>
+      <c r="CJ2" s="0"/>
+      <c r="CK2" s="0"/>
+      <c r="CL2" s="0"/>
+      <c r="CM2" s="0"/>
+      <c r="CN2" s="0"/>
+      <c r="CO2" s="0"/>
+      <c r="CP2" s="0"/>
+      <c r="CQ2" s="0"/>
+      <c r="CR2" s="0"/>
+      <c r="CS2" s="0"/>
+      <c r="CT2" s="0"/>
+      <c r="CU2" s="0"/>
+      <c r="CV2" s="0"/>
+      <c r="CW2" s="0"/>
+      <c r="CX2" s="0"/>
+      <c r="CY2" s="0"/>
+      <c r="CZ2" s="0"/>
+      <c r="DA2" s="0"/>
+      <c r="DB2" s="0"/>
+      <c r="DC2" s="0"/>
+      <c r="DD2" s="0"/>
+      <c r="DE2" s="0"/>
+      <c r="DF2" s="0"/>
+      <c r="DG2" s="0"/>
+      <c r="DH2" s="0"/>
+      <c r="DI2" s="0"/>
+      <c r="DJ2" s="0"/>
+      <c r="DK2" s="0"/>
+      <c r="DL2" s="0"/>
+      <c r="DM2" s="0"/>
+      <c r="DN2" s="0"/>
+      <c r="DO2" s="0"/>
+      <c r="DP2" s="0"/>
+      <c r="DQ2" s="0"/>
+      <c r="DR2" s="0"/>
+      <c r="DS2" s="0"/>
+      <c r="DT2" s="0"/>
+      <c r="DU2" s="0"/>
+      <c r="DV2" s="0"/>
+      <c r="DW2" s="0"/>
+      <c r="DX2" s="0"/>
+      <c r="DY2" s="0"/>
+      <c r="DZ2" s="0"/>
+      <c r="EA2" s="0"/>
+      <c r="EB2" s="0"/>
+      <c r="EC2" s="0"/>
+      <c r="ED2" s="0"/>
+      <c r="EE2" s="0"/>
+      <c r="EF2" s="0"/>
+      <c r="EG2" s="0"/>
+      <c r="EH2" s="0"/>
+      <c r="EI2" s="0"/>
+      <c r="EJ2" s="0"/>
+      <c r="EK2" s="0"/>
+      <c r="EL2" s="0"/>
+      <c r="EM2" s="0"/>
+      <c r="EN2" s="0"/>
+      <c r="EO2" s="0"/>
+      <c r="EP2" s="0"/>
+      <c r="EQ2" s="0"/>
+      <c r="ER2" s="0"/>
+      <c r="ES2" s="0"/>
+      <c r="ET2" s="0"/>
+      <c r="EU2" s="0"/>
+      <c r="EV2" s="0"/>
+      <c r="EW2" s="0"/>
+      <c r="EX2" s="0"/>
+      <c r="EY2" s="0"/>
+      <c r="EZ2" s="0"/>
+      <c r="FA2" s="0"/>
+      <c r="FB2" s="0"/>
+      <c r="FC2" s="0"/>
+      <c r="FD2" s="0"/>
+      <c r="FE2" s="0"/>
+      <c r="FF2" s="0"/>
+      <c r="FG2" s="0"/>
+      <c r="FH2" s="0"/>
+      <c r="FI2" s="0"/>
+      <c r="FJ2" s="0"/>
+      <c r="FK2" s="0"/>
+      <c r="FL2" s="0"/>
+      <c r="FM2" s="0"/>
+      <c r="FN2" s="0"/>
+      <c r="FO2" s="0"/>
+      <c r="FP2" s="0"/>
+      <c r="FQ2" s="0"/>
+      <c r="FR2" s="0"/>
+      <c r="FS2" s="0"/>
+      <c r="FT2" s="0"/>
+      <c r="FU2" s="0"/>
+      <c r="FV2" s="0"/>
+      <c r="FW2" s="0"/>
+      <c r="FX2" s="0"/>
+      <c r="FY2" s="0"/>
+      <c r="FZ2" s="0"/>
+      <c r="GA2" s="0"/>
+      <c r="GB2" s="0"/>
+      <c r="GC2" s="0"/>
+      <c r="GD2" s="0"/>
+      <c r="GE2" s="0"/>
+      <c r="GF2" s="0"/>
+      <c r="GG2" s="0"/>
+      <c r="GH2" s="0"/>
+      <c r="GI2" s="0"/>
+      <c r="GJ2" s="0"/>
+      <c r="GK2" s="0"/>
+      <c r="GL2" s="0"/>
+      <c r="GM2" s="0"/>
+      <c r="GN2" s="0"/>
+      <c r="GO2" s="0"/>
+      <c r="GP2" s="0"/>
+      <c r="GQ2" s="0"/>
+      <c r="GR2" s="0"/>
+      <c r="GS2" s="0"/>
+      <c r="GT2" s="0"/>
+      <c r="GU2" s="0"/>
+      <c r="GV2" s="0"/>
+      <c r="GW2" s="0"/>
+      <c r="GX2" s="0"/>
+      <c r="GY2" s="0"/>
+      <c r="GZ2" s="0"/>
+      <c r="HA2" s="0"/>
+      <c r="HB2" s="0"/>
+      <c r="HC2" s="0"/>
+      <c r="HD2" s="0"/>
+      <c r="HE2" s="0"/>
+      <c r="HF2" s="0"/>
+      <c r="HG2" s="0"/>
+      <c r="HH2" s="0"/>
+      <c r="HI2" s="0"/>
+      <c r="HJ2" s="0"/>
+      <c r="HK2" s="0"/>
+      <c r="HL2" s="0"/>
+      <c r="HM2" s="0"/>
+      <c r="HN2" s="0"/>
+      <c r="HO2" s="0"/>
+      <c r="HP2" s="0"/>
+      <c r="HQ2" s="0"/>
+      <c r="HR2" s="0"/>
+      <c r="HS2" s="0"/>
+      <c r="HT2" s="0"/>
+      <c r="HU2" s="0"/>
+      <c r="HV2" s="0"/>
+      <c r="HW2" s="0"/>
+      <c r="HX2" s="0"/>
+      <c r="HY2" s="0"/>
+      <c r="HZ2" s="0"/>
+      <c r="IA2" s="0"/>
+      <c r="IB2" s="0"/>
+      <c r="IC2" s="0"/>
+      <c r="ID2" s="0"/>
+      <c r="IE2" s="0"/>
+      <c r="IF2" s="0"/>
+      <c r="IG2" s="0"/>
+      <c r="IH2" s="0"/>
+      <c r="II2" s="0"/>
+      <c r="IJ2" s="0"/>
+      <c r="IK2" s="0"/>
+      <c r="IL2" s="0"/>
+      <c r="IM2" s="0"/>
+      <c r="IN2" s="0"/>
+      <c r="IO2" s="0"/>
+      <c r="IP2" s="0"/>
+      <c r="IQ2" s="0"/>
+      <c r="IR2" s="0"/>
+      <c r="IS2" s="0"/>
+      <c r="IT2" s="0"/>
+      <c r="IU2" s="0"/>
+      <c r="IV2" s="0"/>
+      <c r="IW2" s="0"/>
+      <c r="IX2" s="0"/>
+      <c r="IY2" s="0"/>
+      <c r="IZ2" s="0"/>
+      <c r="JA2" s="0"/>
+      <c r="JB2" s="0"/>
+      <c r="JC2" s="0"/>
+      <c r="JD2" s="0"/>
+      <c r="JE2" s="0"/>
+      <c r="JF2" s="0"/>
+      <c r="JG2" s="0"/>
+      <c r="JH2" s="0"/>
+      <c r="JI2" s="0"/>
+      <c r="JJ2" s="0"/>
+      <c r="JK2" s="0"/>
+      <c r="JL2" s="0"/>
+      <c r="JM2" s="0"/>
+      <c r="JN2" s="0"/>
+      <c r="JO2" s="0"/>
+      <c r="JP2" s="0"/>
+      <c r="JQ2" s="0"/>
+      <c r="JR2" s="0"/>
+      <c r="JS2" s="0"/>
+      <c r="JT2" s="0"/>
+      <c r="JU2" s="0"/>
+      <c r="JV2" s="0"/>
+      <c r="JW2" s="0"/>
+      <c r="JX2" s="0"/>
+      <c r="JY2" s="0"/>
+      <c r="JZ2" s="0"/>
+      <c r="KA2" s="0"/>
+      <c r="KB2" s="0"/>
+      <c r="KC2" s="0"/>
+      <c r="KD2" s="0"/>
+      <c r="KE2" s="0"/>
+      <c r="KF2" s="0"/>
+      <c r="KG2" s="0"/>
+      <c r="KH2" s="0"/>
+      <c r="KI2" s="0"/>
+      <c r="KJ2" s="0"/>
+      <c r="KK2" s="0"/>
+      <c r="KL2" s="0"/>
+      <c r="KM2" s="0"/>
+      <c r="KN2" s="0"/>
+      <c r="KO2" s="0"/>
+      <c r="KP2" s="0"/>
+      <c r="KQ2" s="0"/>
+      <c r="KR2" s="0"/>
+      <c r="KS2" s="0"/>
+      <c r="KT2" s="0"/>
+      <c r="KU2" s="0"/>
+      <c r="KV2" s="0"/>
+      <c r="KW2" s="0"/>
+      <c r="KX2" s="0"/>
+      <c r="KY2" s="0"/>
+      <c r="KZ2" s="0"/>
+      <c r="LA2" s="0"/>
+      <c r="LB2" s="0"/>
+      <c r="LC2" s="0"/>
+      <c r="LD2" s="0"/>
+      <c r="LE2" s="0"/>
+      <c r="LF2" s="0"/>
+      <c r="LG2" s="0"/>
+      <c r="LH2" s="0"/>
+      <c r="LI2" s="0"/>
+      <c r="LJ2" s="0"/>
+      <c r="LK2" s="0"/>
+      <c r="LL2" s="0"/>
+      <c r="LM2" s="0"/>
+      <c r="LN2" s="0"/>
+      <c r="LO2" s="0"/>
+      <c r="LP2" s="0"/>
+      <c r="LQ2" s="0"/>
+      <c r="LR2" s="0"/>
+      <c r="LS2" s="0"/>
+      <c r="LT2" s="0"/>
+      <c r="LU2" s="0"/>
+      <c r="LV2" s="0"/>
+      <c r="LW2" s="0"/>
+      <c r="LX2" s="0"/>
+      <c r="LY2" s="0"/>
+      <c r="LZ2" s="0"/>
+      <c r="MA2" s="0"/>
+      <c r="MB2" s="0"/>
+      <c r="MC2" s="0"/>
+      <c r="MD2" s="0"/>
+      <c r="ME2" s="0"/>
+      <c r="MF2" s="0"/>
+      <c r="MG2" s="0"/>
+      <c r="MH2" s="0"/>
+      <c r="MI2" s="0"/>
+      <c r="MJ2" s="0"/>
+      <c r="MK2" s="0"/>
+      <c r="ML2" s="0"/>
+      <c r="MM2" s="0"/>
+      <c r="MN2" s="0"/>
+      <c r="MO2" s="0"/>
+      <c r="MP2" s="0"/>
+      <c r="MQ2" s="0"/>
+      <c r="MR2" s="0"/>
+      <c r="MS2" s="0"/>
+      <c r="MT2" s="0"/>
+      <c r="MU2" s="0"/>
+      <c r="MV2" s="0"/>
+      <c r="MW2" s="0"/>
+      <c r="MX2" s="0"/>
+      <c r="MY2" s="0"/>
+      <c r="MZ2" s="0"/>
+      <c r="NA2" s="0"/>
+      <c r="NB2" s="0"/>
+      <c r="NC2" s="0"/>
+      <c r="ND2" s="0"/>
+      <c r="NE2" s="0"/>
+      <c r="NF2" s="0"/>
+      <c r="NG2" s="0"/>
+      <c r="NH2" s="0"/>
+      <c r="NI2" s="0"/>
+      <c r="NJ2" s="0"/>
+      <c r="NK2" s="0"/>
+      <c r="NL2" s="0"/>
+      <c r="NM2" s="0"/>
+      <c r="NN2" s="0"/>
+      <c r="NO2" s="0"/>
+      <c r="NP2" s="0"/>
+      <c r="NQ2" s="0"/>
+      <c r="NR2" s="0"/>
+      <c r="NS2" s="0"/>
+      <c r="NT2" s="0"/>
+      <c r="NU2" s="0"/>
+      <c r="NV2" s="0"/>
+      <c r="NW2" s="0"/>
+      <c r="NX2" s="0"/>
+      <c r="NY2" s="0"/>
+      <c r="NZ2" s="0"/>
+      <c r="OA2" s="0"/>
+      <c r="OB2" s="0"/>
+      <c r="OC2" s="0"/>
+      <c r="OD2" s="0"/>
+      <c r="OE2" s="0"/>
+      <c r="OF2" s="0"/>
+      <c r="OG2" s="0"/>
+      <c r="OH2" s="0"/>
+      <c r="OI2" s="0"/>
+      <c r="OJ2" s="0"/>
+      <c r="OK2" s="0"/>
+      <c r="OL2" s="0"/>
+      <c r="OM2" s="0"/>
+      <c r="ON2" s="0"/>
+      <c r="OO2" s="0"/>
+      <c r="OP2" s="0"/>
+      <c r="OQ2" s="0"/>
+      <c r="OR2" s="0"/>
+      <c r="OS2" s="0"/>
+      <c r="OT2" s="0"/>
+      <c r="OU2" s="0"/>
+      <c r="OV2" s="0"/>
+      <c r="OW2" s="0"/>
+      <c r="OX2" s="0"/>
+      <c r="OY2" s="0"/>
+      <c r="OZ2" s="0"/>
+      <c r="PA2" s="0"/>
+      <c r="PB2" s="0"/>
+      <c r="PC2" s="0"/>
+      <c r="PD2" s="0"/>
+      <c r="PE2" s="0"/>
+      <c r="PF2" s="0"/>
+      <c r="PG2" s="0"/>
+      <c r="PH2" s="0"/>
+      <c r="PI2" s="0"/>
+      <c r="PJ2" s="0"/>
+      <c r="PK2" s="0"/>
+      <c r="PL2" s="0"/>
+      <c r="PM2" s="0"/>
+      <c r="PN2" s="0"/>
+      <c r="PO2" s="0"/>
+      <c r="PP2" s="0"/>
+      <c r="PQ2" s="0"/>
+      <c r="PR2" s="0"/>
+      <c r="PS2" s="0"/>
+      <c r="PT2" s="0"/>
+      <c r="PU2" s="0"/>
+      <c r="PV2" s="0"/>
+      <c r="PW2" s="0"/>
+      <c r="PX2" s="0"/>
+      <c r="PY2" s="0"/>
+      <c r="PZ2" s="0"/>
+      <c r="QA2" s="0"/>
+      <c r="QB2" s="0"/>
+      <c r="QC2" s="0"/>
+      <c r="QD2" s="0"/>
+      <c r="QE2" s="0"/>
+      <c r="QF2" s="0"/>
+      <c r="QG2" s="0"/>
+      <c r="QH2" s="0"/>
+      <c r="QI2" s="0"/>
+      <c r="QJ2" s="0"/>
+      <c r="QK2" s="0"/>
+      <c r="QL2" s="0"/>
+      <c r="QM2" s="0"/>
+      <c r="QN2" s="0"/>
+      <c r="QO2" s="0"/>
+      <c r="QP2" s="0"/>
+      <c r="QQ2" s="0"/>
+      <c r="QR2" s="0"/>
+      <c r="QS2" s="0"/>
+      <c r="QT2" s="0"/>
+      <c r="QU2" s="0"/>
+      <c r="QV2" s="0"/>
+      <c r="QW2" s="0"/>
+      <c r="QX2" s="0"/>
+      <c r="QY2" s="0"/>
+      <c r="QZ2" s="0"/>
+      <c r="RA2" s="0"/>
+      <c r="RB2" s="0"/>
+      <c r="RC2" s="0"/>
+      <c r="RD2" s="0"/>
+      <c r="RE2" s="0"/>
+      <c r="RF2" s="0"/>
+      <c r="RG2" s="0"/>
+      <c r="RH2" s="0"/>
+      <c r="RI2" s="0"/>
+      <c r="RJ2" s="0"/>
+      <c r="RK2" s="0"/>
+      <c r="RL2" s="0"/>
+      <c r="RM2" s="0"/>
+      <c r="RN2" s="0"/>
+      <c r="RO2" s="0"/>
+      <c r="RP2" s="0"/>
+      <c r="RQ2" s="0"/>
+      <c r="RR2" s="0"/>
+      <c r="RS2" s="0"/>
+      <c r="RT2" s="0"/>
+      <c r="RU2" s="0"/>
+      <c r="RV2" s="0"/>
+      <c r="RW2" s="0"/>
+      <c r="RX2" s="0"/>
+      <c r="RY2" s="0"/>
+      <c r="RZ2" s="0"/>
+      <c r="SA2" s="0"/>
+      <c r="SB2" s="0"/>
+      <c r="SC2" s="0"/>
+      <c r="SD2" s="0"/>
+      <c r="SE2" s="0"/>
+      <c r="SF2" s="0"/>
+      <c r="SG2" s="0"/>
+      <c r="SH2" s="0"/>
+      <c r="SI2" s="0"/>
+      <c r="SJ2" s="0"/>
+      <c r="SK2" s="0"/>
+      <c r="SL2" s="0"/>
+      <c r="SM2" s="0"/>
+      <c r="SN2" s="0"/>
+      <c r="SO2" s="0"/>
+      <c r="SP2" s="0"/>
+      <c r="SQ2" s="0"/>
+      <c r="SR2" s="0"/>
+      <c r="SS2" s="0"/>
+      <c r="ST2" s="0"/>
+      <c r="SU2" s="0"/>
+      <c r="SV2" s="0"/>
+      <c r="SW2" s="0"/>
+      <c r="SX2" s="0"/>
+      <c r="SY2" s="0"/>
+      <c r="SZ2" s="0"/>
+      <c r="TA2" s="0"/>
+      <c r="TB2" s="0"/>
+      <c r="TC2" s="0"/>
+      <c r="TD2" s="0"/>
+      <c r="TE2" s="0"/>
+      <c r="TF2" s="0"/>
+      <c r="TG2" s="0"/>
+      <c r="TH2" s="0"/>
+      <c r="TI2" s="0"/>
+      <c r="TJ2" s="0"/>
+      <c r="TK2" s="0"/>
+      <c r="TL2" s="0"/>
+      <c r="TM2" s="0"/>
+      <c r="TN2" s="0"/>
+      <c r="TO2" s="0"/>
+      <c r="TP2" s="0"/>
+      <c r="TQ2" s="0"/>
+      <c r="TR2" s="0"/>
+      <c r="TS2" s="0"/>
+      <c r="TT2" s="0"/>
+      <c r="TU2" s="0"/>
+      <c r="TV2" s="0"/>
+      <c r="TW2" s="0"/>
+      <c r="TX2" s="0"/>
+      <c r="TY2" s="0"/>
+      <c r="TZ2" s="0"/>
+      <c r="UA2" s="0"/>
+      <c r="UB2" s="0"/>
+      <c r="UC2" s="0"/>
+      <c r="UD2" s="0"/>
+      <c r="UE2" s="0"/>
+      <c r="UF2" s="0"/>
+      <c r="UG2" s="0"/>
+      <c r="UH2" s="0"/>
+      <c r="UI2" s="0"/>
+      <c r="UJ2" s="0"/>
+      <c r="UK2" s="0"/>
+      <c r="UL2" s="0"/>
+      <c r="UM2" s="0"/>
+      <c r="UN2" s="0"/>
+      <c r="UO2" s="0"/>
+      <c r="UP2" s="0"/>
+      <c r="UQ2" s="0"/>
+      <c r="UR2" s="0"/>
+      <c r="US2" s="0"/>
+      <c r="UT2" s="0"/>
+      <c r="UU2" s="0"/>
+      <c r="UV2" s="0"/>
+      <c r="UW2" s="0"/>
+      <c r="UX2" s="0"/>
+      <c r="UY2" s="0"/>
+      <c r="UZ2" s="0"/>
+      <c r="VA2" s="0"/>
+      <c r="VB2" s="0"/>
+      <c r="VC2" s="0"/>
+      <c r="VD2" s="0"/>
+      <c r="VE2" s="0"/>
+      <c r="VF2" s="0"/>
+      <c r="VG2" s="0"/>
+      <c r="VH2" s="0"/>
+      <c r="VI2" s="0"/>
+      <c r="VJ2" s="0"/>
+      <c r="VK2" s="0"/>
+      <c r="VL2" s="0"/>
+      <c r="VM2" s="0"/>
+      <c r="VN2" s="0"/>
+      <c r="VO2" s="0"/>
+      <c r="VP2" s="0"/>
+      <c r="VQ2" s="0"/>
+      <c r="VR2" s="0"/>
+      <c r="VS2" s="0"/>
+      <c r="VT2" s="0"/>
+      <c r="VU2" s="0"/>
+      <c r="VV2" s="0"/>
+      <c r="VW2" s="0"/>
+      <c r="VX2" s="0"/>
+      <c r="VY2" s="0"/>
+      <c r="VZ2" s="0"/>
+      <c r="WA2" s="0"/>
+      <c r="WB2" s="0"/>
+      <c r="WC2" s="0"/>
+      <c r="WD2" s="0"/>
+      <c r="WE2" s="0"/>
+      <c r="WF2" s="0"/>
+      <c r="WG2" s="0"/>
+      <c r="WH2" s="0"/>
+      <c r="WI2" s="0"/>
+      <c r="WJ2" s="0"/>
+      <c r="WK2" s="0"/>
+      <c r="WL2" s="0"/>
+      <c r="WM2" s="0"/>
+      <c r="WN2" s="0"/>
+      <c r="WO2" s="0"/>
+      <c r="WP2" s="0"/>
+      <c r="WQ2" s="0"/>
+      <c r="WR2" s="0"/>
+      <c r="WS2" s="0"/>
+      <c r="WT2" s="0"/>
+      <c r="WU2" s="0"/>
+      <c r="WV2" s="0"/>
+      <c r="WW2" s="0"/>
+      <c r="WX2" s="0"/>
+      <c r="WY2" s="0"/>
+      <c r="WZ2" s="0"/>
+      <c r="XA2" s="0"/>
+      <c r="XB2" s="0"/>
+      <c r="XC2" s="0"/>
+      <c r="XD2" s="0"/>
+      <c r="XE2" s="0"/>
+      <c r="XF2" s="0"/>
+      <c r="XG2" s="0"/>
+      <c r="XH2" s="0"/>
+      <c r="XI2" s="0"/>
+      <c r="XJ2" s="0"/>
+      <c r="XK2" s="0"/>
+      <c r="XL2" s="0"/>
+      <c r="XM2" s="0"/>
+      <c r="XN2" s="0"/>
+      <c r="XO2" s="0"/>
+      <c r="XP2" s="0"/>
+      <c r="XQ2" s="0"/>
+      <c r="XR2" s="0"/>
+      <c r="XS2" s="0"/>
+      <c r="XT2" s="0"/>
+      <c r="XU2" s="0"/>
+      <c r="XV2" s="0"/>
+      <c r="XW2" s="0"/>
+      <c r="XX2" s="0"/>
+      <c r="XY2" s="0"/>
+      <c r="XZ2" s="0"/>
+      <c r="YA2" s="0"/>
+      <c r="YB2" s="0"/>
+      <c r="YC2" s="0"/>
+      <c r="YD2" s="0"/>
+      <c r="YE2" s="0"/>
+      <c r="YF2" s="0"/>
+      <c r="YG2" s="0"/>
+      <c r="YH2" s="0"/>
+      <c r="YI2" s="0"/>
+      <c r="YJ2" s="0"/>
+      <c r="YK2" s="0"/>
+      <c r="YL2" s="0"/>
+      <c r="YM2" s="0"/>
+      <c r="YN2" s="0"/>
+      <c r="YO2" s="0"/>
+      <c r="YP2" s="0"/>
+      <c r="YQ2" s="0"/>
+      <c r="YR2" s="0"/>
+      <c r="YS2" s="0"/>
+      <c r="YT2" s="0"/>
+      <c r="YU2" s="0"/>
+      <c r="YV2" s="0"/>
+      <c r="YW2" s="0"/>
+      <c r="YX2" s="0"/>
+      <c r="YY2" s="0"/>
+      <c r="YZ2" s="0"/>
+      <c r="ZA2" s="0"/>
+      <c r="ZB2" s="0"/>
+      <c r="ZC2" s="0"/>
+      <c r="ZD2" s="0"/>
+      <c r="ZE2" s="0"/>
+      <c r="ZF2" s="0"/>
+      <c r="ZG2" s="0"/>
+      <c r="ZH2" s="0"/>
+      <c r="ZI2" s="0"/>
+      <c r="ZJ2" s="0"/>
+      <c r="ZK2" s="0"/>
+      <c r="ZL2" s="0"/>
+      <c r="ZM2" s="0"/>
+      <c r="ZN2" s="0"/>
+      <c r="ZO2" s="0"/>
+      <c r="ZP2" s="0"/>
+      <c r="ZQ2" s="0"/>
+      <c r="ZR2" s="0"/>
+      <c r="ZS2" s="0"/>
+      <c r="ZT2" s="0"/>
+      <c r="ZU2" s="0"/>
+      <c r="ZV2" s="0"/>
+      <c r="ZW2" s="0"/>
+      <c r="ZX2" s="0"/>
+      <c r="ZY2" s="0"/>
+      <c r="ZZ2" s="0"/>
+      <c r="AAA2" s="0"/>
+      <c r="AAB2" s="0"/>
+      <c r="AAC2" s="0"/>
+      <c r="AAD2" s="0"/>
+      <c r="AAE2" s="0"/>
+      <c r="AAF2" s="0"/>
+      <c r="AAG2" s="0"/>
+      <c r="AAH2" s="0"/>
+      <c r="AAI2" s="0"/>
+      <c r="AAJ2" s="0"/>
+      <c r="AAK2" s="0"/>
+      <c r="AAL2" s="0"/>
+      <c r="AAM2" s="0"/>
+      <c r="AAN2" s="0"/>
+      <c r="AAO2" s="0"/>
+      <c r="AAP2" s="0"/>
+      <c r="AAQ2" s="0"/>
+      <c r="AAR2" s="0"/>
+      <c r="AAS2" s="0"/>
+      <c r="AAT2" s="0"/>
+      <c r="AAU2" s="0"/>
+      <c r="AAV2" s="0"/>
+      <c r="AAW2" s="0"/>
+      <c r="AAX2" s="0"/>
+      <c r="AAY2" s="0"/>
+      <c r="AAZ2" s="0"/>
+      <c r="ABA2" s="0"/>
+      <c r="ABB2" s="0"/>
+      <c r="ABC2" s="0"/>
+      <c r="ABD2" s="0"/>
+      <c r="ABE2" s="0"/>
+      <c r="ABF2" s="0"/>
+      <c r="ABG2" s="0"/>
+      <c r="ABH2" s="0"/>
+      <c r="ABI2" s="0"/>
+      <c r="ABJ2" s="0"/>
+      <c r="ABK2" s="0"/>
+      <c r="ABL2" s="0"/>
+      <c r="ABM2" s="0"/>
+      <c r="ABN2" s="0"/>
+      <c r="ABO2" s="0"/>
+      <c r="ABP2" s="0"/>
+      <c r="ABQ2" s="0"/>
+      <c r="ABR2" s="0"/>
+      <c r="ABS2" s="0"/>
+      <c r="ABT2" s="0"/>
+      <c r="ABU2" s="0"/>
+      <c r="ABV2" s="0"/>
+      <c r="ABW2" s="0"/>
+      <c r="ABX2" s="0"/>
+      <c r="ABY2" s="0"/>
+      <c r="ABZ2" s="0"/>
+      <c r="ACA2" s="0"/>
+      <c r="ACB2" s="0"/>
+      <c r="ACC2" s="0"/>
+      <c r="ACD2" s="0"/>
+      <c r="ACE2" s="0"/>
+      <c r="ACF2" s="0"/>
+      <c r="ACG2" s="0"/>
+      <c r="ACH2" s="0"/>
+      <c r="ACI2" s="0"/>
+      <c r="ACJ2" s="0"/>
+      <c r="ACK2" s="0"/>
+      <c r="ACL2" s="0"/>
+      <c r="ACM2" s="0"/>
+      <c r="ACN2" s="0"/>
+      <c r="ACO2" s="0"/>
+      <c r="ACP2" s="0"/>
+      <c r="ACQ2" s="0"/>
+      <c r="ACR2" s="0"/>
+      <c r="ACS2" s="0"/>
+      <c r="ACT2" s="0"/>
+      <c r="ACU2" s="0"/>
+      <c r="ACV2" s="0"/>
+      <c r="ACW2" s="0"/>
+      <c r="ACX2" s="0"/>
+      <c r="ACY2" s="0"/>
+      <c r="ACZ2" s="0"/>
+      <c r="ADA2" s="0"/>
+      <c r="ADB2" s="0"/>
+      <c r="ADC2" s="0"/>
+      <c r="ADD2" s="0"/>
+      <c r="ADE2" s="0"/>
+      <c r="ADF2" s="0"/>
+      <c r="ADG2" s="0"/>
+      <c r="ADH2" s="0"/>
+      <c r="ADI2" s="0"/>
+      <c r="ADJ2" s="0"/>
+      <c r="ADK2" s="0"/>
+      <c r="ADL2" s="0"/>
+      <c r="ADM2" s="0"/>
+      <c r="ADN2" s="0"/>
+      <c r="ADO2" s="0"/>
+      <c r="ADP2" s="0"/>
+      <c r="ADQ2" s="0"/>
+      <c r="ADR2" s="0"/>
+      <c r="ADS2" s="0"/>
+      <c r="ADT2" s="0"/>
+      <c r="ADU2" s="0"/>
+      <c r="ADV2" s="0"/>
+      <c r="ADW2" s="0"/>
+      <c r="ADX2" s="0"/>
+      <c r="ADY2" s="0"/>
+      <c r="ADZ2" s="0"/>
+      <c r="AEA2" s="0"/>
+      <c r="AEB2" s="0"/>
+      <c r="AEC2" s="0"/>
+      <c r="AED2" s="0"/>
+      <c r="AEE2" s="0"/>
+      <c r="AEF2" s="0"/>
+      <c r="AEG2" s="0"/>
+      <c r="AEH2" s="0"/>
+      <c r="AEI2" s="0"/>
+      <c r="AEJ2" s="0"/>
+      <c r="AEK2" s="0"/>
+      <c r="AEL2" s="0"/>
+      <c r="AEM2" s="0"/>
+      <c r="AEN2" s="0"/>
+      <c r="AEO2" s="0"/>
+      <c r="AEP2" s="0"/>
+      <c r="AEQ2" s="0"/>
+      <c r="AER2" s="0"/>
+      <c r="AES2" s="0"/>
+      <c r="AET2" s="0"/>
+      <c r="AEU2" s="0"/>
+      <c r="AEV2" s="0"/>
+      <c r="AEW2" s="0"/>
+      <c r="AEX2" s="0"/>
+      <c r="AEY2" s="0"/>
+      <c r="AEZ2" s="0"/>
+      <c r="AFA2" s="0"/>
+      <c r="AFB2" s="0"/>
+      <c r="AFC2" s="0"/>
+      <c r="AFD2" s="0"/>
+      <c r="AFE2" s="0"/>
+      <c r="AFF2" s="0"/>
+      <c r="AFG2" s="0"/>
+      <c r="AFH2" s="0"/>
+      <c r="AFI2" s="0"/>
+      <c r="AFJ2" s="0"/>
+      <c r="AFK2" s="0"/>
+      <c r="AFL2" s="0"/>
+      <c r="AFM2" s="0"/>
+      <c r="AFN2" s="0"/>
+      <c r="AFO2" s="0"/>
+      <c r="AFP2" s="0"/>
+      <c r="AFQ2" s="0"/>
+      <c r="AFR2" s="0"/>
+      <c r="AFS2" s="0"/>
+      <c r="AFT2" s="0"/>
+      <c r="AFU2" s="0"/>
+      <c r="AFV2" s="0"/>
+      <c r="AFW2" s="0"/>
+      <c r="AFX2" s="0"/>
+      <c r="AFY2" s="0"/>
+      <c r="AFZ2" s="0"/>
+      <c r="AGA2" s="0"/>
+      <c r="AGB2" s="0"/>
+      <c r="AGC2" s="0"/>
+      <c r="AGD2" s="0"/>
+      <c r="AGE2" s="0"/>
+      <c r="AGF2" s="0"/>
+      <c r="AGG2" s="0"/>
+      <c r="AGH2" s="0"/>
+      <c r="AGI2" s="0"/>
+      <c r="AGJ2" s="0"/>
+      <c r="AGK2" s="0"/>
+      <c r="AGL2" s="0"/>
+      <c r="AGM2" s="0"/>
+      <c r="AGN2" s="0"/>
+      <c r="AGO2" s="0"/>
+      <c r="AGP2" s="0"/>
+      <c r="AGQ2" s="0"/>
+      <c r="AGR2" s="0"/>
+      <c r="AGS2" s="0"/>
+      <c r="AGT2" s="0"/>
+      <c r="AGU2" s="0"/>
+      <c r="AGV2" s="0"/>
+      <c r="AGW2" s="0"/>
+      <c r="AGX2" s="0"/>
+      <c r="AGY2" s="0"/>
+      <c r="AGZ2" s="0"/>
+      <c r="AHA2" s="0"/>
+      <c r="AHB2" s="0"/>
+      <c r="AHC2" s="0"/>
+      <c r="AHD2" s="0"/>
+      <c r="AHE2" s="0"/>
+      <c r="AHF2" s="0"/>
+      <c r="AHG2" s="0"/>
+      <c r="AHH2" s="0"/>
+      <c r="AHI2" s="0"/>
+      <c r="AHJ2" s="0"/>
+      <c r="AHK2" s="0"/>
+      <c r="AHL2" s="0"/>
+      <c r="AHM2" s="0"/>
+      <c r="AHN2" s="0"/>
+      <c r="AHO2" s="0"/>
+      <c r="AHP2" s="0"/>
+      <c r="AHQ2" s="0"/>
+      <c r="AHR2" s="0"/>
+      <c r="AHS2" s="0"/>
+      <c r="AHT2" s="0"/>
+      <c r="AHU2" s="0"/>
+      <c r="AHV2" s="0"/>
+      <c r="AHW2" s="0"/>
+      <c r="AHX2" s="0"/>
+      <c r="AHY2" s="0"/>
+      <c r="AHZ2" s="0"/>
+      <c r="AIA2" s="0"/>
+      <c r="AIB2" s="0"/>
+      <c r="AIC2" s="0"/>
+      <c r="AID2" s="0"/>
+      <c r="AIE2" s="0"/>
+      <c r="AIF2" s="0"/>
+      <c r="AIG2" s="0"/>
+      <c r="AIH2" s="0"/>
+      <c r="AII2" s="0"/>
+      <c r="AIJ2" s="0"/>
+      <c r="AIK2" s="0"/>
+      <c r="AIL2" s="0"/>
+      <c r="AIM2" s="0"/>
+      <c r="AIN2" s="0"/>
+      <c r="AIO2" s="0"/>
+      <c r="AIP2" s="0"/>
+      <c r="AIQ2" s="0"/>
+      <c r="AIR2" s="0"/>
+      <c r="AIS2" s="0"/>
+      <c r="AIT2" s="0"/>
+      <c r="AIU2" s="0"/>
+      <c r="AIV2" s="0"/>
+      <c r="AIW2" s="0"/>
+      <c r="AIX2" s="0"/>
+      <c r="AIY2" s="0"/>
+      <c r="AIZ2" s="0"/>
+      <c r="AJA2" s="0"/>
+      <c r="AJB2" s="0"/>
+      <c r="AJC2" s="0"/>
+      <c r="AJD2" s="0"/>
+      <c r="AJE2" s="0"/>
+      <c r="AJF2" s="0"/>
+      <c r="AJG2" s="0"/>
+      <c r="AJH2" s="0"/>
+      <c r="AJI2" s="0"/>
+      <c r="AJJ2" s="0"/>
+      <c r="AJK2" s="0"/>
+      <c r="AJL2" s="0"/>
+      <c r="AJM2" s="0"/>
+      <c r="AJN2" s="0"/>
+      <c r="AJO2" s="0"/>
+      <c r="AJP2" s="0"/>
+      <c r="AJQ2" s="0"/>
+      <c r="AJR2" s="0"/>
+      <c r="AJS2" s="0"/>
+      <c r="AJT2" s="0"/>
+      <c r="AJU2" s="0"/>
+      <c r="AJV2" s="0"/>
+      <c r="AJW2" s="0"/>
+      <c r="AJX2" s="0"/>
+      <c r="AJY2" s="0"/>
+      <c r="AJZ2" s="0"/>
+      <c r="AKA2" s="0"/>
+      <c r="AKB2" s="0"/>
+      <c r="AKC2" s="0"/>
+      <c r="AKD2" s="0"/>
+      <c r="AKE2" s="0"/>
+      <c r="AKF2" s="0"/>
+      <c r="AKG2" s="0"/>
+      <c r="AKH2" s="0"/>
+      <c r="AKI2" s="0"/>
+      <c r="AKJ2" s="0"/>
+      <c r="AKK2" s="0"/>
+      <c r="AKL2" s="0"/>
+      <c r="AKM2" s="0"/>
+      <c r="AKN2" s="0"/>
+      <c r="AKO2" s="0"/>
+      <c r="AKP2" s="0"/>
+      <c r="AKQ2" s="0"/>
+      <c r="AKR2" s="0"/>
+      <c r="AKS2" s="0"/>
+      <c r="AKT2" s="0"/>
+      <c r="AKU2" s="0"/>
+      <c r="AKV2" s="0"/>
+      <c r="AKW2" s="0"/>
+      <c r="AKX2" s="0"/>
+      <c r="AKY2" s="0"/>
+      <c r="AKZ2" s="0"/>
+      <c r="ALA2" s="0"/>
+      <c r="ALB2" s="0"/>
+      <c r="ALC2" s="0"/>
+      <c r="ALD2" s="0"/>
+      <c r="ALE2" s="0"/>
+      <c r="ALF2" s="0"/>
+      <c r="ALG2" s="0"/>
+      <c r="ALH2" s="0"/>
+      <c r="ALI2" s="0"/>
+      <c r="ALJ2" s="0"/>
+      <c r="ALK2" s="0"/>
+      <c r="ALL2" s="0"/>
+      <c r="ALM2" s="0"/>
+      <c r="ALN2" s="0"/>
+      <c r="ALO2" s="0"/>
+      <c r="ALP2" s="0"/>
+      <c r="ALQ2" s="0"/>
+      <c r="ALR2" s="0"/>
+      <c r="ALS2" s="0"/>
+      <c r="ALT2" s="0"/>
+      <c r="ALU2" s="0"/>
+      <c r="ALV2" s="0"/>
+      <c r="ALW2" s="0"/>
+      <c r="ALX2" s="0"/>
+      <c r="ALY2" s="0"/>
+      <c r="ALZ2" s="0"/>
+      <c r="AMA2" s="0"/>
+      <c r="AMB2" s="0"/>
+      <c r="AMC2" s="0"/>
+      <c r="AMD2" s="0"/>
+      <c r="AME2" s="0"/>
+    </row>
+    <row r="3" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10" t="s">
+      <c r="R3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AMH2" s="0"/>
-      <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
-    </row>
-    <row r="3" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+      <c r="S3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="T3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="U3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="V3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="W3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="X3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="Y3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="Z3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="AA3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="AB3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="AC3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="AD3" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="X3" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB3" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD3" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="AMH3" s="0"/>
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" s="20" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15" t="n">
+    <row r="4" s="13" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="S4" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19" t="n">
+      <c r="C4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="AD4" s="19" t="s">
-        <v>64</v>
+      <c r="AD4" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="AMH4" s="0"/>
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15" t="n">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="S5" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19" t="n">
+      <c r="C5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="AD5" s="19" t="s">
-        <v>71</v>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD5" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="AE5" s="0"/>
       <c r="AF5" s="0"/>
@@ -2833,59 +3519,59 @@
       <c r="AME5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15" t="n">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="19" t="s">
+      <c r="C6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="M6" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="S6" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19" t="s">
-        <v>80</v>
+      <c r="K6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="AE6" s="0"/>
       <c r="AF6" s="0"/>
@@ -3878,65 +4564,65 @@
       <c r="AME6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15" t="n">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" s="19" t="s">
+      <c r="C7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="S7" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y7" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19" t="n">
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="AD7" s="19" t="s">
-        <v>89</v>
+      <c r="AD7" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="AE7" s="0"/>
       <c r="AF7" s="0"/>
@@ -4928,131 +5614,131 @@
       <c r="AMD7" s="0"/>
       <c r="AME7" s="0"/>
     </row>
-    <row r="8" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15" t="n">
+    <row r="8" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="S8" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y8" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19" t="n">
+      <c r="C8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y8" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="AD8" s="19" t="s">
-        <v>96</v>
+      <c r="AD8" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="AMH8" s="0"/>
       <c r="AMI8" s="0"/>
       <c r="AMJ8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15" t="n">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="S9" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y9" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19" t="n">
+      <c r="C9" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y9" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12" t="n">
         <v>30</v>
       </c>
-      <c r="AD9" s="19" t="s">
-        <v>102</v>
+      <c r="AD9" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="AE9" s="0"/>
       <c r="AF9" s="0"/>
@@ -6045,65 +6731,65 @@
       <c r="AME9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15" t="n">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="S10" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19" t="s">
+      <c r="C10" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="Y10" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19" t="n">
+      <c r="E10" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y10" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12" t="n">
         <v>25</v>
       </c>
-      <c r="AD10" s="19" t="s">
-        <v>108</v>
+      <c r="AD10" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="AE10" s="0"/>
       <c r="AF10" s="0"/>
@@ -7096,59 +7782,59 @@
       <c r="AME10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15" t="n">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19" t="s">
+      <c r="C11" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="S11" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19" t="s">
-        <v>113</v>
+      <c r="E11" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="AE11" s="0"/>
       <c r="AF11" s="0"/>
@@ -8141,59 +8827,59 @@
       <c r="AME11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15" t="n">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="F12" s="19" t="s">
+      <c r="C12" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="M12" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="S12" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19" t="s">
-        <v>80</v>
+      <c r="K12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="AE12" s="0"/>
       <c r="AF12" s="0"/>
@@ -9186,61 +9872,61 @@
       <c r="AME12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15" t="n">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="M13" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="S13" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD13" s="19" t="s">
-        <v>121</v>
+      <c r="C13" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD13" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="AE13" s="0"/>
       <c r="AF13" s="0"/>
@@ -10233,58 +10919,58 @@
       <c r="AME13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15" t="n">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="M14" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="S14" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="25"/>
-      <c r="AD14" s="25"/>
+      <c r="C14" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="S14" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
       <c r="AE14" s="0"/>
       <c r="AF14" s="0"/>
       <c r="AG14" s="0"/>
@@ -11276,60 +11962,62 @@
       <c r="AME14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B15" s="15" t="n">
+      <c r="A15" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="K15" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="L15" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="M15" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="S15" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="26"/>
-      <c r="AD15" s="15"/>
+      <c r="C15" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="AE15" s="0"/>
       <c r="AF15" s="0"/>
       <c r="AG15" s="0"/>
@@ -12321,56 +13009,58 @@
       <c r="AME15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B16" s="15" t="n">
+      <c r="A16" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="K16" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="L16" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="M16" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="26"/>
-      <c r="AC16" s="26"/>
-      <c r="AD16" s="26"/>
+      <c r="C16" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19" t="s">
+        <v>120</v>
+      </c>
       <c r="AE16" s="0"/>
       <c r="AF16" s="0"/>
       <c r="AG16" s="0"/>
@@ -13362,52 +14052,54 @@
       <c r="AME16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="15" t="n">
+      <c r="A17" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="K17" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="L17" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="M17" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="26"/>
-      <c r="AD17" s="26"/>
+      <c r="C17" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="M17" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="19" t="s">
+        <v>126</v>
+      </c>
       <c r="AE17" s="0"/>
       <c r="AF17" s="0"/>
       <c r="AG17" s="0"/>
@@ -14399,52 +15091,54 @@
       <c r="AME17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B18" s="15" t="n">
-        <v>15</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="K18" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="L18" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="M18" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="26"/>
-      <c r="AD18" s="26"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="19" t="s">
+        <v>126</v>
+      </c>
       <c r="AE18" s="0"/>
       <c r="AF18" s="0"/>
       <c r="AG18" s="0"/>
@@ -15436,52 +16130,54 @@
       <c r="AME18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" s="15" t="n">
+      <c r="A19" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="C19" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="K19" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="L19" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="M19" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="26"/>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="26"/>
-      <c r="AC19" s="26"/>
-      <c r="AD19" s="26"/>
+      <c r="C19" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="M19" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19" t="s">
+        <v>126</v>
+      </c>
       <c r="AE19" s="0"/>
       <c r="AF19" s="0"/>
       <c r="AG19" s="0"/>
@@ -16473,52 +17169,54 @@
       <c r="AME19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="15" t="n">
+      <c r="A20" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="8" t="n">
         <v>17</v>
       </c>
-      <c r="C20" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="K20" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="L20" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="M20" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
-      <c r="AA20" s="26"/>
-      <c r="AB20" s="26"/>
-      <c r="AC20" s="26"/>
-      <c r="AD20" s="26"/>
+      <c r="C20" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="M20" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="19" t="s">
+        <v>126</v>
+      </c>
       <c r="AE20" s="0"/>
       <c r="AF20" s="0"/>
       <c r="AG20" s="0"/>
@@ -17510,58 +18208,58 @@
       <c r="AME20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B21" s="15" t="n">
+      <c r="A21" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="8" t="n">
         <v>18</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="M21" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="S21" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC21" s="15"/>
-      <c r="AD21" s="15"/>
+      <c r="C21" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S21" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
       <c r="AE21" s="0"/>
       <c r="AF21" s="0"/>
       <c r="AG21" s="0"/>
@@ -18553,58 +19251,58 @@
       <c r="AME21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="15" t="n">
+      <c r="A22" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="8" t="n">
         <v>19</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="M22" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="S22" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="15"/>
+      <c r="C22" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S22" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="8"/>
       <c r="AE22" s="0"/>
       <c r="AF22" s="0"/>
       <c r="AG22" s="0"/>
@@ -19596,62 +20294,62 @@
       <c r="AME22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" s="15" t="n">
+      <c r="A23" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="K23" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="M23" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="S23" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="15" t="n">
+      <c r="C23" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AA23" s="15" t="n">
+      <c r="AA23" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AB23" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC23" s="26"/>
-      <c r="AD23" s="15"/>
+      <c r="AB23" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC23" s="19"/>
+      <c r="AD23" s="8"/>
       <c r="AE23" s="0"/>
       <c r="AF23" s="0"/>
       <c r="AG23" s="0"/>
@@ -20643,58 +21341,58 @@
       <c r="AME23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B24" s="15" t="n">
+      <c r="A24" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="15"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="15" t="n">
+      <c r="C24" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AA24" s="15" t="n">
+      <c r="AA24" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AB24" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC24" s="26"/>
-      <c r="AD24" s="15"/>
+      <c r="AB24" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC24" s="19"/>
+      <c r="AD24" s="8"/>
       <c r="AE24" s="0"/>
       <c r="AF24" s="0"/>
       <c r="AG24" s="0"/>
@@ -21686,60 +22384,60 @@
       <c r="AME24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B25" s="15" t="n">
+      <c r="A25" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="K25" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="L25" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="M25" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="S25" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="15" t="n">
+      <c r="C25" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="S25" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC25" s="26"/>
-      <c r="AD25" s="15"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC25" s="19"/>
+      <c r="AD25" s="8"/>
       <c r="AE25" s="0"/>
       <c r="AF25" s="0"/>
       <c r="AG25" s="0"/>
@@ -22731,64 +23429,64 @@
       <c r="AME25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B26" s="15" t="n">
+      <c r="A26" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="8" t="n">
         <v>23</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="K26" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="L26" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="M26" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="S26" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="T26" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="U26" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="15" t="n">
+      <c r="C26" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S26" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="T26" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U26" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC26" s="26"/>
-      <c r="AD26" s="15"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC26" s="19"/>
+      <c r="AD26" s="8"/>
       <c r="AE26" s="0"/>
       <c r="AF26" s="0"/>
       <c r="AG26" s="0"/>
@@ -23780,68 +24478,68 @@
       <c r="AME26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B27" s="15" t="n">
+      <c r="A27" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="8" t="n">
         <v>24</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="K27" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="L27" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="M27" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="N27" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="O27" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="S27" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="T27" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="U27" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="15" t="n">
+      <c r="C27" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M27" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S27" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="T27" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="U27" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="AA27" s="26"/>
-      <c r="AB27" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC27" s="26"/>
-      <c r="AD27" s="15"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="8"/>
       <c r="AE27" s="0"/>
       <c r="AF27" s="0"/>
       <c r="AG27" s="0"/>
@@ -24833,64 +25531,64 @@
       <c r="AME27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B28" s="15" t="n">
+      <c r="A28" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="K28" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="L28" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="M28" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="S28" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15"/>
-      <c r="X28" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y28" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z28" s="15" t="n">
+      <c r="C28" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S28" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y28" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z28" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="AA28" s="26"/>
-      <c r="AB28" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC28" s="26"/>
-      <c r="AD28" s="15"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="8"/>
       <c r="AE28" s="0"/>
       <c r="AF28" s="0"/>
       <c r="AG28" s="0"/>
@@ -25881,446 +26579,446 @@
       <c r="AMD28" s="0"/>
       <c r="AME28" s="0"/>
     </row>
-    <row r="29" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B29" s="15" t="n">
+    <row r="29" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="8" t="n">
         <v>26</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15" t="s">
+      <c r="C29" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O29" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="K29" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="L29" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="M29" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="N29" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="O29" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="S29" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="T29" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="U29" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="V29" s="15"/>
-      <c r="W29" s="15"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="15" t="n">
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="S29" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="T29" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="U29" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="AA29" s="26"/>
-      <c r="AB29" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC29" s="26"/>
-      <c r="AD29" s="15"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="8"/>
       <c r="AMH29" s="0"/>
       <c r="AMI29" s="0"/>
       <c r="AMJ29" s="0"/>
     </row>
-    <row r="30" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B30" s="15" t="n">
+    <row r="30" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="8" t="n">
         <v>27</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="K30" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="L30" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="M30" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="S30" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="T30" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="U30" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="V30" s="15"/>
-      <c r="W30" s="15"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="15" t="n">
+      <c r="C30" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S30" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="T30" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="U30" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="AA30" s="26"/>
-      <c r="AB30" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC30" s="26"/>
-      <c r="AD30" s="15"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC30" s="19"/>
+      <c r="AD30" s="8"/>
       <c r="AMH30" s="0"/>
       <c r="AMI30" s="0"/>
       <c r="AMJ30" s="0"/>
     </row>
-    <row r="31" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B31" s="15" t="n">
+    <row r="31" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="8" t="n">
         <v>28</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="K31" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="L31" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="M31" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="S31" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="T31" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="U31" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="29"/>
-      <c r="Y31" s="29"/>
-      <c r="Z31" s="15" t="n">
+      <c r="C31" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="S31" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="T31" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="U31" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="AA31" s="26"/>
-      <c r="AB31" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC31" s="26"/>
-      <c r="AD31" s="15"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC31" s="19"/>
+      <c r="AD31" s="8"/>
       <c r="AMH31" s="0"/>
       <c r="AMI31" s="0"/>
       <c r="AMJ31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B32" s="15" t="n">
+      <c r="A32" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="8" t="n">
         <v>29</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="K32" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="L32" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="M32" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="N32" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="O32" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="S32" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="T32" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="U32" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="V32" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="W32" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="X32" s="29"/>
-      <c r="Y32" s="33"/>
-      <c r="Z32" s="15" t="n">
+      <c r="C32" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S32" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="T32" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U32" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="V32" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="W32" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="AA32" s="26"/>
-      <c r="AB32" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC32" s="26"/>
-      <c r="AD32" s="15"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC32" s="19"/>
+      <c r="AD32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B33" s="15" t="n">
+      <c r="A33" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="K33" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="L33" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="M33" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="S33" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="T33" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="U33" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="V33" s="15"/>
-      <c r="W33" s="15"/>
-      <c r="X33" s="29"/>
-      <c r="Y33" s="29"/>
-      <c r="Z33" s="15" t="n">
+      <c r="C33" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S33" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="T33" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="U33" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="AA33" s="26"/>
-      <c r="AB33" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC33" s="26"/>
-      <c r="AD33" s="15"/>
+      <c r="AA33" s="19"/>
+      <c r="AB33" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC33" s="19"/>
+      <c r="AD33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B34" s="15" t="n">
+      <c r="A34" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="8" t="n">
         <v>31</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="K34" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="L34" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="M34" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="N34" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="O34" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="S34" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="T34" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="U34" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="V34" s="15"/>
-      <c r="W34" s="15"/>
-      <c r="X34" s="29"/>
-      <c r="Y34" s="29"/>
-      <c r="Z34" s="15" t="n">
+      <c r="C34" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="K34" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="S34" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="T34" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="U34" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="AA34" s="26"/>
-      <c r="AB34" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC34" s="26"/>
-      <c r="AD34" s="15"/>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC34" s="19"/>
+      <c r="AD34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B35" s="15" t="n">
+      <c r="A35" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="8" t="n">
         <v>32</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="K35" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="L35" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="M35" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="S35" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="T35" s="15"/>
-      <c r="U35" s="15"/>
-      <c r="V35" s="15"/>
-      <c r="W35" s="15"/>
-      <c r="X35" s="15"/>
-      <c r="Y35" s="15"/>
-      <c r="Z35" s="15" t="n">
+      <c r="C35" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="S35" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="AA35" s="15"/>
-      <c r="AB35" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC35" s="26"/>
-      <c r="AD35" s="15"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC35" s="19"/>
+      <c r="AD35" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:AD35"/>
@@ -26344,7 +27042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -26362,155 +27060,269 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>181</v>
+      <c r="A1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="8" t="n">
+      <c r="A2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B3" s="8" t="n">
+      <c r="A3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="1" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" s="8" t="n">
+      <c r="A4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B5" s="8" t="n">
+      <c r="A5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B6" s="8" t="n">
+      <c r="A6" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B7" s="8" t="n">
+      <c r="A7" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B8" s="8" t="n">
+      <c r="A8" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B9" s="8" t="n">
+      <c r="A9" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B10" s="8" t="n">
+      <c r="A10" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B11" s="8" t="n">
+      <c r="A11" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B12" s="8" t="n">
+      <c r="A12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B13" s="8" t="n">
+      <c r="A13" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B14" s="8" t="n">
+      <c r="A14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B15" s="8" t="n">
+      <c r="A15" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" s="1" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B16" s="8" t="n">
+      <c r="A16" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B17" s="8" t="n">
+      <c r="A17" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B18" s="8" t="n">
+      <c r="A18" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="1" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B19" s="8" t="n">
+      <c r="A19" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19" s="1" t="n">
         <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="30" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" s="30" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="33" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" s="33" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="33" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" s="33" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="33" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" s="33" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="36" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" s="36" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="38" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -26529,120 +27341,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" s="37" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="40" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" s="40" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="40" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" s="40" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="42" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="40" t="n">
-        <v>6</v>
-      </c>
-      <c r="B5" s="40" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="42" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="43" t="n">
-        <v>7</v>
-      </c>
-      <c r="B6" s="43" t="n">
-        <v>100</v>
-      </c>
-      <c r="C6" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="45" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -26652,179 +27350,179 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="17.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>205</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>206</v>
+      <c r="A1" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="47" t="n">
+      <c r="A2" s="40" t="n">
         <v>12</v>
       </c>
-      <c r="B2" s="47" t="s">
-        <v>207</v>
-      </c>
-      <c r="C2" s="47" t="n">
+      <c r="B2" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="40" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="47" t="n">
+      <c r="A3" s="40" t="n">
         <v>12</v>
       </c>
-      <c r="B3" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="47" t="n">
+      <c r="B3" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="40" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="47" t="n">
+      <c r="A4" s="40" t="n">
         <v>12</v>
       </c>
-      <c r="B4" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="C4" s="47" t="n">
+      <c r="B4" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="40" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="47" t="n">
+      <c r="A5" s="40" t="n">
         <v>13</v>
       </c>
-      <c r="B5" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="C5" s="47" t="n">
+      <c r="B5" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="40" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="47" t="n">
+      <c r="A6" s="40" t="n">
         <v>14</v>
       </c>
-      <c r="B6" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="47" t="n">
+      <c r="B6" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="40" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="47" t="n">
+      <c r="A7" s="40" t="n">
         <v>14</v>
       </c>
-      <c r="B7" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="C7" s="47" t="n">
+      <c r="B7" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="40" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="47" t="n">
+      <c r="A8" s="40" t="n">
         <v>15</v>
       </c>
-      <c r="B8" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="47" t="n">
+      <c r="B8" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="40" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="47" t="n">
+      <c r="A9" s="40" t="n">
         <v>18</v>
       </c>
-      <c r="B9" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="C9" s="47" t="n">
+      <c r="B9" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="40" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="47" t="n">
+      <c r="A10" s="40" t="n">
         <v>18</v>
       </c>
-      <c r="B10" s="47" t="s">
-        <v>207</v>
-      </c>
-      <c r="C10" s="47" t="n">
+      <c r="B10" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="40" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="47" t="n">
+      <c r="A11" s="40" t="n">
         <v>20</v>
       </c>
-      <c r="B11" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="C11" s="47"/>
+      <c r="B11" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="40"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="47" t="n">
+      <c r="A12" s="40" t="n">
         <v>21</v>
       </c>
-      <c r="B12" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="C12" s="47"/>
+      <c r="B12" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="40"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="47" t="n">
+      <c r="A13" s="40" t="n">
         <v>22</v>
       </c>
-      <c r="B13" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="47" t="n">
+      <c r="B13" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="40" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="47" t="n">
+      <c r="A14" s="40" t="n">
         <v>23</v>
       </c>
-      <c r="B14" s="47" t="s">
-        <v>207</v>
-      </c>
-      <c r="C14" s="47" t="n">
+      <c r="B14" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="40" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="47" t="n">
+      <c r="A15" s="40" t="n">
         <v>24</v>
       </c>
-      <c r="B15" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="C15" s="47" t="n">
+      <c r="B15" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" s="40" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="47" t="n">
+      <c r="A16" s="40" t="n">
         <v>25</v>
       </c>
-      <c r="B16" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="C16" s="47" t="n">
+      <c r="B16" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="40" t="n">
         <v>50</v>
       </c>
     </row>

--- a/Projects/PNGRO/Data/Template.xlsx
+++ b/Projects/PNGRO/Data/Template.xlsx
@@ -14,7 +14,7 @@
     <sheet name="retailer_targets" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">SBD_kpis!$A$3:$AD$35</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">SBD_kpis!$A$3:$AC$35</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
@@ -29,12 +29,13 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">SBD_kpis!$A$3:$AC$35</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">SBD_kpis!$A$3:$AD$35</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">SBD_kpis!$A$3:$AC$35</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">SBD_kpis!$A$3:$AC$35</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">SBD_kpis!$A$3:$AD$35</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">SBD_kpis!$A$3:$AC$35</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">SBD_kpis!$A$3:$AD$35</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">SBD_kpis!$A$3:$AC$35</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$3:$AC$35</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -55,25 +56,13 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="9"/>
+            <sz val="11"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Maya Dror:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Product Policy</t>
+          <t xml:space="preserve">For this kpi type, the parameter indicates product policy</t>
         </r>
       </text>
     </comment>
@@ -82,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="212">
   <si>
     <t xml:space="preserve">General Data</t>
   </si>
@@ -421,9 +410,6 @@
     <t xml:space="preserve">Male</t>
   </si>
   <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fairy SRPs implemented at shelf</t>
   </si>
   <si>
@@ -457,10 +443,10 @@
     <t xml:space="preserve">Display Presence</t>
   </si>
   <si>
-    <t xml:space="preserve">display_name</t>
+    <t xml:space="preserve">product_name</t>
   </si>
   <si>
-    <t xml:space="preserve">tbd</t>
+    <t xml:space="preserve">Venus Rack</t>
   </si>
   <si>
     <t xml:space="preserve">share of displays with certain display_name out of all displays</t>
@@ -472,7 +458,13 @@
     <t xml:space="preserve">Display: 2 x Oral Care rack</t>
   </si>
   <si>
+    <t xml:space="preserve">2 x Oral Care rack</t>
+  </si>
+  <si>
     <t xml:space="preserve">Display: Liquid Tabs racks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liquid Tabs racks</t>
   </si>
   <si>
     <t xml:space="preserve">One Dish Display</t>
@@ -490,10 +482,13 @@
     <t xml:space="preserve">P&amp;G</t>
   </si>
   <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">One Dish shelving</t>
   </si>
   <si>
-    <t xml:space="preserve">Pantene Golden River</t>
+    <t xml:space="preserve">Pantene Golden River display</t>
   </si>
   <si>
     <t xml:space="preserve">Blocked Together Vertical</t>
@@ -514,6 +509,9 @@
     <t xml:space="preserve">Codisplay: Venus/Male</t>
   </si>
   <si>
+    <t xml:space="preserve">Shave Care (Male)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Product Presence</t>
   </si>
   <si>
@@ -523,10 +521,16 @@
     <t xml:space="preserve">Venus</t>
   </si>
   <si>
+    <t xml:space="preserve">SHAVE CARE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Codisplay: Fairy HDW w. Fairy ADW/Proper</t>
   </si>
   <si>
     <t xml:space="preserve">MR. Proper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAND DISH, AUTO DISH</t>
   </si>
   <si>
     <t xml:space="preserve">Codisplay: Liquid Tabs w Laundry</t>
@@ -536,6 +540,9 @@
   </si>
   <si>
     <t xml:space="preserve">Co-display: Oral Care with Beauty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beauty</t>
   </si>
   <si>
     <t xml:space="preserve">SHAVE CARE,HAIR CARE,FEM CARE</t>
@@ -556,7 +563,7 @@
     <t xml:space="preserve">Pants</t>
   </si>
   <si>
-    <t xml:space="preserve">CODISPLAY OF PREMIUM &amp; BEEDS WITHIN LENOR FE</t>
+    <t xml:space="preserve">CODISPLAY OF PREMIUM &amp; BEADS WITHIN LENOR FE</t>
   </si>
   <si>
     <t xml:space="preserve">FABRIC ENHANCERS</t>
@@ -566,6 +573,9 @@
   </si>
   <si>
     <t xml:space="preserve">CODISPLAY PLATINUM WITH PADS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEM CARE</t>
   </si>
   <si>
     <t xml:space="preserve">CO-DISPLAY PLATINUM ADW WITH FAIRY</t>
@@ -578,9 +588,6 @@
   </si>
   <si>
     <t xml:space="preserve">CO-DISPLAY GILLETTE BLADES WITH GILLETTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHAVE CARE</t>
   </si>
   <si>
     <t xml:space="preserve">Blades</t>
@@ -670,29 +677,48 @@
     <t xml:space="preserve">Retailer Target</t>
   </si>
   <si>
-    <t xml:space="preserve">AUCHAN</t>
+    <t xml:space="preserve">SELGROS</t>
   </si>
   <si>
     <t xml:space="preserve">PROFI</t>
   </si>
   <si>
-    <t xml:space="preserve">SELGROS</t>
+    <t xml:space="preserve">AUCHAN</t>
   </si>
   <si>
     <t xml:space="preserve">CARREFOUR</t>
   </si>
   <si>
+    <t xml:space="preserve">CARREFOUR M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAUFLAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDL</t>
+  </si>
+  <si>
     <t xml:space="preserve">MEGA IMAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">METRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PENNY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF626468"/>
@@ -779,19 +805,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="9"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Tahoma"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <charset val="177"/>
     </font>
     <font>
       <b val="true"/>
@@ -959,7 +977,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1060,23 +1078,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1207,40 +1233,42 @@
   </sheetPr>
   <dimension ref="1:35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD18" activeCellId="0" sqref="AD18"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="49.8097165991903"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.1052631578947"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.7246963562753"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="50.2388663967611"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="true" max="9" min="7" style="1" width="0"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="31.4939271255061"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="28" min="26" style="1" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="86.7651821862348"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="25.5384615384615"/>
+    <col collapsed="false" hidden="false" max="28" min="26" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="87.5141700404858"/>
     <col collapsed="false" hidden="false" max="1019" min="31" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.57085020242915"/>
   </cols>
@@ -11962,20 +11990,18 @@
       <c r="AME14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
-        <v>112</v>
-      </c>
+      <c r="A15" s="8"/>
       <c r="B15" s="8" t="n">
         <v>12</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>114</v>
-      </c>
       <c r="E15" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>40</v>
@@ -11984,16 +12010,16 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K15" s="20" t="s">
         <v>42</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
@@ -12014,9 +12040,11 @@
       <c r="Z15" s="21"/>
       <c r="AA15" s="21"/>
       <c r="AB15" s="21"/>
-      <c r="AC15" s="19"/>
+      <c r="AC15" s="19" t="n">
+        <v>30</v>
+      </c>
       <c r="AD15" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AE15" s="0"/>
       <c r="AF15" s="0"/>
@@ -13009,14 +13037,12 @@
       <c r="AME15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
-        <v>112</v>
-      </c>
+      <c r="A16" s="8"/>
       <c r="B16" s="8" t="n">
         <v>13</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>56</v>
@@ -13031,7 +13057,7 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K16" s="19" t="s">
         <v>50</v>
@@ -13057,9 +13083,11 @@
       <c r="Z16" s="19"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="19"/>
-      <c r="AC16" s="19"/>
+      <c r="AC16" s="19" t="n">
+        <v>10</v>
+      </c>
       <c r="AD16" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE16" s="0"/>
       <c r="AF16" s="0"/>
@@ -14052,34 +14080,36 @@
       <c r="AME16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
-        <v>112</v>
-      </c>
+      <c r="A17" s="8"/>
       <c r="B17" s="8" t="n">
         <v>14</v>
       </c>
       <c r="C17" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="19" t="s">
         <v>121</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="19" t="s">
-        <v>122</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K17" s="19" t="s">
         <v>50</v>
       </c>
       <c r="L17" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="M17" s="23" t="s">
         <v>124</v>
-      </c>
-      <c r="M17" s="23" t="s">
-        <v>125</v>
       </c>
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
@@ -14096,9 +14126,11 @@
       <c r="Z17" s="19"/>
       <c r="AA17" s="19"/>
       <c r="AB17" s="19"/>
-      <c r="AC17" s="19"/>
+      <c r="AC17" s="19" t="n">
+        <v>2</v>
+      </c>
       <c r="AD17" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AE17" s="0"/>
       <c r="AF17" s="0"/>
@@ -15091,34 +15123,36 @@
       <c r="AME17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
-        <v>112</v>
-      </c>
+      <c r="A18" s="8"/>
       <c r="B18" s="8" t="n">
         <v>15</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
+        <v>126</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>49</v>
+      </c>
       <c r="F18" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K18" s="19" t="s">
         <v>50</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M18" s="23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
@@ -15135,9 +15169,11 @@
       <c r="Z18" s="19"/>
       <c r="AA18" s="19"/>
       <c r="AB18" s="19"/>
-      <c r="AC18" s="19"/>
+      <c r="AC18" s="19" t="n">
+        <v>2</v>
+      </c>
       <c r="AD18" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AE18" s="0"/>
       <c r="AF18" s="0"/>
@@ -16130,34 +16166,36 @@
       <c r="AME18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
-        <v>112</v>
-      </c>
+      <c r="A19" s="8"/>
       <c r="B19" s="8" t="n">
         <v>16</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
+        <v>127</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>93</v>
+      </c>
       <c r="F19" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K19" s="19" t="s">
         <v>50</v>
       </c>
       <c r="L19" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M19" s="23" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
@@ -16174,9 +16212,11 @@
       <c r="Z19" s="19"/>
       <c r="AA19" s="19"/>
       <c r="AB19" s="19"/>
-      <c r="AC19" s="19"/>
+      <c r="AC19" s="19" t="n">
+        <v>2</v>
+      </c>
       <c r="AD19" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AE19" s="0"/>
       <c r="AF19" s="0"/>
@@ -17169,34 +17209,36 @@
       <c r="AME19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
-        <v>112</v>
-      </c>
+      <c r="A20" s="8"/>
       <c r="B20" s="8" t="n">
         <v>17</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
+      <c r="D20" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>74</v>
+      </c>
       <c r="F20" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K20" s="19" t="s">
         <v>50</v>
       </c>
       <c r="L20" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="N20" s="24"/>
       <c r="O20" s="24"/>
@@ -17213,9 +17255,11 @@
       <c r="Z20" s="19"/>
       <c r="AA20" s="19"/>
       <c r="AB20" s="19"/>
-      <c r="AC20" s="19"/>
+      <c r="AC20" s="19" t="n">
+        <v>3</v>
+      </c>
       <c r="AD20" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AE20" s="0"/>
       <c r="AF20" s="0"/>
@@ -18208,25 +18252,27 @@
       <c r="AME20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
-        <v>112</v>
-      </c>
+      <c r="A21" s="8"/>
       <c r="B21" s="8" t="n">
         <v>18</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
+        <v>131</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>49</v>
+      </c>
       <c r="F21" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>58</v>
@@ -18235,7 +18281,7 @@
         <v>76</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
@@ -18245,7 +18291,7 @@
         <v>76</v>
       </c>
       <c r="S21" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T21" s="8"/>
       <c r="U21" s="8"/>
@@ -18256,9 +18302,11 @@
       <c r="Z21" s="8"/>
       <c r="AA21" s="8"/>
       <c r="AB21" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC21" s="8"/>
+        <v>135</v>
+      </c>
+      <c r="AC21" s="25" t="n">
+        <v>100</v>
+      </c>
       <c r="AD21" s="8"/>
       <c r="AE21" s="0"/>
       <c r="AF21" s="0"/>
@@ -19252,16 +19300,20 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="B22" s="8" t="n">
         <v>19</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
+        <v>137</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>49</v>
+      </c>
       <c r="F22" s="19" t="s">
         <v>40</v>
       </c>
@@ -19269,7 +19321,7 @@
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>58</v>
@@ -19278,7 +19330,7 @@
         <v>76</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
@@ -19288,7 +19340,7 @@
         <v>76</v>
       </c>
       <c r="S22" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T22" s="8"/>
       <c r="U22" s="8"/>
@@ -19299,7 +19351,7 @@
       <c r="Z22" s="8"/>
       <c r="AA22" s="8"/>
       <c r="AB22" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC22" s="19"/>
       <c r="AD22" s="8"/>
@@ -20294,25 +20346,27 @@
       <c r="AME22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
-        <v>112</v>
-      </c>
+      <c r="A23" s="8"/>
       <c r="B23" s="8" t="n">
         <v>20</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
+        <v>138</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="F23" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="20" t="s">
         <v>58</v>
@@ -20321,7 +20375,7 @@
         <v>43</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
@@ -20331,7 +20385,7 @@
         <v>76</v>
       </c>
       <c r="S23" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="T23" s="8"/>
       <c r="U23" s="8"/>
@@ -20346,9 +20400,11 @@
         <v>2</v>
       </c>
       <c r="AB23" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC23" s="19"/>
+        <v>135</v>
+      </c>
+      <c r="AC23" s="19" t="n">
+        <v>33</v>
+      </c>
       <c r="AD23" s="8"/>
       <c r="AE23" s="0"/>
       <c r="AF23" s="0"/>
@@ -21341,17 +21397,19 @@
       <c r="AME23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
-        <v>112</v>
-      </c>
+      <c r="A24" s="8"/>
       <c r="B24" s="8" t="n">
         <v>21</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
+        <v>142</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="F24" s="8" t="s">
         <v>40</v>
       </c>
@@ -21359,7 +21417,7 @@
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>58</v>
@@ -21368,7 +21426,7 @@
         <v>76</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
@@ -21389,9 +21447,11 @@
         <v>3</v>
       </c>
       <c r="AB24" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC24" s="19"/>
+        <v>135</v>
+      </c>
+      <c r="AC24" s="19" t="n">
+        <v>90</v>
+      </c>
       <c r="AD24" s="8"/>
       <c r="AE24" s="0"/>
       <c r="AF24" s="0"/>
@@ -22384,25 +22444,27 @@
       <c r="AME24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
-        <v>112</v>
-      </c>
+      <c r="A25" s="8"/>
       <c r="B25" s="8" t="n">
         <v>22</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
+        <v>144</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>145</v>
+      </c>
       <c r="F25" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K25" s="19" t="s">
         <v>50</v>
@@ -22411,7 +22473,7 @@
         <v>68</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
@@ -22421,22 +22483,28 @@
         <v>43</v>
       </c>
       <c r="S25" s="8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="T25" s="8"/>
       <c r="U25" s="8"/>
       <c r="V25" s="8"/>
       <c r="W25" s="8"/>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="22"/>
+      <c r="X25" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y25" s="22" t="s">
+        <v>149</v>
+      </c>
       <c r="Z25" s="8" t="n">
         <v>4</v>
       </c>
       <c r="AA25" s="19"/>
       <c r="AB25" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC25" s="19"/>
+        <v>135</v>
+      </c>
+      <c r="AC25" s="19" t="n">
+        <v>100</v>
+      </c>
       <c r="AD25" s="8"/>
       <c r="AE25" s="0"/>
       <c r="AF25" s="0"/>
@@ -23430,24 +23498,28 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="B26" s="8" t="n">
         <v>23</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
+        <v>150</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>49</v>
+      </c>
       <c r="F26" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K26" s="19" t="s">
         <v>50</v>
@@ -23456,7 +23528,7 @@
         <v>76</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
@@ -23466,24 +23538,28 @@
         <v>76</v>
       </c>
       <c r="S26" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T26" s="8" t="s">
         <v>43</v>
       </c>
       <c r="U26" s="22" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="V26" s="22"/>
       <c r="W26" s="22"/>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="22"/>
+      <c r="X26" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y26" s="22" t="s">
+        <v>152</v>
+      </c>
       <c r="Z26" s="8" t="n">
         <v>4</v>
       </c>
       <c r="AA26" s="19"/>
       <c r="AB26" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC26" s="19"/>
       <c r="AD26" s="8"/>
@@ -24478,25 +24554,27 @@
       <c r="AME26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
-        <v>112</v>
-      </c>
+      <c r="A27" s="8"/>
       <c r="B27" s="8" t="n">
         <v>24</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
+        <v>153</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>74</v>
+      </c>
       <c r="F27" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K27" s="19" t="s">
         <v>50</v>
@@ -24511,7 +24589,7 @@
         <v>70</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
@@ -24529,16 +24607,22 @@
       </c>
       <c r="V27" s="8"/>
       <c r="W27" s="8"/>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="22"/>
+      <c r="X27" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y27" s="22" t="s">
+        <v>77</v>
+      </c>
       <c r="Z27" s="8" t="n">
         <v>4</v>
       </c>
       <c r="AA27" s="19"/>
       <c r="AB27" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC27" s="19"/>
+        <v>135</v>
+      </c>
+      <c r="AC27" s="19" t="n">
+        <v>100</v>
+      </c>
       <c r="AD27" s="8"/>
       <c r="AE27" s="0"/>
       <c r="AF27" s="0"/>
@@ -25531,25 +25615,27 @@
       <c r="AME27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
-        <v>112</v>
-      </c>
+      <c r="A28" s="8"/>
       <c r="B28" s="8" t="n">
         <v>25</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
+        <v>155</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>156</v>
+      </c>
       <c r="F28" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K28" s="19" t="s">
         <v>50</v>
@@ -25558,7 +25644,7 @@
         <v>76</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
@@ -25568,26 +25654,28 @@
         <v>76</v>
       </c>
       <c r="S28" s="8" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="T28" s="8"/>
       <c r="U28" s="8"/>
       <c r="V28" s="8"/>
       <c r="W28" s="8"/>
       <c r="X28" s="8" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Y28" s="8" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="Z28" s="8" t="n">
         <v>4</v>
       </c>
       <c r="AA28" s="19"/>
       <c r="AB28" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC28" s="19"/>
+        <v>135</v>
+      </c>
+      <c r="AC28" s="19" t="n">
+        <v>50</v>
+      </c>
       <c r="AD28" s="8"/>
       <c r="AE28" s="0"/>
       <c r="AF28" s="0"/>
@@ -26579,26 +26667,28 @@
       <c r="AMD28" s="0"/>
       <c r="AME28" s="0"/>
     </row>
-    <row r="29" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
-        <v>112</v>
-      </c>
+    <row r="29" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8"/>
       <c r="B29" s="8" t="n">
         <v>26</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
+        <v>160</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>87</v>
+      </c>
       <c r="F29" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K29" s="19" t="s">
         <v>50</v>
@@ -26613,7 +26703,7 @@
         <v>43</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
@@ -26621,51 +26711,59 @@
         <v>43</v>
       </c>
       <c r="S29" s="8" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="T29" s="8" t="s">
         <v>45</v>
       </c>
       <c r="U29" s="8" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="22"/>
+      <c r="X29" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y29" s="22" t="s">
+        <v>88</v>
+      </c>
       <c r="Z29" s="8" t="n">
         <v>4</v>
       </c>
       <c r="AA29" s="19"/>
       <c r="AB29" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC29" s="19"/>
+        <v>135</v>
+      </c>
+      <c r="AC29" s="19" t="n">
+        <v>100</v>
+      </c>
       <c r="AD29" s="8"/>
       <c r="AMH29" s="0"/>
       <c r="AMI29" s="0"/>
       <c r="AMJ29" s="0"/>
     </row>
-    <row r="30" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
-        <v>112</v>
-      </c>
+    <row r="30" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8"/>
       <c r="B30" s="8" t="n">
         <v>27</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
+      <c r="C30" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>81</v>
+      </c>
       <c r="F30" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K30" s="19" t="s">
         <v>50</v>
@@ -26674,7 +26772,7 @@
         <v>76</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
@@ -26684,51 +26782,59 @@
         <v>76</v>
       </c>
       <c r="S30" s="8" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="T30" s="8" t="s">
         <v>45</v>
       </c>
       <c r="U30" s="8" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="V30" s="8"/>
       <c r="W30" s="8"/>
-      <c r="X30" s="22"/>
-      <c r="Y30" s="22"/>
+      <c r="X30" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y30" s="22" t="s">
+        <v>164</v>
+      </c>
       <c r="Z30" s="8" t="n">
         <v>4</v>
       </c>
       <c r="AA30" s="19"/>
       <c r="AB30" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC30" s="19"/>
+        <v>135</v>
+      </c>
+      <c r="AC30" s="19" t="n">
+        <v>50</v>
+      </c>
       <c r="AD30" s="8"/>
       <c r="AMH30" s="0"/>
       <c r="AMI30" s="0"/>
       <c r="AMJ30" s="0"/>
     </row>
-    <row r="31" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="s">
-        <v>112</v>
-      </c>
+    <row r="31" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8"/>
       <c r="B31" s="8" t="n">
         <v>28</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
+        <v>166</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>66</v>
+      </c>
       <c r="F31" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K31" s="19" t="s">
         <v>50</v>
@@ -26757,41 +26863,49 @@
       </c>
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
-      <c r="X31" s="22"/>
-      <c r="Y31" s="22"/>
+      <c r="X31" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y31" s="22" t="s">
+        <v>167</v>
+      </c>
       <c r="Z31" s="8" t="n">
         <v>4</v>
       </c>
       <c r="AA31" s="19"/>
       <c r="AB31" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC31" s="19"/>
+        <v>135</v>
+      </c>
+      <c r="AC31" s="19" t="n">
+        <v>100</v>
+      </c>
       <c r="AD31" s="8"/>
       <c r="AMH31" s="0"/>
       <c r="AMI31" s="0"/>
       <c r="AMJ31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
-        <v>112</v>
-      </c>
+      <c r="A32" s="8"/>
       <c r="B32" s="8" t="n">
         <v>29</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
+        <v>168</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>49</v>
+      </c>
       <c r="F32" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K32" s="19" t="s">
         <v>50</v>
@@ -26800,7 +26914,7 @@
         <v>76</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="N32" s="8" t="s">
         <v>43</v>
@@ -26814,7 +26928,7 @@
         <v>76</v>
       </c>
       <c r="S32" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T32" s="8" t="s">
         <v>43</v>
@@ -26828,38 +26942,46 @@
       <c r="W32" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="X32" s="22"/>
-      <c r="Y32" s="26"/>
+      <c r="X32" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y32" s="22" t="s">
+        <v>169</v>
+      </c>
       <c r="Z32" s="8" t="n">
         <v>4</v>
       </c>
       <c r="AA32" s="19"/>
       <c r="AB32" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC32" s="19"/>
+        <v>135</v>
+      </c>
+      <c r="AC32" s="19" t="n">
+        <v>50</v>
+      </c>
       <c r="AD32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="s">
-        <v>112</v>
-      </c>
+      <c r="A33" s="8"/>
       <c r="B33" s="8" t="n">
         <v>30</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
+        <v>170</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>93</v>
+      </c>
       <c r="F33" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K33" s="19" t="s">
         <v>50</v>
@@ -26868,7 +26990,7 @@
         <v>76</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
@@ -26888,38 +27010,46 @@
       </c>
       <c r="V33" s="8"/>
       <c r="W33" s="8"/>
-      <c r="X33" s="22"/>
-      <c r="Y33" s="22"/>
+      <c r="X33" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y33" s="22" t="s">
+        <v>158</v>
+      </c>
       <c r="Z33" s="8" t="n">
         <v>4</v>
       </c>
       <c r="AA33" s="19"/>
       <c r="AB33" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC33" s="19"/>
+        <v>135</v>
+      </c>
+      <c r="AC33" s="19" t="n">
+        <v>50</v>
+      </c>
       <c r="AD33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="s">
-        <v>112</v>
-      </c>
+      <c r="A34" s="8"/>
       <c r="B34" s="8" t="n">
         <v>31</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
+        <v>171</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>145</v>
+      </c>
       <c r="F34" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K34" s="19" t="s">
         <v>50</v>
@@ -26928,13 +27058,13 @@
         <v>76</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="N34" s="8" t="s">
         <v>68</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
@@ -26942,40 +27072,48 @@
         <v>68</v>
       </c>
       <c r="S34" s="8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="T34" s="8" t="s">
         <v>110</v>
       </c>
       <c r="U34" s="8" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="V34" s="8"/>
       <c r="W34" s="8"/>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="22"/>
+      <c r="X34" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y34" s="22" t="s">
+        <v>149</v>
+      </c>
       <c r="Z34" s="8" t="n">
         <v>4</v>
       </c>
       <c r="AA34" s="19"/>
       <c r="AB34" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC34" s="19"/>
+        <v>135</v>
+      </c>
+      <c r="AC34" s="19" t="n">
+        <v>50</v>
+      </c>
       <c r="AD34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="s">
-        <v>112</v>
-      </c>
+      <c r="A35" s="8"/>
       <c r="B35" s="8" t="n">
         <v>32</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
+        <v>173</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>156</v>
+      </c>
       <c r="F35" s="8" t="s">
         <v>40</v>
       </c>
@@ -26983,7 +27121,7 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>58</v>
@@ -26992,7 +27130,7 @@
         <v>76</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
@@ -27015,13 +27153,15 @@
       </c>
       <c r="AA35" s="8"/>
       <c r="AB35" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC35" s="19"/>
+        <v>135</v>
+      </c>
+      <c r="AC35" s="19" t="n">
+        <v>1</v>
+      </c>
       <c r="AD35" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AD35"/>
+  <autoFilter ref="A3:AC35"/>
   <mergeCells count="6">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:I1"/>
@@ -27049,8 +27189,8 @@
   </sheetPr>
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27061,15 +27201,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>2</v>
@@ -27077,7 +27217,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1.5</v>
@@ -27085,7 +27225,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>2</v>
@@ -27093,7 +27233,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>2</v>
@@ -27101,7 +27241,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>3</v>
@@ -27109,7 +27249,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>4</v>
@@ -27117,7 +27257,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>5</v>
@@ -27125,7 +27265,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>2</v>
@@ -27133,7 +27273,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>4</v>
@@ -27141,7 +27281,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>6</v>
@@ -27149,7 +27289,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>1</v>
@@ -27157,7 +27297,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>1</v>
@@ -27165,7 +27305,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>0.5</v>
@@ -27173,7 +27313,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>0.25</v>
@@ -27181,7 +27321,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>0.5</v>
@@ -27189,7 +27329,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>1</v>
@@ -27197,7 +27337,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>0.3</v>
@@ -27205,7 +27345,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>0.1</v>
@@ -27229,99 +27369,99 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.1012145748988"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>191</v>
+      <c r="A1" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="n">
+      <c r="A2" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="B2" s="30" t="n">
+      <c r="B2" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="C2" s="31" t="n">
+      <c r="C2" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="32" t="n">
+      <c r="D2" s="34" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="33" t="n">
+      <c r="A3" s="35" t="n">
         <v>4</v>
       </c>
-      <c r="B3" s="33" t="n">
+      <c r="B3" s="35" t="n">
         <v>4</v>
       </c>
-      <c r="C3" s="34" t="n">
+      <c r="C3" s="36" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="35" t="n">
+      <c r="D3" s="37" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33" t="n">
+      <c r="A4" s="35" t="n">
         <v>5</v>
       </c>
-      <c r="B4" s="33" t="n">
+      <c r="B4" s="35" t="n">
         <v>5</v>
       </c>
-      <c r="C4" s="34" t="n">
+      <c r="C4" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="35" t="n">
+      <c r="D4" s="37" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="33" t="n">
+      <c r="A5" s="35" t="n">
         <v>6</v>
       </c>
-      <c r="B5" s="33" t="n">
+      <c r="B5" s="35" t="n">
         <v>6</v>
       </c>
-      <c r="C5" s="34" t="n">
+      <c r="C5" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="35" t="n">
+      <c r="D5" s="37" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="36" t="n">
+      <c r="A6" s="38" t="n">
         <v>7</v>
       </c>
-      <c r="B6" s="36" t="n">
+      <c r="B6" s="38" t="n">
         <v>100</v>
       </c>
-      <c r="C6" s="37" t="n">
+      <c r="C6" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="38" t="n">
+      <c r="D6" s="40" t="n">
         <v>2</v>
       </c>
     </row>
@@ -27341,189 +27481,271 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M24" activeCellId="0" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1983805668016"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>194</v>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="40" t="n">
-        <v>12</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" s="40" t="n">
-        <v>30</v>
+      <c r="A2" s="42" t="n">
+        <v>19</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="42" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="40" t="n">
-        <v>12</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="40" t="n">
-        <v>30</v>
+      <c r="A3" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="40" t="n">
-        <v>12</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="40" t="n">
-        <v>30</v>
+      <c r="A4" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="40" t="n">
-        <v>13</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="C5" s="40" t="n">
-        <v>10</v>
+      <c r="A5" s="42" t="n">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="40" t="n">
-        <v>14</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>198</v>
-      </c>
-      <c r="C6" s="40" t="n">
-        <v>2</v>
+      <c r="A6" s="42" t="n">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="40" t="n">
-        <v>14</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="C7" s="40" t="n">
-        <v>2</v>
+      <c r="A7" s="42" t="n">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="40" t="n">
-        <v>15</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="C8" s="40" t="n">
-        <v>2</v>
+      <c r="A8" s="42" t="n">
+        <v>19</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="40" t="n">
-        <v>18</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="C9" s="40" t="n">
-        <v>1</v>
+      <c r="A9" s="42" t="n">
+        <v>19</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="40" t="n">
-        <v>18</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10" s="40" t="n">
-        <v>1</v>
+      <c r="A10" s="42" t="n">
+        <v>19</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="40" t="n">
-        <v>20</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="C11" s="40"/>
+      <c r="A11" s="42" t="n">
+        <v>19</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="40" t="n">
-        <v>21</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="C12" s="40"/>
+      <c r="A12" s="42" t="n">
+        <v>19</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="40" t="n">
-        <v>22</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="C13" s="40" t="n">
+      <c r="A13" s="42" t="n">
+        <v>19</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" s="0" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="40" t="n">
-        <v>23</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="C14" s="40" t="n">
-        <v>60</v>
+      <c r="A14" s="42" t="n">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="40" t="n">
-        <v>24</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="C15" s="40" t="n">
+      <c r="A15" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="0" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="40" t="n">
-        <v>25</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="C16" s="40" t="n">
-        <v>50</v>
+      <c r="A16" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/PNGRO/Data/Template.xlsx
+++ b/Projects/PNGRO/Data/Template.xlsx
@@ -14,7 +14,7 @@
     <sheet name="retailer_targets" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">SBD_kpis!$A$3:$AC$35</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">SBD_kpis!$A$3:$AD$35</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
@@ -29,13 +29,14 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">SBD_kpis!$A$3:$AD$35</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">SBD_kpis!$A$3:$AC$35</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">SBD_kpis!$A$3:$AD$35</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">SBD_kpis!$A$3:$AC$35</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$3:$AC$35</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">SBD_kpis!$A$3:$AC$35</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">SBD_kpis!$A$3:$AD$35</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">SBD_kpis!$A$3:$AC$35</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">SBD_kpis!$A$3:$AD$35</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">SBD_kpis!$A$3:$AC$35</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$A$3:$AC$35</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">SBD_kpis!$C$3:$AJ$42</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="213">
   <si>
     <t xml:space="preserve">General Data</t>
   </si>
@@ -480,6 +481,9 @@
   </si>
   <si>
     <t xml:space="preserve">P&amp;G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the kpi passes if there is at least one display that has product blocks from both groups adjacent together. Target policy is ignored</t>
   </si>
   <si>
     <t xml:space="preserve">Y</t>
@@ -1234,41 +1238,41 @@
   <dimension ref="1:35"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="Y4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topRight" activeCell="Y1" activeCellId="0" sqref="Y1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C31" activeCellId="0" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="AE23" activeCellId="0" sqref="AE23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.7246963562753"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="50.2388663967611"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.8178137651822"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="50.668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.3198380566802"/>
     <col collapsed="false" hidden="true" max="9" min="7" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="33.2064777327935"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="31.7085020242915"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="17.4615384615385"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="25.5384615384615"/>
-    <col collapsed="false" hidden="false" max="28" min="26" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="87.5141700404858"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="28" min="26" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="88.3724696356275"/>
     <col collapsed="false" hidden="false" max="1019" min="31" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.57085020242915"/>
   </cols>
@@ -18307,7 +18311,9 @@
       <c r="AC21" s="25" t="n">
         <v>100</v>
       </c>
-      <c r="AD21" s="8"/>
+      <c r="AD21" s="8" t="s">
+        <v>136</v>
+      </c>
       <c r="AE21" s="0"/>
       <c r="AF21" s="0"/>
       <c r="AG21" s="0"/>
@@ -19300,13 +19306,13 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B22" s="8" t="n">
         <v>19</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>49</v>
@@ -19354,7 +19360,9 @@
         <v>135</v>
       </c>
       <c r="AC22" s="19"/>
-      <c r="AD22" s="8"/>
+      <c r="AD22" s="8" t="s">
+        <v>136</v>
+      </c>
       <c r="AE22" s="0"/>
       <c r="AF22" s="0"/>
       <c r="AG22" s="0"/>
@@ -20351,7 +20359,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>56</v>
@@ -20366,7 +20374,7 @@
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K23" s="20" t="s">
         <v>58</v>
@@ -20375,7 +20383,7 @@
         <v>43</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
@@ -20385,7 +20393,7 @@
         <v>76</v>
       </c>
       <c r="S23" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="T23" s="8"/>
       <c r="U23" s="8"/>
@@ -21402,7 +21410,7 @@
         <v>21</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>56</v>
@@ -21417,7 +21425,7 @@
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>58</v>
@@ -21426,7 +21434,7 @@
         <v>76</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
@@ -22449,13 +22457,13 @@
         <v>22</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>38</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>121</v>
@@ -22464,7 +22472,7 @@
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K25" s="19" t="s">
         <v>50</v>
@@ -22473,7 +22481,7 @@
         <v>68</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
@@ -22483,7 +22491,7 @@
         <v>43</v>
       </c>
       <c r="S25" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T25" s="8"/>
       <c r="U25" s="8"/>
@@ -22493,7 +22501,7 @@
         <v>76</v>
       </c>
       <c r="Y25" s="22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z25" s="8" t="n">
         <v>4</v>
@@ -23498,13 +23506,13 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B26" s="8" t="n">
         <v>23</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>49</v>
@@ -23519,7 +23527,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K26" s="19" t="s">
         <v>50</v>
@@ -23544,7 +23552,7 @@
         <v>43</v>
       </c>
       <c r="U26" s="22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="V26" s="22"/>
       <c r="W26" s="22"/>
@@ -23552,7 +23560,7 @@
         <v>76</v>
       </c>
       <c r="Y26" s="22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Z26" s="8" t="n">
         <v>4</v>
@@ -24559,7 +24567,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>74</v>
@@ -24574,7 +24582,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K27" s="19" t="s">
         <v>50</v>
@@ -24589,7 +24597,7 @@
         <v>70</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
@@ -25620,13 +25628,13 @@
         <v>25</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>121</v>
@@ -25635,7 +25643,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K28" s="19" t="s">
         <v>50</v>
@@ -25644,7 +25652,7 @@
         <v>76</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
@@ -25654,17 +25662,17 @@
         <v>76</v>
       </c>
       <c r="S28" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="T28" s="8"/>
       <c r="U28" s="8"/>
       <c r="V28" s="8"/>
       <c r="W28" s="8"/>
       <c r="X28" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y28" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Z28" s="8" t="n">
         <v>4</v>
@@ -26673,7 +26681,7 @@
         <v>26</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>87</v>
@@ -26688,7 +26696,7 @@
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K29" s="19" t="s">
         <v>50</v>
@@ -26703,7 +26711,7 @@
         <v>43</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
@@ -26711,13 +26719,13 @@
         <v>43</v>
       </c>
       <c r="S29" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T29" s="8" t="s">
         <v>45</v>
       </c>
       <c r="U29" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
@@ -26742,13 +26750,13 @@
       <c r="AMI29" s="0"/>
       <c r="AMJ29" s="0"/>
     </row>
-    <row r="30" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8"/>
       <c r="B30" s="8" t="n">
         <v>27</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>81</v>
@@ -26763,7 +26771,7 @@
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K30" s="19" t="s">
         <v>50</v>
@@ -26772,7 +26780,7 @@
         <v>76</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
@@ -26782,13 +26790,13 @@
         <v>76</v>
       </c>
       <c r="S30" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="T30" s="8" t="s">
         <v>45</v>
       </c>
       <c r="U30" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V30" s="8"/>
       <c r="W30" s="8"/>
@@ -26796,7 +26804,7 @@
         <v>76</v>
       </c>
       <c r="Y30" s="22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z30" s="8" t="n">
         <v>4</v>
@@ -26809,17 +26817,14 @@
         <v>50</v>
       </c>
       <c r="AD30" s="8"/>
-      <c r="AMH30" s="0"/>
-      <c r="AMI30" s="0"/>
-      <c r="AMJ30" s="0"/>
     </row>
-    <row r="31" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8"/>
       <c r="B31" s="8" t="n">
         <v>28</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D31" s="22" t="s">
         <v>65</v>
@@ -26834,7 +26839,7 @@
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K31" s="19" t="s">
         <v>50</v>
@@ -26867,7 +26872,7 @@
         <v>76</v>
       </c>
       <c r="Y31" s="22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Z31" s="8" t="n">
         <v>4</v>
@@ -26880,9 +26885,6 @@
         <v>100</v>
       </c>
       <c r="AD31" s="8"/>
-      <c r="AMH31" s="0"/>
-      <c r="AMI31" s="0"/>
-      <c r="AMJ31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8"/>
@@ -26890,7 +26892,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D32" s="22" t="s">
         <v>49</v>
@@ -26905,7 +26907,7 @@
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K32" s="19" t="s">
         <v>50</v>
@@ -26914,7 +26916,7 @@
         <v>76</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N32" s="8" t="s">
         <v>43</v>
@@ -26946,7 +26948,7 @@
         <v>76</v>
       </c>
       <c r="Y32" s="22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Z32" s="8" t="n">
         <v>4</v>
@@ -26966,7 +26968,7 @@
         <v>30</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>93</v>
@@ -26981,7 +26983,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K33" s="19" t="s">
         <v>50</v>
@@ -26990,7 +26992,7 @@
         <v>76</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
@@ -27014,7 +27016,7 @@
         <v>76</v>
       </c>
       <c r="Y33" s="22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Z33" s="8" t="n">
         <v>4</v>
@@ -27034,13 +27036,13 @@
         <v>31</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D34" s="22" t="s">
         <v>38</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>121</v>
@@ -27049,7 +27051,7 @@
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K34" s="19" t="s">
         <v>50</v>
@@ -27058,13 +27060,13 @@
         <v>76</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N34" s="8" t="s">
         <v>68</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
@@ -27072,13 +27074,13 @@
         <v>68</v>
       </c>
       <c r="S34" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="T34" s="8" t="s">
         <v>110</v>
       </c>
       <c r="U34" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="V34" s="8"/>
       <c r="W34" s="8"/>
@@ -27086,7 +27088,7 @@
         <v>76</v>
       </c>
       <c r="Y34" s="22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z34" s="8" t="n">
         <v>4</v>
@@ -27106,13 +27108,13 @@
         <v>32</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>40</v>
@@ -27121,7 +27123,7 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>58</v>
@@ -27130,7 +27132,7 @@
         <v>76</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
@@ -27161,7 +27163,7 @@
       <c r="AD35" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AC35"/>
+  <autoFilter ref="A3:AD35"/>
   <mergeCells count="6">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:I1"/>
@@ -27201,15 +27203,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>2</v>
@@ -27217,7 +27219,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1.5</v>
@@ -27225,7 +27227,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>2</v>
@@ -27233,7 +27235,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>2</v>
@@ -27241,7 +27243,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>3</v>
@@ -27249,7 +27251,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>4</v>
@@ -27257,7 +27259,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>5</v>
@@ -27265,7 +27267,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>2</v>
@@ -27273,7 +27275,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>4</v>
@@ -27281,7 +27283,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>6</v>
@@ -27289,7 +27291,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>1</v>
@@ -27297,7 +27299,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>1</v>
@@ -27305,7 +27307,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>0.5</v>
@@ -27313,7 +27315,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>0.25</v>
@@ -27321,7 +27323,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>0.5</v>
@@ -27329,7 +27331,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>1</v>
@@ -27337,7 +27339,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>0.3</v>
@@ -27345,7 +27347,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>0.1</v>
@@ -27375,24 +27377,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="23.8866396761134"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="29" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27490,20 +27492,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2834008097166"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1983805668016"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="41" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27511,7 +27513,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C2" s="42" t="n">
         <v>60</v>
@@ -27522,7 +27524,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>50</v>
@@ -27533,7 +27535,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>60</v>
@@ -27544,7 +27546,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>100</v>
@@ -27555,7 +27557,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>100</v>
@@ -27566,7 +27568,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>100</v>
@@ -27577,7 +27579,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>100</v>
@@ -27588,7 +27590,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>100</v>
@@ -27599,7 +27601,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>100</v>
@@ -27610,7 +27612,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>100</v>
@@ -27621,7 +27623,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>100</v>
@@ -27632,7 +27634,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>100</v>
@@ -27643,7 +27645,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>100</v>
@@ -27654,7 +27656,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>100</v>
@@ -27665,7 +27667,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>100</v>
@@ -27676,7 +27678,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>100</v>
@@ -27687,7 +27689,7 @@
         <v>23</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>100</v>
@@ -27698,7 +27700,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>100</v>
@@ -27709,7 +27711,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>100</v>
@@ -27720,7 +27722,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>100</v>
@@ -27731,7 +27733,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>100</v>
@@ -27742,7 +27744,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>100</v>
